--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -15,7 +15,6 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model1&amp;2'!$L$1:$L$146</definedName>
-    <definedName name="把">myPEPB!$B$380</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model1&amp;2'!I1,0,0,COUNTA('model1&amp;2'!I:I)-1)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model1&amp;2'!A1,0,0,COUNTA('model1&amp;2'!A:A)-1)</definedName>
     <definedName name="资产" localSheetId="0">OFFSET('model1&amp;2'!H1,0,0,COUNTA('model1&amp;2'!H:H)-1)</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="250">
   <si>
     <t>PE</t>
   </si>
@@ -929,6 +928,90 @@
     <t xml:space="preserve">2022/10/27
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2022/11/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/29
+</t>
+  </si>
 </sst>
 </file>
 
@@ -941,7 +1024,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1532,7 +1615,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>1.2300899999999999</c:v>
                 </c:pt>
@@ -1970,6 +2053,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>2.1911298828125001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,7 +2065,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2417,6 +2503,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>378769.61594403378</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,7 +2548,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>1.2300899999999999</c:v>
                 </c:pt>
@@ -2897,6 +2986,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>2.1911298828125001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,7 +2998,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3344,6 +3436,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>86769.61594403378</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3481,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>1.2300899999999999</c:v>
                 </c:pt>
@@ -3824,6 +3919,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>2.1911298828125001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,7 +3931,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4271,6 +4369,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>9.3900003430000005</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10.380000109999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4292,11 +4393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="269211136"/>
-        <c:axId val="269212672"/>
+        <c:axId val="458696960"/>
+        <c:axId val="459091968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="269211136"/>
+        <c:axId val="458696960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4339,7 +4440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269212672"/>
+        <c:crossAx val="459091968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4347,7 +4448,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269212672"/>
+        <c:axId val="459091968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4398,7 +4499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269211136"/>
+        <c:crossAx val="458696960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -63941,14 +64042,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -63969,7 +64070,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -64002,7 +64103,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -64018,7 +64119,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1">
       <c r="A3" s="26">
         <v>40451</v>
       </c>
@@ -64113,7 +64214,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1">
       <c r="A4" s="26">
         <v>40480</v>
       </c>
@@ -64214,7 +64315,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1">
       <c r="A5" s="26">
         <v>40512</v>
       </c>
@@ -64311,7 +64412,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="14.1" customHeight="1">
       <c r="A6" s="26">
         <v>40543</v>
       </c>
@@ -64401,7 +64502,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1">
       <c r="A7" s="26">
         <v>40574</v>
       </c>
@@ -64480,7 +64581,7 @@
         <v>82813.626416639017</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1">
       <c r="A8" s="26">
         <v>40602</v>
       </c>
@@ -64552,7 +64653,7 @@
         <v>1.5781487745665235E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="14.1" customHeight="1">
       <c r="A9" s="26">
         <v>40633</v>
       </c>
@@ -64653,7 +64754,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1">
       <c r="A10" s="26">
         <v>40662</v>
       </c>
@@ -64754,7 +64855,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="14.1" customHeight="1">
       <c r="A11" s="26">
         <v>40694</v>
       </c>
@@ -64855,7 +64956,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="14.1" customHeight="1">
       <c r="A12" s="26">
         <v>40724</v>
       </c>
@@ -64956,7 +65057,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="14.1" customHeight="1">
       <c r="A13" s="26">
         <v>40753</v>
       </c>
@@ -65057,7 +65158,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="14.1" customHeight="1">
       <c r="A14" s="26">
         <v>40786</v>
       </c>
@@ -65154,7 +65255,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="14.1" customHeight="1">
       <c r="A15" s="26">
         <v>40816</v>
       </c>
@@ -65244,7 +65345,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="14.1" customHeight="1">
       <c r="A16" s="26">
         <v>40847</v>
       </c>
@@ -65296,7 +65397,7 @@
         <v>226023.31414810085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="14.1" customHeight="1">
       <c r="A17" s="26">
         <v>40877</v>
       </c>
@@ -65341,7 +65442,7 @@
         <v>0.10832060454600145</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="14.1" customHeight="1">
       <c r="A18" s="26">
         <v>40907</v>
       </c>
@@ -65415,7 +65516,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="26">
         <v>40939</v>
       </c>
@@ -65489,7 +65590,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="26">
         <v>40968</v>
       </c>
@@ -65563,7 +65664,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="26">
         <v>40998</v>
       </c>
@@ -65637,7 +65738,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="26">
         <v>41026</v>
       </c>
@@ -65711,7 +65812,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="26">
         <v>41060</v>
       </c>
@@ -65785,7 +65886,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="26">
         <v>41089</v>
       </c>
@@ -65859,7 +65960,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="26">
         <v>41121</v>
       </c>
@@ -65933,7 +66034,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="26">
         <v>41152</v>
       </c>
@@ -66003,7 +66104,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="26">
         <v>41180</v>
       </c>
@@ -66066,7 +66167,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="26">
         <v>41213</v>
       </c>
@@ -66118,7 +66219,7 @@
         <v>362098.05834678403</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1">
       <c r="A29" s="26">
         <v>41243</v>
       </c>
@@ -66163,7 +66264,7 @@
         <v>9.1316415296595288E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1">
       <c r="A30" s="26">
         <v>41274</v>
       </c>
@@ -66226,7 +66327,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1">
       <c r="A31" s="26">
         <v>41305</v>
       </c>
@@ -66290,7 +66391,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1">
       <c r="A32" s="26">
         <v>41333</v>
       </c>
@@ -66353,7 +66454,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14.1" customHeight="1">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -66416,7 +66517,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14.1" customHeight="1">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -66479,7 +66580,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14.1" customHeight="1">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -66542,7 +66643,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14.1" customHeight="1">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -66605,7 +66706,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="14.1" customHeight="1">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -66668,7 +66769,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="14.1" customHeight="1">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -66731,7 +66832,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14.1" customHeight="1">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -66794,7 +66895,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="14.1" customHeight="1">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -66857,7 +66958,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="14.1" customHeight="1">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -66916,7 +67017,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14.1" customHeight="1">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -66968,7 +67069,7 @@
         <v>507834.42040464858</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14.1" customHeight="1">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -67014,7 +67115,7 @@
         <v>9.8052898274155309E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14.1" customHeight="1">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -67055,7 +67156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14.1" customHeight="1">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -67096,7 +67197,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14.1" customHeight="1">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -67137,7 +67238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14.1" customHeight="1">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -67178,7 +67279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="14.1" customHeight="1">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -67219,7 +67320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -67260,7 +67361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -67301,7 +67402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -67342,7 +67443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -67383,7 +67484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -67424,7 +67525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -67465,7 +67566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -67507,7 +67608,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -67548,7 +67649,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -67589,7 +67690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -67630,7 +67731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -67671,7 +67772,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -67712,7 +67813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -67753,7 +67854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -67794,7 +67895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -67835,7 +67936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -67876,7 +67977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1">
       <c r="A65" s="26">
         <v>42338</v>
       </c>
@@ -67917,7 +68018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1">
       <c r="A66" s="26">
         <v>42369</v>
       </c>
@@ -67958,7 +68059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1">
       <c r="A67" s="26">
         <v>42398</v>
       </c>
@@ -68000,7 +68101,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1">
       <c r="A68" s="26">
         <v>42429</v>
       </c>
@@ -68041,7 +68142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1">
       <c r="A69" s="26">
         <v>42460</v>
       </c>
@@ -68082,7 +68183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1">
       <c r="A70" s="26">
         <v>42489</v>
       </c>
@@ -68123,7 +68224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1">
       <c r="A71" s="26">
         <v>42521</v>
       </c>
@@ -68164,7 +68265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1">
       <c r="A72" s="26">
         <v>42551</v>
       </c>
@@ -68205,7 +68306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1">
       <c r="A73" s="26">
         <v>42580</v>
       </c>
@@ -68246,7 +68347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1">
       <c r="A74" s="26">
         <v>42613</v>
       </c>
@@ -68287,7 +68388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1">
       <c r="A75" s="26">
         <v>42643</v>
       </c>
@@ -68328,7 +68429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1">
       <c r="A76" s="26">
         <v>42674</v>
       </c>
@@ -68369,7 +68470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1">
       <c r="A77" s="26">
         <v>42704</v>
       </c>
@@ -68410,7 +68511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1">
       <c r="A78" s="24">
         <v>42734</v>
       </c>
@@ -68451,7 +68552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1">
       <c r="A79" s="13">
         <v>42761</v>
       </c>
@@ -68493,7 +68594,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1">
       <c r="A80" s="13">
         <v>42794</v>
       </c>
@@ -68534,7 +68635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1">
       <c r="A81" s="13">
         <v>42825</v>
       </c>
@@ -68575,7 +68676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1">
       <c r="A82" s="13">
         <v>42853</v>
       </c>
@@ -68616,7 +68717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1">
       <c r="A83" s="13">
         <v>42886</v>
       </c>
@@ -68657,7 +68758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1">
       <c r="A84" s="13">
         <v>42916</v>
       </c>
@@ -68698,7 +68799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1">
       <c r="A85" s="13">
         <v>42947</v>
       </c>
@@ -68739,7 +68840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1">
       <c r="A86" s="13">
         <v>42978</v>
       </c>
@@ -68780,7 +68881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1">
       <c r="A87" s="13">
         <v>43007</v>
       </c>
@@ -68821,7 +68922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1">
       <c r="A88" s="13">
         <v>43039</v>
       </c>
@@ -68862,7 +68963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1">
       <c r="A89" s="13">
         <v>43069</v>
       </c>
@@ -68903,7 +69004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1">
       <c r="A90" s="13">
         <v>43098</v>
       </c>
@@ -68944,7 +69045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1">
       <c r="A91" s="13">
         <v>43131</v>
       </c>
@@ -68986,7 +69087,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1">
       <c r="A92" s="13">
         <v>43159</v>
       </c>
@@ -69027,7 +69128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1">
       <c r="A93" s="13">
         <v>43189</v>
       </c>
@@ -69068,7 +69169,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1">
       <c r="A94" s="13">
         <v>43217</v>
       </c>
@@ -69109,7 +69210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1">
       <c r="A95" s="13">
         <v>43251</v>
       </c>
@@ -69150,7 +69251,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1">
       <c r="A96" s="13">
         <v>43280</v>
       </c>
@@ -69191,7 +69292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1">
       <c r="A97" s="13">
         <v>43312</v>
       </c>
@@ -69232,7 +69333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1">
       <c r="A98" s="13">
         <v>43343</v>
       </c>
@@ -69273,7 +69374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1">
       <c r="A99" s="13">
         <v>43371</v>
       </c>
@@ -69314,7 +69415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1">
       <c r="A100" s="13">
         <v>43404</v>
       </c>
@@ -69355,7 +69456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1">
       <c r="A101" s="13">
         <v>43434</v>
       </c>
@@ -69396,7 +69497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1">
       <c r="A102" s="13">
         <v>43462</v>
       </c>
@@ -69437,7 +69538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1">
       <c r="A103" s="13">
         <v>43496</v>
       </c>
@@ -69479,7 +69580,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1">
       <c r="A104" s="13">
         <v>43524</v>
       </c>
@@ -69520,7 +69621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1">
       <c r="A105" s="13">
         <v>43553</v>
       </c>
@@ -69561,7 +69662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1">
       <c r="A106" s="13">
         <v>43585</v>
       </c>
@@ -69602,7 +69703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1">
       <c r="A107" s="13">
         <v>43616</v>
       </c>
@@ -69643,7 +69744,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1">
       <c r="A108" s="13">
         <v>43644</v>
       </c>
@@ -69684,7 +69785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1">
       <c r="A109" s="13">
         <v>43677</v>
       </c>
@@ -69725,7 +69826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1">
       <c r="A110" s="13">
         <v>43707</v>
       </c>
@@ -69766,7 +69867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1">
       <c r="A111" s="13">
         <v>43738</v>
       </c>
@@ -69807,7 +69908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1">
       <c r="A112" s="13">
         <v>43769</v>
       </c>
@@ -69848,7 +69949,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1">
       <c r="A113" s="13">
         <v>43798</v>
       </c>
@@ -69889,7 +69990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1">
       <c r="A114" s="13">
         <v>43830</v>
       </c>
@@ -69930,7 +70031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1">
       <c r="A115" s="13">
         <v>43853</v>
       </c>
@@ -69972,7 +70073,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1">
       <c r="A116" s="13">
         <v>43889</v>
       </c>
@@ -70013,7 +70114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1">
       <c r="A117" s="13">
         <v>43921</v>
       </c>
@@ -70054,7 +70155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1">
       <c r="A118" s="13">
         <v>43951</v>
       </c>
@@ -70095,7 +70196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1">
       <c r="A119" s="13">
         <v>43980</v>
       </c>
@@ -70136,7 +70237,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1">
       <c r="A120" s="13">
         <v>44012</v>
       </c>
@@ -70177,7 +70278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1">
       <c r="A121" s="13">
         <v>44043</v>
       </c>
@@ -70218,7 +70319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1">
       <c r="A122" s="13">
         <v>44074</v>
       </c>
@@ -70259,7 +70360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1">
       <c r="A123" s="13">
         <v>44104</v>
       </c>
@@ -70300,7 +70401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1">
       <c r="A124" s="13">
         <v>44134</v>
       </c>
@@ -70341,7 +70442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1">
       <c r="A125" s="13">
         <v>44165</v>
       </c>
@@ -70382,7 +70483,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1">
       <c r="A126" s="13">
         <v>44196</v>
       </c>
@@ -70423,7 +70524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1">
       <c r="A127" s="13">
         <v>44225</v>
       </c>
@@ -70465,7 +70566,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1">
       <c r="A128" s="13">
         <v>44253</v>
       </c>
@@ -70478,7 +70579,7 @@
         <v>2000</v>
       </c>
       <c r="D128" s="16">
-        <f t="shared" ref="D128:D148" si="45">C128/B128</f>
+        <f t="shared" ref="D128:D149" si="45">C128/B128</f>
         <v>610.15232452781834</v>
       </c>
       <c r="E128" s="16">
@@ -70486,7 +70587,7 @@
         <v>158642.23792691118</v>
       </c>
       <c r="F128" s="16">
-        <f t="shared" ref="F128:F148" si="46">E128*B128</f>
+        <f t="shared" ref="F128:F149" si="46">E128*B128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="G128" s="16">
@@ -70494,11 +70595,11 @@
         <v>252000</v>
       </c>
       <c r="H128" s="16">
-        <f t="shared" ref="H128:H148" si="47">F128</f>
+        <f t="shared" ref="H128:H149" si="47">F128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="I128" s="16">
-        <f t="shared" ref="I128:I148" si="48">H128-G128</f>
+        <f t="shared" ref="I128:I149" si="48">H128-G128</f>
         <v>268008.63243348437</v>
       </c>
       <c r="J128" s="31" t="e">
@@ -70506,7 +70607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1">
       <c r="A129" s="13">
         <v>44286</v>
       </c>
@@ -70515,7 +70616,7 @@
         <v>3.1244299999999998</v>
       </c>
       <c r="C129" s="15">
-        <f t="shared" ref="C129:C148" si="49">C128</f>
+        <f t="shared" ref="C129:C149" si="49">C128</f>
         <v>2000</v>
       </c>
       <c r="D129" s="16">
@@ -70523,7 +70624,7 @@
         <v>640.11675729653098</v>
       </c>
       <c r="E129" s="16">
-        <f t="shared" ref="E129:E148" si="50">E128+D129</f>
+        <f t="shared" ref="E129:E149" si="50">E128+D129</f>
         <v>159282.3546842077</v>
       </c>
       <c r="F129" s="16">
@@ -70531,7 +70632,7 @@
         <v>497666.56744597905</v>
       </c>
       <c r="G129" s="16">
-        <f t="shared" ref="G129:G148" si="51">G128+C129</f>
+        <f t="shared" ref="G129:G149" si="51">G128+C129</f>
         <v>254000</v>
       </c>
       <c r="H129" s="16">
@@ -70547,7 +70648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1">
       <c r="A130" s="13">
         <v>44316</v>
       </c>
@@ -70588,7 +70689,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1">
       <c r="A131" s="13">
         <v>44347</v>
       </c>
@@ -70629,7 +70730,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1">
       <c r="A132" s="13">
         <v>44377</v>
       </c>
@@ -70670,7 +70771,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1">
       <c r="A133" s="13">
         <v>44407</v>
       </c>
@@ -70711,7 +70812,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1">
       <c r="A134" s="13">
         <v>44439</v>
       </c>
@@ -70752,7 +70853,7 @@
         <v>13.430000305175781</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1">
       <c r="A135" s="13">
         <v>44469</v>
       </c>
@@ -70793,7 +70894,7 @@
         <v>12.899999618530273</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1">
       <c r="A136" s="13">
         <v>44498</v>
       </c>
@@ -70834,7 +70935,7 @@
         <v>12.840000152587891</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1">
       <c r="A137" s="13">
         <v>44530</v>
       </c>
@@ -70875,7 +70976,7 @@
         <v>12.390000343322754</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1">
       <c r="A138" s="13">
         <v>44561</v>
       </c>
@@ -70916,7 +71017,7 @@
         <v>12.949999809265137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1">
       <c r="A139" s="13">
         <v>44589</v>
       </c>
@@ -70958,7 +71059,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1">
       <c r="A140" s="13">
         <v>44620</v>
       </c>
@@ -70999,7 +71100,7 @@
         <v>12.239999771118164</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1">
       <c r="A141" s="13">
         <v>44651</v>
       </c>
@@ -71040,7 +71141,7 @@
         <v>11.460000040000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1">
       <c r="A142" s="13">
         <v>44680</v>
       </c>
@@ -71081,7 +71182,7 @@
         <v>11.14000034</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1">
       <c r="A143" s="13">
         <v>44712</v>
       </c>
@@ -71122,7 +71223,7 @@
         <v>10.93999958</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1">
       <c r="A144" s="13">
         <v>44742</v>
       </c>
@@ -71163,7 +71264,7 @@
         <v>12.100000380000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.1" customHeight="1">
       <c r="A145" s="13">
         <v>44771</v>
       </c>
@@ -71204,7 +71305,7 @@
         <v>11.239999770000001</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.1" customHeight="1">
       <c r="A146" s="13">
         <v>44804</v>
       </c>
@@ -71245,7 +71346,7 @@
         <v>11.100000380000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="12.75">
       <c r="A147" s="13">
         <v>44834</v>
       </c>
@@ -71286,7 +71387,7 @@
         <v>10.100000380000001</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="13">
         <v>44865</v>
       </c>
@@ -71325,6 +71426,47 @@
       <c r="J148" s="31">
         <f>VLOOKUP(A148,myPEPB!B:C,2)</f>
         <v>9.3900003430000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="12.75">
+      <c r="A149" s="13">
+        <v>44895</v>
+      </c>
+      <c r="B149" s="14">
+        <f>VLOOKUP(A149,[1]CNI_ESG_300!$A:$F,6)</f>
+        <v>2.4362099609375001</v>
+      </c>
+      <c r="C149" s="15">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="D149" s="16">
+        <f t="shared" si="45"/>
+        <v>820.94730424234933</v>
+      </c>
+      <c r="E149" s="16">
+        <f t="shared" si="50"/>
+        <v>173685.92391523678</v>
+      </c>
+      <c r="F149" s="16">
+        <f t="shared" si="46"/>
+        <v>423135.37791693263</v>
+      </c>
+      <c r="G149" s="16">
+        <f t="shared" si="51"/>
+        <v>294000</v>
+      </c>
+      <c r="H149" s="16">
+        <f t="shared" si="47"/>
+        <v>423135.37791693263</v>
+      </c>
+      <c r="I149" s="16">
+        <f t="shared" si="48"/>
+        <v>129135.37791693263</v>
+      </c>
+      <c r="J149" s="31">
+        <f>VLOOKUP(A149,myPEPB!B:C,2)</f>
+        <v>10.380000109999999</v>
       </c>
     </row>
   </sheetData>
@@ -71340,13 +71482,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
@@ -71354,7 +71496,7 @@
     <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
@@ -71362,7 +71504,7 @@
         <v>399378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -71371,7 +71513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -71386,7 +71528,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>2</v>
@@ -71402,7 +71544,7 @@
         <v>16.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -71418,7 +71560,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -71434,7 +71576,7 @@
         <v>16.142499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -71450,7 +71592,7 @@
         <v>16.127999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -71466,7 +71608,7 @@
         <v>16.133333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -71482,7 +71624,7 @@
         <v>16.185714285714283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -71498,7 +71640,7 @@
         <v>16.223749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -71514,7 +71656,7 @@
         <v>16.258888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -71530,7 +71672,7 @@
         <v>16.283999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -71546,7 +71688,7 @@
         <v>16.318181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -71562,7 +71704,7 @@
         <v>16.330833333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -71578,7 +71720,7 @@
         <v>16.346923076923073</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -71594,7 +71736,7 @@
         <v>16.36785714285714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -71610,7 +71752,7 @@
         <v>16.393333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -71626,7 +71768,7 @@
         <v>16.409374999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -71642,7 +71784,7 @@
         <v>16.282941176470587</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -71658,7 +71800,7 @@
         <v>16.162777777777777</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -71674,7 +71816,7 @@
         <v>16.055263157894736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -71690,7 +71832,7 @@
         <v>15.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -71706,7 +71848,7 @@
         <v>15.879523809523809</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -71722,7 +71864,7 @@
         <v>15.798636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -71738,7 +71880,7 @@
         <v>15.735217391304346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -71754,7 +71896,7 @@
         <v>15.687083333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -71770,7 +71912,7 @@
         <v>15.643199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -71786,7 +71928,7 @@
         <v>15.600384615384611</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -71802,7 +71944,7 @@
         <v>15.561111111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -71818,7 +71960,7 @@
         <v>15.520714285714282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -71834,7 +71976,7 @@
         <v>15.485172413793101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -71850,7 +71992,7 @@
         <v>15.465666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -71866,7 +72008,7 @@
         <v>15.447419354838706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -71882,7 +72024,7 @@
         <v>15.431562499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -71898,7 +72040,7 @@
         <v>15.416060606060602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -71914,7 +72056,7 @@
         <v>15.40205882352941</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -71930,7 +72072,7 @@
         <v>15.389999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -71946,7 +72088,7 @@
         <v>15.375555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -71962,7 +72104,7 @@
         <v>15.359459459459458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -71978,7 +72120,7 @@
         <v>15.346052631578948</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -71994,7 +72136,7 @@
         <v>15.332564102564103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -72010,7 +72152,7 @@
         <v>15.31625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -72026,7 +72168,7 @@
         <v>15.301707317073172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -72042,7 +72184,7 @@
         <v>15.290714285714287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -72058,7 +72200,7 @@
         <v>15.278372093023256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -72074,7 +72216,7 @@
         <v>15.264772727272726</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -72090,7 +72232,7 @@
         <v>15.24688888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -72106,7 +72248,7 @@
         <v>15.229565217391306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -72122,7 +72264,7 @@
         <v>15.211702127659576</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -72138,7 +72280,7 @@
         <v>15.193333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -72154,7 +72296,7 @@
         <v>15.178571428571431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -72170,7 +72312,7 @@
         <v>15.164600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -72186,7 +72328,7 @@
         <v>15.152352941176472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -72202,7 +72344,7 @@
         <v>15.144423076923079</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -72218,7 +72360,7 @@
         <v>15.136981132075473</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -72234,7 +72376,7 @@
         <v>15.127407407407409</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -72250,7 +72392,7 @@
         <v>15.119636363636367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -72266,7 +72408,7 @@
         <v>15.113214285714289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -72282,7 +72424,7 @@
         <v>15.100175438596494</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -72298,7 +72440,7 @@
         <v>15.087413793103451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -72314,7 +72456,7 @@
         <v>15.074576271186444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -72330,7 +72472,7 @@
         <v>15.064500000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -72346,7 +72488,7 @@
         <v>15.051967213114757</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -72362,7 +72504,7 @@
         <v>15.038709677419359</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -72378,7 +72520,7 @@
         <v>15.027777777777782</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -72394,7 +72536,7 @@
         <v>15.018125000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -72410,7 +72552,7 @@
         <v>15.00692307692308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -72426,7 +72568,7 @@
         <v>14.998484848484852</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="17">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -72442,7 +72584,7 @@
         <v>14.98761194029851</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -72458,7 +72600,7 @@
         <v>14.978235294117651</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -72474,7 +72616,7 @@
         <v>14.968405797101452</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -72490,7 +72632,7 @@
         <v>14.959428571428573</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="17">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -72506,7 +72648,7 @@
         <v>14.950985915492957</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -72522,7 +72664,7 @@
         <v>14.940000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -72538,7 +72680,7 @@
         <v>14.922876706580594</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -72554,7 +72696,7 @@
         <v>14.900270264599776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -72570,7 +72712,7 @@
         <v>14.879199990336101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="17">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -72586,7 +72728,7 @@
         <v>14.860526306754664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -72602,7 +72744,7 @@
         <v>14.840389606921704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -72618,7 +72760,7 @@
         <v>14.824743584852953</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="17">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -72634,7 +72776,7 @@
         <v>14.809999993239778</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -72650,7 +72792,7 @@
         <v>15.001624985694885</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="17">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -72666,7 +72808,7 @@
         <v>14.984814804924859</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="17">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -72682,7 +72824,7 @@
         <v>14.967804870140263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="17">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -72698,7 +72840,7 @@
         <v>14.953373491677894</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="17">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -72714,7 +72856,7 @@
         <v>14.941547617231098</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -72730,7 +72872,7 @@
         <v>14.929529410867131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="17">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -72746,7 +72888,7 @@
         <v>14.916395350167919</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="17">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -72762,7 +72904,7 @@
         <v>14.903218397381663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="17">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -72778,7 +72920,7 @@
         <v>14.89056818788702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="17">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -72794,7 +72936,7 @@
         <v>14.874831464103099</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -72810,7 +72952,7 @@
         <v>14.860666674296063</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -72826,7 +72968,7 @@
         <v>14.845494508009692</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -72842,7 +72984,7 @@
         <v>14.827717394206836</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="17">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -72858,7 +73000,7 @@
         <v>14.81225807107905</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="17">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -72874,7 +73016,7 @@
         <v>14.798510649660802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -72890,7 +73032,7 @@
         <v>14.786105273196572</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="17">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -72906,7 +73048,7 @@
         <v>14.771666672627132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="17">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -72922,7 +73064,7 @@
         <v>14.758144336189192</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="17">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -72938,7 +73080,7 @@
         <v>14.744693879497294</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="17">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -72954,7 +73096,7 @@
         <v>14.73141414642334</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -72970,7 +73112,7 @@
         <v>14.710400006103516</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="17">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -72986,7 +73128,7 @@
         <v>14.690099014433304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="17">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -73002,7 +73144,7 @@
         <v>14.670000007853789</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="17">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -73018,7 +73160,7 @@
         <v>14.652135929366917</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="17">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -73034,7 +73176,7 @@
         <v>14.636153850922218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -73050,7 +73192,7 @@
         <v>14.619809529259092</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="17">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -73066,7 +73208,7 @@
         <v>14.60415094915426</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="17">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -73082,7 +73224,7 @@
         <v>14.589626175711089</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -73098,7 +73240,7 @@
         <v>14.57564815485919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="17">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -73114,7 +73256,7 @@
         <v>14.560550468164847</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -73130,7 +73272,7 @@
         <v>14.544818190487948</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="17">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -73146,7 +73288,7 @@
         <v>14.528288297223616</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="17">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -73162,7 +73304,7 @@
         <v>14.512946441173554</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="17">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -73178,7 +73320,7 @@
         <v>14.497876122398715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="17">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -73194,7 +73336,7 @@
         <v>14.483157908121745</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -73210,7 +73352,7 @@
         <v>14.468521754057512</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="17">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -73226,7 +73368,7 @@
         <v>14.455172429249204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="17">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -73242,7 +73384,7 @@
         <v>14.442564113975591</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="17">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -73258,7 +73400,7 @@
         <v>14.428813568050579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="17">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -73274,7 +73416,7 @@
         <v>14.41596639200419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -73290,7 +73432,7 @@
         <v>14.404416669845581</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="17">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -73306,7 +73448,7 @@
         <v>14.393140498705147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -73322,7 +73464,7 @@
         <v>14.381147546299168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="17">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -73338,7 +73480,7 @@
         <v>14.370162604727396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="17">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -73354,7 +73496,7 @@
         <v>14.358870972971763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -73370,7 +73512,7 @@
         <v>14.348080007019043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="17">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -73386,7 +73528,7 @@
         <v>14.336269845508394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="17">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -73402,7 +73544,7 @@
         <v>14.325590551781843</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -73418,7 +73560,7 @@
         <v>14.314687502980233</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="17">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -73434,7 +73576,7 @@
         <v>14.304418605834016</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -73450,7 +73592,7 @@
         <v>14.294615383735071</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="17">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
@@ -73466,7 +73608,7 @@
         <v>14.285267172369339</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="17">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -73482,7 +73624,7 @@
         <v>14.275681818470812</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="17">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -73498,7 +73640,7 @@
         <v>14.26511278138125</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="17">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -73514,7 +73656,7 @@
         <v>14.254029848184159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="17">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -73530,7 +73672,7 @@
         <v>14.243555554142706</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="17">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -73546,7 +73688,7 @@
         <v>14.231397058543038</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="17">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -73562,7 +73704,7 @@
         <v>14.218175182760197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="17">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -73578,7 +73720,7 @@
         <v>14.204855073569478</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="17">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -73594,7 +73736,7 @@
         <v>14.192589929155309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -73610,7 +73752,7 @@
         <v>14.180000003269742</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="17">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -73626,7 +73768,7 @@
         <v>14.167517734284097</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="17">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -73642,7 +73784,7 @@
         <v>14.155000006178735</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="17">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -73658,7 +73800,7 @@
         <v>14.142167836169262</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="17">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -73674,7 +73816,7 @@
         <v>14.130694446828631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="17">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -73690,7 +73832,7 @@
         <v>14.119103449328193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="17">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -73706,7 +73848,7 @@
         <v>14.107602737897064</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="17">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -73722,7 +73864,7 @@
         <v>14.096462585034015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="17">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -73738,7 +73880,7 @@
         <v>14.085608106561612</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="17">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -73754,7 +73896,7 @@
         <v>14.074161073057445</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -73770,7 +73912,7 @@
         <v>14.06380000228882</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="17">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -73786,7 +73928,7 @@
         <v>14.053774837973894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -73802,7 +73944,7 @@
         <v>14.043881583715741</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="17">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -73818,7 +73960,7 @@
         <v>14.034444451674918</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="17">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -73834,7 +73976,7 @@
         <v>14.024870139778436</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="17">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -73850,7 +73992,7 @@
         <v>14.014774203638879</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -73866,7 +74008,7 @@
         <v>14.004743598546739</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="17">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -73882,7 +74024,7 @@
         <v>13.994458609659961</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -73898,7 +74040,7 @@
         <v>13.984620261373401</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="17">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -73914,7 +74056,7 @@
         <v>13.975094349459285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="17">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -73930,7 +74072,7 @@
         <v>13.966375009298327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="17">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -73946,7 +74088,7 @@
         <v>13.957826097144846</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="17">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -73962,7 +74104,7 @@
         <v>13.949876553806259</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="17">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -73978,7 +74120,7 @@
         <v>13.943067496130073</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -73994,7 +74136,7 @@
         <v>13.937378061573682</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="17">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -74010,7 +74152,7 @@
         <v>13.931575767517092</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="17">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -74026,7 +74168,7 @@
         <v>13.926987962148278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="17">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -74042,7 +74184,7 @@
         <v>13.922035940707088</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="17">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -74058,7 +74200,7 @@
         <v>13.916488106364298</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="17">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -74074,7 +74216,7 @@
         <v>13.911597645099349</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="17">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -74090,7 +74232,7 @@
         <v>13.90564706847247</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="17">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -74106,7 +74248,7 @@
         <v>13.899122816386978</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="17">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -74122,7 +74264,7 @@
         <v>13.893197684398919</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="17">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -74138,7 +74280,7 @@
         <v>13.88734105104656</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="17">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -74154,7 +74296,7 @@
         <v>13.882183917253869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="17">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -74170,7 +74312,7 @@
         <v>13.877028577968055</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -74186,7 +74328,7 @@
         <v>13.871875008019536</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="17">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -74202,7 +74344,7 @@
         <v>13.867175149001646</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="17">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -74218,7 +74360,7 @@
         <v>13.861348321893244</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="17">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -74234,7 +74376,7 @@
         <v>13.855921796873297</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="17">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -74250,7 +74392,7 @@
         <v>13.85088889694214</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="17">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -74266,7 +74408,7 @@
         <v>13.845745864783863</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -74282,7 +74424,7 @@
         <v>13.840219789442127</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="17">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -74298,7 +74440,7 @@
         <v>13.834207658194455</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="17">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -74314,7 +74456,7 @@
         <v>13.828423923409504</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="17">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -74330,7 +74472,7 @@
         <v>13.822972981633368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="17">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -74346,7 +74488,7 @@
         <v>13.8169354924848</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="17">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -74362,7 +74504,7 @@
         <v>13.811336909411425</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -74378,7 +74520,7 @@
         <v>13.804734053510302</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="17">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -74394,7 +74536,7 @@
         <v>13.797566147456095</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -74410,7 +74552,7 @@
         <v>13.790736851943167</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="17">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -74426,7 +74568,7 @@
         <v>13.784816762914209</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="17">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -74442,7 +74584,7 @@
         <v>13.778750008344652</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="17">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -74458,7 +74600,7 @@
         <v>13.773316068105748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="17">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -74474,9 +74616,9 @@
         <v>13.767319591758179</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A380" si="3">A196+1</f>
+        <f t="shared" ref="A197:A402" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -74490,7 +74632,7 @@
         <v>13.761333339397725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="17">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -74506,7 +74648,7 @@
         <v>13.754030617889095</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="17">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -74522,7 +74664,7 @@
         <v>13.747208126668399</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="17">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -74538,7 +74680,7 @@
         <v>13.739494955660119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="17">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -74554,7 +74696,7 @@
         <v>13.730954779811841</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -74570,7 +74712,7 @@
         <v>13.723600007057192</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="17">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -74586,7 +74728,7 @@
         <v>13.71641791614134</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="17">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -74602,7 +74744,7 @@
         <v>13.709851492513526</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="17">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -74618,7 +74760,7 @@
         <v>13.703448282439135</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="17">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -74634,7 +74776,7 @@
         <v>13.696911770689722</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="17">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -74650,7 +74792,7 @@
         <v>13.689853664491237</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="17">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -74666,7 +74808,7 @@
         <v>13.683203887939454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -74682,7 +74824,7 @@
         <v>13.676811596967173</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="17">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -74698,7 +74840,7 @@
         <v>13.670528848354634</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="17">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -74714,7 +74856,7 @@
         <v>13.664688996492963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="17">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -74730,7 +74872,7 @@
         <v>13.658809526534309</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="17">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -74746,7 +74888,7 @@
         <v>13.652274882962919</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="17">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -74762,7 +74904,7 @@
         <v>13.646132078710593</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="17">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -74778,7 +74920,7 @@
         <v>13.639014088268013</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="17">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -74794,7 +74936,7 @@
         <v>13.632336452519784</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="17">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -74810,7 +74952,7 @@
         <v>13.625860467955125</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="17">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -74826,7 +74968,7 @@
         <v>13.619953708288666</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="17">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -74842,7 +74984,7 @@
         <v>13.613824889172127</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="17">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -74858,7 +75000,7 @@
         <v>13.607568811698862</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="17">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -74874,7 +75016,7 @@
         <v>13.600821922650008</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="17">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -74890,7 +75032,7 @@
         <v>13.59268182491069</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="17">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -74906,7 +75048,7 @@
         <v>13.583574666969916</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="17">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -74922,7 +75064,7 @@
         <v>13.57405406157816</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="17">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -74938,7 +75080,7 @@
         <v>13.565336330853594</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="17">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -74954,7 +75096,7 @@
         <v>13.556875008305141</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="17">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -74970,7 +75112,7 @@
         <v>13.547066676623785</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="17">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -74986,7 +75128,7 @@
         <v>13.534867266373237</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="17">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -75002,7 +75144,7 @@
         <v>13.524317191807716</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="17">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -75018,7 +75160,7 @@
         <v>13.514824571054174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="17">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -75034,7 +75176,7 @@
         <v>13.505851538167475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="17">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -75050,7 +75192,7 @@
         <v>13.496782618784138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="17">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -75066,7 +75208,7 @@
         <v>13.48792208714438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="17">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -75082,7 +75224,7 @@
         <v>13.479353457458412</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="17">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -75098,7 +75240,7 @@
         <v>13.470600865709663</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="17">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -75114,7 +75256,7 @@
         <v>13.461153854445948</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="17">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -75130,7 +75272,7 @@
         <v>13.451787243278092</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="17">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -75146,7 +75288,7 @@
         <v>13.44245763631505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="17">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -75162,7 +75304,7 @@
         <v>13.434261612533129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="17">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -75178,7 +75320,7 @@
         <v>13.425966395841815</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="17">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -75194,7 +75336,7 @@
         <v>13.418326370677079</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="17">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -75210,7 +75352,7 @@
         <v>13.410666677148033</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="17">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -75226,7 +75368,7 @@
         <v>13.402614119429694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="17">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -75242,7 +75384,7 @@
         <v>13.394876043452594</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="17">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -75258,7 +75400,7 @@
         <v>13.386090546273291</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="17">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -75274,7 +75416,7 @@
         <v>13.378114763626201</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="17">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -75290,7 +75432,7 @@
         <v>13.369918376368783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="17">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -75306,7 +75448,7 @@
         <v>13.36247968362685</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="17">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -75322,7 +75464,7 @@
         <v>13.35497976680602</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -75338,7 +75480,7 @@
         <v>13.347137105840721</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="17">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -75354,7 +75496,7 @@
         <v>13.339236957280884</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="17">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -75370,7 +75512,7 @@
         <v>13.330800007620704</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="17">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -75386,7 +75528,7 @@
         <v>13.321633472661942</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="17">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -75402,7 +75544,7 @@
         <v>13.312817468331813</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="17">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -75418,7 +75560,7 @@
         <v>13.30209487115054</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="17">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -75434,7 +75576,7 @@
         <v>13.291377961908633</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -75450,7 +75592,7 @@
         <v>13.28168628242987</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="17">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -75466,7 +75608,7 @@
         <v>13.272617195538141</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="17">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -75482,7 +75624,7 @@
         <v>13.264319075477681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="17">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -75498,7 +75640,7 @@
         <v>13.254728691309163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="17">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -75514,7 +75656,7 @@
         <v>13.244247113196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="17">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -75530,7 +75672,7 @@
         <v>13.233576933029861</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="17">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -75546,7 +75688,7 @@
         <v>13.223256714742391</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="17">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -75562,7 +75704,7 @@
         <v>13.213282451174672</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="17">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -75578,7 +75720,7 @@
         <v>13.203193926341308</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="17">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -75594,7 +75736,7 @@
         <v>13.193560615446076</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="17">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -75610,7 +75752,7 @@
         <v>13.183735858972694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="17">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -75626,7 +75768,7 @@
         <v>13.174323319314903</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="17">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -75642,7 +75784,7 @@
         <v>13.164756564897994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="17">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -75658,7 +75800,7 @@
         <v>13.155298518424493</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="17">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -75674,7 +75816,7 @@
         <v>13.146654286013993</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="17">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -75690,7 +75832,7 @@
         <v>13.137814826547274</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="17">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -75706,7 +75848,7 @@
         <v>13.128339493940089</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="17">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -75722,7 +75864,7 @@
         <v>13.119154422675603</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="17">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -75738,7 +75880,7 @@
         <v>13.110183161347122</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="17">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -75754,7 +75896,7 @@
         <v>13.101459866123227</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="17">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -75770,7 +75912,7 @@
         <v>13.09301819290096</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="17">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -75786,7 +75928,7 @@
         <v>13.085217400825231</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="17">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -75802,7 +75944,7 @@
         <v>13.077328527970266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="17">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -75818,7 +75960,7 @@
         <v>13.069424468912819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="17">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -75834,7 +75976,7 @@
         <v>13.062007176909548</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="17">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -75850,7 +75992,7 @@
         <v>13.054857152777728</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="17">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -75866,7 +76008,7 @@
         <v>13.048113888355031</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="17">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -75882,7 +76024,7 @@
         <v>13.041170222616184</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="17">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -75898,7 +76040,7 @@
         <v>13.03473499310164</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="17">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -75914,7 +76056,7 @@
         <v>12.999788742756211</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="17">
         <f t="shared" si="3"/>
         <v>285</v>
@@ -75930,7 +76072,7 @@
         <v>12.994526326114961</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="17">
         <f t="shared" si="3"/>
         <v>286</v>
@@ -75946,7 +76088,7 @@
         <v>12.989720289625049</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="17">
         <f t="shared" si="3"/>
         <v>287</v>
@@ -75962,7 +76104,7 @@
         <v>12.984634155270955</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="17">
         <f t="shared" si="3"/>
         <v>288</v>
@@ -75978,7 +76120,7 @@
         <v>12.980173619349875</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="17">
         <f t="shared" si="3"/>
         <v>289</v>
@@ -75994,7 +76136,7 @@
         <v>12.975813157933439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="17">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -76010,7 +76152,7 @@
         <v>12.971413801561255</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="17">
         <f t="shared" si="3"/>
         <v>291</v>
@@ -76026,7 +76168,7 @@
         <v>12.966529218703656</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="17">
         <f t="shared" si="3"/>
         <v>292</v>
@@ -76042,7 +76184,7 @@
         <v>12.962260283947822</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="17">
         <f t="shared" si="3"/>
         <v>293</v>
@@ -76058,7 +76200,7 @@
         <v>12.958464175060628</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="17">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -76074,7 +76216,7 @@
         <v>12.955068038546816</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="17">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -76090,7 +76232,7 @@
         <v>12.952000011941573</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="17">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -76106,7 +76248,7 @@
         <v>12.948513525685014</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="17">
         <f t="shared" si="3"/>
         <v>297</v>
@@ -76122,7 +76264,7 @@
         <v>12.945656579066547</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="17">
         <f t="shared" si="3"/>
         <v>298</v>
@@ -76138,7 +76280,7 @@
         <v>12.942651020713974</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="17">
         <f t="shared" si="3"/>
         <v>299</v>
@@ -76154,7 +76296,7 @@
         <v>12.94000001268483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -76170,7 +76312,7 @@
         <v>12.937333347109215</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
@@ -76186,7 +76328,7 @@
         <v>12.93398672572347</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="17">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -76202,7 +76344,7 @@
         <v>12.930728490903194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="17">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -76218,7 +76360,7 @@
         <v>12.927425757632886</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="17">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -76234,7 +76376,7 @@
         <v>12.923552646588041</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="17">
         <f t="shared" si="3"/>
         <v>305</v>
@@ -76250,7 +76392,7 @@
         <v>12.919377062894311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="17">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -76266,7 +76408,7 @@
         <v>12.915261451087467</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="17">
         <f t="shared" si="3"/>
         <v>307</v>
@@ -76282,7 +76424,7 @@
         <v>12.911042358054608</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="17">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -76298,7 +76440,7 @@
         <v>12.906168843418069</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="17">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -76314,7 +76456,7 @@
         <v>12.901779948099563</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="17">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -76330,7 +76472,7 @@
         <v>12.897290336105694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="17">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -76346,7 +76488,7 @@
         <v>12.899292619462267</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="17">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -76362,7 +76504,7 @@
         <v>12.89448719318194</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="17">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -76378,7 +76520,7 @@
         <v>12.889712472500847</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="17">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -76394,7 +76536,7 @@
         <v>12.884872623511992</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -76410,7 +76552,7 @@
         <v>12.880317471723064</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="17">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -76426,7 +76568,7 @@
         <v>12.875601278268244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="17">
         <f t="shared" si="3"/>
         <v>317</v>
@@ -76442,7 +76584,7 @@
         <v>12.870914839977177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="17">
         <f t="shared" si="3"/>
         <v>318</v>
@@ -76458,7 +76600,7 @@
         <v>12.86578617623511</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="17">
         <f t="shared" si="3"/>
         <v>319</v>
@@ -76474,7 +76616,7 @@
         <v>12.860815058848795</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="17">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -76490,7 +76632,7 @@
         <v>12.855187511789893</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="17">
         <f t="shared" si="3"/>
         <v>321</v>
@@ -76506,7 +76648,7 @@
         <v>12.849252348201762</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="17">
         <f t="shared" si="3"/>
         <v>322</v>
@@ -76522,7 +76664,7 @@
         <v>12.843633552089335</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="17">
         <f t="shared" si="3"/>
         <v>323</v>
@@ -76538,7 +76680,7 @@
         <v>12.838390103383174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="17">
         <f t="shared" si="3"/>
         <v>324</v>
@@ -76554,7 +76696,7 @@
         <v>12.833148159669031</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="17">
         <f t="shared" si="3"/>
         <v>325</v>
@@ -76570,7 +76712,7 @@
         <v>12.828061550900818</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="17">
         <f t="shared" si="3"/>
         <v>326</v>
@@ -76586,7 +76728,7 @@
         <v>12.82273007421094</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="17">
         <f t="shared" si="3"/>
         <v>327</v>
@@ -76602,7 +76744,7 @@
         <v>12.818012245237815</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="17">
         <f t="shared" si="3"/>
         <v>328</v>
@@ -76618,7 +76760,7 @@
         <v>12.813353671197458</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="17">
         <f t="shared" si="3"/>
         <v>329</v>
@@ -76634,7 +76776,7 @@
         <v>12.808693020920261</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="17">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -76650,7 +76792,7 @@
         <v>12.804000012462927</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="17">
         <f t="shared" si="3"/>
         <v>331</v>
@@ -76666,7 +76808,7 @@
         <v>12.799546839978143</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="17">
         <f t="shared" si="3"/>
         <v>332</v>
@@ -76682,7 +76824,7 @@
         <v>12.794849409044476</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="17">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -76698,7 +76840,7 @@
         <v>12.790090101629927</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="17">
         <f t="shared" si="3"/>
         <v>334</v>
@@ -76714,7 +76856,7 @@
         <v>12.785568872972352</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="17">
         <f t="shared" si="3"/>
         <v>335</v>
@@ -76730,7 +76872,7 @@
         <v>12.780955233859002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="17">
         <f t="shared" si="3"/>
         <v>336</v>
@@ -76746,7 +76888,7 @@
         <v>12.775863104264184</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="17">
         <f t="shared" si="3"/>
         <v>337</v>
@@ -76762,7 +76904,7 @@
         <v>12.77115727778269</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="17">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -76778,7 +76920,7 @@
         <v>12.766360953351381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="17">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -76794,7 +76936,7 @@
         <v>12.76150443104061</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="17">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -76810,7 +76952,7 @@
         <v>12.756558829537548</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="17">
         <f t="shared" si="3"/>
         <v>341</v>
@@ -76826,7 +76968,7 @@
         <v>12.751700886870283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="17">
         <f t="shared" si="3"/>
         <v>342</v>
@@ -76842,7 +76984,7 @@
         <v>12.74526316497885</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="17">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -76858,7 +77000,7 @@
         <v>12.738862981378329</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="17">
         <f t="shared" si="3"/>
         <v>344</v>
@@ -76874,7 +77016,7 @@
         <v>12.732500007595252</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" ht="12.75" customHeight="1">
       <c r="A347" s="17">
         <f t="shared" si="3"/>
         <v>345</v>
@@ -76890,7 +77032,7 @@
         <v>12.726000007573237</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" ht="12.75" customHeight="1">
       <c r="A348" s="17">
         <f t="shared" si="3"/>
         <v>346</v>
@@ -76906,7 +77048,7 @@
         <v>12.719335267666956</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" ht="12.75" customHeight="1">
       <c r="A349" s="17">
         <f t="shared" si="3"/>
         <v>347</v>
@@ -76922,7 +77064,7 @@
         <v>12.712651304359557</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" ht="12.75" customHeight="1">
       <c r="A350" s="17">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -76938,7 +77080,7 @@
         <v>12.705833340841282</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="12.75" customHeight="1">
       <c r="A351" s="17">
         <f t="shared" si="3"/>
         <v>349</v>
@@ -76954,7 +77096,7 @@
         <v>12.699455594878986</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" ht="12.75" customHeight="1">
       <c r="A352" s="17">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -76970,7 +77112,7 @@
         <v>12.692800007465046</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="12.75" customHeight="1">
       <c r="A353" s="17">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -76986,7 +77128,7 @@
         <v>12.686182343626113</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="12.75" customHeight="1">
       <c r="A354" s="17">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -77002,7 +77144,7 @@
         <v>12.67954546304763</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" ht="12.75" customHeight="1">
       <c r="A355" s="17">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -77018,7 +77160,7 @@
         <v>12.672379610801036</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="12.75" customHeight="1">
       <c r="A356" s="17">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -77034,7 +77176,7 @@
         <v>12.66528249283267</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="12.75" customHeight="1">
       <c r="A357" s="17">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -77050,7 +77192,7 @@
         <v>12.658507049838775</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" ht="12.75" customHeight="1">
       <c r="A358" s="17">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -77066,7 +77208,7 @@
         <v>12.65151686172125</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" ht="12.75" customHeight="1">
       <c r="A359" s="17">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -77082,7 +77224,7 @@
         <v>12.645182081548363</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" ht="12.75" customHeight="1">
       <c r="A360" s="17">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -77098,7 +77240,7 @@
         <v>12.638826824030073</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" ht="12.75" customHeight="1">
       <c r="A361" s="17">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -77114,7 +77256,7 @@
         <v>12.63245126290464</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="12.75" customHeight="1">
       <c r="A362" s="17">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -77130,7 +77272,7 @@
         <v>12.625638899146571</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="12.75" customHeight="1">
       <c r="A363" s="17">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -77146,7 +77288,7 @@
         <v>12.618698070866387</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="12.75" customHeight="1">
       <c r="A364" s="17">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -77162,7 +77304,7 @@
         <v>12.611740342438578</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" ht="12.75" customHeight="1">
       <c r="A365" s="17">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -77178,7 +77320,7 @@
         <v>12.604958687555827</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" ht="12.75" customHeight="1">
       <c r="A366" s="17">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -77194,7 +77336,7 @@
         <v>12.598241767672432</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" ht="12.75" customHeight="1">
       <c r="A367" s="17">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -77210,7 +77352,7 @@
         <v>12.591835626473328</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" ht="12.75" customHeight="1">
       <c r="A368" s="17">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -77226,7 +77368,7 @@
         <v>12.585218589461107</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" ht="12.75" customHeight="1">
       <c r="A369" s="17">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -77242,7 +77384,7 @@
         <v>12.57923706834541</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" ht="12.75" customHeight="1">
       <c r="A370" s="17">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -77258,7 +77400,7 @@
         <v>12.573233706447732</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" ht="12.75" customHeight="1">
       <c r="A371" s="17">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -77274,7 +77416,7 @@
         <v>12.567208683882834</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="12.75" customHeight="1">
       <c r="A372" s="17">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -77290,7 +77432,7 @@
         <v>12.560756769358825</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" ht="12.75" customHeight="1">
       <c r="A373" s="17">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -77306,7 +77448,7 @@
         <v>12.554177909845729</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" ht="12.75" customHeight="1">
       <c r="A374" s="17">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -77322,7 +77464,7 @@
         <v>12.547580658421412</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" ht="12.75" customHeight="1">
       <c r="A375" s="17">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -77338,7 +77480,7 @@
         <v>12.540241301213847</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" ht="12.75" customHeight="1">
       <c r="A376" s="17">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -77354,7 +77496,7 @@
         <v>12.532860976165148</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" ht="12.75" customHeight="1">
       <c r="A377" s="17">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -77370,7 +77512,7 @@
         <v>12.525653346692707</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" ht="12.75" customHeight="1">
       <c r="A378" s="17">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -77386,7 +77528,7 @@
         <v>12.518244693565864</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" ht="12.75" customHeight="1">
       <c r="A379" s="17">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -77402,7 +77544,7 @@
         <v>12.51031831436012</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" ht="12.75" customHeight="1">
       <c r="A380" s="17">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -77416,6 +77558,358 @@
       <c r="D380" s="17">
         <f>SUM($C$3:C380)/A380</f>
         <v>12.502063504912076</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A381" s="17">
+        <f t="shared" si="3"/>
+        <v>379</v>
+      </c>
+      <c r="B381" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C381" s="21">
+        <v>9.7100000380000004</v>
+      </c>
+      <c r="D381" s="17">
+        <f>SUM($C$3:C381)/A381</f>
+        <v>12.494696582835791</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A382" s="17">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C382" s="21">
+        <v>9.8100004199999997</v>
+      </c>
+      <c r="D382" s="17">
+        <f>SUM($C$3:C382)/A382</f>
+        <v>12.487631592933591</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A383" s="17">
+        <f t="shared" si="3"/>
+        <v>381</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C383" s="21">
+        <v>9.7399997710000008</v>
+      </c>
+      <c r="D383" s="17">
+        <f>SUM($C$3:C383)/A383</f>
+        <v>12.480419960855023</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A384" s="17">
+        <f t="shared" si="3"/>
+        <v>382</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C384" s="21">
+        <v>10.02000046</v>
+      </c>
+      <c r="D384" s="17">
+        <f>SUM($C$3:C384)/A384</f>
+        <v>12.473979072109332</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A385" s="17">
+        <f t="shared" si="3"/>
+        <v>383</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C385" s="21">
+        <v>10.06000042</v>
+      </c>
+      <c r="D385" s="17">
+        <f>SUM($C$3:C385)/A385</f>
+        <v>12.467676255785285</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A386" s="17">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C386" s="21">
+        <v>9.9899997710000008</v>
+      </c>
+      <c r="D386" s="17">
+        <f>SUM($C$3:C386)/A386</f>
+        <v>12.461223973272823</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A387" s="17">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C387" s="21">
+        <v>9.9200000760000009</v>
+      </c>
+      <c r="D387" s="17">
+        <f>SUM($C$3:C387)/A387</f>
+        <v>12.454623391721466</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A388" s="17">
+        <f t="shared" si="3"/>
+        <v>386</v>
+      </c>
+      <c r="B388" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C388" s="21">
+        <v>9.8800001139999996</v>
+      </c>
+      <c r="D388" s="17">
+        <f>SUM($C$3:C388)/A388</f>
+        <v>12.447953383229958</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A389" s="17">
+        <f t="shared" si="3"/>
+        <v>387</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C389" s="21">
+        <v>10.130000109999999</v>
+      </c>
+      <c r="D389" s="17">
+        <f>SUM($C$3:C389)/A389</f>
+        <v>12.441963839888279</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A390" s="17">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="B390" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C390" s="21">
+        <v>10.15999985</v>
+      </c>
+      <c r="D390" s="17">
+        <f>SUM($C$3:C390)/A390</f>
+        <v>12.436082489398874</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A391" s="17">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="B391" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C391" s="21">
+        <v>10.31000042</v>
+      </c>
+      <c r="D391" s="17">
+        <f>SUM($C$3:C391)/A391</f>
+        <v>12.430616982793735</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A392" s="17">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="B392" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C392" s="21">
+        <v>10.260000229999999</v>
+      </c>
+      <c r="D392" s="17">
+        <f>SUM($C$3:C392)/A392</f>
+        <v>12.425051298812212</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A393" s="17">
+        <f t="shared" si="3"/>
+        <v>391</v>
+      </c>
+      <c r="B393" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C393" s="21">
+        <v>10.19999981</v>
+      </c>
+      <c r="D393" s="17">
+        <f>SUM($C$3:C393)/A393</f>
+        <v>12.41936063004287</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A394" s="17">
+        <f t="shared" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="B394" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C394" s="21">
+        <v>10.18999958</v>
+      </c>
+      <c r="D394" s="17">
+        <f>SUM($C$3:C394)/A394</f>
+        <v>12.413673484507049</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A395" s="17">
+        <f t="shared" si="3"/>
+        <v>393</v>
+      </c>
+      <c r="B395" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C395" s="21">
+        <v>10.119999890000001</v>
+      </c>
+      <c r="D395" s="17">
+        <f>SUM($C$3:C395)/A395</f>
+        <v>12.40783716492815</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A396" s="17">
+        <f t="shared" si="3"/>
+        <v>394</v>
+      </c>
+      <c r="B396" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C396" s="21">
+        <v>10.130000109999999</v>
+      </c>
+      <c r="D396" s="17">
+        <f>SUM($C$3:C396)/A396</f>
+        <v>12.402055852605997</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A397" s="17">
+        <f t="shared" si="3"/>
+        <v>395</v>
+      </c>
+      <c r="B397" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C397" s="21">
+        <v>10.170000079999999</v>
+      </c>
+      <c r="D397" s="17">
+        <f>SUM($C$3:C397)/A397</f>
+        <v>12.396405078498134</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A398" s="17">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+      <c r="B398" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C398" s="21">
+        <v>10.130000109999999</v>
+      </c>
+      <c r="D398" s="17">
+        <f>SUM($C$3:C398)/A398</f>
+        <v>12.390681833628189</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A399" s="17">
+        <f t="shared" si="3"/>
+        <v>397</v>
+      </c>
+      <c r="B399" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C399" s="21">
+        <v>10.19999981</v>
+      </c>
+      <c r="D399" s="17">
+        <f>SUM($C$3:C399)/A399</f>
+        <v>12.385163742888572</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A400" s="17">
+        <f t="shared" si="3"/>
+        <v>398</v>
+      </c>
+      <c r="B400" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C400" s="21">
+        <v>10.100000380000001</v>
+      </c>
+      <c r="D400" s="17">
+        <f>SUM($C$3:C400)/A400</f>
+        <v>12.379422126398902</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A401" s="17">
+        <f t="shared" si="3"/>
+        <v>399</v>
+      </c>
+      <c r="B401" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C401" s="21">
+        <v>10.39000034</v>
+      </c>
+      <c r="D401" s="17">
+        <f>SUM($C$3:C401)/A401</f>
+        <v>12.374436106884119</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A402" s="17">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="B402" s="20">
+        <v>44895</v>
+      </c>
+      <c r="C402" s="21">
+        <v>10.380000109999999</v>
+      </c>
+      <c r="D402" s="17">
+        <f>SUM($C$3:C402)/A402</f>
+        <v>12.369450016891909</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="270">
   <si>
     <t>PE</t>
   </si>
@@ -1012,6 +1012,86 @@
     <t xml:space="preserve">2022/11/29
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2022/12/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/28
+</t>
+  </si>
 </sst>
 </file>
 
@@ -4393,11 +4473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458696960"/>
-        <c:axId val="459091968"/>
+        <c:axId val="532051840"/>
+        <c:axId val="532053376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="458696960"/>
+        <c:axId val="532051840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459091968"/>
+        <c:crossAx val="532053376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4448,7 +4528,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459091968"/>
+        <c:axId val="532053376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,7 +4579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458696960"/>
+        <c:crossAx val="532051840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -71482,9 +71562,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -74618,7 +74698,7 @@
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A402" si="3">A196+1</f>
+        <f t="shared" ref="A197:A424" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -77910,6 +77990,358 @@
       <c r="D402" s="17">
         <f>SUM($C$3:C402)/A402</f>
         <v>12.369450016891909</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="17">
+        <f t="shared" si="3"/>
+        <v>401</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C403" s="21">
+        <v>10.47000027</v>
+      </c>
+      <c r="D403" s="17">
+        <f>SUM($C$3:C403)/A403</f>
+        <v>12.364713234480707</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="17">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C404" s="21">
+        <v>10.420000079999999</v>
+      </c>
+      <c r="D404" s="17">
+        <f>SUM($C$3:C404)/A404</f>
+        <v>12.359875639569063</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="17">
+        <f t="shared" si="3"/>
+        <v>403</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C405" s="21">
+        <v>10.60999966</v>
+      </c>
+      <c r="D405" s="17">
+        <f>SUM($C$3:C405)/A405</f>
+        <v>12.355533515550281</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="17">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="B406" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C406" s="21">
+        <v>10.68000031</v>
+      </c>
+      <c r="D406" s="17">
+        <f>SUM($C$3:C406)/A406</f>
+        <v>12.351386156130602</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="17">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="B407" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C407" s="21">
+        <v>10.649999619999999</v>
+      </c>
+      <c r="D407" s="17">
+        <f>SUM($C$3:C407)/A407</f>
+        <v>12.347185201720402</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="17">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="B408" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C408" s="21">
+        <v>10.65999985</v>
+      </c>
+      <c r="D408" s="17">
+        <f>SUM($C$3:C408)/A408</f>
+        <v>12.343029572775277</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="17">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="B409" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C409" s="21">
+        <v>10.77000046</v>
+      </c>
+      <c r="D409" s="17">
+        <f>SUM($C$3:C409)/A409</f>
+        <v>12.339164636380252</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="17">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="B410" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C410" s="21">
+        <v>10.920000079999999</v>
+      </c>
+      <c r="D410" s="17">
+        <f>SUM($C$3:C410)/A410</f>
+        <v>12.33568629187932</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="17">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="B411" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C411" s="21">
+        <v>10.90999985</v>
+      </c>
+      <c r="D411" s="17">
+        <f>SUM($C$3:C411)/A411</f>
+        <v>12.332200505957854</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="17">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="B412" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C412" s="21">
+        <v>10.93999958</v>
+      </c>
+      <c r="D412" s="17">
+        <f>SUM($C$3:C412)/A412</f>
+        <v>12.328804893943325</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="17">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="B413" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C413" s="21">
+        <v>10.90999985</v>
+      </c>
+      <c r="D413" s="17">
+        <f>SUM($C$3:C413)/A413</f>
+        <v>12.325352813544434</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="17">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="B414" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C414" s="21">
+        <v>10.94999981</v>
+      </c>
+      <c r="D414" s="17">
+        <f>SUM($C$3:C414)/A414</f>
+        <v>12.322014578098939</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="17">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="B415" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C415" s="21">
+        <v>10.77999973</v>
+      </c>
+      <c r="D415" s="17">
+        <f>SUM($C$3:C415)/A415</f>
+        <v>12.31828088597279</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="17">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="B416" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C416" s="21">
+        <v>10.600000380000001</v>
+      </c>
+      <c r="D416" s="17">
+        <f>SUM($C$3:C416)/A416</f>
+        <v>12.314130449968024</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="17">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C417" s="21">
+        <v>10.60999966</v>
+      </c>
+      <c r="D417" s="17">
+        <f>SUM($C$3:C417)/A417</f>
+        <v>12.310024110715089</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="17">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="B418" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C418" s="21">
+        <v>10.64000034</v>
+      </c>
+      <c r="D418" s="17">
+        <f>SUM($C$3:C418)/A418</f>
+        <v>12.306009630497025</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="17">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C419" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D419" s="17">
+        <f>SUM($C$3:C419)/A419</f>
+        <v>12.301990423013818</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="17">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="B420" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C420" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D420" s="17">
+        <f>SUM($C$3:C420)/A420</f>
+        <v>12.297990446188425</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="17">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C421" s="21">
+        <v>10.75</v>
+      </c>
+      <c r="D421" s="17">
+        <f>SUM($C$3:C421)/A421</f>
+        <v>12.294295958250029</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="17">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="B422" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C422" s="21">
+        <v>10.739999770000001</v>
+      </c>
+      <c r="D422" s="17">
+        <f>SUM($C$3:C422)/A422</f>
+        <v>12.290595253039911</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="17">
+        <f t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="B423" s="20">
+        <v>44924</v>
+      </c>
+      <c r="C423" s="21">
+        <v>10.68000031</v>
+      </c>
+      <c r="D423" s="17">
+        <f>SUM($C$3:C423)/A423</f>
+        <v>12.28676961184504</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="17">
+        <f t="shared" si="3"/>
+        <v>422</v>
+      </c>
+      <c r="B424" s="20">
+        <v>44925</v>
+      </c>
+      <c r="C424" s="21">
+        <v>10.72999954</v>
+      </c>
+      <c r="D424" s="17">
+        <f>SUM($C$3:C424)/A424</f>
+        <v>12.283080583238773</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="250">
   <si>
     <t>PE</t>
   </si>
@@ -1012,86 +1012,6 @@
     <t xml:space="preserve">2022/11/29
 </t>
   </si>
-  <si>
-    <t xml:space="preserve">2022/12/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/26
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/27
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/28
-</t>
-  </si>
 </sst>
 </file>
 
@@ -1104,7 +1024,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4473,11 +4393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532051840"/>
-        <c:axId val="532053376"/>
+        <c:axId val="256235392"/>
+        <c:axId val="266031872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="532051840"/>
+        <c:axId val="256235392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4520,7 +4440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532053376"/>
+        <c:crossAx val="266031872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4528,7 +4448,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532053376"/>
+        <c:axId val="266031872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +4499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532051840"/>
+        <c:crossAx val="256235392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -64129,7 +64049,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -64150,7 +64070,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -64183,7 +64103,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1">
+    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -64199,7 +64119,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>40451</v>
       </c>
@@ -64294,7 +64214,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>40480</v>
       </c>
@@ -64395,7 +64315,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>40512</v>
       </c>
@@ -64492,7 +64412,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1">
+    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>40543</v>
       </c>
@@ -64582,7 +64502,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>40574</v>
       </c>
@@ -64661,7 +64581,7 @@
         <v>82813.626416639017</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>40602</v>
       </c>
@@ -64733,7 +64653,7 @@
         <v>1.5781487745665235E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1">
+    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>40633</v>
       </c>
@@ -64834,7 +64754,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>40662</v>
       </c>
@@ -64935,7 +64855,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1">
+    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>40694</v>
       </c>
@@ -65036,7 +64956,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1">
+    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>40724</v>
       </c>
@@ -65137,7 +65057,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1">
+    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>40753</v>
       </c>
@@ -65238,7 +65158,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1">
+    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>40786</v>
       </c>
@@ -65335,7 +65255,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1">
+    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>40816</v>
       </c>
@@ -65425,7 +65345,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1">
+    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>40847</v>
       </c>
@@ -65477,7 +65397,7 @@
         <v>226023.31414810085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1">
+    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>40877</v>
       </c>
@@ -65522,7 +65442,7 @@
         <v>0.10832060454600145</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1">
+    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>40907</v>
       </c>
@@ -65596,7 +65516,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>40939</v>
       </c>
@@ -65670,7 +65590,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1">
+    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>40968</v>
       </c>
@@ -65744,7 +65664,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1">
+    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>40998</v>
       </c>
@@ -65818,7 +65738,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <v>41026</v>
       </c>
@@ -65892,7 +65812,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <v>41060</v>
       </c>
@@ -65966,7 +65886,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <v>41089</v>
       </c>
@@ -66040,7 +65960,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>41121</v>
       </c>
@@ -66114,7 +66034,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <v>41152</v>
       </c>
@@ -66184,7 +66104,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <v>41180</v>
       </c>
@@ -66247,7 +66167,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
         <v>41213</v>
       </c>
@@ -66299,7 +66219,7 @@
         <v>362098.05834678403</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
         <v>41243</v>
       </c>
@@ -66344,7 +66264,7 @@
         <v>9.1316415296595288E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <v>41274</v>
       </c>
@@ -66407,7 +66327,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>41305</v>
       </c>
@@ -66471,7 +66391,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
         <v>41333</v>
       </c>
@@ -66534,7 +66454,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14.1" customHeight="1">
+    <row r="33" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -66597,7 +66517,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14.1" customHeight="1">
+    <row r="34" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -66660,7 +66580,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.1" customHeight="1">
+    <row r="35" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -66723,7 +66643,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14.1" customHeight="1">
+    <row r="36" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -66786,7 +66706,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14.1" customHeight="1">
+    <row r="37" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -66849,7 +66769,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.1" customHeight="1">
+    <row r="38" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -66912,7 +66832,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14.1" customHeight="1">
+    <row r="39" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -66975,7 +66895,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14.1" customHeight="1">
+    <row r="40" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -67038,7 +66958,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14.1" customHeight="1">
+    <row r="41" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -67097,7 +67017,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14.1" customHeight="1">
+    <row r="42" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -67149,7 +67069,7 @@
         <v>507834.42040464858</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14.1" customHeight="1">
+    <row r="43" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -67195,7 +67115,7 @@
         <v>9.8052898274155309E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.1" customHeight="1">
+    <row r="44" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -67236,7 +67156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14.1" customHeight="1">
+    <row r="45" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -67277,7 +67197,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14.1" customHeight="1">
+    <row r="46" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -67318,7 +67238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14.1" customHeight="1">
+    <row r="47" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -67359,7 +67279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14.1" customHeight="1">
+    <row r="48" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -67400,7 +67320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -67441,7 +67361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -67482,7 +67402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -67523,7 +67443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -67564,7 +67484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -67605,7 +67525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -67646,7 +67566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -67688,7 +67608,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -67729,7 +67649,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -67770,7 +67690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -67811,7 +67731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -67852,7 +67772,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -67893,7 +67813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -67934,7 +67854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -67975,7 +67895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -68016,7 +67936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -68057,7 +67977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26">
         <v>42338</v>
       </c>
@@ -68098,7 +68018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26">
         <v>42369</v>
       </c>
@@ -68139,7 +68059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26">
         <v>42398</v>
       </c>
@@ -68181,7 +68101,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26">
         <v>42429</v>
       </c>
@@ -68222,7 +68142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26">
         <v>42460</v>
       </c>
@@ -68263,7 +68183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26">
         <v>42489</v>
       </c>
@@ -68304,7 +68224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26">
         <v>42521</v>
       </c>
@@ -68345,7 +68265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26">
         <v>42551</v>
       </c>
@@ -68386,7 +68306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26">
         <v>42580</v>
       </c>
@@ -68427,7 +68347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26">
         <v>42613</v>
       </c>
@@ -68468,7 +68388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26">
         <v>42643</v>
       </c>
@@ -68509,7 +68429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26">
         <v>42674</v>
       </c>
@@ -68550,7 +68470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="26">
         <v>42704</v>
       </c>
@@ -68591,7 +68511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>42734</v>
       </c>
@@ -68632,7 +68552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>42761</v>
       </c>
@@ -68674,7 +68594,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>42794</v>
       </c>
@@ -68715,7 +68635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>42825</v>
       </c>
@@ -68756,7 +68676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>42853</v>
       </c>
@@ -68797,7 +68717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>42886</v>
       </c>
@@ -68838,7 +68758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>42916</v>
       </c>
@@ -68879,7 +68799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>42947</v>
       </c>
@@ -68920,7 +68840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>42978</v>
       </c>
@@ -68961,7 +68881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>43007</v>
       </c>
@@ -69002,7 +68922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>43039</v>
       </c>
@@ -69043,7 +68963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>43069</v>
       </c>
@@ -69084,7 +69004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>43098</v>
       </c>
@@ -69125,7 +69045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>43131</v>
       </c>
@@ -69167,7 +69087,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>43159</v>
       </c>
@@ -69208,7 +69128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <v>43189</v>
       </c>
@@ -69249,7 +69169,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>43217</v>
       </c>
@@ -69290,7 +69210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <v>43251</v>
       </c>
@@ -69331,7 +69251,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>43280</v>
       </c>
@@ -69372,7 +69292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>43312</v>
       </c>
@@ -69413,7 +69333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>43343</v>
       </c>
@@ -69454,7 +69374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>43371</v>
       </c>
@@ -69495,7 +69415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <v>43404</v>
       </c>
@@ -69536,7 +69456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <v>43434</v>
       </c>
@@ -69577,7 +69497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>43462</v>
       </c>
@@ -69618,7 +69538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
         <v>43496</v>
       </c>
@@ -69660,7 +69580,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <v>43524</v>
       </c>
@@ -69701,7 +69621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <v>43553</v>
       </c>
@@ -69742,7 +69662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <v>43585</v>
       </c>
@@ -69783,7 +69703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <v>43616</v>
       </c>
@@ -69824,7 +69744,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <v>43644</v>
       </c>
@@ -69865,7 +69785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <v>43677</v>
       </c>
@@ -69906,7 +69826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
         <v>43707</v>
       </c>
@@ -69947,7 +69867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <v>43738</v>
       </c>
@@ -69988,7 +69908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
         <v>43769</v>
       </c>
@@ -70029,7 +69949,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
         <v>43798</v>
       </c>
@@ -70070,7 +69990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
         <v>43830</v>
       </c>
@@ -70111,7 +70031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <v>43853</v>
       </c>
@@ -70153,7 +70073,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
         <v>43889</v>
       </c>
@@ -70194,7 +70114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <v>43921</v>
       </c>
@@ -70235,7 +70155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
         <v>43951</v>
       </c>
@@ -70276,7 +70196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
         <v>43980</v>
       </c>
@@ -70317,7 +70237,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
         <v>44012</v>
       </c>
@@ -70358,7 +70278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>44043</v>
       </c>
@@ -70399,7 +70319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
         <v>44074</v>
       </c>
@@ -70440,7 +70360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>44104</v>
       </c>
@@ -70481,7 +70401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>44134</v>
       </c>
@@ -70522,7 +70442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>44165</v>
       </c>
@@ -70563,7 +70483,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
         <v>44196</v>
       </c>
@@ -70604,7 +70524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
         <v>44225</v>
       </c>
@@ -70646,7 +70566,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
         <v>44253</v>
       </c>
@@ -70687,7 +70607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
         <v>44286</v>
       </c>
@@ -70728,7 +70648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
         <v>44316</v>
       </c>
@@ -70769,7 +70689,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
         <v>44347</v>
       </c>
@@ -70810,7 +70730,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
         <v>44377</v>
       </c>
@@ -70851,7 +70771,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
         <v>44407</v>
       </c>
@@ -70892,7 +70812,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13">
         <v>44439</v>
       </c>
@@ -70933,7 +70853,7 @@
         <v>13.430000305175781</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13">
         <v>44469</v>
       </c>
@@ -70974,7 +70894,7 @@
         <v>12.899999618530273</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
         <v>44498</v>
       </c>
@@ -71015,7 +70935,7 @@
         <v>12.840000152587891</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
         <v>44530</v>
       </c>
@@ -71056,7 +70976,7 @@
         <v>12.390000343322754</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
         <v>44561</v>
       </c>
@@ -71097,7 +71017,7 @@
         <v>12.949999809265137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
         <v>44589</v>
       </c>
@@ -71139,7 +71059,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
         <v>44620</v>
       </c>
@@ -71180,7 +71100,7 @@
         <v>12.239999771118164</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
         <v>44651</v>
       </c>
@@ -71221,7 +71141,7 @@
         <v>11.460000040000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
         <v>44680</v>
       </c>
@@ -71262,7 +71182,7 @@
         <v>11.14000034</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
         <v>44712</v>
       </c>
@@ -71303,7 +71223,7 @@
         <v>10.93999958</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>44742</v>
       </c>
@@ -71344,7 +71264,7 @@
         <v>12.100000380000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1">
+    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
         <v>44771</v>
       </c>
@@ -71385,7 +71305,7 @@
         <v>11.239999770000001</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1">
+    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>44804</v>
       </c>
@@ -71426,7 +71346,7 @@
         <v>11.100000380000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75">
+    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
         <v>44834</v>
       </c>
@@ -71467,7 +71387,7 @@
         <v>10.100000380000001</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75">
+    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
         <v>44865</v>
       </c>
@@ -71508,7 +71428,7 @@
         <v>9.3900003430000005</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75">
+    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
         <v>44895</v>
       </c>
@@ -71568,7 +71488,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
@@ -71576,7 +71496,7 @@
     <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
@@ -71584,7 +71504,7 @@
         <v>399378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -71593,7 +71513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -71608,7 +71528,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>2</v>
@@ -71624,7 +71544,7 @@
         <v>16.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -71640,7 +71560,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -71656,7 +71576,7 @@
         <v>16.142499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -71672,7 +71592,7 @@
         <v>16.127999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -71688,7 +71608,7 @@
         <v>16.133333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -71704,7 +71624,7 @@
         <v>16.185714285714283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -71720,7 +71640,7 @@
         <v>16.223749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -71736,7 +71656,7 @@
         <v>16.258888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -71752,7 +71672,7 @@
         <v>16.283999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -71768,7 +71688,7 @@
         <v>16.318181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -71784,7 +71704,7 @@
         <v>16.330833333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -71800,7 +71720,7 @@
         <v>16.346923076923073</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -71816,7 +71736,7 @@
         <v>16.36785714285714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -71832,7 +71752,7 @@
         <v>16.393333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -71848,7 +71768,7 @@
         <v>16.409374999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -71864,7 +71784,7 @@
         <v>16.282941176470587</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -71880,7 +71800,7 @@
         <v>16.162777777777777</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -71896,7 +71816,7 @@
         <v>16.055263157894736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -71912,7 +71832,7 @@
         <v>15.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -71928,7 +71848,7 @@
         <v>15.879523809523809</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -71944,7 +71864,7 @@
         <v>15.798636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -71960,7 +71880,7 @@
         <v>15.735217391304346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -71976,7 +71896,7 @@
         <v>15.687083333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -71992,7 +71912,7 @@
         <v>15.643199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -72008,7 +71928,7 @@
         <v>15.600384615384611</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -72024,7 +71944,7 @@
         <v>15.561111111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -72040,7 +71960,7 @@
         <v>15.520714285714282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -72056,7 +71976,7 @@
         <v>15.485172413793101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -72072,7 +71992,7 @@
         <v>15.465666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -72088,7 +72008,7 @@
         <v>15.447419354838706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -72104,7 +72024,7 @@
         <v>15.431562499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -72120,7 +72040,7 @@
         <v>15.416060606060602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -72136,7 +72056,7 @@
         <v>15.40205882352941</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -72152,7 +72072,7 @@
         <v>15.389999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -72168,7 +72088,7 @@
         <v>15.375555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -72184,7 +72104,7 @@
         <v>15.359459459459458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -72200,7 +72120,7 @@
         <v>15.346052631578948</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -72216,7 +72136,7 @@
         <v>15.332564102564103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -72232,7 +72152,7 @@
         <v>15.31625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -72248,7 +72168,7 @@
         <v>15.301707317073172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -72264,7 +72184,7 @@
         <v>15.290714285714287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -72280,7 +72200,7 @@
         <v>15.278372093023256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -72296,7 +72216,7 @@
         <v>15.264772727272726</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -72312,7 +72232,7 @@
         <v>15.24688888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -72328,7 +72248,7 @@
         <v>15.229565217391306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -72344,7 +72264,7 @@
         <v>15.211702127659576</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -72360,7 +72280,7 @@
         <v>15.193333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -72376,7 +72296,7 @@
         <v>15.178571428571431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -72392,7 +72312,7 @@
         <v>15.164600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -72408,7 +72328,7 @@
         <v>15.152352941176472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -72424,7 +72344,7 @@
         <v>15.144423076923079</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -72440,7 +72360,7 @@
         <v>15.136981132075473</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -72456,7 +72376,7 @@
         <v>15.127407407407409</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -72472,7 +72392,7 @@
         <v>15.119636363636367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -72488,7 +72408,7 @@
         <v>15.113214285714289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -72504,7 +72424,7 @@
         <v>15.100175438596494</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -72520,7 +72440,7 @@
         <v>15.087413793103451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -72536,7 +72456,7 @@
         <v>15.074576271186444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -72552,7 +72472,7 @@
         <v>15.064500000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -72568,7 +72488,7 @@
         <v>15.051967213114757</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -72584,7 +72504,7 @@
         <v>15.038709677419359</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -72600,7 +72520,7 @@
         <v>15.027777777777782</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -72616,7 +72536,7 @@
         <v>15.018125000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -72632,7 +72552,7 @@
         <v>15.00692307692308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -72648,7 +72568,7 @@
         <v>14.998484848484852</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -72664,7 +72584,7 @@
         <v>14.98761194029851</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -72680,7 +72600,7 @@
         <v>14.978235294117651</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -72696,7 +72616,7 @@
         <v>14.968405797101452</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -72712,7 +72632,7 @@
         <v>14.959428571428573</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -72728,7 +72648,7 @@
         <v>14.950985915492957</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -72744,7 +72664,7 @@
         <v>14.940000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -72760,7 +72680,7 @@
         <v>14.922876706580594</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -72776,7 +72696,7 @@
         <v>14.900270264599776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -72792,7 +72712,7 @@
         <v>14.879199990336101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -72808,7 +72728,7 @@
         <v>14.860526306754664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -72824,7 +72744,7 @@
         <v>14.840389606921704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -72840,7 +72760,7 @@
         <v>14.824743584852953</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -72856,7 +72776,7 @@
         <v>14.809999993239778</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -72872,7 +72792,7 @@
         <v>15.001624985694885</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -72888,7 +72808,7 @@
         <v>14.984814804924859</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -72904,7 +72824,7 @@
         <v>14.967804870140263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -72920,7 +72840,7 @@
         <v>14.953373491677894</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -72936,7 +72856,7 @@
         <v>14.941547617231098</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -72952,7 +72872,7 @@
         <v>14.929529410867131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -72968,7 +72888,7 @@
         <v>14.916395350167919</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -72984,7 +72904,7 @@
         <v>14.903218397381663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -73000,7 +72920,7 @@
         <v>14.89056818788702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -73016,7 +72936,7 @@
         <v>14.874831464103099</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -73032,7 +72952,7 @@
         <v>14.860666674296063</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -73048,7 +72968,7 @@
         <v>14.845494508009692</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -73064,7 +72984,7 @@
         <v>14.827717394206836</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -73080,7 +73000,7 @@
         <v>14.81225807107905</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -73096,7 +73016,7 @@
         <v>14.798510649660802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -73112,7 +73032,7 @@
         <v>14.786105273196572</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -73128,7 +73048,7 @@
         <v>14.771666672627132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -73144,7 +73064,7 @@
         <v>14.758144336189192</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -73160,7 +73080,7 @@
         <v>14.744693879497294</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -73176,7 +73096,7 @@
         <v>14.73141414642334</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -73192,7 +73112,7 @@
         <v>14.710400006103516</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -73208,7 +73128,7 @@
         <v>14.690099014433304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -73224,7 +73144,7 @@
         <v>14.670000007853789</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -73240,7 +73160,7 @@
         <v>14.652135929366917</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -73256,7 +73176,7 @@
         <v>14.636153850922218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -73272,7 +73192,7 @@
         <v>14.619809529259092</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -73288,7 +73208,7 @@
         <v>14.60415094915426</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -73304,7 +73224,7 @@
         <v>14.589626175711089</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -73320,7 +73240,7 @@
         <v>14.57564815485919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -73336,7 +73256,7 @@
         <v>14.560550468164847</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -73352,7 +73272,7 @@
         <v>14.544818190487948</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -73368,7 +73288,7 @@
         <v>14.528288297223616</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -73384,7 +73304,7 @@
         <v>14.512946441173554</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -73400,7 +73320,7 @@
         <v>14.497876122398715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -73416,7 +73336,7 @@
         <v>14.483157908121745</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -73432,7 +73352,7 @@
         <v>14.468521754057512</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -73448,7 +73368,7 @@
         <v>14.455172429249204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -73464,7 +73384,7 @@
         <v>14.442564113975591</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -73480,7 +73400,7 @@
         <v>14.428813568050579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -73496,7 +73416,7 @@
         <v>14.41596639200419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -73512,7 +73432,7 @@
         <v>14.404416669845581</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -73528,7 +73448,7 @@
         <v>14.393140498705147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -73544,7 +73464,7 @@
         <v>14.381147546299168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -73560,7 +73480,7 @@
         <v>14.370162604727396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -73576,7 +73496,7 @@
         <v>14.358870972971763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -73592,7 +73512,7 @@
         <v>14.348080007019043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -73608,7 +73528,7 @@
         <v>14.336269845508394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="17">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -73624,7 +73544,7 @@
         <v>14.325590551781843</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -73640,7 +73560,7 @@
         <v>14.314687502980233</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="17">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -73656,7 +73576,7 @@
         <v>14.304418605834016</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -73672,7 +73592,7 @@
         <v>14.294615383735071</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
@@ -73688,7 +73608,7 @@
         <v>14.285267172369339</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -73704,7 +73624,7 @@
         <v>14.275681818470812</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="17">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -73720,7 +73640,7 @@
         <v>14.26511278138125</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -73736,7 +73656,7 @@
         <v>14.254029848184159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -73752,7 +73672,7 @@
         <v>14.243555554142706</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -73768,7 +73688,7 @@
         <v>14.231397058543038</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="17">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -73784,7 +73704,7 @@
         <v>14.218175182760197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -73800,7 +73720,7 @@
         <v>14.204855073569478</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="17">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -73816,7 +73736,7 @@
         <v>14.192589929155309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -73832,7 +73752,7 @@
         <v>14.180000003269742</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="17">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -73848,7 +73768,7 @@
         <v>14.167517734284097</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="17">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -73864,7 +73784,7 @@
         <v>14.155000006178735</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -73880,7 +73800,7 @@
         <v>14.142167836169262</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="17">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -73896,7 +73816,7 @@
         <v>14.130694446828631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -73912,7 +73832,7 @@
         <v>14.119103449328193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="17">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -73928,7 +73848,7 @@
         <v>14.107602737897064</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -73944,7 +73864,7 @@
         <v>14.096462585034015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="17">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -73960,7 +73880,7 @@
         <v>14.085608106561612</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -73976,7 +73896,7 @@
         <v>14.074161073057445</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -73992,7 +73912,7 @@
         <v>14.06380000228882</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -74008,7 +73928,7 @@
         <v>14.053774837973894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -74024,7 +73944,7 @@
         <v>14.043881583715741</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -74040,7 +73960,7 @@
         <v>14.034444451674918</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -74056,7 +73976,7 @@
         <v>14.024870139778436</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -74072,7 +73992,7 @@
         <v>14.014774203638879</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -74088,7 +74008,7 @@
         <v>14.004743598546739</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -74104,7 +74024,7 @@
         <v>13.994458609659961</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -74120,7 +74040,7 @@
         <v>13.984620261373401</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -74136,7 +74056,7 @@
         <v>13.975094349459285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -74152,7 +74072,7 @@
         <v>13.966375009298327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="17">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -74168,7 +74088,7 @@
         <v>13.957826097144846</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -74184,7 +74104,7 @@
         <v>13.949876553806259</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -74200,7 +74120,7 @@
         <v>13.943067496130073</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -74216,7 +74136,7 @@
         <v>13.937378061573682</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -74232,7 +74152,7 @@
         <v>13.931575767517092</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -74248,7 +74168,7 @@
         <v>13.926987962148278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -74264,7 +74184,7 @@
         <v>13.922035940707088</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="17">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -74280,7 +74200,7 @@
         <v>13.916488106364298</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="17">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -74296,7 +74216,7 @@
         <v>13.911597645099349</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="17">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -74312,7 +74232,7 @@
         <v>13.90564706847247</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="17">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -74328,7 +74248,7 @@
         <v>13.899122816386978</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="17">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -74344,7 +74264,7 @@
         <v>13.893197684398919</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="17">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -74360,7 +74280,7 @@
         <v>13.88734105104656</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="17">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -74376,7 +74296,7 @@
         <v>13.882183917253869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -74392,7 +74312,7 @@
         <v>13.877028577968055</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -74408,7 +74328,7 @@
         <v>13.871875008019536</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -74424,7 +74344,7 @@
         <v>13.867175149001646</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="17">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -74440,7 +74360,7 @@
         <v>13.861348321893244</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="17">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -74456,7 +74376,7 @@
         <v>13.855921796873297</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="17">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -74472,7 +74392,7 @@
         <v>13.85088889694214</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -74488,7 +74408,7 @@
         <v>13.845745864783863</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -74504,7 +74424,7 @@
         <v>13.840219789442127</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -74520,7 +74440,7 @@
         <v>13.834207658194455</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -74536,7 +74456,7 @@
         <v>13.828423923409504</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -74552,7 +74472,7 @@
         <v>13.822972981633368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -74568,7 +74488,7 @@
         <v>13.8169354924848</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -74584,7 +74504,7 @@
         <v>13.811336909411425</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -74600,7 +74520,7 @@
         <v>13.804734053510302</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -74616,7 +74536,7 @@
         <v>13.797566147456095</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -74632,7 +74552,7 @@
         <v>13.790736851943167</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="17">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -74648,7 +74568,7 @@
         <v>13.784816762914209</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -74664,7 +74584,7 @@
         <v>13.778750008344652</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="17">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -74680,7 +74600,7 @@
         <v>13.773316068105748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="17">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -74696,7 +74616,7 @@
         <v>13.767319591758179</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="17">
         <f t="shared" ref="A197:A424" si="3">A196+1</f>
         <v>195</v>
@@ -74712,7 +74632,7 @@
         <v>13.761333339397725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="17">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -74728,7 +74648,7 @@
         <v>13.754030617889095</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -74744,7 +74664,7 @@
         <v>13.747208126668399</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -74760,7 +74680,7 @@
         <v>13.739494955660119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="17">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -74776,7 +74696,7 @@
         <v>13.730954779811841</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -74792,7 +74712,7 @@
         <v>13.723600007057192</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="17">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -74808,7 +74728,7 @@
         <v>13.71641791614134</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="17">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -74824,7 +74744,7 @@
         <v>13.709851492513526</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="17">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -74840,7 +74760,7 @@
         <v>13.703448282439135</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="17">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -74856,7 +74776,7 @@
         <v>13.696911770689722</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="17">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -74872,7 +74792,7 @@
         <v>13.689853664491237</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="17">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -74888,7 +74808,7 @@
         <v>13.683203887939454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -74904,7 +74824,7 @@
         <v>13.676811596967173</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="17">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -74920,7 +74840,7 @@
         <v>13.670528848354634</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="17">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -74936,7 +74856,7 @@
         <v>13.664688996492963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="17">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -74952,7 +74872,7 @@
         <v>13.658809526534309</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="17">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -74968,7 +74888,7 @@
         <v>13.652274882962919</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -74984,7 +74904,7 @@
         <v>13.646132078710593</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="17">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -75000,7 +74920,7 @@
         <v>13.639014088268013</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="17">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -75016,7 +74936,7 @@
         <v>13.632336452519784</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -75032,7 +74952,7 @@
         <v>13.625860467955125</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -75048,7 +74968,7 @@
         <v>13.619953708288666</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="17">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -75064,7 +74984,7 @@
         <v>13.613824889172127</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="17">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -75080,7 +75000,7 @@
         <v>13.607568811698862</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="17">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -75096,7 +75016,7 @@
         <v>13.600821922650008</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -75112,7 +75032,7 @@
         <v>13.59268182491069</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="17">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -75128,7 +75048,7 @@
         <v>13.583574666969916</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="17">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -75144,7 +75064,7 @@
         <v>13.57405406157816</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="17">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -75160,7 +75080,7 @@
         <v>13.565336330853594</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="17">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -75176,7 +75096,7 @@
         <v>13.556875008305141</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="17">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -75192,7 +75112,7 @@
         <v>13.547066676623785</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="17">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -75208,7 +75128,7 @@
         <v>13.534867266373237</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="17">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -75224,7 +75144,7 @@
         <v>13.524317191807716</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="17">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -75240,7 +75160,7 @@
         <v>13.514824571054174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="17">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -75256,7 +75176,7 @@
         <v>13.505851538167475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -75272,7 +75192,7 @@
         <v>13.496782618784138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="17">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -75288,7 +75208,7 @@
         <v>13.48792208714438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="17">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -75304,7 +75224,7 @@
         <v>13.479353457458412</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="17">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -75320,7 +75240,7 @@
         <v>13.470600865709663</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="17">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -75336,7 +75256,7 @@
         <v>13.461153854445948</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -75352,7 +75272,7 @@
         <v>13.451787243278092</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -75368,7 +75288,7 @@
         <v>13.44245763631505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="17">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -75384,7 +75304,7 @@
         <v>13.434261612533129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="17">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -75400,7 +75320,7 @@
         <v>13.425966395841815</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="17">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -75416,7 +75336,7 @@
         <v>13.418326370677079</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="17">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -75432,7 +75352,7 @@
         <v>13.410666677148033</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="17">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -75448,7 +75368,7 @@
         <v>13.402614119429694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="17">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -75464,7 +75384,7 @@
         <v>13.394876043452594</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="17">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -75480,7 +75400,7 @@
         <v>13.386090546273291</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="17">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -75496,7 +75416,7 @@
         <v>13.378114763626201</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -75512,7 +75432,7 @@
         <v>13.369918376368783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -75528,7 +75448,7 @@
         <v>13.36247968362685</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -75544,7 +75464,7 @@
         <v>13.35497976680602</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -75560,7 +75480,7 @@
         <v>13.347137105840721</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -75576,7 +75496,7 @@
         <v>13.339236957280884</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -75592,7 +75512,7 @@
         <v>13.330800007620704</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="17">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -75608,7 +75528,7 @@
         <v>13.321633472661942</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="17">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -75624,7 +75544,7 @@
         <v>13.312817468331813</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="17">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -75640,7 +75560,7 @@
         <v>13.30209487115054</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="17">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -75656,7 +75576,7 @@
         <v>13.291377961908633</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -75672,7 +75592,7 @@
         <v>13.28168628242987</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="17">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -75688,7 +75608,7 @@
         <v>13.272617195538141</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="17">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -75704,7 +75624,7 @@
         <v>13.264319075477681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="17">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -75720,7 +75640,7 @@
         <v>13.254728691309163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="17">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -75736,7 +75656,7 @@
         <v>13.244247113196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="17">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -75752,7 +75672,7 @@
         <v>13.233576933029861</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="17">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -75768,7 +75688,7 @@
         <v>13.223256714742391</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="17">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -75784,7 +75704,7 @@
         <v>13.213282451174672</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="17">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -75800,7 +75720,7 @@
         <v>13.203193926341308</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="17">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -75816,7 +75736,7 @@
         <v>13.193560615446076</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="17">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -75832,7 +75752,7 @@
         <v>13.183735858972694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="17">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -75848,7 +75768,7 @@
         <v>13.174323319314903</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="17">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -75864,7 +75784,7 @@
         <v>13.164756564897994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="17">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -75880,7 +75800,7 @@
         <v>13.155298518424493</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="17">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -75896,7 +75816,7 @@
         <v>13.146654286013993</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="17">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -75912,7 +75832,7 @@
         <v>13.137814826547274</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="17">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -75928,7 +75848,7 @@
         <v>13.128339493940089</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="17">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -75944,7 +75864,7 @@
         <v>13.119154422675603</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="17">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -75960,7 +75880,7 @@
         <v>13.110183161347122</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="17">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -75976,7 +75896,7 @@
         <v>13.101459866123227</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="17">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -75992,7 +75912,7 @@
         <v>13.09301819290096</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="17">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -76008,7 +75928,7 @@
         <v>13.085217400825231</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="17">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -76024,7 +75944,7 @@
         <v>13.077328527970266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="17">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -76040,7 +75960,7 @@
         <v>13.069424468912819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="17">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -76056,7 +75976,7 @@
         <v>13.062007176909548</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="17">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -76072,7 +75992,7 @@
         <v>13.054857152777728</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="17">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -76088,7 +76008,7 @@
         <v>13.048113888355031</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="17">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -76104,7 +76024,7 @@
         <v>13.041170222616184</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="17">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -76120,7 +76040,7 @@
         <v>13.03473499310164</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="17">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -76136,7 +76056,7 @@
         <v>12.999788742756211</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="17">
         <f t="shared" si="3"/>
         <v>285</v>
@@ -76152,7 +76072,7 @@
         <v>12.994526326114961</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="17">
         <f t="shared" si="3"/>
         <v>286</v>
@@ -76168,7 +76088,7 @@
         <v>12.989720289625049</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="17">
         <f t="shared" si="3"/>
         <v>287</v>
@@ -76184,7 +76104,7 @@
         <v>12.984634155270955</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="17">
         <f t="shared" si="3"/>
         <v>288</v>
@@ -76200,7 +76120,7 @@
         <v>12.980173619349875</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="17">
         <f t="shared" si="3"/>
         <v>289</v>
@@ -76216,7 +76136,7 @@
         <v>12.975813157933439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="17">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -76232,7 +76152,7 @@
         <v>12.971413801561255</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="17">
         <f t="shared" si="3"/>
         <v>291</v>
@@ -76248,7 +76168,7 @@
         <v>12.966529218703656</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="17">
         <f t="shared" si="3"/>
         <v>292</v>
@@ -76264,7 +76184,7 @@
         <v>12.962260283947822</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="17">
         <f t="shared" si="3"/>
         <v>293</v>
@@ -76280,7 +76200,7 @@
         <v>12.958464175060628</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="17">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -76296,7 +76216,7 @@
         <v>12.955068038546816</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="17">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -76312,7 +76232,7 @@
         <v>12.952000011941573</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="17">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -76328,7 +76248,7 @@
         <v>12.948513525685014</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="17">
         <f t="shared" si="3"/>
         <v>297</v>
@@ -76344,7 +76264,7 @@
         <v>12.945656579066547</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="17">
         <f t="shared" si="3"/>
         <v>298</v>
@@ -76360,7 +76280,7 @@
         <v>12.942651020713974</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="17">
         <f t="shared" si="3"/>
         <v>299</v>
@@ -76376,7 +76296,7 @@
         <v>12.94000001268483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -76392,7 +76312,7 @@
         <v>12.937333347109215</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
@@ -76408,7 +76328,7 @@
         <v>12.93398672572347</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="17">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -76424,7 +76344,7 @@
         <v>12.930728490903194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="17">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -76440,7 +76360,7 @@
         <v>12.927425757632886</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="17">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -76456,7 +76376,7 @@
         <v>12.923552646588041</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="17">
         <f t="shared" si="3"/>
         <v>305</v>
@@ -76472,7 +76392,7 @@
         <v>12.919377062894311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="17">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -76488,7 +76408,7 @@
         <v>12.915261451087467</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="17">
         <f t="shared" si="3"/>
         <v>307</v>
@@ -76504,7 +76424,7 @@
         <v>12.911042358054608</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="17">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -76520,7 +76440,7 @@
         <v>12.906168843418069</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="17">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -76536,7 +76456,7 @@
         <v>12.901779948099563</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="17">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -76552,7 +76472,7 @@
         <v>12.897290336105694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="17">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -76568,7 +76488,7 @@
         <v>12.899292619462267</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="17">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -76584,7 +76504,7 @@
         <v>12.89448719318194</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="17">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -76600,7 +76520,7 @@
         <v>12.889712472500847</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="17">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -76616,7 +76536,7 @@
         <v>12.884872623511992</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -76632,7 +76552,7 @@
         <v>12.880317471723064</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="17">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -76648,7 +76568,7 @@
         <v>12.875601278268244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="17">
         <f t="shared" si="3"/>
         <v>317</v>
@@ -76664,7 +76584,7 @@
         <v>12.870914839977177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="17">
         <f t="shared" si="3"/>
         <v>318</v>
@@ -76680,7 +76600,7 @@
         <v>12.86578617623511</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="17">
         <f t="shared" si="3"/>
         <v>319</v>
@@ -76696,7 +76616,7 @@
         <v>12.860815058848795</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="17">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -76712,7 +76632,7 @@
         <v>12.855187511789893</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="17">
         <f t="shared" si="3"/>
         <v>321</v>
@@ -76728,7 +76648,7 @@
         <v>12.849252348201762</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="17">
         <f t="shared" si="3"/>
         <v>322</v>
@@ -76744,7 +76664,7 @@
         <v>12.843633552089335</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="17">
         <f t="shared" si="3"/>
         <v>323</v>
@@ -76760,7 +76680,7 @@
         <v>12.838390103383174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="17">
         <f t="shared" si="3"/>
         <v>324</v>
@@ -76776,7 +76696,7 @@
         <v>12.833148159669031</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="17">
         <f t="shared" si="3"/>
         <v>325</v>
@@ -76792,7 +76712,7 @@
         <v>12.828061550900818</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="17">
         <f t="shared" si="3"/>
         <v>326</v>
@@ -76808,7 +76728,7 @@
         <v>12.82273007421094</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="17">
         <f t="shared" si="3"/>
         <v>327</v>
@@ -76824,7 +76744,7 @@
         <v>12.818012245237815</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="17">
         <f t="shared" si="3"/>
         <v>328</v>
@@ -76840,7 +76760,7 @@
         <v>12.813353671197458</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="17">
         <f t="shared" si="3"/>
         <v>329</v>
@@ -76856,7 +76776,7 @@
         <v>12.808693020920261</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="17">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -76872,7 +76792,7 @@
         <v>12.804000012462927</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="17">
         <f t="shared" si="3"/>
         <v>331</v>
@@ -76888,7 +76808,7 @@
         <v>12.799546839978143</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="17">
         <f t="shared" si="3"/>
         <v>332</v>
@@ -76904,7 +76824,7 @@
         <v>12.794849409044476</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="17">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -76920,7 +76840,7 @@
         <v>12.790090101629927</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="17">
         <f t="shared" si="3"/>
         <v>334</v>
@@ -76936,7 +76856,7 @@
         <v>12.785568872972352</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="17">
         <f t="shared" si="3"/>
         <v>335</v>
@@ -76952,7 +76872,7 @@
         <v>12.780955233859002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="17">
         <f t="shared" si="3"/>
         <v>336</v>
@@ -76968,7 +76888,7 @@
         <v>12.775863104264184</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="17">
         <f t="shared" si="3"/>
         <v>337</v>
@@ -76984,7 +76904,7 @@
         <v>12.77115727778269</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="17">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -77000,7 +76920,7 @@
         <v>12.766360953351381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="17">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -77016,7 +76936,7 @@
         <v>12.76150443104061</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -77032,7 +76952,7 @@
         <v>12.756558829537548</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="17">
         <f t="shared" si="3"/>
         <v>341</v>
@@ -77048,7 +76968,7 @@
         <v>12.751700886870283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="17">
         <f t="shared" si="3"/>
         <v>342</v>
@@ -77064,7 +76984,7 @@
         <v>12.74526316497885</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="17">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -77080,7 +77000,7 @@
         <v>12.738862981378329</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="17">
         <f t="shared" si="3"/>
         <v>344</v>
@@ -77096,7 +77016,7 @@
         <v>12.732500007595252</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="12.75" customHeight="1">
+    <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="17">
         <f t="shared" si="3"/>
         <v>345</v>
@@ -77112,7 +77032,7 @@
         <v>12.726000007573237</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="12.75" customHeight="1">
+    <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="17">
         <f t="shared" si="3"/>
         <v>346</v>
@@ -77128,7 +77048,7 @@
         <v>12.719335267666956</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="12.75" customHeight="1">
+    <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="17">
         <f t="shared" si="3"/>
         <v>347</v>
@@ -77144,7 +77064,7 @@
         <v>12.712651304359557</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="12.75" customHeight="1">
+    <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="17">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -77160,7 +77080,7 @@
         <v>12.705833340841282</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="12.75" customHeight="1">
+    <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="17">
         <f t="shared" si="3"/>
         <v>349</v>
@@ -77176,7 +77096,7 @@
         <v>12.699455594878986</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="12.75" customHeight="1">
+    <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="17">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -77192,7 +77112,7 @@
         <v>12.692800007465046</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="12.75" customHeight="1">
+    <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="17">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -77208,7 +77128,7 @@
         <v>12.686182343626113</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="12.75" customHeight="1">
+    <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="17">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -77224,7 +77144,7 @@
         <v>12.67954546304763</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="12.75" customHeight="1">
+    <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="17">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -77240,7 +77160,7 @@
         <v>12.672379610801036</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="12.75" customHeight="1">
+    <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="17">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -77256,7 +77176,7 @@
         <v>12.66528249283267</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="12.75" customHeight="1">
+    <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="17">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -77272,7 +77192,7 @@
         <v>12.658507049838775</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="12.75" customHeight="1">
+    <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="17">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -77288,7 +77208,7 @@
         <v>12.65151686172125</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="12.75" customHeight="1">
+    <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="17">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -77304,7 +77224,7 @@
         <v>12.645182081548363</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="12.75" customHeight="1">
+    <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="17">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -77320,7 +77240,7 @@
         <v>12.638826824030073</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="12.75" customHeight="1">
+    <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="17">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -77336,7 +77256,7 @@
         <v>12.63245126290464</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="12.75" customHeight="1">
+    <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="17">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -77352,7 +77272,7 @@
         <v>12.625638899146571</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="12.75" customHeight="1">
+    <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="17">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -77368,7 +77288,7 @@
         <v>12.618698070866387</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="12.75" customHeight="1">
+    <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="17">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -77384,7 +77304,7 @@
         <v>12.611740342438578</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="12.75" customHeight="1">
+    <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="17">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -77400,7 +77320,7 @@
         <v>12.604958687555827</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="12.75" customHeight="1">
+    <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="17">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -77416,7 +77336,7 @@
         <v>12.598241767672432</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="12.75" customHeight="1">
+    <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="17">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -77432,7 +77352,7 @@
         <v>12.591835626473328</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="12.75" customHeight="1">
+    <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="17">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -77448,7 +77368,7 @@
         <v>12.585218589461107</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="12.75" customHeight="1">
+    <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="17">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -77464,7 +77384,7 @@
         <v>12.57923706834541</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="12.75" customHeight="1">
+    <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="17">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -77480,7 +77400,7 @@
         <v>12.573233706447732</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="12.75" customHeight="1">
+    <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="17">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -77496,7 +77416,7 @@
         <v>12.567208683882834</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="12.75" customHeight="1">
+    <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="17">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -77512,7 +77432,7 @@
         <v>12.560756769358825</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="12.75" customHeight="1">
+    <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="17">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -77528,7 +77448,7 @@
         <v>12.554177909845729</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75" customHeight="1">
+    <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="17">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -77544,7 +77464,7 @@
         <v>12.547580658421412</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75" customHeight="1">
+    <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -77560,7 +77480,7 @@
         <v>12.540241301213847</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75" customHeight="1">
+    <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="17">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -77576,7 +77496,7 @@
         <v>12.532860976165148</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75" customHeight="1">
+    <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -77592,7 +77512,7 @@
         <v>12.525653346692707</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75" customHeight="1">
+    <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="17">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -77608,7 +77528,7 @@
         <v>12.518244693565864</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75" customHeight="1">
+    <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="17">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -77624,7 +77544,7 @@
         <v>12.51031831436012</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75" customHeight="1">
+    <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="17">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -77640,7 +77560,7 @@
         <v>12.502063504912076</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="12.75" customHeight="1">
+    <row r="381" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="17">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -77656,7 +77576,7 @@
         <v>12.494696582835791</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="12.75" customHeight="1">
+    <row r="382" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="17">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -77672,7 +77592,7 @@
         <v>12.487631592933591</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="12.75" customHeight="1">
+    <row r="383" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="17">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -77688,7 +77608,7 @@
         <v>12.480419960855023</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="12.75" customHeight="1">
+    <row r="384" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="17">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -77704,7 +77624,7 @@
         <v>12.473979072109332</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="12.75" customHeight="1">
+    <row r="385" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="17">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -77720,7 +77640,7 @@
         <v>12.467676255785285</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="12.75" customHeight="1">
+    <row r="386" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="17">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -77736,7 +77656,7 @@
         <v>12.461223973272823</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="12.75" customHeight="1">
+    <row r="387" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="17">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -77752,7 +77672,7 @@
         <v>12.454623391721466</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="12.75" customHeight="1">
+    <row r="388" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="17">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -77768,7 +77688,7 @@
         <v>12.447953383229958</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="12.75" customHeight="1">
+    <row r="389" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="17">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -77784,7 +77704,7 @@
         <v>12.441963839888279</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="12.75" customHeight="1">
+    <row r="390" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="17">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -77800,7 +77720,7 @@
         <v>12.436082489398874</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="12.75" customHeight="1">
+    <row r="391" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="17">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -77816,7 +77736,7 @@
         <v>12.430616982793735</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="12.75" customHeight="1">
+    <row r="392" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="17">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -77832,7 +77752,7 @@
         <v>12.425051298812212</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="12.75" customHeight="1">
+    <row r="393" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="17">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -77848,7 +77768,7 @@
         <v>12.41936063004287</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="12.75" customHeight="1">
+    <row r="394" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="17">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -77864,7 +77784,7 @@
         <v>12.413673484507049</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="12.75" customHeight="1">
+    <row r="395" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="17">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -77880,7 +77800,7 @@
         <v>12.40783716492815</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="12.75" customHeight="1">
+    <row r="396" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="17">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -77896,7 +77816,7 @@
         <v>12.402055852605997</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="12.75" customHeight="1">
+    <row r="397" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="17">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -77912,7 +77832,7 @@
         <v>12.396405078498134</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="12.75" customHeight="1">
+    <row r="398" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="17">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -77928,7 +77848,7 @@
         <v>12.390681833628189</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="12.75" customHeight="1">
+    <row r="399" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="17">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -77944,7 +77864,7 @@
         <v>12.385163742888572</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="12.75" customHeight="1">
+    <row r="400" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="17">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -77960,7 +77880,7 @@
         <v>12.379422126398902</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="12.75" customHeight="1">
+    <row r="401" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="17">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -77976,7 +77896,7 @@
         <v>12.374436106884119</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="12.75" customHeight="1">
+    <row r="402" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="17">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -77992,357 +77912,93 @@
         <v>12.369450016891909</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="17">
-        <f t="shared" si="3"/>
-        <v>401</v>
-      </c>
-      <c r="B403" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C403" s="21">
-        <v>10.47000027</v>
-      </c>
-      <c r="D403" s="17">
-        <f>SUM($C$3:C403)/A403</f>
-        <v>12.364713234480707</v>
-      </c>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B403" s="20"/>
+      <c r="C403" s="21"/>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="17">
-        <f t="shared" si="3"/>
-        <v>402</v>
-      </c>
-      <c r="B404" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C404" s="21">
-        <v>10.420000079999999</v>
-      </c>
-      <c r="D404" s="17">
-        <f>SUM($C$3:C404)/A404</f>
-        <v>12.359875639569063</v>
-      </c>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B404" s="20"/>
+      <c r="C404" s="21"/>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="17">
-        <f t="shared" si="3"/>
-        <v>403</v>
-      </c>
-      <c r="B405" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C405" s="21">
-        <v>10.60999966</v>
-      </c>
-      <c r="D405" s="17">
-        <f>SUM($C$3:C405)/A405</f>
-        <v>12.355533515550281</v>
-      </c>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B405" s="20"/>
+      <c r="C405" s="21"/>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="17">
-        <f t="shared" si="3"/>
-        <v>404</v>
-      </c>
-      <c r="B406" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C406" s="21">
-        <v>10.68000031</v>
-      </c>
-      <c r="D406" s="17">
-        <f>SUM($C$3:C406)/A406</f>
-        <v>12.351386156130602</v>
-      </c>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B406" s="20"/>
+      <c r="C406" s="21"/>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="17">
-        <f t="shared" si="3"/>
-        <v>405</v>
-      </c>
-      <c r="B407" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C407" s="21">
-        <v>10.649999619999999</v>
-      </c>
-      <c r="D407" s="17">
-        <f>SUM($C$3:C407)/A407</f>
-        <v>12.347185201720402</v>
-      </c>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B407" s="20"/>
+      <c r="C407" s="21"/>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="17">
-        <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="B408" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C408" s="21">
-        <v>10.65999985</v>
-      </c>
-      <c r="D408" s="17">
-        <f>SUM($C$3:C408)/A408</f>
-        <v>12.343029572775277</v>
-      </c>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B408" s="20"/>
+      <c r="C408" s="21"/>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="17">
-        <f t="shared" si="3"/>
-        <v>407</v>
-      </c>
-      <c r="B409" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C409" s="21">
-        <v>10.77000046</v>
-      </c>
-      <c r="D409" s="17">
-        <f>SUM($C$3:C409)/A409</f>
-        <v>12.339164636380252</v>
-      </c>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B409" s="20"/>
+      <c r="C409" s="21"/>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="17">
-        <f t="shared" si="3"/>
-        <v>408</v>
-      </c>
-      <c r="B410" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C410" s="21">
-        <v>10.920000079999999</v>
-      </c>
-      <c r="D410" s="17">
-        <f>SUM($C$3:C410)/A410</f>
-        <v>12.33568629187932</v>
-      </c>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B410" s="20"/>
+      <c r="C410" s="21"/>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="17">
-        <f t="shared" si="3"/>
-        <v>409</v>
-      </c>
-      <c r="B411" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C411" s="21">
-        <v>10.90999985</v>
-      </c>
-      <c r="D411" s="17">
-        <f>SUM($C$3:C411)/A411</f>
-        <v>12.332200505957854</v>
-      </c>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B411" s="20"/>
+      <c r="C411" s="21"/>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="17">
-        <f t="shared" si="3"/>
-        <v>410</v>
-      </c>
-      <c r="B412" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C412" s="21">
-        <v>10.93999958</v>
-      </c>
-      <c r="D412" s="17">
-        <f>SUM($C$3:C412)/A412</f>
-        <v>12.328804893943325</v>
-      </c>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B412" s="20"/>
+      <c r="C412" s="21"/>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="17">
-        <f t="shared" si="3"/>
-        <v>411</v>
-      </c>
-      <c r="B413" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C413" s="21">
-        <v>10.90999985</v>
-      </c>
-      <c r="D413" s="17">
-        <f>SUM($C$3:C413)/A413</f>
-        <v>12.325352813544434</v>
-      </c>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B413" s="20"/>
+      <c r="C413" s="21"/>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="17">
-        <f t="shared" si="3"/>
-        <v>412</v>
-      </c>
-      <c r="B414" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C414" s="21">
-        <v>10.94999981</v>
-      </c>
-      <c r="D414" s="17">
-        <f>SUM($C$3:C414)/A414</f>
-        <v>12.322014578098939</v>
-      </c>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B414" s="20"/>
+      <c r="C414" s="21"/>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="17">
-        <f t="shared" si="3"/>
-        <v>413</v>
-      </c>
-      <c r="B415" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C415" s="21">
-        <v>10.77999973</v>
-      </c>
-      <c r="D415" s="17">
-        <f>SUM($C$3:C415)/A415</f>
-        <v>12.31828088597279</v>
-      </c>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B415" s="20"/>
+      <c r="C415" s="21"/>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="17">
-        <f t="shared" si="3"/>
-        <v>414</v>
-      </c>
-      <c r="B416" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C416" s="21">
-        <v>10.600000380000001</v>
-      </c>
-      <c r="D416" s="17">
-        <f>SUM($C$3:C416)/A416</f>
-        <v>12.314130449968024</v>
-      </c>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B416" s="20"/>
+      <c r="C416" s="21"/>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="17">
-        <f t="shared" si="3"/>
-        <v>415</v>
-      </c>
-      <c r="B417" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C417" s="21">
-        <v>10.60999966</v>
-      </c>
-      <c r="D417" s="17">
-        <f>SUM($C$3:C417)/A417</f>
-        <v>12.310024110715089</v>
-      </c>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B417" s="20"/>
+      <c r="C417" s="21"/>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="17">
-        <f t="shared" si="3"/>
-        <v>416</v>
-      </c>
-      <c r="B418" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C418" s="21">
-        <v>10.64000034</v>
-      </c>
-      <c r="D418" s="17">
-        <f>SUM($C$3:C418)/A418</f>
-        <v>12.306009630497025</v>
-      </c>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B418" s="20"/>
+      <c r="C418" s="21"/>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="17">
-        <f t="shared" si="3"/>
-        <v>417</v>
-      </c>
-      <c r="B419" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C419" s="21">
-        <v>10.630000109999999</v>
-      </c>
-      <c r="D419" s="17">
-        <f>SUM($C$3:C419)/A419</f>
-        <v>12.301990423013818</v>
-      </c>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B419" s="20"/>
+      <c r="C419" s="21"/>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="17">
-        <f t="shared" si="3"/>
-        <v>418</v>
-      </c>
-      <c r="B420" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C420" s="21">
-        <v>10.630000109999999</v>
-      </c>
-      <c r="D420" s="17">
-        <f>SUM($C$3:C420)/A420</f>
-        <v>12.297990446188425</v>
-      </c>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B420" s="20"/>
+      <c r="C420" s="21"/>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="17">
-        <f t="shared" si="3"/>
-        <v>419</v>
-      </c>
-      <c r="B421" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C421" s="21">
-        <v>10.75</v>
-      </c>
-      <c r="D421" s="17">
-        <f>SUM($C$3:C421)/A421</f>
-        <v>12.294295958250029</v>
-      </c>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B421" s="20"/>
+      <c r="C421" s="21"/>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="17">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="B422" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C422" s="21">
-        <v>10.739999770000001</v>
-      </c>
-      <c r="D422" s="17">
-        <f>SUM($C$3:C422)/A422</f>
-        <v>12.290595253039911</v>
-      </c>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B422" s="20"/>
+      <c r="C422" s="21"/>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="17">
-        <f t="shared" si="3"/>
-        <v>421</v>
-      </c>
-      <c r="B423" s="20">
-        <v>44924</v>
-      </c>
-      <c r="C423" s="21">
-        <v>10.68000031</v>
-      </c>
-      <c r="D423" s="17">
-        <f>SUM($C$3:C423)/A423</f>
-        <v>12.28676961184504</v>
-      </c>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B423" s="20"/>
+      <c r="C423" s="21"/>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="17">
-        <f t="shared" si="3"/>
-        <v>422</v>
-      </c>
-      <c r="B424" s="20">
-        <v>44925</v>
-      </c>
-      <c r="C424" s="21">
-        <v>10.72999954</v>
-      </c>
-      <c r="D424" s="17">
-        <f>SUM($C$3:C424)/A424</f>
-        <v>12.283080583238773</v>
-      </c>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B424" s="20"/>
+      <c r="C424" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -4393,11 +4393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256235392"/>
-        <c:axId val="266031872"/>
+        <c:axId val="182629888"/>
+        <c:axId val="182642176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256235392"/>
+        <c:axId val="182629888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266031872"/>
+        <c:crossAx val="182642176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4448,7 +4448,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266031872"/>
+        <c:axId val="182642176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,7 +4499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256235392"/>
+        <c:crossAx val="182629888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -71482,9 +71482,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -74618,7 +74618,7 @@
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A424" si="3">A196+1</f>
+        <f t="shared" ref="A197:A402" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -77911,94 +77911,6 @@
         <f>SUM($C$3:C402)/A402</f>
         <v>12.369450016891909</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B403" s="20"/>
-      <c r="C403" s="21"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B404" s="20"/>
-      <c r="C404" s="21"/>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B405" s="20"/>
-      <c r="C405" s="21"/>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B406" s="20"/>
-      <c r="C406" s="21"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B407" s="20"/>
-      <c r="C407" s="21"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B408" s="20"/>
-      <c r="C408" s="21"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B409" s="20"/>
-      <c r="C409" s="21"/>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B410" s="20"/>
-      <c r="C410" s="21"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B411" s="20"/>
-      <c r="C411" s="21"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B412" s="20"/>
-      <c r="C412" s="21"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B413" s="20"/>
-      <c r="C413" s="21"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B414" s="20"/>
-      <c r="C414" s="21"/>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B415" s="20"/>
-      <c r="C415" s="21"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B416" s="20"/>
-      <c r="C416" s="21"/>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B417" s="20"/>
-      <c r="C417" s="21"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B418" s="20"/>
-      <c r="C418" s="21"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B419" s="20"/>
-      <c r="C419" s="21"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B420" s="20"/>
-      <c r="C420" s="21"/>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B421" s="20"/>
-      <c r="C421" s="21"/>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B422" s="20"/>
-      <c r="C422" s="21"/>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B423" s="20"/>
-      <c r="C423" s="21"/>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B424" s="20"/>
-      <c r="C424" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="270">
   <si>
     <t>PE</t>
   </si>
@@ -1012,6 +1012,86 @@
     <t xml:space="preserve">2022/11/29
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2022/12/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/28
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1024,7 +1104,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4393,11 +4473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182629888"/>
-        <c:axId val="182642176"/>
+        <c:axId val="532051840"/>
+        <c:axId val="532053376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182629888"/>
+        <c:axId val="532051840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182642176"/>
+        <c:crossAx val="532053376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4448,7 +4528,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182642176"/>
+        <c:axId val="532053376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,7 +4579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182629888"/>
+        <c:crossAx val="532051840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -64049,7 +64129,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -64070,7 +64150,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -64103,7 +64183,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -64119,7 +64199,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1">
       <c r="A3" s="26">
         <v>40451</v>
       </c>
@@ -64214,7 +64294,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1">
       <c r="A4" s="26">
         <v>40480</v>
       </c>
@@ -64315,7 +64395,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1">
       <c r="A5" s="26">
         <v>40512</v>
       </c>
@@ -64412,7 +64492,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="14.1" customHeight="1">
       <c r="A6" s="26">
         <v>40543</v>
       </c>
@@ -64502,7 +64582,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1">
       <c r="A7" s="26">
         <v>40574</v>
       </c>
@@ -64581,7 +64661,7 @@
         <v>82813.626416639017</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1">
       <c r="A8" s="26">
         <v>40602</v>
       </c>
@@ -64653,7 +64733,7 @@
         <v>1.5781487745665235E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="14.1" customHeight="1">
       <c r="A9" s="26">
         <v>40633</v>
       </c>
@@ -64754,7 +64834,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1">
       <c r="A10" s="26">
         <v>40662</v>
       </c>
@@ -64855,7 +64935,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="14.1" customHeight="1">
       <c r="A11" s="26">
         <v>40694</v>
       </c>
@@ -64956,7 +65036,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="14.1" customHeight="1">
       <c r="A12" s="26">
         <v>40724</v>
       </c>
@@ -65057,7 +65137,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="14.1" customHeight="1">
       <c r="A13" s="26">
         <v>40753</v>
       </c>
@@ -65158,7 +65238,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="14.1" customHeight="1">
       <c r="A14" s="26">
         <v>40786</v>
       </c>
@@ -65255,7 +65335,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="14.1" customHeight="1">
       <c r="A15" s="26">
         <v>40816</v>
       </c>
@@ -65345,7 +65425,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="14.1" customHeight="1">
       <c r="A16" s="26">
         <v>40847</v>
       </c>
@@ -65397,7 +65477,7 @@
         <v>226023.31414810085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="14.1" customHeight="1">
       <c r="A17" s="26">
         <v>40877</v>
       </c>
@@ -65442,7 +65522,7 @@
         <v>0.10832060454600145</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="14.1" customHeight="1">
       <c r="A18" s="26">
         <v>40907</v>
       </c>
@@ -65516,7 +65596,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="26">
         <v>40939</v>
       </c>
@@ -65590,7 +65670,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="26">
         <v>40968</v>
       </c>
@@ -65664,7 +65744,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="26">
         <v>40998</v>
       </c>
@@ -65738,7 +65818,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="26">
         <v>41026</v>
       </c>
@@ -65812,7 +65892,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="26">
         <v>41060</v>
       </c>
@@ -65886,7 +65966,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="26">
         <v>41089</v>
       </c>
@@ -65960,7 +66040,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="26">
         <v>41121</v>
       </c>
@@ -66034,7 +66114,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="26">
         <v>41152</v>
       </c>
@@ -66104,7 +66184,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="26">
         <v>41180</v>
       </c>
@@ -66167,7 +66247,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="26">
         <v>41213</v>
       </c>
@@ -66219,7 +66299,7 @@
         <v>362098.05834678403</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1">
       <c r="A29" s="26">
         <v>41243</v>
       </c>
@@ -66264,7 +66344,7 @@
         <v>9.1316415296595288E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1">
       <c r="A30" s="26">
         <v>41274</v>
       </c>
@@ -66327,7 +66407,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1">
       <c r="A31" s="26">
         <v>41305</v>
       </c>
@@ -66391,7 +66471,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1">
       <c r="A32" s="26">
         <v>41333</v>
       </c>
@@ -66454,7 +66534,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14.1" customHeight="1">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -66517,7 +66597,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14.1" customHeight="1">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -66580,7 +66660,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14.1" customHeight="1">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -66643,7 +66723,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14.1" customHeight="1">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -66706,7 +66786,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="14.1" customHeight="1">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -66769,7 +66849,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="14.1" customHeight="1">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -66832,7 +66912,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14.1" customHeight="1">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -66895,7 +66975,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="14.1" customHeight="1">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -66958,7 +67038,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="14.1" customHeight="1">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -67017,7 +67097,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14.1" customHeight="1">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -67069,7 +67149,7 @@
         <v>507834.42040464858</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14.1" customHeight="1">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -67115,7 +67195,7 @@
         <v>9.8052898274155309E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14.1" customHeight="1">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -67156,7 +67236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14.1" customHeight="1">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -67197,7 +67277,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14.1" customHeight="1">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -67238,7 +67318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14.1" customHeight="1">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -67279,7 +67359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="14.1" customHeight="1">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -67320,7 +67400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -67361,7 +67441,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -67402,7 +67482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -67443,7 +67523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -67484,7 +67564,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -67525,7 +67605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -67566,7 +67646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -67608,7 +67688,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -67649,7 +67729,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -67690,7 +67770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -67731,7 +67811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -67772,7 +67852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -67813,7 +67893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -67854,7 +67934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -67895,7 +67975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -67936,7 +68016,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -67977,7 +68057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1">
       <c r="A65" s="26">
         <v>42338</v>
       </c>
@@ -68018,7 +68098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1">
       <c r="A66" s="26">
         <v>42369</v>
       </c>
@@ -68059,7 +68139,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1">
       <c r="A67" s="26">
         <v>42398</v>
       </c>
@@ -68101,7 +68181,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1">
       <c r="A68" s="26">
         <v>42429</v>
       </c>
@@ -68142,7 +68222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1">
       <c r="A69" s="26">
         <v>42460</v>
       </c>
@@ -68183,7 +68263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1">
       <c r="A70" s="26">
         <v>42489</v>
       </c>
@@ -68224,7 +68304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1">
       <c r="A71" s="26">
         <v>42521</v>
       </c>
@@ -68265,7 +68345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1">
       <c r="A72" s="26">
         <v>42551</v>
       </c>
@@ -68306,7 +68386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1">
       <c r="A73" s="26">
         <v>42580</v>
       </c>
@@ -68347,7 +68427,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1">
       <c r="A74" s="26">
         <v>42613</v>
       </c>
@@ -68388,7 +68468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1">
       <c r="A75" s="26">
         <v>42643</v>
       </c>
@@ -68429,7 +68509,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1">
       <c r="A76" s="26">
         <v>42674</v>
       </c>
@@ -68470,7 +68550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1">
       <c r="A77" s="26">
         <v>42704</v>
       </c>
@@ -68511,7 +68591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1">
       <c r="A78" s="24">
         <v>42734</v>
       </c>
@@ -68552,7 +68632,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1">
       <c r="A79" s="13">
         <v>42761</v>
       </c>
@@ -68594,7 +68674,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1">
       <c r="A80" s="13">
         <v>42794</v>
       </c>
@@ -68635,7 +68715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1">
       <c r="A81" s="13">
         <v>42825</v>
       </c>
@@ -68676,7 +68756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1">
       <c r="A82" s="13">
         <v>42853</v>
       </c>
@@ -68717,7 +68797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1">
       <c r="A83" s="13">
         <v>42886</v>
       </c>
@@ -68758,7 +68838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1">
       <c r="A84" s="13">
         <v>42916</v>
       </c>
@@ -68799,7 +68879,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1">
       <c r="A85" s="13">
         <v>42947</v>
       </c>
@@ -68840,7 +68920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1">
       <c r="A86" s="13">
         <v>42978</v>
       </c>
@@ -68881,7 +68961,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1">
       <c r="A87" s="13">
         <v>43007</v>
       </c>
@@ -68922,7 +69002,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1">
       <c r="A88" s="13">
         <v>43039</v>
       </c>
@@ -68963,7 +69043,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1">
       <c r="A89" s="13">
         <v>43069</v>
       </c>
@@ -69004,7 +69084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1">
       <c r="A90" s="13">
         <v>43098</v>
       </c>
@@ -69045,7 +69125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1">
       <c r="A91" s="13">
         <v>43131</v>
       </c>
@@ -69087,7 +69167,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1">
       <c r="A92" s="13">
         <v>43159</v>
       </c>
@@ -69128,7 +69208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1">
       <c r="A93" s="13">
         <v>43189</v>
       </c>
@@ -69169,7 +69249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1">
       <c r="A94" s="13">
         <v>43217</v>
       </c>
@@ -69210,7 +69290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1">
       <c r="A95" s="13">
         <v>43251</v>
       </c>
@@ -69251,7 +69331,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1">
       <c r="A96" s="13">
         <v>43280</v>
       </c>
@@ -69292,7 +69372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1">
       <c r="A97" s="13">
         <v>43312</v>
       </c>
@@ -69333,7 +69413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1">
       <c r="A98" s="13">
         <v>43343</v>
       </c>
@@ -69374,7 +69454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1">
       <c r="A99" s="13">
         <v>43371</v>
       </c>
@@ -69415,7 +69495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1">
       <c r="A100" s="13">
         <v>43404</v>
       </c>
@@ -69456,7 +69536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1">
       <c r="A101" s="13">
         <v>43434</v>
       </c>
@@ -69497,7 +69577,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1">
       <c r="A102" s="13">
         <v>43462</v>
       </c>
@@ -69538,7 +69618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1">
       <c r="A103" s="13">
         <v>43496</v>
       </c>
@@ -69580,7 +69660,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1">
       <c r="A104" s="13">
         <v>43524</v>
       </c>
@@ -69621,7 +69701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1">
       <c r="A105" s="13">
         <v>43553</v>
       </c>
@@ -69662,7 +69742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1">
       <c r="A106" s="13">
         <v>43585</v>
       </c>
@@ -69703,7 +69783,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1">
       <c r="A107" s="13">
         <v>43616</v>
       </c>
@@ -69744,7 +69824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1">
       <c r="A108" s="13">
         <v>43644</v>
       </c>
@@ -69785,7 +69865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1">
       <c r="A109" s="13">
         <v>43677</v>
       </c>
@@ -69826,7 +69906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1">
       <c r="A110" s="13">
         <v>43707</v>
       </c>
@@ -69867,7 +69947,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1">
       <c r="A111" s="13">
         <v>43738</v>
       </c>
@@ -69908,7 +69988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1">
       <c r="A112" s="13">
         <v>43769</v>
       </c>
@@ -69949,7 +70029,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1">
       <c r="A113" s="13">
         <v>43798</v>
       </c>
@@ -69990,7 +70070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1">
       <c r="A114" s="13">
         <v>43830</v>
       </c>
@@ -70031,7 +70111,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1">
       <c r="A115" s="13">
         <v>43853</v>
       </c>
@@ -70073,7 +70153,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1">
       <c r="A116" s="13">
         <v>43889</v>
       </c>
@@ -70114,7 +70194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1">
       <c r="A117" s="13">
         <v>43921</v>
       </c>
@@ -70155,7 +70235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1">
       <c r="A118" s="13">
         <v>43951</v>
       </c>
@@ -70196,7 +70276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1">
       <c r="A119" s="13">
         <v>43980</v>
       </c>
@@ -70237,7 +70317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1">
       <c r="A120" s="13">
         <v>44012</v>
       </c>
@@ -70278,7 +70358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1">
       <c r="A121" s="13">
         <v>44043</v>
       </c>
@@ -70319,7 +70399,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1">
       <c r="A122" s="13">
         <v>44074</v>
       </c>
@@ -70360,7 +70440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1">
       <c r="A123" s="13">
         <v>44104</v>
       </c>
@@ -70401,7 +70481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1">
       <c r="A124" s="13">
         <v>44134</v>
       </c>
@@ -70442,7 +70522,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1">
       <c r="A125" s="13">
         <v>44165</v>
       </c>
@@ -70483,7 +70563,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1">
       <c r="A126" s="13">
         <v>44196</v>
       </c>
@@ -70524,7 +70604,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1">
       <c r="A127" s="13">
         <v>44225</v>
       </c>
@@ -70566,7 +70646,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1">
       <c r="A128" s="13">
         <v>44253</v>
       </c>
@@ -70607,7 +70687,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1">
       <c r="A129" s="13">
         <v>44286</v>
       </c>
@@ -70648,7 +70728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1">
       <c r="A130" s="13">
         <v>44316</v>
       </c>
@@ -70689,7 +70769,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1">
       <c r="A131" s="13">
         <v>44347</v>
       </c>
@@ -70730,7 +70810,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1">
       <c r="A132" s="13">
         <v>44377</v>
       </c>
@@ -70771,7 +70851,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1">
       <c r="A133" s="13">
         <v>44407</v>
       </c>
@@ -70812,7 +70892,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1">
       <c r="A134" s="13">
         <v>44439</v>
       </c>
@@ -70853,7 +70933,7 @@
         <v>13.430000305175781</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1">
       <c r="A135" s="13">
         <v>44469</v>
       </c>
@@ -70894,7 +70974,7 @@
         <v>12.899999618530273</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1">
       <c r="A136" s="13">
         <v>44498</v>
       </c>
@@ -70935,7 +71015,7 @@
         <v>12.840000152587891</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1">
       <c r="A137" s="13">
         <v>44530</v>
       </c>
@@ -70976,7 +71056,7 @@
         <v>12.390000343322754</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1">
       <c r="A138" s="13">
         <v>44561</v>
       </c>
@@ -71017,7 +71097,7 @@
         <v>12.949999809265137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1">
       <c r="A139" s="13">
         <v>44589</v>
       </c>
@@ -71059,7 +71139,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1">
       <c r="A140" s="13">
         <v>44620</v>
       </c>
@@ -71100,7 +71180,7 @@
         <v>12.239999771118164</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1">
       <c r="A141" s="13">
         <v>44651</v>
       </c>
@@ -71141,7 +71221,7 @@
         <v>11.460000040000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1">
       <c r="A142" s="13">
         <v>44680</v>
       </c>
@@ -71182,7 +71262,7 @@
         <v>11.14000034</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1">
       <c r="A143" s="13">
         <v>44712</v>
       </c>
@@ -71223,7 +71303,7 @@
         <v>10.93999958</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1">
       <c r="A144" s="13">
         <v>44742</v>
       </c>
@@ -71264,7 +71344,7 @@
         <v>12.100000380000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.1" customHeight="1">
       <c r="A145" s="13">
         <v>44771</v>
       </c>
@@ -71305,7 +71385,7 @@
         <v>11.239999770000001</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.1" customHeight="1">
       <c r="A146" s="13">
         <v>44804</v>
       </c>
@@ -71346,7 +71426,7 @@
         <v>11.100000380000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="12.75">
       <c r="A147" s="13">
         <v>44834</v>
       </c>
@@ -71387,7 +71467,7 @@
         <v>10.100000380000001</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="13">
         <v>44865</v>
       </c>
@@ -71428,7 +71508,7 @@
         <v>9.3900003430000005</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="12.75">
       <c r="A149" s="13">
         <v>44895</v>
       </c>
@@ -71482,13 +71562,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
@@ -71496,7 +71576,7 @@
     <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
@@ -71504,7 +71584,7 @@
         <v>399378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -71513,7 +71593,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -71528,7 +71608,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>2</v>
@@ -71544,7 +71624,7 @@
         <v>16.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -71560,7 +71640,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -71576,7 +71656,7 @@
         <v>16.142499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -71592,7 +71672,7 @@
         <v>16.127999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -71608,7 +71688,7 @@
         <v>16.133333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -71624,7 +71704,7 @@
         <v>16.185714285714283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -71640,7 +71720,7 @@
         <v>16.223749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -71656,7 +71736,7 @@
         <v>16.258888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -71672,7 +71752,7 @@
         <v>16.283999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -71688,7 +71768,7 @@
         <v>16.318181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -71704,7 +71784,7 @@
         <v>16.330833333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -71720,7 +71800,7 @@
         <v>16.346923076923073</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -71736,7 +71816,7 @@
         <v>16.36785714285714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -71752,7 +71832,7 @@
         <v>16.393333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -71768,7 +71848,7 @@
         <v>16.409374999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -71784,7 +71864,7 @@
         <v>16.282941176470587</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -71800,7 +71880,7 @@
         <v>16.162777777777777</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -71816,7 +71896,7 @@
         <v>16.055263157894736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -71832,7 +71912,7 @@
         <v>15.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -71848,7 +71928,7 @@
         <v>15.879523809523809</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -71864,7 +71944,7 @@
         <v>15.798636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -71880,7 +71960,7 @@
         <v>15.735217391304346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -71896,7 +71976,7 @@
         <v>15.687083333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -71912,7 +71992,7 @@
         <v>15.643199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -71928,7 +72008,7 @@
         <v>15.600384615384611</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -71944,7 +72024,7 @@
         <v>15.561111111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -71960,7 +72040,7 @@
         <v>15.520714285714282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -71976,7 +72056,7 @@
         <v>15.485172413793101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -71992,7 +72072,7 @@
         <v>15.465666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -72008,7 +72088,7 @@
         <v>15.447419354838706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -72024,7 +72104,7 @@
         <v>15.431562499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -72040,7 +72120,7 @@
         <v>15.416060606060602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -72056,7 +72136,7 @@
         <v>15.40205882352941</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -72072,7 +72152,7 @@
         <v>15.389999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -72088,7 +72168,7 @@
         <v>15.375555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -72104,7 +72184,7 @@
         <v>15.359459459459458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -72120,7 +72200,7 @@
         <v>15.346052631578948</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -72136,7 +72216,7 @@
         <v>15.332564102564103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -72152,7 +72232,7 @@
         <v>15.31625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -72168,7 +72248,7 @@
         <v>15.301707317073172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -72184,7 +72264,7 @@
         <v>15.290714285714287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -72200,7 +72280,7 @@
         <v>15.278372093023256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -72216,7 +72296,7 @@
         <v>15.264772727272726</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -72232,7 +72312,7 @@
         <v>15.24688888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -72248,7 +72328,7 @@
         <v>15.229565217391306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -72264,7 +72344,7 @@
         <v>15.211702127659576</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -72280,7 +72360,7 @@
         <v>15.193333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -72296,7 +72376,7 @@
         <v>15.178571428571431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -72312,7 +72392,7 @@
         <v>15.164600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -72328,7 +72408,7 @@
         <v>15.152352941176472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -72344,7 +72424,7 @@
         <v>15.144423076923079</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -72360,7 +72440,7 @@
         <v>15.136981132075473</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -72376,7 +72456,7 @@
         <v>15.127407407407409</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -72392,7 +72472,7 @@
         <v>15.119636363636367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -72408,7 +72488,7 @@
         <v>15.113214285714289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -72424,7 +72504,7 @@
         <v>15.100175438596494</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -72440,7 +72520,7 @@
         <v>15.087413793103451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -72456,7 +72536,7 @@
         <v>15.074576271186444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -72472,7 +72552,7 @@
         <v>15.064500000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -72488,7 +72568,7 @@
         <v>15.051967213114757</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -72504,7 +72584,7 @@
         <v>15.038709677419359</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -72520,7 +72600,7 @@
         <v>15.027777777777782</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -72536,7 +72616,7 @@
         <v>15.018125000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -72552,7 +72632,7 @@
         <v>15.00692307692308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -72568,7 +72648,7 @@
         <v>14.998484848484852</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="17">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -72584,7 +72664,7 @@
         <v>14.98761194029851</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -72600,7 +72680,7 @@
         <v>14.978235294117651</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -72616,7 +72696,7 @@
         <v>14.968405797101452</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -72632,7 +72712,7 @@
         <v>14.959428571428573</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="17">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -72648,7 +72728,7 @@
         <v>14.950985915492957</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -72664,7 +72744,7 @@
         <v>14.940000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -72680,7 +72760,7 @@
         <v>14.922876706580594</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -72696,7 +72776,7 @@
         <v>14.900270264599776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -72712,7 +72792,7 @@
         <v>14.879199990336101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="17">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -72728,7 +72808,7 @@
         <v>14.860526306754664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -72744,7 +72824,7 @@
         <v>14.840389606921704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -72760,7 +72840,7 @@
         <v>14.824743584852953</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="17">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -72776,7 +72856,7 @@
         <v>14.809999993239778</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -72792,7 +72872,7 @@
         <v>15.001624985694885</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="17">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -72808,7 +72888,7 @@
         <v>14.984814804924859</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="17">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -72824,7 +72904,7 @@
         <v>14.967804870140263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="17">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -72840,7 +72920,7 @@
         <v>14.953373491677894</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="17">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -72856,7 +72936,7 @@
         <v>14.941547617231098</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -72872,7 +72952,7 @@
         <v>14.929529410867131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="17">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -72888,7 +72968,7 @@
         <v>14.916395350167919</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="17">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -72904,7 +72984,7 @@
         <v>14.903218397381663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="17">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -72920,7 +73000,7 @@
         <v>14.89056818788702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="17">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -72936,7 +73016,7 @@
         <v>14.874831464103099</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -72952,7 +73032,7 @@
         <v>14.860666674296063</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -72968,7 +73048,7 @@
         <v>14.845494508009692</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -72984,7 +73064,7 @@
         <v>14.827717394206836</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="17">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -73000,7 +73080,7 @@
         <v>14.81225807107905</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="17">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -73016,7 +73096,7 @@
         <v>14.798510649660802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -73032,7 +73112,7 @@
         <v>14.786105273196572</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="17">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -73048,7 +73128,7 @@
         <v>14.771666672627132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="17">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -73064,7 +73144,7 @@
         <v>14.758144336189192</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="17">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -73080,7 +73160,7 @@
         <v>14.744693879497294</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="17">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -73096,7 +73176,7 @@
         <v>14.73141414642334</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -73112,7 +73192,7 @@
         <v>14.710400006103516</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="17">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -73128,7 +73208,7 @@
         <v>14.690099014433304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="17">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -73144,7 +73224,7 @@
         <v>14.670000007853789</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="17">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -73160,7 +73240,7 @@
         <v>14.652135929366917</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="17">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -73176,7 +73256,7 @@
         <v>14.636153850922218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -73192,7 +73272,7 @@
         <v>14.619809529259092</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="17">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -73208,7 +73288,7 @@
         <v>14.60415094915426</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="17">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -73224,7 +73304,7 @@
         <v>14.589626175711089</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -73240,7 +73320,7 @@
         <v>14.57564815485919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="17">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -73256,7 +73336,7 @@
         <v>14.560550468164847</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -73272,7 +73352,7 @@
         <v>14.544818190487948</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="17">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -73288,7 +73368,7 @@
         <v>14.528288297223616</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="17">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -73304,7 +73384,7 @@
         <v>14.512946441173554</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="17">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -73320,7 +73400,7 @@
         <v>14.497876122398715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="17">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -73336,7 +73416,7 @@
         <v>14.483157908121745</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -73352,7 +73432,7 @@
         <v>14.468521754057512</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="17">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -73368,7 +73448,7 @@
         <v>14.455172429249204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="17">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -73384,7 +73464,7 @@
         <v>14.442564113975591</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="17">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -73400,7 +73480,7 @@
         <v>14.428813568050579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="17">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -73416,7 +73496,7 @@
         <v>14.41596639200419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -73432,7 +73512,7 @@
         <v>14.404416669845581</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="17">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -73448,7 +73528,7 @@
         <v>14.393140498705147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -73464,7 +73544,7 @@
         <v>14.381147546299168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="17">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -73480,7 +73560,7 @@
         <v>14.370162604727396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="17">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -73496,7 +73576,7 @@
         <v>14.358870972971763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -73512,7 +73592,7 @@
         <v>14.348080007019043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="17">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -73528,7 +73608,7 @@
         <v>14.336269845508394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="17">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -73544,7 +73624,7 @@
         <v>14.325590551781843</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -73560,7 +73640,7 @@
         <v>14.314687502980233</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="17">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -73576,7 +73656,7 @@
         <v>14.304418605834016</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -73592,7 +73672,7 @@
         <v>14.294615383735071</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="17">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
@@ -73608,7 +73688,7 @@
         <v>14.285267172369339</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="17">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -73624,7 +73704,7 @@
         <v>14.275681818470812</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="17">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -73640,7 +73720,7 @@
         <v>14.26511278138125</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="17">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -73656,7 +73736,7 @@
         <v>14.254029848184159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="17">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -73672,7 +73752,7 @@
         <v>14.243555554142706</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="17">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -73688,7 +73768,7 @@
         <v>14.231397058543038</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="17">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -73704,7 +73784,7 @@
         <v>14.218175182760197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="17">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -73720,7 +73800,7 @@
         <v>14.204855073569478</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="17">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -73736,7 +73816,7 @@
         <v>14.192589929155309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -73752,7 +73832,7 @@
         <v>14.180000003269742</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="17">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -73768,7 +73848,7 @@
         <v>14.167517734284097</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="17">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -73784,7 +73864,7 @@
         <v>14.155000006178735</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="17">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -73800,7 +73880,7 @@
         <v>14.142167836169262</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="17">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -73816,7 +73896,7 @@
         <v>14.130694446828631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="17">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -73832,7 +73912,7 @@
         <v>14.119103449328193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="17">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -73848,7 +73928,7 @@
         <v>14.107602737897064</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="17">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -73864,7 +73944,7 @@
         <v>14.096462585034015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="17">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -73880,7 +73960,7 @@
         <v>14.085608106561612</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="17">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -73896,7 +73976,7 @@
         <v>14.074161073057445</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -73912,7 +73992,7 @@
         <v>14.06380000228882</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="17">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -73928,7 +74008,7 @@
         <v>14.053774837973894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -73944,7 +74024,7 @@
         <v>14.043881583715741</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="17">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -73960,7 +74040,7 @@
         <v>14.034444451674918</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="17">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -73976,7 +74056,7 @@
         <v>14.024870139778436</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="17">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -73992,7 +74072,7 @@
         <v>14.014774203638879</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -74008,7 +74088,7 @@
         <v>14.004743598546739</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="17">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -74024,7 +74104,7 @@
         <v>13.994458609659961</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -74040,7 +74120,7 @@
         <v>13.984620261373401</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="17">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -74056,7 +74136,7 @@
         <v>13.975094349459285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="17">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -74072,7 +74152,7 @@
         <v>13.966375009298327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="17">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -74088,7 +74168,7 @@
         <v>13.957826097144846</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="17">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -74104,7 +74184,7 @@
         <v>13.949876553806259</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="17">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -74120,7 +74200,7 @@
         <v>13.943067496130073</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -74136,7 +74216,7 @@
         <v>13.937378061573682</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="17">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -74152,7 +74232,7 @@
         <v>13.931575767517092</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="17">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -74168,7 +74248,7 @@
         <v>13.926987962148278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="17">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -74184,7 +74264,7 @@
         <v>13.922035940707088</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="17">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -74200,7 +74280,7 @@
         <v>13.916488106364298</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="17">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -74216,7 +74296,7 @@
         <v>13.911597645099349</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="17">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -74232,7 +74312,7 @@
         <v>13.90564706847247</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="17">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -74248,7 +74328,7 @@
         <v>13.899122816386978</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="17">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -74264,7 +74344,7 @@
         <v>13.893197684398919</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="17">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -74280,7 +74360,7 @@
         <v>13.88734105104656</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="17">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -74296,7 +74376,7 @@
         <v>13.882183917253869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="17">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -74312,7 +74392,7 @@
         <v>13.877028577968055</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -74328,7 +74408,7 @@
         <v>13.871875008019536</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="17">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -74344,7 +74424,7 @@
         <v>13.867175149001646</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="17">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -74360,7 +74440,7 @@
         <v>13.861348321893244</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="17">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -74376,7 +74456,7 @@
         <v>13.855921796873297</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="17">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -74392,7 +74472,7 @@
         <v>13.85088889694214</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="17">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -74408,7 +74488,7 @@
         <v>13.845745864783863</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -74424,7 +74504,7 @@
         <v>13.840219789442127</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="17">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -74440,7 +74520,7 @@
         <v>13.834207658194455</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="17">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -74456,7 +74536,7 @@
         <v>13.828423923409504</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="17">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -74472,7 +74552,7 @@
         <v>13.822972981633368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="17">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -74488,7 +74568,7 @@
         <v>13.8169354924848</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="17">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -74504,7 +74584,7 @@
         <v>13.811336909411425</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -74520,7 +74600,7 @@
         <v>13.804734053510302</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="17">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -74536,7 +74616,7 @@
         <v>13.797566147456095</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -74552,7 +74632,7 @@
         <v>13.790736851943167</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="17">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -74568,7 +74648,7 @@
         <v>13.784816762914209</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="17">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -74584,7 +74664,7 @@
         <v>13.778750008344652</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="17">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -74600,7 +74680,7 @@
         <v>13.773316068105748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="17">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -74616,9 +74696,9 @@
         <v>13.767319591758179</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A402" si="3">A196+1</f>
+        <f t="shared" ref="A197:A424" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -74632,7 +74712,7 @@
         <v>13.761333339397725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="17">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -74648,7 +74728,7 @@
         <v>13.754030617889095</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="17">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -74664,7 +74744,7 @@
         <v>13.747208126668399</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="17">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -74680,7 +74760,7 @@
         <v>13.739494955660119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="17">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -74696,7 +74776,7 @@
         <v>13.730954779811841</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -74712,7 +74792,7 @@
         <v>13.723600007057192</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="17">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -74728,7 +74808,7 @@
         <v>13.71641791614134</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="17">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -74744,7 +74824,7 @@
         <v>13.709851492513526</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="17">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -74760,7 +74840,7 @@
         <v>13.703448282439135</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="17">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -74776,7 +74856,7 @@
         <v>13.696911770689722</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="17">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -74792,7 +74872,7 @@
         <v>13.689853664491237</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="17">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -74808,7 +74888,7 @@
         <v>13.683203887939454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -74824,7 +74904,7 @@
         <v>13.676811596967173</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="17">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -74840,7 +74920,7 @@
         <v>13.670528848354634</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="17">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -74856,7 +74936,7 @@
         <v>13.664688996492963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="17">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -74872,7 +74952,7 @@
         <v>13.658809526534309</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="17">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -74888,7 +74968,7 @@
         <v>13.652274882962919</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="17">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -74904,7 +74984,7 @@
         <v>13.646132078710593</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="17">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -74920,7 +75000,7 @@
         <v>13.639014088268013</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="17">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -74936,7 +75016,7 @@
         <v>13.632336452519784</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="17">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -74952,7 +75032,7 @@
         <v>13.625860467955125</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="17">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -74968,7 +75048,7 @@
         <v>13.619953708288666</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="17">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -74984,7 +75064,7 @@
         <v>13.613824889172127</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="17">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -75000,7 +75080,7 @@
         <v>13.607568811698862</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="17">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -75016,7 +75096,7 @@
         <v>13.600821922650008</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="17">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -75032,7 +75112,7 @@
         <v>13.59268182491069</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="17">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -75048,7 +75128,7 @@
         <v>13.583574666969916</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="17">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -75064,7 +75144,7 @@
         <v>13.57405406157816</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="17">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -75080,7 +75160,7 @@
         <v>13.565336330853594</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="17">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -75096,7 +75176,7 @@
         <v>13.556875008305141</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="17">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -75112,7 +75192,7 @@
         <v>13.547066676623785</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="17">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -75128,7 +75208,7 @@
         <v>13.534867266373237</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="17">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -75144,7 +75224,7 @@
         <v>13.524317191807716</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="17">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -75160,7 +75240,7 @@
         <v>13.514824571054174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="17">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -75176,7 +75256,7 @@
         <v>13.505851538167475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="17">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -75192,7 +75272,7 @@
         <v>13.496782618784138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="17">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -75208,7 +75288,7 @@
         <v>13.48792208714438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="17">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -75224,7 +75304,7 @@
         <v>13.479353457458412</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="17">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -75240,7 +75320,7 @@
         <v>13.470600865709663</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="17">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -75256,7 +75336,7 @@
         <v>13.461153854445948</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="17">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -75272,7 +75352,7 @@
         <v>13.451787243278092</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="17">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -75288,7 +75368,7 @@
         <v>13.44245763631505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="17">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -75304,7 +75384,7 @@
         <v>13.434261612533129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="17">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -75320,7 +75400,7 @@
         <v>13.425966395841815</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="17">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -75336,7 +75416,7 @@
         <v>13.418326370677079</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="17">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -75352,7 +75432,7 @@
         <v>13.410666677148033</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="17">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -75368,7 +75448,7 @@
         <v>13.402614119429694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="17">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -75384,7 +75464,7 @@
         <v>13.394876043452594</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="17">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -75400,7 +75480,7 @@
         <v>13.386090546273291</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="17">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -75416,7 +75496,7 @@
         <v>13.378114763626201</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="17">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -75432,7 +75512,7 @@
         <v>13.369918376368783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="17">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -75448,7 +75528,7 @@
         <v>13.36247968362685</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="17">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -75464,7 +75544,7 @@
         <v>13.35497976680602</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -75480,7 +75560,7 @@
         <v>13.347137105840721</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="17">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -75496,7 +75576,7 @@
         <v>13.339236957280884</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="17">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -75512,7 +75592,7 @@
         <v>13.330800007620704</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="17">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -75528,7 +75608,7 @@
         <v>13.321633472661942</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="17">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -75544,7 +75624,7 @@
         <v>13.312817468331813</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="17">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -75560,7 +75640,7 @@
         <v>13.30209487115054</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="17">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -75576,7 +75656,7 @@
         <v>13.291377961908633</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -75592,7 +75672,7 @@
         <v>13.28168628242987</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="17">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -75608,7 +75688,7 @@
         <v>13.272617195538141</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="17">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -75624,7 +75704,7 @@
         <v>13.264319075477681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="17">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -75640,7 +75720,7 @@
         <v>13.254728691309163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="17">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -75656,7 +75736,7 @@
         <v>13.244247113196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="17">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -75672,7 +75752,7 @@
         <v>13.233576933029861</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="17">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -75688,7 +75768,7 @@
         <v>13.223256714742391</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="17">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -75704,7 +75784,7 @@
         <v>13.213282451174672</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="17">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -75720,7 +75800,7 @@
         <v>13.203193926341308</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="17">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -75736,7 +75816,7 @@
         <v>13.193560615446076</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="17">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -75752,7 +75832,7 @@
         <v>13.183735858972694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="17">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -75768,7 +75848,7 @@
         <v>13.174323319314903</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="17">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -75784,7 +75864,7 @@
         <v>13.164756564897994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="17">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -75800,7 +75880,7 @@
         <v>13.155298518424493</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="17">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -75816,7 +75896,7 @@
         <v>13.146654286013993</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="17">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -75832,7 +75912,7 @@
         <v>13.137814826547274</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="17">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -75848,7 +75928,7 @@
         <v>13.128339493940089</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="17">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -75864,7 +75944,7 @@
         <v>13.119154422675603</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="17">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -75880,7 +75960,7 @@
         <v>13.110183161347122</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="17">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -75896,7 +75976,7 @@
         <v>13.101459866123227</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="17">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -75912,7 +75992,7 @@
         <v>13.09301819290096</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="17">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -75928,7 +76008,7 @@
         <v>13.085217400825231</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="17">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -75944,7 +76024,7 @@
         <v>13.077328527970266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="17">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -75960,7 +76040,7 @@
         <v>13.069424468912819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="17">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -75976,7 +76056,7 @@
         <v>13.062007176909548</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="17">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -75992,7 +76072,7 @@
         <v>13.054857152777728</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="17">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -76008,7 +76088,7 @@
         <v>13.048113888355031</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="17">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -76024,7 +76104,7 @@
         <v>13.041170222616184</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="17">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -76040,7 +76120,7 @@
         <v>13.03473499310164</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="17">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -76056,7 +76136,7 @@
         <v>12.999788742756211</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="17">
         <f t="shared" si="3"/>
         <v>285</v>
@@ -76072,7 +76152,7 @@
         <v>12.994526326114961</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="17">
         <f t="shared" si="3"/>
         <v>286</v>
@@ -76088,7 +76168,7 @@
         <v>12.989720289625049</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="17">
         <f t="shared" si="3"/>
         <v>287</v>
@@ -76104,7 +76184,7 @@
         <v>12.984634155270955</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="17">
         <f t="shared" si="3"/>
         <v>288</v>
@@ -76120,7 +76200,7 @@
         <v>12.980173619349875</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="17">
         <f t="shared" si="3"/>
         <v>289</v>
@@ -76136,7 +76216,7 @@
         <v>12.975813157933439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="17">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -76152,7 +76232,7 @@
         <v>12.971413801561255</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="17">
         <f t="shared" si="3"/>
         <v>291</v>
@@ -76168,7 +76248,7 @@
         <v>12.966529218703656</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="17">
         <f t="shared" si="3"/>
         <v>292</v>
@@ -76184,7 +76264,7 @@
         <v>12.962260283947822</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="17">
         <f t="shared" si="3"/>
         <v>293</v>
@@ -76200,7 +76280,7 @@
         <v>12.958464175060628</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="17">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -76216,7 +76296,7 @@
         <v>12.955068038546816</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="17">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -76232,7 +76312,7 @@
         <v>12.952000011941573</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="17">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -76248,7 +76328,7 @@
         <v>12.948513525685014</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="17">
         <f t="shared" si="3"/>
         <v>297</v>
@@ -76264,7 +76344,7 @@
         <v>12.945656579066547</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="17">
         <f t="shared" si="3"/>
         <v>298</v>
@@ -76280,7 +76360,7 @@
         <v>12.942651020713974</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="17">
         <f t="shared" si="3"/>
         <v>299</v>
@@ -76296,7 +76376,7 @@
         <v>12.94000001268483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -76312,7 +76392,7 @@
         <v>12.937333347109215</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
@@ -76328,7 +76408,7 @@
         <v>12.93398672572347</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="17">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -76344,7 +76424,7 @@
         <v>12.930728490903194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="17">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -76360,7 +76440,7 @@
         <v>12.927425757632886</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="17">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -76376,7 +76456,7 @@
         <v>12.923552646588041</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="17">
         <f t="shared" si="3"/>
         <v>305</v>
@@ -76392,7 +76472,7 @@
         <v>12.919377062894311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="17">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -76408,7 +76488,7 @@
         <v>12.915261451087467</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="17">
         <f t="shared" si="3"/>
         <v>307</v>
@@ -76424,7 +76504,7 @@
         <v>12.911042358054608</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="17">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -76440,7 +76520,7 @@
         <v>12.906168843418069</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="17">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -76456,7 +76536,7 @@
         <v>12.901779948099563</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="17">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -76472,7 +76552,7 @@
         <v>12.897290336105694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="17">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -76488,7 +76568,7 @@
         <v>12.899292619462267</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="17">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -76504,7 +76584,7 @@
         <v>12.89448719318194</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="17">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -76520,7 +76600,7 @@
         <v>12.889712472500847</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="17">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -76536,7 +76616,7 @@
         <v>12.884872623511992</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -76552,7 +76632,7 @@
         <v>12.880317471723064</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="17">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -76568,7 +76648,7 @@
         <v>12.875601278268244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="17">
         <f t="shared" si="3"/>
         <v>317</v>
@@ -76584,7 +76664,7 @@
         <v>12.870914839977177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="17">
         <f t="shared" si="3"/>
         <v>318</v>
@@ -76600,7 +76680,7 @@
         <v>12.86578617623511</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="17">
         <f t="shared" si="3"/>
         <v>319</v>
@@ -76616,7 +76696,7 @@
         <v>12.860815058848795</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="17">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -76632,7 +76712,7 @@
         <v>12.855187511789893</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="17">
         <f t="shared" si="3"/>
         <v>321</v>
@@ -76648,7 +76728,7 @@
         <v>12.849252348201762</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="17">
         <f t="shared" si="3"/>
         <v>322</v>
@@ -76664,7 +76744,7 @@
         <v>12.843633552089335</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="17">
         <f t="shared" si="3"/>
         <v>323</v>
@@ -76680,7 +76760,7 @@
         <v>12.838390103383174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="17">
         <f t="shared" si="3"/>
         <v>324</v>
@@ -76696,7 +76776,7 @@
         <v>12.833148159669031</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="17">
         <f t="shared" si="3"/>
         <v>325</v>
@@ -76712,7 +76792,7 @@
         <v>12.828061550900818</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="17">
         <f t="shared" si="3"/>
         <v>326</v>
@@ -76728,7 +76808,7 @@
         <v>12.82273007421094</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="17">
         <f t="shared" si="3"/>
         <v>327</v>
@@ -76744,7 +76824,7 @@
         <v>12.818012245237815</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="17">
         <f t="shared" si="3"/>
         <v>328</v>
@@ -76760,7 +76840,7 @@
         <v>12.813353671197458</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="17">
         <f t="shared" si="3"/>
         <v>329</v>
@@ -76776,7 +76856,7 @@
         <v>12.808693020920261</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="17">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -76792,7 +76872,7 @@
         <v>12.804000012462927</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="17">
         <f t="shared" si="3"/>
         <v>331</v>
@@ -76808,7 +76888,7 @@
         <v>12.799546839978143</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="17">
         <f t="shared" si="3"/>
         <v>332</v>
@@ -76824,7 +76904,7 @@
         <v>12.794849409044476</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="17">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -76840,7 +76920,7 @@
         <v>12.790090101629927</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="17">
         <f t="shared" si="3"/>
         <v>334</v>
@@ -76856,7 +76936,7 @@
         <v>12.785568872972352</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="17">
         <f t="shared" si="3"/>
         <v>335</v>
@@ -76872,7 +76952,7 @@
         <v>12.780955233859002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="17">
         <f t="shared" si="3"/>
         <v>336</v>
@@ -76888,7 +76968,7 @@
         <v>12.775863104264184</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="17">
         <f t="shared" si="3"/>
         <v>337</v>
@@ -76904,7 +76984,7 @@
         <v>12.77115727778269</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="17">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -76920,7 +77000,7 @@
         <v>12.766360953351381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="17">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -76936,7 +77016,7 @@
         <v>12.76150443104061</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="17">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -76952,7 +77032,7 @@
         <v>12.756558829537548</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="17">
         <f t="shared" si="3"/>
         <v>341</v>
@@ -76968,7 +77048,7 @@
         <v>12.751700886870283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="17">
         <f t="shared" si="3"/>
         <v>342</v>
@@ -76984,7 +77064,7 @@
         <v>12.74526316497885</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="17">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -77000,7 +77080,7 @@
         <v>12.738862981378329</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="17">
         <f t="shared" si="3"/>
         <v>344</v>
@@ -77016,7 +77096,7 @@
         <v>12.732500007595252</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" ht="12.75" customHeight="1">
       <c r="A347" s="17">
         <f t="shared" si="3"/>
         <v>345</v>
@@ -77032,7 +77112,7 @@
         <v>12.726000007573237</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" ht="12.75" customHeight="1">
       <c r="A348" s="17">
         <f t="shared" si="3"/>
         <v>346</v>
@@ -77048,7 +77128,7 @@
         <v>12.719335267666956</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" ht="12.75" customHeight="1">
       <c r="A349" s="17">
         <f t="shared" si="3"/>
         <v>347</v>
@@ -77064,7 +77144,7 @@
         <v>12.712651304359557</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" ht="12.75" customHeight="1">
       <c r="A350" s="17">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -77080,7 +77160,7 @@
         <v>12.705833340841282</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="12.75" customHeight="1">
       <c r="A351" s="17">
         <f t="shared" si="3"/>
         <v>349</v>
@@ -77096,7 +77176,7 @@
         <v>12.699455594878986</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" ht="12.75" customHeight="1">
       <c r="A352" s="17">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -77112,7 +77192,7 @@
         <v>12.692800007465046</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="12.75" customHeight="1">
       <c r="A353" s="17">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -77128,7 +77208,7 @@
         <v>12.686182343626113</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="12.75" customHeight="1">
       <c r="A354" s="17">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -77144,7 +77224,7 @@
         <v>12.67954546304763</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" ht="12.75" customHeight="1">
       <c r="A355" s="17">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -77160,7 +77240,7 @@
         <v>12.672379610801036</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="12.75" customHeight="1">
       <c r="A356" s="17">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -77176,7 +77256,7 @@
         <v>12.66528249283267</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="12.75" customHeight="1">
       <c r="A357" s="17">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -77192,7 +77272,7 @@
         <v>12.658507049838775</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" ht="12.75" customHeight="1">
       <c r="A358" s="17">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -77208,7 +77288,7 @@
         <v>12.65151686172125</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" ht="12.75" customHeight="1">
       <c r="A359" s="17">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -77224,7 +77304,7 @@
         <v>12.645182081548363</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" ht="12.75" customHeight="1">
       <c r="A360" s="17">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -77240,7 +77320,7 @@
         <v>12.638826824030073</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" ht="12.75" customHeight="1">
       <c r="A361" s="17">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -77256,7 +77336,7 @@
         <v>12.63245126290464</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="12.75" customHeight="1">
       <c r="A362" s="17">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -77272,7 +77352,7 @@
         <v>12.625638899146571</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="12.75" customHeight="1">
       <c r="A363" s="17">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -77288,7 +77368,7 @@
         <v>12.618698070866387</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="12.75" customHeight="1">
       <c r="A364" s="17">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -77304,7 +77384,7 @@
         <v>12.611740342438578</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" ht="12.75" customHeight="1">
       <c r="A365" s="17">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -77320,7 +77400,7 @@
         <v>12.604958687555827</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" ht="12.75" customHeight="1">
       <c r="A366" s="17">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -77336,7 +77416,7 @@
         <v>12.598241767672432</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" ht="12.75" customHeight="1">
       <c r="A367" s="17">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -77352,7 +77432,7 @@
         <v>12.591835626473328</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" ht="12.75" customHeight="1">
       <c r="A368" s="17">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -77368,7 +77448,7 @@
         <v>12.585218589461107</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" ht="12.75" customHeight="1">
       <c r="A369" s="17">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -77384,7 +77464,7 @@
         <v>12.57923706834541</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" ht="12.75" customHeight="1">
       <c r="A370" s="17">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -77400,7 +77480,7 @@
         <v>12.573233706447732</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" ht="12.75" customHeight="1">
       <c r="A371" s="17">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -77416,7 +77496,7 @@
         <v>12.567208683882834</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="12.75" customHeight="1">
       <c r="A372" s="17">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -77432,7 +77512,7 @@
         <v>12.560756769358825</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" ht="12.75" customHeight="1">
       <c r="A373" s="17">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -77448,7 +77528,7 @@
         <v>12.554177909845729</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" ht="12.75" customHeight="1">
       <c r="A374" s="17">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -77464,7 +77544,7 @@
         <v>12.547580658421412</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" ht="12.75" customHeight="1">
       <c r="A375" s="17">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -77480,7 +77560,7 @@
         <v>12.540241301213847</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" ht="12.75" customHeight="1">
       <c r="A376" s="17">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -77496,7 +77576,7 @@
         <v>12.532860976165148</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" ht="12.75" customHeight="1">
       <c r="A377" s="17">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -77512,7 +77592,7 @@
         <v>12.525653346692707</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" ht="12.75" customHeight="1">
       <c r="A378" s="17">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -77528,7 +77608,7 @@
         <v>12.518244693565864</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" ht="12.75" customHeight="1">
       <c r="A379" s="17">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -77544,7 +77624,7 @@
         <v>12.51031831436012</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" ht="12.75" customHeight="1">
       <c r="A380" s="17">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -77560,7 +77640,7 @@
         <v>12.502063504912076</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" ht="12.75" customHeight="1">
       <c r="A381" s="17">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -77576,7 +77656,7 @@
         <v>12.494696582835791</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" ht="12.75" customHeight="1">
       <c r="A382" s="17">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -77592,7 +77672,7 @@
         <v>12.487631592933591</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" ht="12.75" customHeight="1">
       <c r="A383" s="17">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -77608,7 +77688,7 @@
         <v>12.480419960855023</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" ht="12.75" customHeight="1">
       <c r="A384" s="17">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -77624,7 +77704,7 @@
         <v>12.473979072109332</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" ht="12.75" customHeight="1">
       <c r="A385" s="17">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -77640,7 +77720,7 @@
         <v>12.467676255785285</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" ht="12.75" customHeight="1">
       <c r="A386" s="17">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -77656,7 +77736,7 @@
         <v>12.461223973272823</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" ht="12.75" customHeight="1">
       <c r="A387" s="17">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -77672,7 +77752,7 @@
         <v>12.454623391721466</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" ht="12.75" customHeight="1">
       <c r="A388" s="17">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -77688,7 +77768,7 @@
         <v>12.447953383229958</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" ht="12.75" customHeight="1">
       <c r="A389" s="17">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -77704,7 +77784,7 @@
         <v>12.441963839888279</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" ht="12.75" customHeight="1">
       <c r="A390" s="17">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -77720,7 +77800,7 @@
         <v>12.436082489398874</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" ht="12.75" customHeight="1">
       <c r="A391" s="17">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -77736,7 +77816,7 @@
         <v>12.430616982793735</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" ht="12.75" customHeight="1">
       <c r="A392" s="17">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -77752,7 +77832,7 @@
         <v>12.425051298812212</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" ht="12.75" customHeight="1">
       <c r="A393" s="17">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -77768,7 +77848,7 @@
         <v>12.41936063004287</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" ht="12.75" customHeight="1">
       <c r="A394" s="17">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -77784,7 +77864,7 @@
         <v>12.413673484507049</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" ht="12.75" customHeight="1">
       <c r="A395" s="17">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -77800,7 +77880,7 @@
         <v>12.40783716492815</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" ht="12.75" customHeight="1">
       <c r="A396" s="17">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -77816,7 +77896,7 @@
         <v>12.402055852605997</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" ht="12.75" customHeight="1">
       <c r="A397" s="17">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -77832,7 +77912,7 @@
         <v>12.396405078498134</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" ht="12.75" customHeight="1">
       <c r="A398" s="17">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -77848,7 +77928,7 @@
         <v>12.390681833628189</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" ht="12.75" customHeight="1">
       <c r="A399" s="17">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -77864,7 +77944,7 @@
         <v>12.385163742888572</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" ht="12.75" customHeight="1">
       <c r="A400" s="17">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -77880,7 +77960,7 @@
         <v>12.379422126398902</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" ht="12.75" customHeight="1">
       <c r="A401" s="17">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -77896,7 +77976,7 @@
         <v>12.374436106884119</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" ht="12.75" customHeight="1">
       <c r="A402" s="17">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -77910,6 +77990,358 @@
       <c r="D402" s="17">
         <f>SUM($C$3:C402)/A402</f>
         <v>12.369450016891909</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="17">
+        <f t="shared" si="3"/>
+        <v>401</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C403" s="21">
+        <v>10.47000027</v>
+      </c>
+      <c r="D403" s="17">
+        <f>SUM($C$3:C403)/A403</f>
+        <v>12.364713234480707</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="17">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C404" s="21">
+        <v>10.420000079999999</v>
+      </c>
+      <c r="D404" s="17">
+        <f>SUM($C$3:C404)/A404</f>
+        <v>12.359875639569063</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="17">
+        <f t="shared" si="3"/>
+        <v>403</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C405" s="21">
+        <v>10.60999966</v>
+      </c>
+      <c r="D405" s="17">
+        <f>SUM($C$3:C405)/A405</f>
+        <v>12.355533515550281</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="17">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="B406" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C406" s="21">
+        <v>10.68000031</v>
+      </c>
+      <c r="D406" s="17">
+        <f>SUM($C$3:C406)/A406</f>
+        <v>12.351386156130602</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="17">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="B407" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C407" s="21">
+        <v>10.649999619999999</v>
+      </c>
+      <c r="D407" s="17">
+        <f>SUM($C$3:C407)/A407</f>
+        <v>12.347185201720402</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="17">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="B408" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C408" s="21">
+        <v>10.65999985</v>
+      </c>
+      <c r="D408" s="17">
+        <f>SUM($C$3:C408)/A408</f>
+        <v>12.343029572775277</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="17">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="B409" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C409" s="21">
+        <v>10.77000046</v>
+      </c>
+      <c r="D409" s="17">
+        <f>SUM($C$3:C409)/A409</f>
+        <v>12.339164636380252</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="17">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="B410" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C410" s="21">
+        <v>10.920000079999999</v>
+      </c>
+      <c r="D410" s="17">
+        <f>SUM($C$3:C410)/A410</f>
+        <v>12.33568629187932</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="17">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="B411" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C411" s="21">
+        <v>10.90999985</v>
+      </c>
+      <c r="D411" s="17">
+        <f>SUM($C$3:C411)/A411</f>
+        <v>12.332200505957854</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="17">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="B412" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C412" s="21">
+        <v>10.93999958</v>
+      </c>
+      <c r="D412" s="17">
+        <f>SUM($C$3:C412)/A412</f>
+        <v>12.328804893943325</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="17">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="B413" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C413" s="21">
+        <v>10.90999985</v>
+      </c>
+      <c r="D413" s="17">
+        <f>SUM($C$3:C413)/A413</f>
+        <v>12.325352813544434</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="17">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="B414" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C414" s="21">
+        <v>10.94999981</v>
+      </c>
+      <c r="D414" s="17">
+        <f>SUM($C$3:C414)/A414</f>
+        <v>12.322014578098939</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="17">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="B415" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C415" s="21">
+        <v>10.77999973</v>
+      </c>
+      <c r="D415" s="17">
+        <f>SUM($C$3:C415)/A415</f>
+        <v>12.31828088597279</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="17">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="B416" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C416" s="21">
+        <v>10.600000380000001</v>
+      </c>
+      <c r="D416" s="17">
+        <f>SUM($C$3:C416)/A416</f>
+        <v>12.314130449968024</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="17">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C417" s="21">
+        <v>10.60999966</v>
+      </c>
+      <c r="D417" s="17">
+        <f>SUM($C$3:C417)/A417</f>
+        <v>12.310024110715089</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="17">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="B418" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C418" s="21">
+        <v>10.64000034</v>
+      </c>
+      <c r="D418" s="17">
+        <f>SUM($C$3:C418)/A418</f>
+        <v>12.306009630497025</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="17">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C419" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D419" s="17">
+        <f>SUM($C$3:C419)/A419</f>
+        <v>12.301990423013818</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="17">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="B420" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C420" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D420" s="17">
+        <f>SUM($C$3:C420)/A420</f>
+        <v>12.297990446188425</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="17">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C421" s="21">
+        <v>10.75</v>
+      </c>
+      <c r="D421" s="17">
+        <f>SUM($C$3:C421)/A421</f>
+        <v>12.294295958250029</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="17">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="B422" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C422" s="21">
+        <v>10.739999770000001</v>
+      </c>
+      <c r="D422" s="17">
+        <f>SUM($C$3:C422)/A422</f>
+        <v>12.290595253039911</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="17">
+        <f t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="B423" s="20">
+        <v>44924</v>
+      </c>
+      <c r="C423" s="21">
+        <v>10.68000031</v>
+      </c>
+      <c r="D423" s="17">
+        <f>SUM($C$3:C423)/A423</f>
+        <v>12.28676961184504</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="17">
+        <f t="shared" si="3"/>
+        <v>422</v>
+      </c>
+      <c r="B424" s="20">
+        <v>44925</v>
+      </c>
+      <c r="C424" s="21">
+        <v>10.72999954</v>
+      </c>
+      <c r="D424" s="17">
+        <f>SUM($C$3:C424)/A424</f>
+        <v>12.283080583238773</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1&amp;2" sheetId="5" r:id="rId1"/>
@@ -1649,6 +1649,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1694,448 +1695,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,447 +2149,450 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>112000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>116000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>118000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>122000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>124000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>132000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>134000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>136000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>146000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>148000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>152000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>154000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>158000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>164000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>166000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>168000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>172000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>174000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>178000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>182000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>184000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>186000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>188000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>194000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>196000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>202000</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>204000</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>206000</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>208000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>212000</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>214000</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>222000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>224000</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>226000</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>228000</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>232000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>236000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>238000</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>242000</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>244000</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>246000</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>254000</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>258000</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>262000</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>264000</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>266000</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>268000</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>272000</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>274000</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>276000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>278000</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>286000</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>292000</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>294000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>296000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,448 +2634,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,447 +3088,450 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>423135.37791693263</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3560,448 +3573,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,448 +4026,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>#N/A</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>#N/A</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>#N/A</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>#N/A</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>#N/A</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>#N/A</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>#N/A</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>#N/A</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>#N/A</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>#N/A</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>#N/A</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>#N/A</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>#N/A</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>#N/A</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>#N/A</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>#N/A</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>#N/A</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>#N/A</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>#N/A</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>#N/A</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>#N/A</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>#N/A</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>#N/A</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>#N/A</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>#N/A</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>#N/A</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>#N/A</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>#N/A</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>#N/A</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>#N/A</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>#N/A</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>#N/A</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>#N/A</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>#N/A</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>#N/A</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>#N/A</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>#N/A</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>#N/A</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>#N/A</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>#N/A</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>#N/A</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>#N/A</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>#N/A</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>#N/A</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>#N/A</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>#N/A</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>#N/A</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>#N/A</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>#N/A</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>#N/A</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>#N/A</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>#N/A</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>#N/A</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>#N/A</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>#N/A</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>#N/A</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>#N/A</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>#N/A</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>#N/A</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>#N/A</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>#N/A</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>#N/A</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>#N/A</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>#N/A</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>#N/A</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>#N/A</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>#N/A</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>#N/A</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>#N/A</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>#N/A</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>#N/A</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>#N/A</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>#N/A</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>#N/A</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>#N/A</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>#N/A</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>#N/A</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>#N/A</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>#N/A</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16.649999999999999</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>14.94</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>14.7</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>13.310000419616699</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>13.430000305175781</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.899999618530273</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.840000152587891</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.390000343322754</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.949999809265137</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.039999961853027</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>12.239999771118164</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11.460000040000001</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>11.14000034</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.93999958</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>12.100000380000001</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>11.239999770000001</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>11.100000380000001</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>10.100000380000001</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>9.3900003430000005</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>10.380000109999999</c:v>
+                  <c:v>129135.37791693263</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4473,17 +4492,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532051840"/>
-        <c:axId val="532053376"/>
+        <c:axId val="77947264"/>
+        <c:axId val="77948800"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="532051840"/>
+      <c:dateAx>
+        <c:axId val="77947264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4520,15 +4539,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532053376"/>
+        <c:crossAx val="77948800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="532053376"/>
+        <c:axId val="77948800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +4597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532051840"/>
+        <c:crossAx val="77947264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4593,6 +4611,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -63825,6 +63844,306 @@
           </cell>
           <cell r="F2957">
             <v>2.4362099609375001</v>
+          </cell>
+        </row>
+        <row r="2958">
+          <cell r="A2958">
+            <v>44907</v>
+          </cell>
+          <cell r="B2958">
+            <v>2525.6201171875</v>
+          </cell>
+          <cell r="C2958">
+            <v>2531.699951171875</v>
+          </cell>
+          <cell r="D2958">
+            <v>2507.830078125</v>
+          </cell>
+          <cell r="E2958">
+            <v>2509.909912109375</v>
+          </cell>
+          <cell r="F2958">
+            <v>2.5099099121093751</v>
+          </cell>
+        </row>
+        <row r="2959">
+          <cell r="A2959">
+            <v>44908</v>
+          </cell>
+          <cell r="B2959">
+            <v>2509.77001953125</v>
+          </cell>
+          <cell r="C2959">
+            <v>2515.469970703125</v>
+          </cell>
+          <cell r="D2959">
+            <v>2499.679931640625</v>
+          </cell>
+          <cell r="E2959">
+            <v>2504.889892578125</v>
+          </cell>
+          <cell r="F2959">
+            <v>2.5048898925781251</v>
+          </cell>
+        </row>
+        <row r="2960">
+          <cell r="A2960">
+            <v>44909</v>
+          </cell>
+          <cell r="B2960">
+            <v>2506.239990234375</v>
+          </cell>
+          <cell r="C2960">
+            <v>2521.469970703125</v>
+          </cell>
+          <cell r="D2960">
+            <v>2496.070068359375</v>
+          </cell>
+          <cell r="E2960">
+            <v>2511.169921875</v>
+          </cell>
+          <cell r="F2960">
+            <v>2.5111699218750001</v>
+          </cell>
+        </row>
+        <row r="2961">
+          <cell r="A2961">
+            <v>44910</v>
+          </cell>
+          <cell r="B2961">
+            <v>2511.639892578125</v>
+          </cell>
+          <cell r="C2961">
+            <v>2517.780029296875</v>
+          </cell>
+          <cell r="D2961">
+            <v>2490.780029296875</v>
+          </cell>
+          <cell r="E2961">
+            <v>2507.530029296875</v>
+          </cell>
+          <cell r="F2961">
+            <v>2.5075300292968752</v>
+          </cell>
+        </row>
+        <row r="2962">
+          <cell r="A2962">
+            <v>44911</v>
+          </cell>
+          <cell r="B2962">
+            <v>2494.68994140625</v>
+          </cell>
+          <cell r="C2962">
+            <v>2516.090087890625</v>
+          </cell>
+          <cell r="D2962">
+            <v>2494.280029296875</v>
+          </cell>
+          <cell r="E2962">
+            <v>2513.300048828125</v>
+          </cell>
+          <cell r="F2962">
+            <v>2.5133000488281252</v>
+          </cell>
+        </row>
+        <row r="2963">
+          <cell r="A2963">
+            <v>44914</v>
+          </cell>
+          <cell r="B2963">
+            <v>2512.22998046875</v>
+          </cell>
+          <cell r="C2963">
+            <v>2518.830078125</v>
+          </cell>
+          <cell r="D2963">
+            <v>2465.550048828125</v>
+          </cell>
+          <cell r="E2963">
+            <v>2475.3701171875</v>
+          </cell>
+          <cell r="F2963">
+            <v>2.4753701171875</v>
+          </cell>
+        </row>
+        <row r="2964">
+          <cell r="A2964">
+            <v>44915</v>
+          </cell>
+          <cell r="B2964">
+            <v>2465.81005859375</v>
+          </cell>
+          <cell r="C2964">
+            <v>2465.81005859375</v>
+          </cell>
+          <cell r="D2964">
+            <v>2418.570068359375</v>
+          </cell>
+          <cell r="E2964">
+            <v>2429.0400390625</v>
+          </cell>
+          <cell r="F2964">
+            <v>2.4290400390625</v>
+          </cell>
+        </row>
+        <row r="2965">
+          <cell r="A2965">
+            <v>44916</v>
+          </cell>
+          <cell r="B2965">
+            <v>2436.469970703125</v>
+          </cell>
+          <cell r="C2965">
+            <v>2445.110107421875</v>
+          </cell>
+          <cell r="D2965">
+            <v>2425.72998046875</v>
+          </cell>
+          <cell r="E2965">
+            <v>2431.47998046875</v>
+          </cell>
+          <cell r="F2965">
+            <v>2.4314799804687501</v>
+          </cell>
+        </row>
+        <row r="2966">
+          <cell r="A2966">
+            <v>44917</v>
+          </cell>
+          <cell r="B2966">
+            <v>2450.360107421875</v>
+          </cell>
+          <cell r="C2966">
+            <v>2466.93994140625</v>
+          </cell>
+          <cell r="D2966">
+            <v>2428.5</v>
+          </cell>
+          <cell r="E2966">
+            <v>2437.219970703125</v>
+          </cell>
+          <cell r="F2966">
+            <v>2.4372199707031248</v>
+          </cell>
+        </row>
+        <row r="2967">
+          <cell r="A2967">
+            <v>44918</v>
+          </cell>
+          <cell r="B2967">
+            <v>2422.469970703125</v>
+          </cell>
+          <cell r="C2967">
+            <v>2447.800048828125</v>
+          </cell>
+          <cell r="D2967">
+            <v>2419.080078125</v>
+          </cell>
+          <cell r="E2967">
+            <v>2435.280029296875</v>
+          </cell>
+          <cell r="F2967">
+            <v>2.4352800292968748</v>
+          </cell>
+        </row>
+        <row r="2968">
+          <cell r="A2968">
+            <v>44921</v>
+          </cell>
+          <cell r="B2968">
+            <v>2437.3798828125</v>
+          </cell>
+          <cell r="C2968">
+            <v>2450.10009765625</v>
+          </cell>
+          <cell r="D2968">
+            <v>2433.010009765625</v>
+          </cell>
+          <cell r="E2968">
+            <v>2438.929931640625</v>
+          </cell>
+          <cell r="F2968">
+            <v>2.438929931640625</v>
+          </cell>
+        </row>
+        <row r="2969">
+          <cell r="A2969">
+            <v>44922</v>
+          </cell>
+          <cell r="B2969">
+            <v>2449.8701171875</v>
+          </cell>
+          <cell r="C2969">
+            <v>2469.169921875</v>
+          </cell>
+          <cell r="D2969">
+            <v>2446.93994140625</v>
+          </cell>
+          <cell r="E2969">
+            <v>2466.10009765625</v>
+          </cell>
+          <cell r="F2969">
+            <v>2.4661000976562502</v>
+          </cell>
+        </row>
+        <row r="2970">
+          <cell r="A2970">
+            <v>44923</v>
+          </cell>
+          <cell r="B2970">
+            <v>2460.1201171875</v>
+          </cell>
+          <cell r="C2970">
+            <v>2468.030029296875</v>
+          </cell>
+          <cell r="D2970">
+            <v>2447.60009765625</v>
+          </cell>
+          <cell r="E2970">
+            <v>2460.739990234375</v>
+          </cell>
+          <cell r="F2970">
+            <v>2.4607399902343752</v>
+          </cell>
+        </row>
+        <row r="2971">
+          <cell r="A2971">
+            <v>44924</v>
+          </cell>
+          <cell r="B2971">
+            <v>2448.949951171875</v>
+          </cell>
+          <cell r="C2971">
+            <v>2457.75</v>
+          </cell>
+          <cell r="D2971">
+            <v>2438.800048828125</v>
+          </cell>
+          <cell r="E2971">
+            <v>2451.679931640625</v>
+          </cell>
+          <cell r="F2971">
+            <v>2.451679931640625</v>
+          </cell>
+        </row>
+        <row r="2972">
+          <cell r="A2972">
+            <v>44925</v>
+          </cell>
+          <cell r="B2972">
+            <v>2461.929931640625</v>
+          </cell>
+          <cell r="C2972">
+            <v>2472.47998046875</v>
+          </cell>
+          <cell r="D2972">
+            <v>2459.989990234375</v>
+          </cell>
+          <cell r="E2972">
+            <v>2462.43994140625</v>
+          </cell>
+          <cell r="F2972">
+            <v>2.4624399414062501</v>
           </cell>
         </row>
       </sheetData>
@@ -64122,10 +64441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -70659,7 +70978,7 @@
         <v>2000</v>
       </c>
       <c r="D128" s="16">
-        <f t="shared" ref="D128:D149" si="45">C128/B128</f>
+        <f t="shared" ref="D128:D150" si="45">C128/B128</f>
         <v>610.15232452781834</v>
       </c>
       <c r="E128" s="16">
@@ -70667,7 +70986,7 @@
         <v>158642.23792691118</v>
       </c>
       <c r="F128" s="16">
-        <f t="shared" ref="F128:F149" si="46">E128*B128</f>
+        <f t="shared" ref="F128:F150" si="46">E128*B128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="G128" s="16">
@@ -70675,11 +70994,11 @@
         <v>252000</v>
       </c>
       <c r="H128" s="16">
-        <f t="shared" ref="H128:H149" si="47">F128</f>
+        <f t="shared" ref="H128:H150" si="47">F128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="I128" s="16">
-        <f t="shared" ref="I128:I149" si="48">H128-G128</f>
+        <f t="shared" ref="I128:I150" si="48">H128-G128</f>
         <v>268008.63243348437</v>
       </c>
       <c r="J128" s="31" t="e">
@@ -70696,7 +71015,7 @@
         <v>3.1244299999999998</v>
       </c>
       <c r="C129" s="15">
-        <f t="shared" ref="C129:C149" si="49">C128</f>
+        <f t="shared" ref="C129:C150" si="49">C128</f>
         <v>2000</v>
       </c>
       <c r="D129" s="16">
@@ -70704,7 +71023,7 @@
         <v>640.11675729653098</v>
       </c>
       <c r="E129" s="16">
-        <f t="shared" ref="E129:E149" si="50">E128+D129</f>
+        <f t="shared" ref="E129:E150" si="50">E128+D129</f>
         <v>159282.3546842077</v>
       </c>
       <c r="F129" s="16">
@@ -70712,7 +71031,7 @@
         <v>497666.56744597905</v>
       </c>
       <c r="G129" s="16">
-        <f t="shared" ref="G129:G149" si="51">G128+C129</f>
+        <f t="shared" ref="G129:G150" si="51">G128+C129</f>
         <v>254000</v>
       </c>
       <c r="H129" s="16">
@@ -71547,6 +71866,47 @@
       <c r="J149" s="31">
         <f>VLOOKUP(A149,myPEPB!B:C,2)</f>
         <v>10.380000109999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="12.75">
+      <c r="A150" s="13">
+        <v>44925</v>
+      </c>
+      <c r="B150" s="14">
+        <f>VLOOKUP(A150,[1]CNI_ESG_300!$A:$F,6)</f>
+        <v>2.4624399414062501</v>
+      </c>
+      <c r="C150" s="15">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="D150" s="16">
+        <f t="shared" si="45"/>
+        <v>812.20255014944246</v>
+      </c>
+      <c r="E150" s="16">
+        <f t="shared" si="50"/>
+        <v>174498.12646538622</v>
+      </c>
+      <c r="F150" s="16">
+        <f t="shared" si="46"/>
+        <v>429691.15630892606</v>
+      </c>
+      <c r="G150" s="16">
+        <f t="shared" si="51"/>
+        <v>296000</v>
+      </c>
+      <c r="H150" s="16">
+        <f t="shared" si="47"/>
+        <v>429691.15630892606</v>
+      </c>
+      <c r="I150" s="16">
+        <f t="shared" si="48"/>
+        <v>133691.15630892606</v>
+      </c>
+      <c r="J150" s="31">
+        <f>VLOOKUP(A150,myPEPB!B:C,2)</f>
+        <v>10.72999954</v>
       </c>
     </row>
   </sheetData>
@@ -71564,7 +71924,7 @@
   </sheetPr>
   <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1&amp;2" sheetId="5" r:id="rId1"/>
@@ -1649,7 +1649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1695,451 +1694,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,445 +2153,445 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88000</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90000</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92000</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94000</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96000</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98000</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100000</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102000</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104000</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106000</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108000</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110000</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112000</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114000</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116000</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118000</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>120000</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122000</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124000</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>126000</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128000</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>130000</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132000</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>134000</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136000</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>138000</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>140000</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142000</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>144000</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>146000</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148000</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>150000</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>152000</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>154000</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>156000</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>158000</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>160000</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>162000</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>164000</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>166000</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>168000</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>170000</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172000</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174000</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176000</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>178000</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>180000</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>182000</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>184000</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>186000</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188000</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190000</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>192000</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194000</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196000</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198000</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>200000</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>202000</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>204000</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>206000</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>208000</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>210000</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>212000</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>214000</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>216000</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>218000</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>220000</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>222000</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>224000</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>226000</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>228000</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>230000</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>232000</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>234000</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>236000</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>238000</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>240000</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>242000</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>244000</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>246000</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>248000</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>250000</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>252000</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>254000</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>256000</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>258000</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>260000</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>262000</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>264000</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>266000</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>268000</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>270000</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>272000</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>274000</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>276000</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>278000</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>280000</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>282000</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>284000</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>286000</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>288000</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>290000</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>292000</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>294000</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>296000</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,451 +2633,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,448 +3089,448 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3573,451 +3572,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,451 +4025,451 @@
             <c:numRef>
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>16.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>14.94</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>13.310000419616699</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>13.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>12.899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>12.840000152587891</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>12.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>12.949999809265137</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>12.039999961853027</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>12.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>11.460000040000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>11.14000034</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>10.93999958</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>12.100000380000001</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>11.239999770000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>11.100000380000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>10.3500003814697</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>9.3900003430000005</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>10.380000109999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>10.72999954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,17 +4491,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77947264"/>
-        <c:axId val="77948800"/>
+        <c:axId val="558619264"/>
+        <c:axId val="560267648"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="77947264"/>
+      <c:catAx>
+        <c:axId val="558619264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4539,14 +4538,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77948800"/>
+        <c:crossAx val="560267648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="77948800"/>
+        <c:axId val="560267648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77947264"/>
+        <c:crossAx val="558619264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4611,7 +4611,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -64443,7 +64442,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -71783,7 +71782,7 @@
       </c>
       <c r="J147" s="31">
         <f>VLOOKUP(A147,myPEPB!B:C,2)</f>
-        <v>10.100000380000001</v>
+        <v>10.3500003814697</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="12.75">
@@ -71924,7 +71923,7 @@
   </sheetPr>
   <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -77417,11 +77416,11 @@
         <v>195</v>
       </c>
       <c r="C344" s="21">
-        <v>10.55</v>
+        <v>10.77999973</v>
       </c>
       <c r="D344" s="17">
         <f>SUM($C$3:C344)/A344</f>
-        <v>12.74526316497885</v>
+        <v>12.745935678809259</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="12.75" customHeight="1">
@@ -77433,11 +77432,11 @@
         <v>196</v>
       </c>
       <c r="C345" s="21">
-        <v>10.55000019</v>
+        <v>10.7211</v>
       </c>
       <c r="D345" s="17">
         <f>SUM($C$3:C345)/A345</f>
-        <v>12.738862981378329</v>
+        <v>12.74003236779232</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="12.75" customHeight="1">
@@ -77449,11 +77448,11 @@
         <v>197</v>
       </c>
       <c r="C346" s="21">
-        <v>10.55</v>
+        <v>10.72999954</v>
       </c>
       <c r="D346" s="17">
         <f>SUM($C$3:C346)/A346</f>
-        <v>12.732500007595252</v>
+        <v>12.734189249106878</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="12.75" customHeight="1">
@@ -77465,11 +77464,11 @@
         <v>198</v>
       </c>
       <c r="C347" s="21">
-        <v>10.49</v>
+        <v>10.81999969</v>
       </c>
       <c r="D347" s="17">
         <f>SUM($C$3:C347)/A347</f>
-        <v>12.726000007573237</v>
+        <v>12.728640873573235</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="12.75" customHeight="1">
@@ -77481,11 +77480,11 @@
         <v>199</v>
       </c>
       <c r="C348" s="21">
-        <v>10.42</v>
+        <v>10.80000019</v>
       </c>
       <c r="D348" s="17">
         <f>SUM($C$3:C348)/A348</f>
-        <v>12.719335267666956</v>
+        <v>12.723066767551348</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="12.75" customHeight="1">
@@ -77497,11 +77496,11 @@
         <v>200</v>
       </c>
       <c r="C349" s="21">
-        <v>10.4</v>
+        <v>10.760000229999999</v>
       </c>
       <c r="D349" s="17">
         <f>SUM($C$3:C349)/A349</f>
-        <v>12.712651304359557</v>
+        <v>12.717409515281746</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="12.75" customHeight="1">
@@ -77513,11 +77512,11 @@
         <v>201</v>
       </c>
       <c r="C350" s="21">
-        <v>10.34</v>
+        <v>10.9177</v>
       </c>
       <c r="D350" s="17">
         <f>SUM($C$3:C350)/A350</f>
-        <v>12.705833340841282</v>
+        <v>12.712237936214844</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="12.75" customHeight="1">
@@ -77529,11 +77528,11 @@
         <v>202</v>
       </c>
       <c r="C351" s="21">
-        <v>10.48</v>
+        <v>10.96</v>
       </c>
       <c r="D351" s="17">
         <f>SUM($C$3:C351)/A351</f>
-        <v>12.699455594878986</v>
+        <v>12.707217197142596</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="12.75" customHeight="1">
@@ -77545,11 +77544,11 @@
         <v>203</v>
       </c>
       <c r="C352" s="21">
-        <v>10.37</v>
+        <v>10.85</v>
       </c>
       <c r="D352" s="17">
         <f>SUM($C$3:C352)/A352</f>
-        <v>12.692800007465046</v>
+        <v>12.701910862293618</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="12.75" customHeight="1">
@@ -77561,11 +77560,11 @@
         <v>204</v>
       </c>
       <c r="C353" s="21">
-        <v>10.37</v>
+        <v>10.78</v>
       </c>
       <c r="D353" s="17">
         <f>SUM($C$3:C353)/A353</f>
-        <v>12.686182343626113</v>
+        <v>12.696435332771413</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="12.75" customHeight="1">
@@ -77577,11 +77576,11 @@
         <v>205</v>
       </c>
       <c r="C354" s="21">
-        <v>10.350000380000001</v>
+        <v>10.55</v>
       </c>
       <c r="D354" s="17">
         <f>SUM($C$3:C354)/A354</f>
-        <v>12.67954546304763</v>
+        <v>12.690337505121494</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="12.75" customHeight="1">
@@ -77593,11 +77592,11 @@
         <v>206</v>
       </c>
       <c r="C355" s="21">
-        <v>10.149999619999999</v>
+        <v>10.55000019</v>
       </c>
       <c r="D355" s="17">
         <f>SUM($C$3:C355)/A355</f>
-        <v>12.672379610801036</v>
+        <v>12.684274226608403</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="12.75" customHeight="1">
@@ -77609,11 +77608,11 @@
         <v>207</v>
       </c>
       <c r="C356" s="21">
-        <v>10.15999985</v>
+        <v>10.55</v>
       </c>
       <c r="D356" s="17">
         <f>SUM($C$3:C356)/A356</f>
-        <v>12.66528249283267</v>
+        <v>12.678245203369396</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="12.75" customHeight="1">
@@ -77625,11 +77624,11 @@
         <v>208</v>
       </c>
       <c r="C357" s="21">
-        <v>10.260000229999999</v>
+        <v>10.49</v>
       </c>
       <c r="D357" s="17">
         <f>SUM($C$3:C357)/A357</f>
-        <v>12.658507049838775</v>
+        <v>12.672081132373989</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="12.75" customHeight="1">
@@ -77641,11 +77640,11 @@
         <v>209</v>
       </c>
       <c r="C358" s="21">
-        <v>10.170000079999999</v>
+        <v>10.42</v>
       </c>
       <c r="D358" s="17">
         <f>SUM($C$3:C358)/A358</f>
-        <v>12.65151686172125</v>
+        <v>12.665755061777434</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="12.75" customHeight="1">
@@ -77657,11 +77656,11 @@
         <v>210</v>
       </c>
       <c r="C359" s="21">
-        <v>10.39000034</v>
+        <v>10.4</v>
       </c>
       <c r="D359" s="17">
         <f>SUM($C$3:C359)/A359</f>
-        <v>12.645182081548363</v>
+        <v>12.659408408943321</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="12.75" customHeight="1">
@@ -77673,11 +77672,11 @@
         <v>211</v>
       </c>
       <c r="C360" s="21">
-        <v>10.369999890000001</v>
+        <v>10.34</v>
       </c>
       <c r="D360" s="17">
         <f>SUM($C$3:C360)/A360</f>
-        <v>12.638826824030073</v>
+        <v>12.652929614504933</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="12.75" customHeight="1">
@@ -77689,11 +77688,11 @@
         <v>212</v>
       </c>
       <c r="C361" s="21">
-        <v>10.350000380000001</v>
+        <v>10.48</v>
       </c>
       <c r="D361" s="17">
         <f>SUM($C$3:C361)/A361</f>
-        <v>12.63245126290464</v>
+        <v>12.64687688577372</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="12.75" customHeight="1">
@@ -77705,11 +77704,11 @@
         <v>213</v>
       </c>
       <c r="C362" s="21">
-        <v>10.18000031</v>
+        <v>10.37</v>
       </c>
       <c r="D362" s="17">
         <f>SUM($C$3:C362)/A362</f>
-        <v>12.625638899146571</v>
+        <v>12.640552227757683</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="12.75" customHeight="1">
@@ -77721,11 +77720,11 @@
         <v>214</v>
       </c>
       <c r="C363" s="21">
-        <v>10.119999890000001</v>
+        <v>10.369999890000001</v>
       </c>
       <c r="D363" s="17">
         <f>SUM($C$3:C363)/A363</f>
-        <v>12.618698070866387</v>
+        <v>12.634262609093533</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="12.75" customHeight="1">
@@ -77737,11 +77736,11 @@
         <v>44834</v>
       </c>
       <c r="C364" s="21">
-        <v>10.100000380000001</v>
+        <v>10.3500003814697</v>
       </c>
       <c r="D364" s="17">
         <f>SUM($C$3:C364)/A364</f>
-        <v>12.611740342438578</v>
+        <v>12.627952492442638</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="12.75" customHeight="1">
@@ -77757,7 +77756,7 @@
       </c>
       <c r="D365" s="17">
         <f>SUM($C$3:C365)/A365</f>
-        <v>12.604958687555827</v>
+        <v>12.621126175989628</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="12.75" customHeight="1">
@@ -77773,7 +77772,7 @@
       </c>
       <c r="D366" s="17">
         <f>SUM($C$3:C366)/A366</f>
-        <v>12.598241767672432</v>
+        <v>12.614364839929216</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="12.75" customHeight="1">
@@ -77789,7 +77788,7 @@
       </c>
       <c r="D367" s="17">
         <f>SUM($C$3:C367)/A367</f>
-        <v>12.591835626473328</v>
+        <v>12.607914525929409</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="12.75" customHeight="1">
@@ -77805,7 +77804,7 @@
       </c>
       <c r="D368" s="17">
         <f>SUM($C$3:C368)/A368</f>
-        <v>12.585218589461107</v>
+        <v>12.601253557497909</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="12.75" customHeight="1">
@@ -77821,7 +77820,7 @@
       </c>
       <c r="D369" s="17">
         <f>SUM($C$3:C369)/A369</f>
-        <v>12.57923706834541</v>
+        <v>12.595228344371213</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="12.75" customHeight="1">
@@ -77837,7 +77836,7 @@
       </c>
       <c r="D370" s="17">
         <f>SUM($C$3:C370)/A370</f>
-        <v>12.573233706447732</v>
+        <v>12.589181527919118</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="12.75" customHeight="1">
@@ -77853,7 +77852,7 @@
       </c>
       <c r="D371" s="17">
         <f>SUM($C$3:C371)/A371</f>
-        <v>12.567208683882834</v>
+        <v>12.58311328632584</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="12.75" customHeight="1">
@@ -77869,7 +77868,7 @@
       </c>
       <c r="D372" s="17">
         <f>SUM($C$3:C372)/A372</f>
-        <v>12.560756769358825</v>
+        <v>12.576618386389825</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="12.75" customHeight="1">
@@ -77885,7 +77884,7 @@
       </c>
       <c r="D373" s="17">
         <f>SUM($C$3:C373)/A373</f>
-        <v>12.554177909845729</v>
+        <v>12.569996773192008</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="12.75" customHeight="1">
@@ -77901,7 +77900,7 @@
       </c>
       <c r="D374" s="17">
         <f>SUM($C$3:C374)/A374</f>
-        <v>12.547580658421412</v>
+        <v>12.563356997941492</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="12.75" customHeight="1">
@@ -77917,7 +77916,7 @@
       </c>
       <c r="D375" s="17">
         <f>SUM($C$3:C375)/A375</f>
-        <v>12.540241301213847</v>
+        <v>12.555975344917519</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="12.75" customHeight="1">
@@ -77933,7 +77932,7 @@
       </c>
       <c r="D376" s="17">
         <f>SUM($C$3:C376)/A376</f>
-        <v>12.532860976165148</v>
+        <v>12.548552950233248</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="12.75" customHeight="1">
@@ -77949,7 +77948,7 @@
       </c>
       <c r="D377" s="17">
         <f>SUM($C$3:C377)/A377</f>
-        <v>12.525653346692707</v>
+        <v>12.541303475496626</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="12.75" customHeight="1">
@@ -77965,7 +77964,7 @@
       </c>
       <c r="D378" s="17">
         <f>SUM($C$3:C378)/A378</f>
-        <v>12.518244693565864</v>
+        <v>12.533853199686794</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="12.75" customHeight="1">
@@ -77981,7 +77980,7 @@
       </c>
       <c r="D379" s="17">
         <f>SUM($C$3:C379)/A379</f>
-        <v>12.51031831436012</v>
+        <v>12.52588541860805</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="12.75" customHeight="1">
@@ -77997,7 +77996,7 @@
       </c>
       <c r="D380" s="17">
         <f>SUM($C$3:C380)/A380</f>
-        <v>12.502063504912076</v>
+        <v>12.517589426344536</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="12.75" customHeight="1">
@@ -78013,7 +78012,7 @@
       </c>
       <c r="D381" s="17">
         <f>SUM($C$3:C381)/A381</f>
-        <v>12.494696582835791</v>
+        <v>12.510181538776344</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="12.75" customHeight="1">
@@ -78029,7 +78028,7 @@
       </c>
       <c r="D382" s="17">
         <f>SUM($C$3:C382)/A382</f>
-        <v>12.487631592933591</v>
+        <v>12.503075798990089</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="12.75" customHeight="1">
@@ -78045,7 +78044,7 @@
       </c>
       <c r="D383" s="17">
         <f>SUM($C$3:C383)/A383</f>
-        <v>12.480419960855023</v>
+        <v>12.495823630937622</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="12.75" customHeight="1">
@@ -78061,7 +78060,7 @@
       </c>
       <c r="D384" s="17">
         <f>SUM($C$3:C384)/A384</f>
-        <v>12.473979072109332</v>
+        <v>12.489342418448256</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="12.75" customHeight="1">
@@ -78077,7 +78076,7 @@
       </c>
       <c r="D385" s="17">
         <f>SUM($C$3:C385)/A385</f>
-        <v>12.467676255785285</v>
+        <v>12.482999488948391</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="12.75" customHeight="1">
@@ -78093,7 +78092,7 @@
       </c>
       <c r="D386" s="17">
         <f>SUM($C$3:C386)/A386</f>
-        <v>12.461223973272823</v>
+        <v>12.476507302182901</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="12.75" customHeight="1">
@@ -78109,7 +78108,7 @@
       </c>
       <c r="D387" s="17">
         <f>SUM($C$3:C387)/A387</f>
-        <v>12.454623391721466</v>
+        <v>12.469867023673334</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="12.75" customHeight="1">
@@ -78125,7 +78124,7 @@
       </c>
       <c r="D388" s="17">
         <f>SUM($C$3:C388)/A388</f>
-        <v>12.447953383229958</v>
+        <v>12.463157523907341</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="12.75" customHeight="1">
@@ -78141,7 +78140,7 @@
       </c>
       <c r="D389" s="17">
         <f>SUM($C$3:C389)/A389</f>
-        <v>12.441963839888279</v>
+        <v>12.457128693380449</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="12.75" customHeight="1">
@@ -78157,7 +78156,7 @@
       </c>
       <c r="D390" s="17">
         <f>SUM($C$3:C390)/A390</f>
-        <v>12.436082489398874</v>
+        <v>12.451208258217095</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="12.75" customHeight="1">
@@ -78173,7 +78172,7 @@
       </c>
       <c r="D391" s="17">
         <f>SUM($C$3:C391)/A391</f>
-        <v>12.430616982793735</v>
+        <v>12.445703867887488</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="12.75" customHeight="1">
@@ -78189,7 +78188,7 @@
       </c>
       <c r="D392" s="17">
         <f>SUM($C$3:C392)/A392</f>
-        <v>12.425051298812212</v>
+        <v>12.440099499585211</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="12.75" customHeight="1">
@@ -78205,7 +78204,7 @@
       </c>
       <c r="D393" s="17">
         <f>SUM($C$3:C393)/A393</f>
-        <v>12.41936063004287</v>
+        <v>12.434370344368881</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="12.75" customHeight="1">
@@ -78221,7 +78220,7 @@
       </c>
       <c r="D394" s="17">
         <f>SUM($C$3:C394)/A394</f>
-        <v>12.413673484507049</v>
+        <v>12.428644908745492</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="12.75" customHeight="1">
@@ -78237,7 +78236,7 @@
       </c>
       <c r="D395" s="17">
         <f>SUM($C$3:C395)/A395</f>
-        <v>12.40783716492815</v>
+        <v>12.422770493939524</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="12.75" customHeight="1">
@@ -78253,7 +78252,7 @@
       </c>
       <c r="D396" s="17">
         <f>SUM($C$3:C396)/A396</f>
-        <v>12.402055852605997</v>
+        <v>12.416951279767089</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="12.75" customHeight="1">
@@ -78269,7 +78268,7 @@
       </c>
       <c r="D397" s="17">
         <f>SUM($C$3:C397)/A397</f>
-        <v>12.396405078498134</v>
+        <v>12.411262795717045</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="12.75" customHeight="1">
@@ -78285,7 +78284,7 @@
       </c>
       <c r="D398" s="17">
         <f>SUM($C$3:C398)/A398</f>
-        <v>12.390681833628189</v>
+        <v>12.405502031359173</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="12.75" customHeight="1">
@@ -78301,7 +78300,7 @@
       </c>
       <c r="D399" s="17">
         <f>SUM($C$3:C399)/A399</f>
-        <v>12.385163742888572</v>
+        <v>12.399946610146682</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="12.75" customHeight="1">
@@ -78317,7 +78316,7 @@
       </c>
       <c r="D400" s="17">
         <f>SUM($C$3:C400)/A400</f>
-        <v>12.379422126398902</v>
+        <v>12.394167850774455</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="12.75" customHeight="1">
@@ -78333,7 +78332,7 @@
       </c>
       <c r="D401" s="17">
         <f>SUM($C$3:C401)/A401</f>
-        <v>12.374436106884119</v>
+        <v>12.389144874556974</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="12.75" customHeight="1">
@@ -78349,7 +78348,7 @@
       </c>
       <c r="D402" s="17">
         <f>SUM($C$3:C402)/A402</f>
-        <v>12.369450016891909</v>
+        <v>12.384122012645582</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -78365,7 +78364,7 @@
       </c>
       <c r="D403" s="17">
         <f>SUM($C$3:C403)/A403</f>
-        <v>12.364713234480707</v>
+        <v>12.379348641716293</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -78381,7 +78380,7 @@
       </c>
       <c r="D404" s="17">
         <f>SUM($C$3:C404)/A404</f>
-        <v>12.359875639569063</v>
+        <v>12.374474640318988</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -78397,7 +78396,7 @@
       </c>
       <c r="D405" s="17">
         <f>SUM($C$3:C405)/A405</f>
-        <v>12.355533515550281</v>
+        <v>12.370096290491892</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -78413,7 +78412,7 @@
       </c>
       <c r="D406" s="17">
         <f>SUM($C$3:C406)/A406</f>
-        <v>12.351386156130602</v>
+        <v>12.365912884599586</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -78429,7 +78428,7 @@
       </c>
       <c r="D407" s="17">
         <f>SUM($C$3:C407)/A407</f>
-        <v>12.347185201720402</v>
+        <v>12.361676061724031</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -78445,7 +78444,7 @@
       </c>
       <c r="D408" s="17">
         <f>SUM($C$3:C408)/A408</f>
-        <v>12.343029572775277</v>
+        <v>12.357484741005498</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -78461,7 +78460,7 @@
       </c>
       <c r="D409" s="17">
         <f>SUM($C$3:C409)/A409</f>
-        <v>12.339164636380252</v>
+        <v>12.353584288226616</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -78477,7 +78476,7 @@
       </c>
       <c r="D410" s="17">
         <f>SUM($C$3:C410)/A410</f>
-        <v>12.33568629187932</v>
+        <v>12.350070601441747</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -78493,7 +78492,7 @@
       </c>
       <c r="D411" s="17">
         <f>SUM($C$3:C411)/A411</f>
-        <v>12.332200505957854</v>
+        <v>12.346549646059247</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -78509,7 +78508,7 @@
       </c>
       <c r="D412" s="17">
         <f>SUM($C$3:C412)/A412</f>
-        <v>12.328804893943325</v>
+        <v>12.343119036142031</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -78525,7 +78524,7 @@
       </c>
       <c r="D413" s="17">
         <f>SUM($C$3:C413)/A413</f>
-        <v>12.325352813544434</v>
+        <v>12.339632128146549</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -78541,7 +78540,7 @@
       </c>
       <c r="D414" s="17">
         <f>SUM($C$3:C414)/A414</f>
-        <v>12.322014578098939</v>
+        <v>12.336259234170466</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -78557,7 +78556,7 @@
       </c>
       <c r="D415" s="17">
         <f>SUM($C$3:C415)/A415</f>
-        <v>12.31828088597279</v>
+        <v>12.332491051351651</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -78573,7 +78572,7 @@
       </c>
       <c r="D416" s="17">
         <f>SUM($C$3:C416)/A416</f>
-        <v>12.314130449968024</v>
+        <v>12.328306291275922</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -78589,7 +78588,7 @@
       </c>
       <c r="D417" s="17">
         <f>SUM($C$3:C417)/A417</f>
-        <v>12.310024110715089</v>
+        <v>12.324165793369232</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -78605,7 +78604,7 @@
       </c>
       <c r="D418" s="17">
         <f>SUM($C$3:C418)/A418</f>
-        <v>12.306009630497025</v>
+        <v>12.320117318721712</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -78621,7 +78620,7 @@
       </c>
       <c r="D419" s="17">
         <f>SUM($C$3:C419)/A419</f>
-        <v>12.301990423013818</v>
+        <v>12.316064279851874</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -78637,7 +78636,7 @@
       </c>
       <c r="D420" s="17">
         <f>SUM($C$3:C420)/A420</f>
-        <v>12.297990446188425</v>
+        <v>12.312030633512515</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -78653,7 +78652,7 @@
       </c>
       <c r="D421" s="17">
         <f>SUM($C$3:C421)/A421</f>
-        <v>12.294295958250029</v>
+        <v>12.308302636773822</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -78669,7 +78668,7 @@
       </c>
       <c r="D422" s="17">
         <f>SUM($C$3:C422)/A422</f>
-        <v>12.290595253039911</v>
+        <v>12.304568582329123</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -78685,7 +78684,7 @@
       </c>
       <c r="D423" s="17">
         <f>SUM($C$3:C423)/A423</f>
-        <v>12.28676961184504</v>
+        <v>12.300709750328341</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -78701,7 +78700,7 @@
       </c>
       <c r="D424" s="17">
         <f>SUM($C$3:C424)/A424</f>
-        <v>12.283080583238773</v>
+        <v>12.296987688218559</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1092,6 +1092,62 @@
     <t xml:space="preserve">2022/12/28
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2023/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/20
+</t>
+  </si>
 </sst>
 </file>
 
@@ -4491,11 +4547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558619264"/>
-        <c:axId val="560267648"/>
+        <c:axId val="77698560"/>
+        <c:axId val="77700096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="558619264"/>
+        <c:axId val="77698560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4538,7 +4594,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560267648"/>
+        <c:crossAx val="77700096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4546,7 +4602,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560267648"/>
+        <c:axId val="77700096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558619264"/>
+        <c:crossAx val="77698560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -64443,7 +64499,7 @@
   <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -71921,7 +71977,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -75057,7 +75113,7 @@
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A424" si="3">A196+1</f>
+        <f t="shared" ref="A197:A440" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -78701,6 +78757,262 @@
       <c r="D424" s="17">
         <f>SUM($C$3:C424)/A424</f>
         <v>12.296987688218559</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="17">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="B425" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C425" s="21">
+        <v>10.77999973</v>
+      </c>
+      <c r="D425" s="17">
+        <f>SUM($C$3:C425)/A425</f>
+        <v>12.293401428270052</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="17">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="B426" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C426" s="21">
+        <v>10.960000040000001</v>
+      </c>
+      <c r="D426" s="17">
+        <f>SUM($C$3:C426)/A426</f>
+        <v>12.290256613675073</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="17">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="B427" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C427" s="21">
+        <v>11</v>
+      </c>
+      <c r="D427" s="17">
+        <f>SUM($C$3:C427)/A427</f>
+        <v>12.287220715760544</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="17">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="B428" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C428" s="21">
+        <v>11.06999969</v>
+      </c>
+      <c r="D428" s="17">
+        <f>SUM($C$3:C428)/A428</f>
+        <v>12.284363389408995</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="17">
+        <f t="shared" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="B429" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C429" s="21">
+        <v>11.079999920000001</v>
+      </c>
+      <c r="D429" s="17">
+        <f>SUM($C$3:C429)/A429</f>
+        <v>12.281542866061432</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="17">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="B430" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C430" s="21">
+        <v>11.079999920000001</v>
+      </c>
+      <c r="D430" s="17">
+        <f>SUM($C$3:C430)/A430</f>
+        <v>12.278735522729512</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="17">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="B431" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C431" s="21">
+        <v>11.079999920000001</v>
+      </c>
+      <c r="D431" s="17">
+        <f>SUM($C$3:C431)/A431</f>
+        <v>12.275941267245294</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="17">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="B432" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C432" s="21">
+        <v>11.25</v>
+      </c>
+      <c r="D432" s="17">
+        <f>SUM($C$3:C432)/A432</f>
+        <v>12.273555357321468</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="17">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C433" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D433" s="17">
+        <f>SUM($C$3:C433)/A433</f>
+        <v>12.271505345680351</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="17">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="B434" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C434" s="21">
+        <v>11.369999890000001</v>
+      </c>
+      <c r="D434" s="17">
+        <f>SUM($C$3:C434)/A434</f>
+        <v>12.269418527495906</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="17">
+        <f t="shared" si="3"/>
+        <v>433</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C435" s="21">
+        <v>11.350000380000001</v>
+      </c>
+      <c r="D435" s="17">
+        <f>SUM($C$3:C435)/A435</f>
+        <v>12.267295159949727</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="17">
+        <f t="shared" si="3"/>
+        <v>434</v>
+      </c>
+      <c r="B436" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C436" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D436" s="17">
+        <f>SUM($C$3:C436)/A436</f>
+        <v>12.265273743313898</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="17">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="B437" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C437" s="21">
+        <v>11.460000040000001</v>
+      </c>
+      <c r="D437" s="17">
+        <f>SUM($C$3:C437)/A437</f>
+        <v>12.263422539398233</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="17">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="B438" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C438" s="21">
+        <v>11.489999770000001</v>
+      </c>
+      <c r="D438" s="17">
+        <f>SUM($C$3:C438)/A438</f>
+        <v>12.261648633963835</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="17">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="B439" s="20">
+        <v>44956</v>
+      </c>
+      <c r="C439" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D439" s="17">
+        <f>SUM($C$3:C439)/A439</f>
+        <v>12.259654015442178</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="17">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="B440" s="20">
+        <v>44957</v>
+      </c>
+      <c r="C440" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D440" s="17">
+        <f>SUM($C$3:C440)/A440</f>
+        <v>12.257668504767654</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="270">
   <si>
     <t>PE</t>
   </si>
@@ -1092,62 +1092,6 @@
     <t xml:space="preserve">2022/12/28
 </t>
   </si>
-  <si>
-    <t xml:space="preserve">2023/1/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/20
-</t>
-  </si>
 </sst>
 </file>
 
@@ -1160,7 +1104,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4547,11 +4491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77698560"/>
-        <c:axId val="77700096"/>
+        <c:axId val="168462976"/>
+        <c:axId val="170209664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77698560"/>
+        <c:axId val="168462976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4594,7 +4538,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77700096"/>
+        <c:crossAx val="170209664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4602,7 +4546,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77700096"/>
+        <c:axId val="170209664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4653,7 +4597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77698560"/>
+        <c:crossAx val="168462976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -64503,7 +64447,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -64524,7 +64468,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -64557,7 +64501,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1">
+    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -64573,7 +64517,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>40451</v>
       </c>
@@ -64668,7 +64612,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>40480</v>
       </c>
@@ -64769,7 +64713,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>40512</v>
       </c>
@@ -64866,7 +64810,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1">
+    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>40543</v>
       </c>
@@ -64956,7 +64900,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>40574</v>
       </c>
@@ -65035,7 +64979,7 @@
         <v>82813.626416639017</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>40602</v>
       </c>
@@ -65107,7 +65051,7 @@
         <v>1.5781487745665235E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1">
+    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>40633</v>
       </c>
@@ -65208,7 +65152,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>40662</v>
       </c>
@@ -65309,7 +65253,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1">
+    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>40694</v>
       </c>
@@ -65410,7 +65354,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1">
+    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>40724</v>
       </c>
@@ -65511,7 +65455,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1">
+    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>40753</v>
       </c>
@@ -65612,7 +65556,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1">
+    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>40786</v>
       </c>
@@ -65709,7 +65653,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1">
+    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>40816</v>
       </c>
@@ -65799,7 +65743,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1">
+    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>40847</v>
       </c>
@@ -65851,7 +65795,7 @@
         <v>226023.31414810085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1">
+    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>40877</v>
       </c>
@@ -65896,7 +65840,7 @@
         <v>0.10832060454600145</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1">
+    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>40907</v>
       </c>
@@ -65970,7 +65914,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>40939</v>
       </c>
@@ -66044,7 +65988,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1">
+    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>40968</v>
       </c>
@@ -66118,7 +66062,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1">
+    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>40998</v>
       </c>
@@ -66192,7 +66136,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <v>41026</v>
       </c>
@@ -66266,7 +66210,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <v>41060</v>
       </c>
@@ -66340,7 +66284,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <v>41089</v>
       </c>
@@ -66414,7 +66358,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>41121</v>
       </c>
@@ -66488,7 +66432,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <v>41152</v>
       </c>
@@ -66558,7 +66502,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <v>41180</v>
       </c>
@@ -66621,7 +66565,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
         <v>41213</v>
       </c>
@@ -66673,7 +66617,7 @@
         <v>362098.05834678403</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
         <v>41243</v>
       </c>
@@ -66718,7 +66662,7 @@
         <v>9.1316415296595288E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <v>41274</v>
       </c>
@@ -66781,7 +66725,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>41305</v>
       </c>
@@ -66845,7 +66789,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
         <v>41333</v>
       </c>
@@ -66908,7 +66852,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14.1" customHeight="1">
+    <row r="33" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -66971,7 +66915,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14.1" customHeight="1">
+    <row r="34" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -67034,7 +66978,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.1" customHeight="1">
+    <row r="35" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -67097,7 +67041,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14.1" customHeight="1">
+    <row r="36" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -67160,7 +67104,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14.1" customHeight="1">
+    <row r="37" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -67223,7 +67167,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.1" customHeight="1">
+    <row r="38" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -67286,7 +67230,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14.1" customHeight="1">
+    <row r="39" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -67349,7 +67293,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14.1" customHeight="1">
+    <row r="40" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -67412,7 +67356,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14.1" customHeight="1">
+    <row r="41" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -67471,7 +67415,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14.1" customHeight="1">
+    <row r="42" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -67523,7 +67467,7 @@
         <v>507834.42040464858</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14.1" customHeight="1">
+    <row r="43" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -67569,7 +67513,7 @@
         <v>9.8052898274155309E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.1" customHeight="1">
+    <row r="44" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -67610,7 +67554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14.1" customHeight="1">
+    <row r="45" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -67651,7 +67595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14.1" customHeight="1">
+    <row r="46" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -67692,7 +67636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14.1" customHeight="1">
+    <row r="47" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -67733,7 +67677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14.1" customHeight="1">
+    <row r="48" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -67774,7 +67718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -67815,7 +67759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -67856,7 +67800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -67897,7 +67841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -67938,7 +67882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -67979,7 +67923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -68020,7 +67964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -68062,7 +68006,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -68103,7 +68047,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -68144,7 +68088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -68185,7 +68129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -68226,7 +68170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -68267,7 +68211,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -68308,7 +68252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -68349,7 +68293,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -68390,7 +68334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -68431,7 +68375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26">
         <v>42338</v>
       </c>
@@ -68472,7 +68416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26">
         <v>42369</v>
       </c>
@@ -68513,7 +68457,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26">
         <v>42398</v>
       </c>
@@ -68555,7 +68499,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26">
         <v>42429</v>
       </c>
@@ -68596,7 +68540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26">
         <v>42460</v>
       </c>
@@ -68637,7 +68581,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26">
         <v>42489</v>
       </c>
@@ -68678,7 +68622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26">
         <v>42521</v>
       </c>
@@ -68719,7 +68663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26">
         <v>42551</v>
       </c>
@@ -68760,7 +68704,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26">
         <v>42580</v>
       </c>
@@ -68801,7 +68745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26">
         <v>42613</v>
       </c>
@@ -68842,7 +68786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26">
         <v>42643</v>
       </c>
@@ -68883,7 +68827,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26">
         <v>42674</v>
       </c>
@@ -68924,7 +68868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="26">
         <v>42704</v>
       </c>
@@ -68965,7 +68909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>42734</v>
       </c>
@@ -69006,7 +68950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>42761</v>
       </c>
@@ -69048,7 +68992,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>42794</v>
       </c>
@@ -69089,7 +69033,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>42825</v>
       </c>
@@ -69130,7 +69074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>42853</v>
       </c>
@@ -69171,7 +69115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>42886</v>
       </c>
@@ -69212,7 +69156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>42916</v>
       </c>
@@ -69253,7 +69197,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>42947</v>
       </c>
@@ -69294,7 +69238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>42978</v>
       </c>
@@ -69335,7 +69279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>43007</v>
       </c>
@@ -69376,7 +69320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>43039</v>
       </c>
@@ -69417,7 +69361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>43069</v>
       </c>
@@ -69458,7 +69402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>43098</v>
       </c>
@@ -69499,7 +69443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>43131</v>
       </c>
@@ -69541,7 +69485,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>43159</v>
       </c>
@@ -69582,7 +69526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <v>43189</v>
       </c>
@@ -69623,7 +69567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>43217</v>
       </c>
@@ -69664,7 +69608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <v>43251</v>
       </c>
@@ -69705,7 +69649,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>43280</v>
       </c>
@@ -69746,7 +69690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>43312</v>
       </c>
@@ -69787,7 +69731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>43343</v>
       </c>
@@ -69828,7 +69772,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>43371</v>
       </c>
@@ -69869,7 +69813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <v>43404</v>
       </c>
@@ -69910,7 +69854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <v>43434</v>
       </c>
@@ -69951,7 +69895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>43462</v>
       </c>
@@ -69992,7 +69936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
         <v>43496</v>
       </c>
@@ -70034,7 +69978,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <v>43524</v>
       </c>
@@ -70075,7 +70019,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <v>43553</v>
       </c>
@@ -70116,7 +70060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <v>43585</v>
       </c>
@@ -70157,7 +70101,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <v>43616</v>
       </c>
@@ -70198,7 +70142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <v>43644</v>
       </c>
@@ -70239,7 +70183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <v>43677</v>
       </c>
@@ -70280,7 +70224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
         <v>43707</v>
       </c>
@@ -70321,7 +70265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <v>43738</v>
       </c>
@@ -70362,7 +70306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
         <v>43769</v>
       </c>
@@ -70403,7 +70347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
         <v>43798</v>
       </c>
@@ -70444,7 +70388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
         <v>43830</v>
       </c>
@@ -70485,7 +70429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <v>43853</v>
       </c>
@@ -70527,7 +70471,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
         <v>43889</v>
       </c>
@@ -70568,7 +70512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <v>43921</v>
       </c>
@@ -70609,7 +70553,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
         <v>43951</v>
       </c>
@@ -70650,7 +70594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
         <v>43980</v>
       </c>
@@ -70691,7 +70635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
         <v>44012</v>
       </c>
@@ -70732,7 +70676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>44043</v>
       </c>
@@ -70773,7 +70717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
         <v>44074</v>
       </c>
@@ -70814,7 +70758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>44104</v>
       </c>
@@ -70855,7 +70799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>44134</v>
       </c>
@@ -70896,7 +70840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>44165</v>
       </c>
@@ -70937,7 +70881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
         <v>44196</v>
       </c>
@@ -70978,7 +70922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
         <v>44225</v>
       </c>
@@ -71020,7 +70964,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
         <v>44253</v>
       </c>
@@ -71061,7 +71005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
         <v>44286</v>
       </c>
@@ -71102,7 +71046,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
         <v>44316</v>
       </c>
@@ -71143,7 +71087,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
         <v>44347</v>
       </c>
@@ -71184,7 +71128,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
         <v>44377</v>
       </c>
@@ -71225,7 +71169,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
         <v>44407</v>
       </c>
@@ -71266,7 +71210,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13">
         <v>44439</v>
       </c>
@@ -71307,7 +71251,7 @@
         <v>13.430000305175781</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13">
         <v>44469</v>
       </c>
@@ -71348,7 +71292,7 @@
         <v>12.899999618530273</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
         <v>44498</v>
       </c>
@@ -71389,7 +71333,7 @@
         <v>12.840000152587891</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
         <v>44530</v>
       </c>
@@ -71430,7 +71374,7 @@
         <v>12.390000343322754</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
         <v>44561</v>
       </c>
@@ -71471,7 +71415,7 @@
         <v>12.949999809265137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
         <v>44589</v>
       </c>
@@ -71513,7 +71457,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
         <v>44620</v>
       </c>
@@ -71554,7 +71498,7 @@
         <v>12.239999771118164</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
         <v>44651</v>
       </c>
@@ -71595,7 +71539,7 @@
         <v>11.460000040000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
         <v>44680</v>
       </c>
@@ -71636,7 +71580,7 @@
         <v>11.14000034</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
         <v>44712</v>
       </c>
@@ -71677,7 +71621,7 @@
         <v>10.93999958</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>44742</v>
       </c>
@@ -71718,7 +71662,7 @@
         <v>12.100000380000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1">
+    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
         <v>44771</v>
       </c>
@@ -71759,7 +71703,7 @@
         <v>11.239999770000001</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1">
+    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>44804</v>
       </c>
@@ -71800,7 +71744,7 @@
         <v>11.100000380000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75">
+    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
         <v>44834</v>
       </c>
@@ -71841,7 +71785,7 @@
         <v>10.3500003814697</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75">
+    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
         <v>44865</v>
       </c>
@@ -71882,7 +71826,7 @@
         <v>9.3900003430000005</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75">
+    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
         <v>44895</v>
       </c>
@@ -71923,7 +71867,7 @@
         <v>10.380000109999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="12.75">
+    <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="13">
         <v>44925</v>
       </c>
@@ -71977,13 +71921,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D440"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
@@ -71991,7 +71935,7 @@
     <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
@@ -71999,7 +71943,7 @@
         <v>399378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -72008,7 +71952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -72023,7 +71967,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>2</v>
@@ -72039,7 +71983,7 @@
         <v>16.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -72055,7 +71999,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -72071,7 +72015,7 @@
         <v>16.142499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -72087,7 +72031,7 @@
         <v>16.127999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -72103,7 +72047,7 @@
         <v>16.133333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -72119,7 +72063,7 @@
         <v>16.185714285714283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -72135,7 +72079,7 @@
         <v>16.223749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -72151,7 +72095,7 @@
         <v>16.258888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -72167,7 +72111,7 @@
         <v>16.283999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -72183,7 +72127,7 @@
         <v>16.318181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -72199,7 +72143,7 @@
         <v>16.330833333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -72215,7 +72159,7 @@
         <v>16.346923076923073</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -72231,7 +72175,7 @@
         <v>16.36785714285714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -72247,7 +72191,7 @@
         <v>16.393333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -72263,7 +72207,7 @@
         <v>16.409374999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -72279,7 +72223,7 @@
         <v>16.282941176470587</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -72295,7 +72239,7 @@
         <v>16.162777777777777</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -72311,7 +72255,7 @@
         <v>16.055263157894736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -72327,7 +72271,7 @@
         <v>15.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -72343,7 +72287,7 @@
         <v>15.879523809523809</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -72359,7 +72303,7 @@
         <v>15.798636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -72375,7 +72319,7 @@
         <v>15.735217391304346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -72391,7 +72335,7 @@
         <v>15.687083333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -72407,7 +72351,7 @@
         <v>15.643199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -72423,7 +72367,7 @@
         <v>15.600384615384611</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -72439,7 +72383,7 @@
         <v>15.561111111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -72455,7 +72399,7 @@
         <v>15.520714285714282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -72471,7 +72415,7 @@
         <v>15.485172413793101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -72487,7 +72431,7 @@
         <v>15.465666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -72503,7 +72447,7 @@
         <v>15.447419354838706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -72519,7 +72463,7 @@
         <v>15.431562499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -72535,7 +72479,7 @@
         <v>15.416060606060602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -72551,7 +72495,7 @@
         <v>15.40205882352941</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -72567,7 +72511,7 @@
         <v>15.389999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -72583,7 +72527,7 @@
         <v>15.375555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -72599,7 +72543,7 @@
         <v>15.359459459459458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -72615,7 +72559,7 @@
         <v>15.346052631578948</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -72631,7 +72575,7 @@
         <v>15.332564102564103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -72647,7 +72591,7 @@
         <v>15.31625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -72663,7 +72607,7 @@
         <v>15.301707317073172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -72679,7 +72623,7 @@
         <v>15.290714285714287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -72695,7 +72639,7 @@
         <v>15.278372093023256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -72711,7 +72655,7 @@
         <v>15.264772727272726</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -72727,7 +72671,7 @@
         <v>15.24688888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -72743,7 +72687,7 @@
         <v>15.229565217391306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -72759,7 +72703,7 @@
         <v>15.211702127659576</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -72775,7 +72719,7 @@
         <v>15.193333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -72791,7 +72735,7 @@
         <v>15.178571428571431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -72807,7 +72751,7 @@
         <v>15.164600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -72823,7 +72767,7 @@
         <v>15.152352941176472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -72839,7 +72783,7 @@
         <v>15.144423076923079</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -72855,7 +72799,7 @@
         <v>15.136981132075473</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -72871,7 +72815,7 @@
         <v>15.127407407407409</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -72887,7 +72831,7 @@
         <v>15.119636363636367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -72903,7 +72847,7 @@
         <v>15.113214285714289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -72919,7 +72863,7 @@
         <v>15.100175438596494</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -72935,7 +72879,7 @@
         <v>15.087413793103451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -72951,7 +72895,7 @@
         <v>15.074576271186444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -72967,7 +72911,7 @@
         <v>15.064500000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -72983,7 +72927,7 @@
         <v>15.051967213114757</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -72999,7 +72943,7 @@
         <v>15.038709677419359</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -73015,7 +72959,7 @@
         <v>15.027777777777782</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -73031,7 +72975,7 @@
         <v>15.018125000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -73047,7 +72991,7 @@
         <v>15.00692307692308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -73063,7 +73007,7 @@
         <v>14.998484848484852</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -73079,7 +73023,7 @@
         <v>14.98761194029851</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -73095,7 +73039,7 @@
         <v>14.978235294117651</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -73111,7 +73055,7 @@
         <v>14.968405797101452</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -73127,7 +73071,7 @@
         <v>14.959428571428573</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -73143,7 +73087,7 @@
         <v>14.950985915492957</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -73159,7 +73103,7 @@
         <v>14.940000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -73175,7 +73119,7 @@
         <v>14.922876706580594</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -73191,7 +73135,7 @@
         <v>14.900270264599776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -73207,7 +73151,7 @@
         <v>14.879199990336101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -73223,7 +73167,7 @@
         <v>14.860526306754664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -73239,7 +73183,7 @@
         <v>14.840389606921704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -73255,7 +73199,7 @@
         <v>14.824743584852953</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -73271,7 +73215,7 @@
         <v>14.809999993239778</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -73287,7 +73231,7 @@
         <v>15.001624985694885</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -73303,7 +73247,7 @@
         <v>14.984814804924859</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -73319,7 +73263,7 @@
         <v>14.967804870140263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -73335,7 +73279,7 @@
         <v>14.953373491677894</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -73351,7 +73295,7 @@
         <v>14.941547617231098</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -73367,7 +73311,7 @@
         <v>14.929529410867131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -73383,7 +73327,7 @@
         <v>14.916395350167919</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -73399,7 +73343,7 @@
         <v>14.903218397381663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -73415,7 +73359,7 @@
         <v>14.89056818788702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -73431,7 +73375,7 @@
         <v>14.874831464103099</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -73447,7 +73391,7 @@
         <v>14.860666674296063</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -73463,7 +73407,7 @@
         <v>14.845494508009692</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -73479,7 +73423,7 @@
         <v>14.827717394206836</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -73495,7 +73439,7 @@
         <v>14.81225807107905</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -73511,7 +73455,7 @@
         <v>14.798510649660802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -73527,7 +73471,7 @@
         <v>14.786105273196572</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -73543,7 +73487,7 @@
         <v>14.771666672627132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -73559,7 +73503,7 @@
         <v>14.758144336189192</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -73575,7 +73519,7 @@
         <v>14.744693879497294</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -73591,7 +73535,7 @@
         <v>14.73141414642334</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -73607,7 +73551,7 @@
         <v>14.710400006103516</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -73623,7 +73567,7 @@
         <v>14.690099014433304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -73639,7 +73583,7 @@
         <v>14.670000007853789</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -73655,7 +73599,7 @@
         <v>14.652135929366917</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -73671,7 +73615,7 @@
         <v>14.636153850922218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -73687,7 +73631,7 @@
         <v>14.619809529259092</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -73703,7 +73647,7 @@
         <v>14.60415094915426</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -73719,7 +73663,7 @@
         <v>14.589626175711089</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -73735,7 +73679,7 @@
         <v>14.57564815485919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -73751,7 +73695,7 @@
         <v>14.560550468164847</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -73767,7 +73711,7 @@
         <v>14.544818190487948</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -73783,7 +73727,7 @@
         <v>14.528288297223616</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -73799,7 +73743,7 @@
         <v>14.512946441173554</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -73815,7 +73759,7 @@
         <v>14.497876122398715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -73831,7 +73775,7 @@
         <v>14.483157908121745</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -73847,7 +73791,7 @@
         <v>14.468521754057512</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -73863,7 +73807,7 @@
         <v>14.455172429249204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -73879,7 +73823,7 @@
         <v>14.442564113975591</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -73895,7 +73839,7 @@
         <v>14.428813568050579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -73911,7 +73855,7 @@
         <v>14.41596639200419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -73927,7 +73871,7 @@
         <v>14.404416669845581</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -73943,7 +73887,7 @@
         <v>14.393140498705147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -73959,7 +73903,7 @@
         <v>14.381147546299168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -73975,7 +73919,7 @@
         <v>14.370162604727396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -73991,7 +73935,7 @@
         <v>14.358870972971763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -74007,7 +73951,7 @@
         <v>14.348080007019043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -74023,7 +73967,7 @@
         <v>14.336269845508394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="17">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -74039,7 +73983,7 @@
         <v>14.325590551781843</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -74055,7 +73999,7 @@
         <v>14.314687502980233</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="17">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -74071,7 +74015,7 @@
         <v>14.304418605834016</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -74087,7 +74031,7 @@
         <v>14.294615383735071</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
@@ -74103,7 +74047,7 @@
         <v>14.285267172369339</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -74119,7 +74063,7 @@
         <v>14.275681818470812</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="17">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -74135,7 +74079,7 @@
         <v>14.26511278138125</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -74151,7 +74095,7 @@
         <v>14.254029848184159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -74167,7 +74111,7 @@
         <v>14.243555554142706</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -74183,7 +74127,7 @@
         <v>14.231397058543038</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="17">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -74199,7 +74143,7 @@
         <v>14.218175182760197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -74215,7 +74159,7 @@
         <v>14.204855073569478</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="17">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -74231,7 +74175,7 @@
         <v>14.192589929155309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -74247,7 +74191,7 @@
         <v>14.180000003269742</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="17">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -74263,7 +74207,7 @@
         <v>14.167517734284097</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="17">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -74279,7 +74223,7 @@
         <v>14.155000006178735</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -74295,7 +74239,7 @@
         <v>14.142167836169262</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="17">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -74311,7 +74255,7 @@
         <v>14.130694446828631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -74327,7 +74271,7 @@
         <v>14.119103449328193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="17">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -74343,7 +74287,7 @@
         <v>14.107602737897064</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -74359,7 +74303,7 @@
         <v>14.096462585034015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="17">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -74375,7 +74319,7 @@
         <v>14.085608106561612</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -74391,7 +74335,7 @@
         <v>14.074161073057445</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -74407,7 +74351,7 @@
         <v>14.06380000228882</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -74423,7 +74367,7 @@
         <v>14.053774837973894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -74439,7 +74383,7 @@
         <v>14.043881583715741</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -74455,7 +74399,7 @@
         <v>14.034444451674918</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -74471,7 +74415,7 @@
         <v>14.024870139778436</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -74487,7 +74431,7 @@
         <v>14.014774203638879</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -74503,7 +74447,7 @@
         <v>14.004743598546739</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -74519,7 +74463,7 @@
         <v>13.994458609659961</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -74535,7 +74479,7 @@
         <v>13.984620261373401</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -74551,7 +74495,7 @@
         <v>13.975094349459285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -74567,7 +74511,7 @@
         <v>13.966375009298327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="17">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -74583,7 +74527,7 @@
         <v>13.957826097144846</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -74599,7 +74543,7 @@
         <v>13.949876553806259</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -74615,7 +74559,7 @@
         <v>13.943067496130073</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -74631,7 +74575,7 @@
         <v>13.937378061573682</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -74647,7 +74591,7 @@
         <v>13.931575767517092</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -74663,7 +74607,7 @@
         <v>13.926987962148278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -74679,7 +74623,7 @@
         <v>13.922035940707088</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="17">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -74695,7 +74639,7 @@
         <v>13.916488106364298</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="17">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -74711,7 +74655,7 @@
         <v>13.911597645099349</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="17">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -74727,7 +74671,7 @@
         <v>13.90564706847247</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="17">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -74743,7 +74687,7 @@
         <v>13.899122816386978</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="17">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -74759,7 +74703,7 @@
         <v>13.893197684398919</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="17">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -74775,7 +74719,7 @@
         <v>13.88734105104656</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="17">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -74791,7 +74735,7 @@
         <v>13.882183917253869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -74807,7 +74751,7 @@
         <v>13.877028577968055</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -74823,7 +74767,7 @@
         <v>13.871875008019536</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -74839,7 +74783,7 @@
         <v>13.867175149001646</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="17">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -74855,7 +74799,7 @@
         <v>13.861348321893244</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="17">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -74871,7 +74815,7 @@
         <v>13.855921796873297</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="17">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -74887,7 +74831,7 @@
         <v>13.85088889694214</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -74903,7 +74847,7 @@
         <v>13.845745864783863</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -74919,7 +74863,7 @@
         <v>13.840219789442127</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -74935,7 +74879,7 @@
         <v>13.834207658194455</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -74951,7 +74895,7 @@
         <v>13.828423923409504</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -74967,7 +74911,7 @@
         <v>13.822972981633368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -74983,7 +74927,7 @@
         <v>13.8169354924848</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -74999,7 +74943,7 @@
         <v>13.811336909411425</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -75015,7 +74959,7 @@
         <v>13.804734053510302</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -75031,7 +74975,7 @@
         <v>13.797566147456095</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -75047,7 +74991,7 @@
         <v>13.790736851943167</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="17">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -75063,7 +75007,7 @@
         <v>13.784816762914209</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -75079,7 +75023,7 @@
         <v>13.778750008344652</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="17">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -75095,7 +75039,7 @@
         <v>13.773316068105748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="17">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -75111,9 +75055,9 @@
         <v>13.767319591758179</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A440" si="3">A196+1</f>
+        <f t="shared" ref="A197:A424" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -75127,7 +75071,7 @@
         <v>13.761333339397725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="17">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -75143,7 +75087,7 @@
         <v>13.754030617889095</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -75159,7 +75103,7 @@
         <v>13.747208126668399</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -75175,7 +75119,7 @@
         <v>13.739494955660119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="17">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -75191,7 +75135,7 @@
         <v>13.730954779811841</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -75207,7 +75151,7 @@
         <v>13.723600007057192</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="17">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -75223,7 +75167,7 @@
         <v>13.71641791614134</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="17">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -75239,7 +75183,7 @@
         <v>13.709851492513526</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="17">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -75255,7 +75199,7 @@
         <v>13.703448282439135</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="17">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -75271,7 +75215,7 @@
         <v>13.696911770689722</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="17">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -75287,7 +75231,7 @@
         <v>13.689853664491237</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="17">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -75303,7 +75247,7 @@
         <v>13.683203887939454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -75319,7 +75263,7 @@
         <v>13.676811596967173</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="17">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -75335,7 +75279,7 @@
         <v>13.670528848354634</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="17">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -75351,7 +75295,7 @@
         <v>13.664688996492963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="17">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -75367,7 +75311,7 @@
         <v>13.658809526534309</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="17">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -75383,7 +75327,7 @@
         <v>13.652274882962919</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -75399,7 +75343,7 @@
         <v>13.646132078710593</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="17">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -75415,7 +75359,7 @@
         <v>13.639014088268013</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="17">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -75431,7 +75375,7 @@
         <v>13.632336452519784</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -75447,7 +75391,7 @@
         <v>13.625860467955125</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -75463,7 +75407,7 @@
         <v>13.619953708288666</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="17">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -75479,7 +75423,7 @@
         <v>13.613824889172127</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="17">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -75495,7 +75439,7 @@
         <v>13.607568811698862</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="17">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -75511,7 +75455,7 @@
         <v>13.600821922650008</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -75527,7 +75471,7 @@
         <v>13.59268182491069</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="17">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -75543,7 +75487,7 @@
         <v>13.583574666969916</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="17">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -75559,7 +75503,7 @@
         <v>13.57405406157816</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="17">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -75575,7 +75519,7 @@
         <v>13.565336330853594</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="17">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -75591,7 +75535,7 @@
         <v>13.556875008305141</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="17">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -75607,7 +75551,7 @@
         <v>13.547066676623785</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="17">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -75623,7 +75567,7 @@
         <v>13.534867266373237</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="17">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -75639,7 +75583,7 @@
         <v>13.524317191807716</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="17">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -75655,7 +75599,7 @@
         <v>13.514824571054174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="17">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -75671,7 +75615,7 @@
         <v>13.505851538167475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -75687,7 +75631,7 @@
         <v>13.496782618784138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="17">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -75703,7 +75647,7 @@
         <v>13.48792208714438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="17">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -75719,7 +75663,7 @@
         <v>13.479353457458412</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="17">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -75735,7 +75679,7 @@
         <v>13.470600865709663</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="17">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -75751,7 +75695,7 @@
         <v>13.461153854445948</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -75767,7 +75711,7 @@
         <v>13.451787243278092</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -75783,7 +75727,7 @@
         <v>13.44245763631505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="17">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -75799,7 +75743,7 @@
         <v>13.434261612533129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="17">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -75815,7 +75759,7 @@
         <v>13.425966395841815</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="17">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -75831,7 +75775,7 @@
         <v>13.418326370677079</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="17">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -75847,7 +75791,7 @@
         <v>13.410666677148033</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="17">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -75863,7 +75807,7 @@
         <v>13.402614119429694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="17">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -75879,7 +75823,7 @@
         <v>13.394876043452594</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="17">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -75895,7 +75839,7 @@
         <v>13.386090546273291</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="17">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -75911,7 +75855,7 @@
         <v>13.378114763626201</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -75927,7 +75871,7 @@
         <v>13.369918376368783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -75943,7 +75887,7 @@
         <v>13.36247968362685</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -75959,7 +75903,7 @@
         <v>13.35497976680602</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -75975,7 +75919,7 @@
         <v>13.347137105840721</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -75991,7 +75935,7 @@
         <v>13.339236957280884</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -76007,7 +75951,7 @@
         <v>13.330800007620704</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="17">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -76023,7 +75967,7 @@
         <v>13.321633472661942</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="17">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -76039,7 +75983,7 @@
         <v>13.312817468331813</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="17">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -76055,7 +75999,7 @@
         <v>13.30209487115054</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="17">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -76071,7 +76015,7 @@
         <v>13.291377961908633</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -76087,7 +76031,7 @@
         <v>13.28168628242987</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="17">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -76103,7 +76047,7 @@
         <v>13.272617195538141</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="17">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -76119,7 +76063,7 @@
         <v>13.264319075477681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="17">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -76135,7 +76079,7 @@
         <v>13.254728691309163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="17">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -76151,7 +76095,7 @@
         <v>13.244247113196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="17">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -76167,7 +76111,7 @@
         <v>13.233576933029861</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="17">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -76183,7 +76127,7 @@
         <v>13.223256714742391</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="17">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -76199,7 +76143,7 @@
         <v>13.213282451174672</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="17">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -76215,7 +76159,7 @@
         <v>13.203193926341308</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="17">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -76231,7 +76175,7 @@
         <v>13.193560615446076</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="17">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -76247,7 +76191,7 @@
         <v>13.183735858972694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="17">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -76263,7 +76207,7 @@
         <v>13.174323319314903</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="17">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -76279,7 +76223,7 @@
         <v>13.164756564897994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="17">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -76295,7 +76239,7 @@
         <v>13.155298518424493</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="17">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -76311,7 +76255,7 @@
         <v>13.146654286013993</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="17">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -76327,7 +76271,7 @@
         <v>13.137814826547274</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="17">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -76343,7 +76287,7 @@
         <v>13.128339493940089</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="17">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -76359,7 +76303,7 @@
         <v>13.119154422675603</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="17">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -76375,7 +76319,7 @@
         <v>13.110183161347122</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="17">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -76391,7 +76335,7 @@
         <v>13.101459866123227</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="17">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -76407,7 +76351,7 @@
         <v>13.09301819290096</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="17">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -76423,7 +76367,7 @@
         <v>13.085217400825231</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="17">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -76439,7 +76383,7 @@
         <v>13.077328527970266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="17">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -76455,7 +76399,7 @@
         <v>13.069424468912819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="17">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -76471,7 +76415,7 @@
         <v>13.062007176909548</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="17">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -76487,7 +76431,7 @@
         <v>13.054857152777728</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="17">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -76503,7 +76447,7 @@
         <v>13.048113888355031</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="17">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -76519,7 +76463,7 @@
         <v>13.041170222616184</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="17">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -76535,7 +76479,7 @@
         <v>13.03473499310164</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="17">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -76551,7 +76495,7 @@
         <v>12.999788742756211</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="17">
         <f t="shared" si="3"/>
         <v>285</v>
@@ -76567,7 +76511,7 @@
         <v>12.994526326114961</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="17">
         <f t="shared" si="3"/>
         <v>286</v>
@@ -76583,7 +76527,7 @@
         <v>12.989720289625049</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="17">
         <f t="shared" si="3"/>
         <v>287</v>
@@ -76599,7 +76543,7 @@
         <v>12.984634155270955</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="17">
         <f t="shared" si="3"/>
         <v>288</v>
@@ -76615,7 +76559,7 @@
         <v>12.980173619349875</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="17">
         <f t="shared" si="3"/>
         <v>289</v>
@@ -76631,7 +76575,7 @@
         <v>12.975813157933439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="17">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -76647,7 +76591,7 @@
         <v>12.971413801561255</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="17">
         <f t="shared" si="3"/>
         <v>291</v>
@@ -76663,7 +76607,7 @@
         <v>12.966529218703656</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="17">
         <f t="shared" si="3"/>
         <v>292</v>
@@ -76679,7 +76623,7 @@
         <v>12.962260283947822</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="17">
         <f t="shared" si="3"/>
         <v>293</v>
@@ -76695,7 +76639,7 @@
         <v>12.958464175060628</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="17">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -76711,7 +76655,7 @@
         <v>12.955068038546816</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="17">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -76727,7 +76671,7 @@
         <v>12.952000011941573</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="17">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -76743,7 +76687,7 @@
         <v>12.948513525685014</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="17">
         <f t="shared" si="3"/>
         <v>297</v>
@@ -76759,7 +76703,7 @@
         <v>12.945656579066547</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="17">
         <f t="shared" si="3"/>
         <v>298</v>
@@ -76775,7 +76719,7 @@
         <v>12.942651020713974</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="17">
         <f t="shared" si="3"/>
         <v>299</v>
@@ -76791,7 +76735,7 @@
         <v>12.94000001268483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -76807,7 +76751,7 @@
         <v>12.937333347109215</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
@@ -76823,7 +76767,7 @@
         <v>12.93398672572347</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="17">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -76839,7 +76783,7 @@
         <v>12.930728490903194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="17">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -76855,7 +76799,7 @@
         <v>12.927425757632886</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="17">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -76871,7 +76815,7 @@
         <v>12.923552646588041</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="17">
         <f t="shared" si="3"/>
         <v>305</v>
@@ -76887,7 +76831,7 @@
         <v>12.919377062894311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="17">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -76903,7 +76847,7 @@
         <v>12.915261451087467</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="17">
         <f t="shared" si="3"/>
         <v>307</v>
@@ -76919,7 +76863,7 @@
         <v>12.911042358054608</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="17">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -76935,7 +76879,7 @@
         <v>12.906168843418069</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="17">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -76951,7 +76895,7 @@
         <v>12.901779948099563</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="17">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -76967,7 +76911,7 @@
         <v>12.897290336105694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="17">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -76983,7 +76927,7 @@
         <v>12.899292619462267</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="17">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -76999,7 +76943,7 @@
         <v>12.89448719318194</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="17">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -77015,7 +76959,7 @@
         <v>12.889712472500847</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="17">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -77031,7 +76975,7 @@
         <v>12.884872623511992</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -77047,7 +76991,7 @@
         <v>12.880317471723064</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="17">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -77063,7 +77007,7 @@
         <v>12.875601278268244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="17">
         <f t="shared" si="3"/>
         <v>317</v>
@@ -77079,7 +77023,7 @@
         <v>12.870914839977177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="17">
         <f t="shared" si="3"/>
         <v>318</v>
@@ -77095,7 +77039,7 @@
         <v>12.86578617623511</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="17">
         <f t="shared" si="3"/>
         <v>319</v>
@@ -77111,7 +77055,7 @@
         <v>12.860815058848795</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="17">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -77127,7 +77071,7 @@
         <v>12.855187511789893</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="17">
         <f t="shared" si="3"/>
         <v>321</v>
@@ -77143,7 +77087,7 @@
         <v>12.849252348201762</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="17">
         <f t="shared" si="3"/>
         <v>322</v>
@@ -77159,7 +77103,7 @@
         <v>12.843633552089335</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="17">
         <f t="shared" si="3"/>
         <v>323</v>
@@ -77175,7 +77119,7 @@
         <v>12.838390103383174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="17">
         <f t="shared" si="3"/>
         <v>324</v>
@@ -77191,7 +77135,7 @@
         <v>12.833148159669031</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="17">
         <f t="shared" si="3"/>
         <v>325</v>
@@ -77207,7 +77151,7 @@
         <v>12.828061550900818</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="17">
         <f t="shared" si="3"/>
         <v>326</v>
@@ -77223,7 +77167,7 @@
         <v>12.82273007421094</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="17">
         <f t="shared" si="3"/>
         <v>327</v>
@@ -77239,7 +77183,7 @@
         <v>12.818012245237815</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="17">
         <f t="shared" si="3"/>
         <v>328</v>
@@ -77255,7 +77199,7 @@
         <v>12.813353671197458</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="17">
         <f t="shared" si="3"/>
         <v>329</v>
@@ -77271,7 +77215,7 @@
         <v>12.808693020920261</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="17">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -77287,7 +77231,7 @@
         <v>12.804000012462927</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="17">
         <f t="shared" si="3"/>
         <v>331</v>
@@ -77303,7 +77247,7 @@
         <v>12.799546839978143</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="17">
         <f t="shared" si="3"/>
         <v>332</v>
@@ -77319,7 +77263,7 @@
         <v>12.794849409044476</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="17">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -77335,7 +77279,7 @@
         <v>12.790090101629927</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="17">
         <f t="shared" si="3"/>
         <v>334</v>
@@ -77351,7 +77295,7 @@
         <v>12.785568872972352</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="17">
         <f t="shared" si="3"/>
         <v>335</v>
@@ -77367,7 +77311,7 @@
         <v>12.780955233859002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="17">
         <f t="shared" si="3"/>
         <v>336</v>
@@ -77383,7 +77327,7 @@
         <v>12.775863104264184</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="17">
         <f t="shared" si="3"/>
         <v>337</v>
@@ -77399,7 +77343,7 @@
         <v>12.77115727778269</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="17">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -77415,7 +77359,7 @@
         <v>12.766360953351381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="17">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -77431,7 +77375,7 @@
         <v>12.76150443104061</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -77447,7 +77391,7 @@
         <v>12.756558829537548</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="17">
         <f t="shared" si="3"/>
         <v>341</v>
@@ -77463,7 +77407,7 @@
         <v>12.751700886870283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="17">
         <f t="shared" si="3"/>
         <v>342</v>
@@ -77479,7 +77423,7 @@
         <v>12.745935678809259</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="17">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -77495,7 +77439,7 @@
         <v>12.74003236779232</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="17">
         <f t="shared" si="3"/>
         <v>344</v>
@@ -77511,7 +77455,7 @@
         <v>12.734189249106878</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="12.75" customHeight="1">
+    <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="17">
         <f t="shared" si="3"/>
         <v>345</v>
@@ -77527,7 +77471,7 @@
         <v>12.728640873573235</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="12.75" customHeight="1">
+    <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="17">
         <f t="shared" si="3"/>
         <v>346</v>
@@ -77543,7 +77487,7 @@
         <v>12.723066767551348</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="12.75" customHeight="1">
+    <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="17">
         <f t="shared" si="3"/>
         <v>347</v>
@@ -77559,7 +77503,7 @@
         <v>12.717409515281746</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="12.75" customHeight="1">
+    <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="17">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -77575,7 +77519,7 @@
         <v>12.712237936214844</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="12.75" customHeight="1">
+    <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="17">
         <f t="shared" si="3"/>
         <v>349</v>
@@ -77591,7 +77535,7 @@
         <v>12.707217197142596</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="12.75" customHeight="1">
+    <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="17">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -77607,7 +77551,7 @@
         <v>12.701910862293618</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="12.75" customHeight="1">
+    <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="17">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -77623,7 +77567,7 @@
         <v>12.696435332771413</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="12.75" customHeight="1">
+    <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="17">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -77639,7 +77583,7 @@
         <v>12.690337505121494</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="12.75" customHeight="1">
+    <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="17">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -77655,7 +77599,7 @@
         <v>12.684274226608403</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="12.75" customHeight="1">
+    <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="17">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -77671,7 +77615,7 @@
         <v>12.678245203369396</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="12.75" customHeight="1">
+    <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="17">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -77687,7 +77631,7 @@
         <v>12.672081132373989</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="12.75" customHeight="1">
+    <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="17">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -77703,7 +77647,7 @@
         <v>12.665755061777434</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="12.75" customHeight="1">
+    <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="17">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -77719,7 +77663,7 @@
         <v>12.659408408943321</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="12.75" customHeight="1">
+    <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="17">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -77735,7 +77679,7 @@
         <v>12.652929614504933</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="12.75" customHeight="1">
+    <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="17">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -77751,7 +77695,7 @@
         <v>12.64687688577372</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="12.75" customHeight="1">
+    <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="17">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -77767,7 +77711,7 @@
         <v>12.640552227757683</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="12.75" customHeight="1">
+    <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="17">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -77783,7 +77727,7 @@
         <v>12.634262609093533</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="12.75" customHeight="1">
+    <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="17">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -77799,7 +77743,7 @@
         <v>12.627952492442638</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="12.75" customHeight="1">
+    <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="17">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -77815,7 +77759,7 @@
         <v>12.621126175989628</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="12.75" customHeight="1">
+    <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="17">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -77831,7 +77775,7 @@
         <v>12.614364839929216</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="12.75" customHeight="1">
+    <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="17">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -77847,7 +77791,7 @@
         <v>12.607914525929409</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="12.75" customHeight="1">
+    <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="17">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -77863,7 +77807,7 @@
         <v>12.601253557497909</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="12.75" customHeight="1">
+    <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="17">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -77879,7 +77823,7 @@
         <v>12.595228344371213</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="12.75" customHeight="1">
+    <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="17">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -77895,7 +77839,7 @@
         <v>12.589181527919118</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="12.75" customHeight="1">
+    <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="17">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -77911,7 +77855,7 @@
         <v>12.58311328632584</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="12.75" customHeight="1">
+    <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="17">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -77927,7 +77871,7 @@
         <v>12.576618386389825</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="12.75" customHeight="1">
+    <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="17">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -77943,7 +77887,7 @@
         <v>12.569996773192008</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75" customHeight="1">
+    <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="17">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -77959,7 +77903,7 @@
         <v>12.563356997941492</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75" customHeight="1">
+    <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -77975,7 +77919,7 @@
         <v>12.555975344917519</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75" customHeight="1">
+    <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="17">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -77991,7 +77935,7 @@
         <v>12.548552950233248</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75" customHeight="1">
+    <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -78007,7 +77951,7 @@
         <v>12.541303475496626</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75" customHeight="1">
+    <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="17">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -78023,7 +77967,7 @@
         <v>12.533853199686794</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75" customHeight="1">
+    <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="17">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -78039,7 +77983,7 @@
         <v>12.52588541860805</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75" customHeight="1">
+    <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="17">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -78055,7 +77999,7 @@
         <v>12.517589426344536</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="12.75" customHeight="1">
+    <row r="381" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="17">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -78071,7 +78015,7 @@
         <v>12.510181538776344</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="12.75" customHeight="1">
+    <row r="382" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="17">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -78087,7 +78031,7 @@
         <v>12.503075798990089</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="12.75" customHeight="1">
+    <row r="383" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="17">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -78103,7 +78047,7 @@
         <v>12.495823630937622</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="12.75" customHeight="1">
+    <row r="384" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="17">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -78119,7 +78063,7 @@
         <v>12.489342418448256</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="12.75" customHeight="1">
+    <row r="385" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="17">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -78135,7 +78079,7 @@
         <v>12.482999488948391</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="12.75" customHeight="1">
+    <row r="386" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="17">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -78151,7 +78095,7 @@
         <v>12.476507302182901</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="12.75" customHeight="1">
+    <row r="387" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="17">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -78167,7 +78111,7 @@
         <v>12.469867023673334</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="12.75" customHeight="1">
+    <row r="388" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="17">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -78183,7 +78127,7 @@
         <v>12.463157523907341</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="12.75" customHeight="1">
+    <row r="389" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="17">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -78199,7 +78143,7 @@
         <v>12.457128693380449</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="12.75" customHeight="1">
+    <row r="390" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="17">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -78215,7 +78159,7 @@
         <v>12.451208258217095</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="12.75" customHeight="1">
+    <row r="391" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="17">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -78231,7 +78175,7 @@
         <v>12.445703867887488</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="12.75" customHeight="1">
+    <row r="392" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="17">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -78247,7 +78191,7 @@
         <v>12.440099499585211</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="12.75" customHeight="1">
+    <row r="393" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="17">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -78263,7 +78207,7 @@
         <v>12.434370344368881</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="12.75" customHeight="1">
+    <row r="394" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="17">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -78279,7 +78223,7 @@
         <v>12.428644908745492</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="12.75" customHeight="1">
+    <row r="395" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="17">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -78295,7 +78239,7 @@
         <v>12.422770493939524</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="12.75" customHeight="1">
+    <row r="396" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="17">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -78311,7 +78255,7 @@
         <v>12.416951279767089</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="12.75" customHeight="1">
+    <row r="397" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="17">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -78327,7 +78271,7 @@
         <v>12.411262795717045</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="12.75" customHeight="1">
+    <row r="398" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="17">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -78343,7 +78287,7 @@
         <v>12.405502031359173</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="12.75" customHeight="1">
+    <row r="399" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="17">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -78359,7 +78303,7 @@
         <v>12.399946610146682</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="12.75" customHeight="1">
+    <row r="400" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="17">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -78375,7 +78319,7 @@
         <v>12.394167850774455</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="12.75" customHeight="1">
+    <row r="401" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="17">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -78391,7 +78335,7 @@
         <v>12.389144874556974</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="12.75" customHeight="1">
+    <row r="402" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="17">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -78407,7 +78351,7 @@
         <v>12.384122012645582</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="17">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -78423,7 +78367,7 @@
         <v>12.379348641716293</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="17">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -78439,7 +78383,7 @@
         <v>12.374474640318988</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="17">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -78455,7 +78399,7 @@
         <v>12.370096290491892</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="17">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -78471,7 +78415,7 @@
         <v>12.365912884599586</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="17">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -78487,7 +78431,7 @@
         <v>12.361676061724031</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="17">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -78503,7 +78447,7 @@
         <v>12.357484741005498</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="17">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -78519,7 +78463,7 @@
         <v>12.353584288226616</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="17">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -78535,7 +78479,7 @@
         <v>12.350070601441747</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="17">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -78551,7 +78495,7 @@
         <v>12.346549646059247</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="17">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -78567,7 +78511,7 @@
         <v>12.343119036142031</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="17">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -78583,7 +78527,7 @@
         <v>12.339632128146549</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="17">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -78599,7 +78543,7 @@
         <v>12.336259234170466</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="17">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -78615,7 +78559,7 @@
         <v>12.332491051351651</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="17">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -78631,7 +78575,7 @@
         <v>12.328306291275922</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="17">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -78647,7 +78591,7 @@
         <v>12.324165793369232</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="17">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -78663,7 +78607,7 @@
         <v>12.320117318721712</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="17">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -78679,7 +78623,7 @@
         <v>12.316064279851874</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="17">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -78695,7 +78639,7 @@
         <v>12.312030633512515</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="17">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -78711,7 +78655,7 @@
         <v>12.308302636773822</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="17">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -78727,7 +78671,7 @@
         <v>12.304568582329123</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="17">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -78743,7 +78687,7 @@
         <v>12.300709750328341</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="17">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -78757,262 +78701,6 @@
       <c r="D424" s="17">
         <f>SUM($C$3:C424)/A424</f>
         <v>12.296987688218559</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="17">
-        <f t="shared" si="3"/>
-        <v>423</v>
-      </c>
-      <c r="B425" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C425" s="21">
-        <v>10.77999973</v>
-      </c>
-      <c r="D425" s="17">
-        <f>SUM($C$3:C425)/A425</f>
-        <v>12.293401428270052</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="17">
-        <f t="shared" si="3"/>
-        <v>424</v>
-      </c>
-      <c r="B426" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C426" s="21">
-        <v>10.960000040000001</v>
-      </c>
-      <c r="D426" s="17">
-        <f>SUM($C$3:C426)/A426</f>
-        <v>12.290256613675073</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="17">
-        <f t="shared" si="3"/>
-        <v>425</v>
-      </c>
-      <c r="B427" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C427" s="21">
-        <v>11</v>
-      </c>
-      <c r="D427" s="17">
-        <f>SUM($C$3:C427)/A427</f>
-        <v>12.287220715760544</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="17">
-        <f t="shared" si="3"/>
-        <v>426</v>
-      </c>
-      <c r="B428" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C428" s="21">
-        <v>11.06999969</v>
-      </c>
-      <c r="D428" s="17">
-        <f>SUM($C$3:C428)/A428</f>
-        <v>12.284363389408995</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="17">
-        <f t="shared" si="3"/>
-        <v>427</v>
-      </c>
-      <c r="B429" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C429" s="21">
-        <v>11.079999920000001</v>
-      </c>
-      <c r="D429" s="17">
-        <f>SUM($C$3:C429)/A429</f>
-        <v>12.281542866061432</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="17">
-        <f t="shared" si="3"/>
-        <v>428</v>
-      </c>
-      <c r="B430" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C430" s="21">
-        <v>11.079999920000001</v>
-      </c>
-      <c r="D430" s="17">
-        <f>SUM($C$3:C430)/A430</f>
-        <v>12.278735522729512</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="17">
-        <f t="shared" si="3"/>
-        <v>429</v>
-      </c>
-      <c r="B431" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C431" s="21">
-        <v>11.079999920000001</v>
-      </c>
-      <c r="D431" s="17">
-        <f>SUM($C$3:C431)/A431</f>
-        <v>12.275941267245294</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="17">
-        <f t="shared" si="3"/>
-        <v>430</v>
-      </c>
-      <c r="B432" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C432" s="21">
-        <v>11.25</v>
-      </c>
-      <c r="D432" s="17">
-        <f>SUM($C$3:C432)/A432</f>
-        <v>12.273555357321468</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="17">
-        <f t="shared" si="3"/>
-        <v>431</v>
-      </c>
-      <c r="B433" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C433" s="21">
-        <v>11.39000034</v>
-      </c>
-      <c r="D433" s="17">
-        <f>SUM($C$3:C433)/A433</f>
-        <v>12.271505345680351</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="17">
-        <f t="shared" si="3"/>
-        <v>432</v>
-      </c>
-      <c r="B434" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C434" s="21">
-        <v>11.369999890000001</v>
-      </c>
-      <c r="D434" s="17">
-        <f>SUM($C$3:C434)/A434</f>
-        <v>12.269418527495906</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="17">
-        <f t="shared" si="3"/>
-        <v>433</v>
-      </c>
-      <c r="B435" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C435" s="21">
-        <v>11.350000380000001</v>
-      </c>
-      <c r="D435" s="17">
-        <f>SUM($C$3:C435)/A435</f>
-        <v>12.267295159949727</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="17">
-        <f t="shared" si="3"/>
-        <v>434</v>
-      </c>
-      <c r="B436" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C436" s="21">
-        <v>11.39000034</v>
-      </c>
-      <c r="D436" s="17">
-        <f>SUM($C$3:C436)/A436</f>
-        <v>12.265273743313898</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="17">
-        <f t="shared" si="3"/>
-        <v>435</v>
-      </c>
-      <c r="B437" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C437" s="21">
-        <v>11.460000040000001</v>
-      </c>
-      <c r="D437" s="17">
-        <f>SUM($C$3:C437)/A437</f>
-        <v>12.263422539398233</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="17">
-        <f t="shared" si="3"/>
-        <v>436</v>
-      </c>
-      <c r="B438" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C438" s="21">
-        <v>11.489999770000001</v>
-      </c>
-      <c r="D438" s="17">
-        <f>SUM($C$3:C438)/A438</f>
-        <v>12.261648633963835</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="17">
-        <f t="shared" si="3"/>
-        <v>437</v>
-      </c>
-      <c r="B439" s="20">
-        <v>44956</v>
-      </c>
-      <c r="C439" s="21">
-        <v>11.39000034</v>
-      </c>
-      <c r="D439" s="17">
-        <f>SUM($C$3:C439)/A439</f>
-        <v>12.259654015442178</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="17">
-        <f t="shared" si="3"/>
-        <v>438</v>
-      </c>
-      <c r="B440" s="20">
-        <v>44957</v>
-      </c>
-      <c r="C440" s="21">
-        <v>11.39000034</v>
-      </c>
-      <c r="D440" s="17">
-        <f>SUM($C$3:C440)/A440</f>
-        <v>12.257668504767654</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1092,6 +1092,62 @@
     <t xml:space="preserve">2022/12/28
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2023/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/20
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1104,7 +1160,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4491,11 +4547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168462976"/>
-        <c:axId val="170209664"/>
+        <c:axId val="77698560"/>
+        <c:axId val="77700096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168462976"/>
+        <c:axId val="77698560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4538,7 +4594,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170209664"/>
+        <c:crossAx val="77700096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4546,7 +4602,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170209664"/>
+        <c:axId val="77700096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168462976"/>
+        <c:crossAx val="77698560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -64447,7 +64503,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -64468,7 +64524,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -64501,7 +64557,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -64517,7 +64573,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1">
       <c r="A3" s="26">
         <v>40451</v>
       </c>
@@ -64612,7 +64668,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1">
       <c r="A4" s="26">
         <v>40480</v>
       </c>
@@ -64713,7 +64769,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1">
       <c r="A5" s="26">
         <v>40512</v>
       </c>
@@ -64810,7 +64866,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="14.1" customHeight="1">
       <c r="A6" s="26">
         <v>40543</v>
       </c>
@@ -64900,7 +64956,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1">
       <c r="A7" s="26">
         <v>40574</v>
       </c>
@@ -64979,7 +65035,7 @@
         <v>82813.626416639017</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1">
       <c r="A8" s="26">
         <v>40602</v>
       </c>
@@ -65051,7 +65107,7 @@
         <v>1.5781487745665235E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="14.1" customHeight="1">
       <c r="A9" s="26">
         <v>40633</v>
       </c>
@@ -65152,7 +65208,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1">
       <c r="A10" s="26">
         <v>40662</v>
       </c>
@@ -65253,7 +65309,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="14.1" customHeight="1">
       <c r="A11" s="26">
         <v>40694</v>
       </c>
@@ -65354,7 +65410,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="14.1" customHeight="1">
       <c r="A12" s="26">
         <v>40724</v>
       </c>
@@ -65455,7 +65511,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="14.1" customHeight="1">
       <c r="A13" s="26">
         <v>40753</v>
       </c>
@@ -65556,7 +65612,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="14.1" customHeight="1">
       <c r="A14" s="26">
         <v>40786</v>
       </c>
@@ -65653,7 +65709,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="14.1" customHeight="1">
       <c r="A15" s="26">
         <v>40816</v>
       </c>
@@ -65743,7 +65799,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="14.1" customHeight="1">
       <c r="A16" s="26">
         <v>40847</v>
       </c>
@@ -65795,7 +65851,7 @@
         <v>226023.31414810085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="14.1" customHeight="1">
       <c r="A17" s="26">
         <v>40877</v>
       </c>
@@ -65840,7 +65896,7 @@
         <v>0.10832060454600145</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="14.1" customHeight="1">
       <c r="A18" s="26">
         <v>40907</v>
       </c>
@@ -65914,7 +65970,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="26">
         <v>40939</v>
       </c>
@@ -65988,7 +66044,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="26">
         <v>40968</v>
       </c>
@@ -66062,7 +66118,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="26">
         <v>40998</v>
       </c>
@@ -66136,7 +66192,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="26">
         <v>41026</v>
       </c>
@@ -66210,7 +66266,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="26">
         <v>41060</v>
       </c>
@@ -66284,7 +66340,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="26">
         <v>41089</v>
       </c>
@@ -66358,7 +66414,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="26">
         <v>41121</v>
       </c>
@@ -66432,7 +66488,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="26">
         <v>41152</v>
       </c>
@@ -66502,7 +66558,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="26">
         <v>41180</v>
       </c>
@@ -66565,7 +66621,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="26">
         <v>41213</v>
       </c>
@@ -66617,7 +66673,7 @@
         <v>362098.05834678403</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1">
       <c r="A29" s="26">
         <v>41243</v>
       </c>
@@ -66662,7 +66718,7 @@
         <v>9.1316415296595288E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1">
       <c r="A30" s="26">
         <v>41274</v>
       </c>
@@ -66725,7 +66781,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1">
       <c r="A31" s="26">
         <v>41305</v>
       </c>
@@ -66789,7 +66845,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1">
       <c r="A32" s="26">
         <v>41333</v>
       </c>
@@ -66852,7 +66908,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14.1" customHeight="1">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -66915,7 +66971,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14.1" customHeight="1">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -66978,7 +67034,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14.1" customHeight="1">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -67041,7 +67097,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14.1" customHeight="1">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -67104,7 +67160,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="14.1" customHeight="1">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -67167,7 +67223,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="14.1" customHeight="1">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -67230,7 +67286,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14.1" customHeight="1">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -67293,7 +67349,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="14.1" customHeight="1">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -67356,7 +67412,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="14.1" customHeight="1">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -67415,7 +67471,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14.1" customHeight="1">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -67467,7 +67523,7 @@
         <v>507834.42040464858</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14.1" customHeight="1">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -67513,7 +67569,7 @@
         <v>9.8052898274155309E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14.1" customHeight="1">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -67554,7 +67610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14.1" customHeight="1">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -67595,7 +67651,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14.1" customHeight="1">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -67636,7 +67692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14.1" customHeight="1">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -67677,7 +67733,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="14.1" customHeight="1">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -67718,7 +67774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -67759,7 +67815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -67800,7 +67856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -67841,7 +67897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -67882,7 +67938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -67923,7 +67979,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -67964,7 +68020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -68006,7 +68062,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -68047,7 +68103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -68088,7 +68144,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -68129,7 +68185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -68170,7 +68226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -68211,7 +68267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -68252,7 +68308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -68293,7 +68349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -68334,7 +68390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -68375,7 +68431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1">
       <c r="A65" s="26">
         <v>42338</v>
       </c>
@@ -68416,7 +68472,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1">
       <c r="A66" s="26">
         <v>42369</v>
       </c>
@@ -68457,7 +68513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1">
       <c r="A67" s="26">
         <v>42398</v>
       </c>
@@ -68499,7 +68555,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1">
       <c r="A68" s="26">
         <v>42429</v>
       </c>
@@ -68540,7 +68596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1">
       <c r="A69" s="26">
         <v>42460</v>
       </c>
@@ -68581,7 +68637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1">
       <c r="A70" s="26">
         <v>42489</v>
       </c>
@@ -68622,7 +68678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1">
       <c r="A71" s="26">
         <v>42521</v>
       </c>
@@ -68663,7 +68719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1">
       <c r="A72" s="26">
         <v>42551</v>
       </c>
@@ -68704,7 +68760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1">
       <c r="A73" s="26">
         <v>42580</v>
       </c>
@@ -68745,7 +68801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1">
       <c r="A74" s="26">
         <v>42613</v>
       </c>
@@ -68786,7 +68842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1">
       <c r="A75" s="26">
         <v>42643</v>
       </c>
@@ -68827,7 +68883,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1">
       <c r="A76" s="26">
         <v>42674</v>
       </c>
@@ -68868,7 +68924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1">
       <c r="A77" s="26">
         <v>42704</v>
       </c>
@@ -68909,7 +68965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1">
       <c r="A78" s="24">
         <v>42734</v>
       </c>
@@ -68950,7 +69006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1">
       <c r="A79" s="13">
         <v>42761</v>
       </c>
@@ -68992,7 +69048,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1">
       <c r="A80" s="13">
         <v>42794</v>
       </c>
@@ -69033,7 +69089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1">
       <c r="A81" s="13">
         <v>42825</v>
       </c>
@@ -69074,7 +69130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1">
       <c r="A82" s="13">
         <v>42853</v>
       </c>
@@ -69115,7 +69171,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1">
       <c r="A83" s="13">
         <v>42886</v>
       </c>
@@ -69156,7 +69212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1">
       <c r="A84" s="13">
         <v>42916</v>
       </c>
@@ -69197,7 +69253,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1">
       <c r="A85" s="13">
         <v>42947</v>
       </c>
@@ -69238,7 +69294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1">
       <c r="A86" s="13">
         <v>42978</v>
       </c>
@@ -69279,7 +69335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1">
       <c r="A87" s="13">
         <v>43007</v>
       </c>
@@ -69320,7 +69376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1">
       <c r="A88" s="13">
         <v>43039</v>
       </c>
@@ -69361,7 +69417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1">
       <c r="A89" s="13">
         <v>43069</v>
       </c>
@@ -69402,7 +69458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1">
       <c r="A90" s="13">
         <v>43098</v>
       </c>
@@ -69443,7 +69499,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1">
       <c r="A91" s="13">
         <v>43131</v>
       </c>
@@ -69485,7 +69541,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1">
       <c r="A92" s="13">
         <v>43159</v>
       </c>
@@ -69526,7 +69582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1">
       <c r="A93" s="13">
         <v>43189</v>
       </c>
@@ -69567,7 +69623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1">
       <c r="A94" s="13">
         <v>43217</v>
       </c>
@@ -69608,7 +69664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1">
       <c r="A95" s="13">
         <v>43251</v>
       </c>
@@ -69649,7 +69705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1">
       <c r="A96" s="13">
         <v>43280</v>
       </c>
@@ -69690,7 +69746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1">
       <c r="A97" s="13">
         <v>43312</v>
       </c>
@@ -69731,7 +69787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1">
       <c r="A98" s="13">
         <v>43343</v>
       </c>
@@ -69772,7 +69828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1">
       <c r="A99" s="13">
         <v>43371</v>
       </c>
@@ -69813,7 +69869,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1">
       <c r="A100" s="13">
         <v>43404</v>
       </c>
@@ -69854,7 +69910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1">
       <c r="A101" s="13">
         <v>43434</v>
       </c>
@@ -69895,7 +69951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1">
       <c r="A102" s="13">
         <v>43462</v>
       </c>
@@ -69936,7 +69992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1">
       <c r="A103" s="13">
         <v>43496</v>
       </c>
@@ -69978,7 +70034,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1">
       <c r="A104" s="13">
         <v>43524</v>
       </c>
@@ -70019,7 +70075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1">
       <c r="A105" s="13">
         <v>43553</v>
       </c>
@@ -70060,7 +70116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1">
       <c r="A106" s="13">
         <v>43585</v>
       </c>
@@ -70101,7 +70157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1">
       <c r="A107" s="13">
         <v>43616</v>
       </c>
@@ -70142,7 +70198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1">
       <c r="A108" s="13">
         <v>43644</v>
       </c>
@@ -70183,7 +70239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1">
       <c r="A109" s="13">
         <v>43677</v>
       </c>
@@ -70224,7 +70280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1">
       <c r="A110" s="13">
         <v>43707</v>
       </c>
@@ -70265,7 +70321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1">
       <c r="A111" s="13">
         <v>43738</v>
       </c>
@@ -70306,7 +70362,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1">
       <c r="A112" s="13">
         <v>43769</v>
       </c>
@@ -70347,7 +70403,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1">
       <c r="A113" s="13">
         <v>43798</v>
       </c>
@@ -70388,7 +70444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1">
       <c r="A114" s="13">
         <v>43830</v>
       </c>
@@ -70429,7 +70485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1">
       <c r="A115" s="13">
         <v>43853</v>
       </c>
@@ -70471,7 +70527,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1">
       <c r="A116" s="13">
         <v>43889</v>
       </c>
@@ -70512,7 +70568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1">
       <c r="A117" s="13">
         <v>43921</v>
       </c>
@@ -70553,7 +70609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1">
       <c r="A118" s="13">
         <v>43951</v>
       </c>
@@ -70594,7 +70650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1">
       <c r="A119" s="13">
         <v>43980</v>
       </c>
@@ -70635,7 +70691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1">
       <c r="A120" s="13">
         <v>44012</v>
       </c>
@@ -70676,7 +70732,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1">
       <c r="A121" s="13">
         <v>44043</v>
       </c>
@@ -70717,7 +70773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1">
       <c r="A122" s="13">
         <v>44074</v>
       </c>
@@ -70758,7 +70814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1">
       <c r="A123" s="13">
         <v>44104</v>
       </c>
@@ -70799,7 +70855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1">
       <c r="A124" s="13">
         <v>44134</v>
       </c>
@@ -70840,7 +70896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1">
       <c r="A125" s="13">
         <v>44165</v>
       </c>
@@ -70881,7 +70937,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1">
       <c r="A126" s="13">
         <v>44196</v>
       </c>
@@ -70922,7 +70978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1">
       <c r="A127" s="13">
         <v>44225</v>
       </c>
@@ -70964,7 +71020,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1">
       <c r="A128" s="13">
         <v>44253</v>
       </c>
@@ -71005,7 +71061,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1">
       <c r="A129" s="13">
         <v>44286</v>
       </c>
@@ -71046,7 +71102,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1">
       <c r="A130" s="13">
         <v>44316</v>
       </c>
@@ -71087,7 +71143,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1">
       <c r="A131" s="13">
         <v>44347</v>
       </c>
@@ -71128,7 +71184,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1">
       <c r="A132" s="13">
         <v>44377</v>
       </c>
@@ -71169,7 +71225,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1">
       <c r="A133" s="13">
         <v>44407</v>
       </c>
@@ -71210,7 +71266,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1">
       <c r="A134" s="13">
         <v>44439</v>
       </c>
@@ -71251,7 +71307,7 @@
         <v>13.430000305175781</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1">
       <c r="A135" s="13">
         <v>44469</v>
       </c>
@@ -71292,7 +71348,7 @@
         <v>12.899999618530273</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1">
       <c r="A136" s="13">
         <v>44498</v>
       </c>
@@ -71333,7 +71389,7 @@
         <v>12.840000152587891</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1">
       <c r="A137" s="13">
         <v>44530</v>
       </c>
@@ -71374,7 +71430,7 @@
         <v>12.390000343322754</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1">
       <c r="A138" s="13">
         <v>44561</v>
       </c>
@@ -71415,7 +71471,7 @@
         <v>12.949999809265137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1">
       <c r="A139" s="13">
         <v>44589</v>
       </c>
@@ -71457,7 +71513,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1">
       <c r="A140" s="13">
         <v>44620</v>
       </c>
@@ -71498,7 +71554,7 @@
         <v>12.239999771118164</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1">
       <c r="A141" s="13">
         <v>44651</v>
       </c>
@@ -71539,7 +71595,7 @@
         <v>11.460000040000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1">
       <c r="A142" s="13">
         <v>44680</v>
       </c>
@@ -71580,7 +71636,7 @@
         <v>11.14000034</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1">
       <c r="A143" s="13">
         <v>44712</v>
       </c>
@@ -71621,7 +71677,7 @@
         <v>10.93999958</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1">
       <c r="A144" s="13">
         <v>44742</v>
       </c>
@@ -71662,7 +71718,7 @@
         <v>12.100000380000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.1" customHeight="1">
       <c r="A145" s="13">
         <v>44771</v>
       </c>
@@ -71703,7 +71759,7 @@
         <v>11.239999770000001</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.1" customHeight="1">
       <c r="A146" s="13">
         <v>44804</v>
       </c>
@@ -71744,7 +71800,7 @@
         <v>11.100000380000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="12.75">
       <c r="A147" s="13">
         <v>44834</v>
       </c>
@@ -71785,7 +71841,7 @@
         <v>10.3500003814697</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="13">
         <v>44865</v>
       </c>
@@ -71826,7 +71882,7 @@
         <v>9.3900003430000005</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="12.75">
       <c r="A149" s="13">
         <v>44895</v>
       </c>
@@ -71867,7 +71923,7 @@
         <v>10.380000109999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="12.75">
       <c r="A150" s="13">
         <v>44925</v>
       </c>
@@ -71921,13 +71977,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
@@ -71935,7 +71991,7 @@
     <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
@@ -71943,7 +71999,7 @@
         <v>399378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -71952,7 +72008,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -71967,7 +72023,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>2</v>
@@ -71983,7 +72039,7 @@
         <v>16.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -71999,7 +72055,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -72015,7 +72071,7 @@
         <v>16.142499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -72031,7 +72087,7 @@
         <v>16.127999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -72047,7 +72103,7 @@
         <v>16.133333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -72063,7 +72119,7 @@
         <v>16.185714285714283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -72079,7 +72135,7 @@
         <v>16.223749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -72095,7 +72151,7 @@
         <v>16.258888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -72111,7 +72167,7 @@
         <v>16.283999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -72127,7 +72183,7 @@
         <v>16.318181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -72143,7 +72199,7 @@
         <v>16.330833333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -72159,7 +72215,7 @@
         <v>16.346923076923073</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -72175,7 +72231,7 @@
         <v>16.36785714285714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -72191,7 +72247,7 @@
         <v>16.393333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -72207,7 +72263,7 @@
         <v>16.409374999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -72223,7 +72279,7 @@
         <v>16.282941176470587</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -72239,7 +72295,7 @@
         <v>16.162777777777777</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -72255,7 +72311,7 @@
         <v>16.055263157894736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -72271,7 +72327,7 @@
         <v>15.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -72287,7 +72343,7 @@
         <v>15.879523809523809</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -72303,7 +72359,7 @@
         <v>15.798636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -72319,7 +72375,7 @@
         <v>15.735217391304346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -72335,7 +72391,7 @@
         <v>15.687083333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -72351,7 +72407,7 @@
         <v>15.643199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -72367,7 +72423,7 @@
         <v>15.600384615384611</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -72383,7 +72439,7 @@
         <v>15.561111111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -72399,7 +72455,7 @@
         <v>15.520714285714282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -72415,7 +72471,7 @@
         <v>15.485172413793101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -72431,7 +72487,7 @@
         <v>15.465666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -72447,7 +72503,7 @@
         <v>15.447419354838706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -72463,7 +72519,7 @@
         <v>15.431562499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -72479,7 +72535,7 @@
         <v>15.416060606060602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -72495,7 +72551,7 @@
         <v>15.40205882352941</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -72511,7 +72567,7 @@
         <v>15.389999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -72527,7 +72583,7 @@
         <v>15.375555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -72543,7 +72599,7 @@
         <v>15.359459459459458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -72559,7 +72615,7 @@
         <v>15.346052631578948</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -72575,7 +72631,7 @@
         <v>15.332564102564103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -72591,7 +72647,7 @@
         <v>15.31625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -72607,7 +72663,7 @@
         <v>15.301707317073172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -72623,7 +72679,7 @@
         <v>15.290714285714287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -72639,7 +72695,7 @@
         <v>15.278372093023256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -72655,7 +72711,7 @@
         <v>15.264772727272726</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -72671,7 +72727,7 @@
         <v>15.24688888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -72687,7 +72743,7 @@
         <v>15.229565217391306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -72703,7 +72759,7 @@
         <v>15.211702127659576</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -72719,7 +72775,7 @@
         <v>15.193333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -72735,7 +72791,7 @@
         <v>15.178571428571431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -72751,7 +72807,7 @@
         <v>15.164600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -72767,7 +72823,7 @@
         <v>15.152352941176472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -72783,7 +72839,7 @@
         <v>15.144423076923079</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -72799,7 +72855,7 @@
         <v>15.136981132075473</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -72815,7 +72871,7 @@
         <v>15.127407407407409</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -72831,7 +72887,7 @@
         <v>15.119636363636367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -72847,7 +72903,7 @@
         <v>15.113214285714289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -72863,7 +72919,7 @@
         <v>15.100175438596494</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -72879,7 +72935,7 @@
         <v>15.087413793103451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -72895,7 +72951,7 @@
         <v>15.074576271186444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -72911,7 +72967,7 @@
         <v>15.064500000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -72927,7 +72983,7 @@
         <v>15.051967213114757</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -72943,7 +72999,7 @@
         <v>15.038709677419359</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -72959,7 +73015,7 @@
         <v>15.027777777777782</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -72975,7 +73031,7 @@
         <v>15.018125000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -72991,7 +73047,7 @@
         <v>15.00692307692308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -73007,7 +73063,7 @@
         <v>14.998484848484852</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="17">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -73023,7 +73079,7 @@
         <v>14.98761194029851</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -73039,7 +73095,7 @@
         <v>14.978235294117651</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -73055,7 +73111,7 @@
         <v>14.968405797101452</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -73071,7 +73127,7 @@
         <v>14.959428571428573</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="17">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -73087,7 +73143,7 @@
         <v>14.950985915492957</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -73103,7 +73159,7 @@
         <v>14.940000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -73119,7 +73175,7 @@
         <v>14.922876706580594</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -73135,7 +73191,7 @@
         <v>14.900270264599776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -73151,7 +73207,7 @@
         <v>14.879199990336101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="17">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -73167,7 +73223,7 @@
         <v>14.860526306754664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -73183,7 +73239,7 @@
         <v>14.840389606921704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -73199,7 +73255,7 @@
         <v>14.824743584852953</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="17">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -73215,7 +73271,7 @@
         <v>14.809999993239778</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -73231,7 +73287,7 @@
         <v>15.001624985694885</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="17">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -73247,7 +73303,7 @@
         <v>14.984814804924859</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="17">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -73263,7 +73319,7 @@
         <v>14.967804870140263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="17">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -73279,7 +73335,7 @@
         <v>14.953373491677894</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="17">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -73295,7 +73351,7 @@
         <v>14.941547617231098</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -73311,7 +73367,7 @@
         <v>14.929529410867131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="17">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -73327,7 +73383,7 @@
         <v>14.916395350167919</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="17">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -73343,7 +73399,7 @@
         <v>14.903218397381663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="17">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -73359,7 +73415,7 @@
         <v>14.89056818788702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="17">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -73375,7 +73431,7 @@
         <v>14.874831464103099</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -73391,7 +73447,7 @@
         <v>14.860666674296063</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -73407,7 +73463,7 @@
         <v>14.845494508009692</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -73423,7 +73479,7 @@
         <v>14.827717394206836</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="17">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -73439,7 +73495,7 @@
         <v>14.81225807107905</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="17">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -73455,7 +73511,7 @@
         <v>14.798510649660802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -73471,7 +73527,7 @@
         <v>14.786105273196572</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="17">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -73487,7 +73543,7 @@
         <v>14.771666672627132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="17">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -73503,7 +73559,7 @@
         <v>14.758144336189192</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="17">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -73519,7 +73575,7 @@
         <v>14.744693879497294</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="17">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -73535,7 +73591,7 @@
         <v>14.73141414642334</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -73551,7 +73607,7 @@
         <v>14.710400006103516</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="17">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -73567,7 +73623,7 @@
         <v>14.690099014433304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="17">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -73583,7 +73639,7 @@
         <v>14.670000007853789</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="17">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -73599,7 +73655,7 @@
         <v>14.652135929366917</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="17">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -73615,7 +73671,7 @@
         <v>14.636153850922218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -73631,7 +73687,7 @@
         <v>14.619809529259092</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="17">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -73647,7 +73703,7 @@
         <v>14.60415094915426</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="17">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -73663,7 +73719,7 @@
         <v>14.589626175711089</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -73679,7 +73735,7 @@
         <v>14.57564815485919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="17">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -73695,7 +73751,7 @@
         <v>14.560550468164847</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -73711,7 +73767,7 @@
         <v>14.544818190487948</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="17">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -73727,7 +73783,7 @@
         <v>14.528288297223616</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="17">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -73743,7 +73799,7 @@
         <v>14.512946441173554</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="17">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -73759,7 +73815,7 @@
         <v>14.497876122398715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="17">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -73775,7 +73831,7 @@
         <v>14.483157908121745</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -73791,7 +73847,7 @@
         <v>14.468521754057512</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="17">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -73807,7 +73863,7 @@
         <v>14.455172429249204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="17">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -73823,7 +73879,7 @@
         <v>14.442564113975591</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="17">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -73839,7 +73895,7 @@
         <v>14.428813568050579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="17">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -73855,7 +73911,7 @@
         <v>14.41596639200419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -73871,7 +73927,7 @@
         <v>14.404416669845581</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="17">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -73887,7 +73943,7 @@
         <v>14.393140498705147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -73903,7 +73959,7 @@
         <v>14.381147546299168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="17">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -73919,7 +73975,7 @@
         <v>14.370162604727396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="17">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -73935,7 +73991,7 @@
         <v>14.358870972971763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -73951,7 +74007,7 @@
         <v>14.348080007019043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="17">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -73967,7 +74023,7 @@
         <v>14.336269845508394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="17">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -73983,7 +74039,7 @@
         <v>14.325590551781843</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -73999,7 +74055,7 @@
         <v>14.314687502980233</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="17">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -74015,7 +74071,7 @@
         <v>14.304418605834016</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -74031,7 +74087,7 @@
         <v>14.294615383735071</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="17">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
@@ -74047,7 +74103,7 @@
         <v>14.285267172369339</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="17">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -74063,7 +74119,7 @@
         <v>14.275681818470812</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="17">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -74079,7 +74135,7 @@
         <v>14.26511278138125</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="17">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -74095,7 +74151,7 @@
         <v>14.254029848184159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="17">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -74111,7 +74167,7 @@
         <v>14.243555554142706</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="17">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -74127,7 +74183,7 @@
         <v>14.231397058543038</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="17">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -74143,7 +74199,7 @@
         <v>14.218175182760197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="17">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -74159,7 +74215,7 @@
         <v>14.204855073569478</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="17">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -74175,7 +74231,7 @@
         <v>14.192589929155309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -74191,7 +74247,7 @@
         <v>14.180000003269742</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="17">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -74207,7 +74263,7 @@
         <v>14.167517734284097</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="17">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -74223,7 +74279,7 @@
         <v>14.155000006178735</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="17">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -74239,7 +74295,7 @@
         <v>14.142167836169262</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="17">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -74255,7 +74311,7 @@
         <v>14.130694446828631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="17">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -74271,7 +74327,7 @@
         <v>14.119103449328193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="17">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -74287,7 +74343,7 @@
         <v>14.107602737897064</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="17">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -74303,7 +74359,7 @@
         <v>14.096462585034015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="17">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -74319,7 +74375,7 @@
         <v>14.085608106561612</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="17">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -74335,7 +74391,7 @@
         <v>14.074161073057445</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -74351,7 +74407,7 @@
         <v>14.06380000228882</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="17">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -74367,7 +74423,7 @@
         <v>14.053774837973894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -74383,7 +74439,7 @@
         <v>14.043881583715741</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="17">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -74399,7 +74455,7 @@
         <v>14.034444451674918</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="17">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -74415,7 +74471,7 @@
         <v>14.024870139778436</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="17">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -74431,7 +74487,7 @@
         <v>14.014774203638879</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -74447,7 +74503,7 @@
         <v>14.004743598546739</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="17">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -74463,7 +74519,7 @@
         <v>13.994458609659961</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -74479,7 +74535,7 @@
         <v>13.984620261373401</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="17">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -74495,7 +74551,7 @@
         <v>13.975094349459285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="17">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -74511,7 +74567,7 @@
         <v>13.966375009298327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="17">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -74527,7 +74583,7 @@
         <v>13.957826097144846</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="17">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -74543,7 +74599,7 @@
         <v>13.949876553806259</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="17">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -74559,7 +74615,7 @@
         <v>13.943067496130073</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -74575,7 +74631,7 @@
         <v>13.937378061573682</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="17">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -74591,7 +74647,7 @@
         <v>13.931575767517092</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="17">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -74607,7 +74663,7 @@
         <v>13.926987962148278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="17">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -74623,7 +74679,7 @@
         <v>13.922035940707088</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="17">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -74639,7 +74695,7 @@
         <v>13.916488106364298</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="17">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -74655,7 +74711,7 @@
         <v>13.911597645099349</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="17">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -74671,7 +74727,7 @@
         <v>13.90564706847247</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="17">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -74687,7 +74743,7 @@
         <v>13.899122816386978</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="17">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -74703,7 +74759,7 @@
         <v>13.893197684398919</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="17">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -74719,7 +74775,7 @@
         <v>13.88734105104656</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="17">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -74735,7 +74791,7 @@
         <v>13.882183917253869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="17">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -74751,7 +74807,7 @@
         <v>13.877028577968055</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -74767,7 +74823,7 @@
         <v>13.871875008019536</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="17">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -74783,7 +74839,7 @@
         <v>13.867175149001646</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="17">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -74799,7 +74855,7 @@
         <v>13.861348321893244</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="17">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -74815,7 +74871,7 @@
         <v>13.855921796873297</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="17">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -74831,7 +74887,7 @@
         <v>13.85088889694214</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="17">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -74847,7 +74903,7 @@
         <v>13.845745864783863</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -74863,7 +74919,7 @@
         <v>13.840219789442127</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="17">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -74879,7 +74935,7 @@
         <v>13.834207658194455</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="17">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -74895,7 +74951,7 @@
         <v>13.828423923409504</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="17">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -74911,7 +74967,7 @@
         <v>13.822972981633368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="17">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -74927,7 +74983,7 @@
         <v>13.8169354924848</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="17">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -74943,7 +74999,7 @@
         <v>13.811336909411425</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -74959,7 +75015,7 @@
         <v>13.804734053510302</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="17">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -74975,7 +75031,7 @@
         <v>13.797566147456095</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -74991,7 +75047,7 @@
         <v>13.790736851943167</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="17">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -75007,7 +75063,7 @@
         <v>13.784816762914209</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="17">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -75023,7 +75079,7 @@
         <v>13.778750008344652</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="17">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -75039,7 +75095,7 @@
         <v>13.773316068105748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="17">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -75055,9 +75111,9 @@
         <v>13.767319591758179</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A424" si="3">A196+1</f>
+        <f t="shared" ref="A197:A440" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -75071,7 +75127,7 @@
         <v>13.761333339397725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="17">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -75087,7 +75143,7 @@
         <v>13.754030617889095</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="17">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -75103,7 +75159,7 @@
         <v>13.747208126668399</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="17">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -75119,7 +75175,7 @@
         <v>13.739494955660119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="17">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -75135,7 +75191,7 @@
         <v>13.730954779811841</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -75151,7 +75207,7 @@
         <v>13.723600007057192</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="17">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -75167,7 +75223,7 @@
         <v>13.71641791614134</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="17">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -75183,7 +75239,7 @@
         <v>13.709851492513526</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="17">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -75199,7 +75255,7 @@
         <v>13.703448282439135</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="17">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -75215,7 +75271,7 @@
         <v>13.696911770689722</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="17">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -75231,7 +75287,7 @@
         <v>13.689853664491237</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="17">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -75247,7 +75303,7 @@
         <v>13.683203887939454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -75263,7 +75319,7 @@
         <v>13.676811596967173</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="17">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -75279,7 +75335,7 @@
         <v>13.670528848354634</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="17">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -75295,7 +75351,7 @@
         <v>13.664688996492963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="17">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -75311,7 +75367,7 @@
         <v>13.658809526534309</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="17">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -75327,7 +75383,7 @@
         <v>13.652274882962919</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="17">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -75343,7 +75399,7 @@
         <v>13.646132078710593</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="17">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -75359,7 +75415,7 @@
         <v>13.639014088268013</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="17">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -75375,7 +75431,7 @@
         <v>13.632336452519784</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="17">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -75391,7 +75447,7 @@
         <v>13.625860467955125</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="17">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -75407,7 +75463,7 @@
         <v>13.619953708288666</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="17">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -75423,7 +75479,7 @@
         <v>13.613824889172127</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="17">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -75439,7 +75495,7 @@
         <v>13.607568811698862</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="17">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -75455,7 +75511,7 @@
         <v>13.600821922650008</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="17">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -75471,7 +75527,7 @@
         <v>13.59268182491069</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="17">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -75487,7 +75543,7 @@
         <v>13.583574666969916</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="17">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -75503,7 +75559,7 @@
         <v>13.57405406157816</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="17">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -75519,7 +75575,7 @@
         <v>13.565336330853594</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="17">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -75535,7 +75591,7 @@
         <v>13.556875008305141</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="17">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -75551,7 +75607,7 @@
         <v>13.547066676623785</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="17">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -75567,7 +75623,7 @@
         <v>13.534867266373237</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="17">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -75583,7 +75639,7 @@
         <v>13.524317191807716</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="17">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -75599,7 +75655,7 @@
         <v>13.514824571054174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="17">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -75615,7 +75671,7 @@
         <v>13.505851538167475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="17">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -75631,7 +75687,7 @@
         <v>13.496782618784138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="17">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -75647,7 +75703,7 @@
         <v>13.48792208714438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="17">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -75663,7 +75719,7 @@
         <v>13.479353457458412</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="17">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -75679,7 +75735,7 @@
         <v>13.470600865709663</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="17">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -75695,7 +75751,7 @@
         <v>13.461153854445948</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="17">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -75711,7 +75767,7 @@
         <v>13.451787243278092</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="17">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -75727,7 +75783,7 @@
         <v>13.44245763631505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="17">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -75743,7 +75799,7 @@
         <v>13.434261612533129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="17">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -75759,7 +75815,7 @@
         <v>13.425966395841815</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="17">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -75775,7 +75831,7 @@
         <v>13.418326370677079</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="17">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -75791,7 +75847,7 @@
         <v>13.410666677148033</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="17">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -75807,7 +75863,7 @@
         <v>13.402614119429694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="17">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -75823,7 +75879,7 @@
         <v>13.394876043452594</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="17">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -75839,7 +75895,7 @@
         <v>13.386090546273291</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="17">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -75855,7 +75911,7 @@
         <v>13.378114763626201</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="17">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -75871,7 +75927,7 @@
         <v>13.369918376368783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="17">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -75887,7 +75943,7 @@
         <v>13.36247968362685</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="17">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -75903,7 +75959,7 @@
         <v>13.35497976680602</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -75919,7 +75975,7 @@
         <v>13.347137105840721</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="17">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -75935,7 +75991,7 @@
         <v>13.339236957280884</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="17">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -75951,7 +76007,7 @@
         <v>13.330800007620704</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="17">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -75967,7 +76023,7 @@
         <v>13.321633472661942</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="17">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -75983,7 +76039,7 @@
         <v>13.312817468331813</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="17">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -75999,7 +76055,7 @@
         <v>13.30209487115054</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="17">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -76015,7 +76071,7 @@
         <v>13.291377961908633</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -76031,7 +76087,7 @@
         <v>13.28168628242987</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="17">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -76047,7 +76103,7 @@
         <v>13.272617195538141</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="17">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -76063,7 +76119,7 @@
         <v>13.264319075477681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="17">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -76079,7 +76135,7 @@
         <v>13.254728691309163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="17">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -76095,7 +76151,7 @@
         <v>13.244247113196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="17">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -76111,7 +76167,7 @@
         <v>13.233576933029861</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="17">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -76127,7 +76183,7 @@
         <v>13.223256714742391</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="17">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -76143,7 +76199,7 @@
         <v>13.213282451174672</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="17">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -76159,7 +76215,7 @@
         <v>13.203193926341308</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="17">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -76175,7 +76231,7 @@
         <v>13.193560615446076</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="17">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -76191,7 +76247,7 @@
         <v>13.183735858972694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="17">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -76207,7 +76263,7 @@
         <v>13.174323319314903</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="17">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -76223,7 +76279,7 @@
         <v>13.164756564897994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="17">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -76239,7 +76295,7 @@
         <v>13.155298518424493</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="17">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -76255,7 +76311,7 @@
         <v>13.146654286013993</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="17">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -76271,7 +76327,7 @@
         <v>13.137814826547274</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="17">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -76287,7 +76343,7 @@
         <v>13.128339493940089</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="17">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -76303,7 +76359,7 @@
         <v>13.119154422675603</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="17">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -76319,7 +76375,7 @@
         <v>13.110183161347122</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="17">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -76335,7 +76391,7 @@
         <v>13.101459866123227</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="17">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -76351,7 +76407,7 @@
         <v>13.09301819290096</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="17">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -76367,7 +76423,7 @@
         <v>13.085217400825231</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="17">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -76383,7 +76439,7 @@
         <v>13.077328527970266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="17">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -76399,7 +76455,7 @@
         <v>13.069424468912819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="17">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -76415,7 +76471,7 @@
         <v>13.062007176909548</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="17">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -76431,7 +76487,7 @@
         <v>13.054857152777728</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="17">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -76447,7 +76503,7 @@
         <v>13.048113888355031</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="17">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -76463,7 +76519,7 @@
         <v>13.041170222616184</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="17">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -76479,7 +76535,7 @@
         <v>13.03473499310164</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="17">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -76495,7 +76551,7 @@
         <v>12.999788742756211</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="17">
         <f t="shared" si="3"/>
         <v>285</v>
@@ -76511,7 +76567,7 @@
         <v>12.994526326114961</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="17">
         <f t="shared" si="3"/>
         <v>286</v>
@@ -76527,7 +76583,7 @@
         <v>12.989720289625049</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="17">
         <f t="shared" si="3"/>
         <v>287</v>
@@ -76543,7 +76599,7 @@
         <v>12.984634155270955</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="17">
         <f t="shared" si="3"/>
         <v>288</v>
@@ -76559,7 +76615,7 @@
         <v>12.980173619349875</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="17">
         <f t="shared" si="3"/>
         <v>289</v>
@@ -76575,7 +76631,7 @@
         <v>12.975813157933439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="17">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -76591,7 +76647,7 @@
         <v>12.971413801561255</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="17">
         <f t="shared" si="3"/>
         <v>291</v>
@@ -76607,7 +76663,7 @@
         <v>12.966529218703656</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="17">
         <f t="shared" si="3"/>
         <v>292</v>
@@ -76623,7 +76679,7 @@
         <v>12.962260283947822</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="17">
         <f t="shared" si="3"/>
         <v>293</v>
@@ -76639,7 +76695,7 @@
         <v>12.958464175060628</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="17">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -76655,7 +76711,7 @@
         <v>12.955068038546816</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="17">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -76671,7 +76727,7 @@
         <v>12.952000011941573</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="17">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -76687,7 +76743,7 @@
         <v>12.948513525685014</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="17">
         <f t="shared" si="3"/>
         <v>297</v>
@@ -76703,7 +76759,7 @@
         <v>12.945656579066547</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="17">
         <f t="shared" si="3"/>
         <v>298</v>
@@ -76719,7 +76775,7 @@
         <v>12.942651020713974</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="17">
         <f t="shared" si="3"/>
         <v>299</v>
@@ -76735,7 +76791,7 @@
         <v>12.94000001268483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -76751,7 +76807,7 @@
         <v>12.937333347109215</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
@@ -76767,7 +76823,7 @@
         <v>12.93398672572347</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="17">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -76783,7 +76839,7 @@
         <v>12.930728490903194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="17">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -76799,7 +76855,7 @@
         <v>12.927425757632886</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="17">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -76815,7 +76871,7 @@
         <v>12.923552646588041</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="17">
         <f t="shared" si="3"/>
         <v>305</v>
@@ -76831,7 +76887,7 @@
         <v>12.919377062894311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="17">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -76847,7 +76903,7 @@
         <v>12.915261451087467</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="17">
         <f t="shared" si="3"/>
         <v>307</v>
@@ -76863,7 +76919,7 @@
         <v>12.911042358054608</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="17">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -76879,7 +76935,7 @@
         <v>12.906168843418069</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="17">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -76895,7 +76951,7 @@
         <v>12.901779948099563</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="17">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -76911,7 +76967,7 @@
         <v>12.897290336105694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="17">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -76927,7 +76983,7 @@
         <v>12.899292619462267</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="17">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -76943,7 +76999,7 @@
         <v>12.89448719318194</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="17">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -76959,7 +77015,7 @@
         <v>12.889712472500847</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="17">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -76975,7 +77031,7 @@
         <v>12.884872623511992</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -76991,7 +77047,7 @@
         <v>12.880317471723064</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="17">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -77007,7 +77063,7 @@
         <v>12.875601278268244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="17">
         <f t="shared" si="3"/>
         <v>317</v>
@@ -77023,7 +77079,7 @@
         <v>12.870914839977177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="17">
         <f t="shared" si="3"/>
         <v>318</v>
@@ -77039,7 +77095,7 @@
         <v>12.86578617623511</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="17">
         <f t="shared" si="3"/>
         <v>319</v>
@@ -77055,7 +77111,7 @@
         <v>12.860815058848795</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="17">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -77071,7 +77127,7 @@
         <v>12.855187511789893</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="17">
         <f t="shared" si="3"/>
         <v>321</v>
@@ -77087,7 +77143,7 @@
         <v>12.849252348201762</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="17">
         <f t="shared" si="3"/>
         <v>322</v>
@@ -77103,7 +77159,7 @@
         <v>12.843633552089335</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="17">
         <f t="shared" si="3"/>
         <v>323</v>
@@ -77119,7 +77175,7 @@
         <v>12.838390103383174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="17">
         <f t="shared" si="3"/>
         <v>324</v>
@@ -77135,7 +77191,7 @@
         <v>12.833148159669031</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="17">
         <f t="shared" si="3"/>
         <v>325</v>
@@ -77151,7 +77207,7 @@
         <v>12.828061550900818</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="17">
         <f t="shared" si="3"/>
         <v>326</v>
@@ -77167,7 +77223,7 @@
         <v>12.82273007421094</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="17">
         <f t="shared" si="3"/>
         <v>327</v>
@@ -77183,7 +77239,7 @@
         <v>12.818012245237815</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="17">
         <f t="shared" si="3"/>
         <v>328</v>
@@ -77199,7 +77255,7 @@
         <v>12.813353671197458</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="17">
         <f t="shared" si="3"/>
         <v>329</v>
@@ -77215,7 +77271,7 @@
         <v>12.808693020920261</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="17">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -77231,7 +77287,7 @@
         <v>12.804000012462927</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="17">
         <f t="shared" si="3"/>
         <v>331</v>
@@ -77247,7 +77303,7 @@
         <v>12.799546839978143</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="17">
         <f t="shared" si="3"/>
         <v>332</v>
@@ -77263,7 +77319,7 @@
         <v>12.794849409044476</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="17">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -77279,7 +77335,7 @@
         <v>12.790090101629927</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="17">
         <f t="shared" si="3"/>
         <v>334</v>
@@ -77295,7 +77351,7 @@
         <v>12.785568872972352</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="17">
         <f t="shared" si="3"/>
         <v>335</v>
@@ -77311,7 +77367,7 @@
         <v>12.780955233859002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="17">
         <f t="shared" si="3"/>
         <v>336</v>
@@ -77327,7 +77383,7 @@
         <v>12.775863104264184</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="17">
         <f t="shared" si="3"/>
         <v>337</v>
@@ -77343,7 +77399,7 @@
         <v>12.77115727778269</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="17">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -77359,7 +77415,7 @@
         <v>12.766360953351381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="17">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -77375,7 +77431,7 @@
         <v>12.76150443104061</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="17">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -77391,7 +77447,7 @@
         <v>12.756558829537548</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="17">
         <f t="shared" si="3"/>
         <v>341</v>
@@ -77407,7 +77463,7 @@
         <v>12.751700886870283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="17">
         <f t="shared" si="3"/>
         <v>342</v>
@@ -77423,7 +77479,7 @@
         <v>12.745935678809259</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="17">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -77439,7 +77495,7 @@
         <v>12.74003236779232</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="17">
         <f t="shared" si="3"/>
         <v>344</v>
@@ -77455,7 +77511,7 @@
         <v>12.734189249106878</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" ht="12.75" customHeight="1">
       <c r="A347" s="17">
         <f t="shared" si="3"/>
         <v>345</v>
@@ -77471,7 +77527,7 @@
         <v>12.728640873573235</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" ht="12.75" customHeight="1">
       <c r="A348" s="17">
         <f t="shared" si="3"/>
         <v>346</v>
@@ -77487,7 +77543,7 @@
         <v>12.723066767551348</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" ht="12.75" customHeight="1">
       <c r="A349" s="17">
         <f t="shared" si="3"/>
         <v>347</v>
@@ -77503,7 +77559,7 @@
         <v>12.717409515281746</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" ht="12.75" customHeight="1">
       <c r="A350" s="17">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -77519,7 +77575,7 @@
         <v>12.712237936214844</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="12.75" customHeight="1">
       <c r="A351" s="17">
         <f t="shared" si="3"/>
         <v>349</v>
@@ -77535,7 +77591,7 @@
         <v>12.707217197142596</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" ht="12.75" customHeight="1">
       <c r="A352" s="17">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -77551,7 +77607,7 @@
         <v>12.701910862293618</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="12.75" customHeight="1">
       <c r="A353" s="17">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -77567,7 +77623,7 @@
         <v>12.696435332771413</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="12.75" customHeight="1">
       <c r="A354" s="17">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -77583,7 +77639,7 @@
         <v>12.690337505121494</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" ht="12.75" customHeight="1">
       <c r="A355" s="17">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -77599,7 +77655,7 @@
         <v>12.684274226608403</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="12.75" customHeight="1">
       <c r="A356" s="17">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -77615,7 +77671,7 @@
         <v>12.678245203369396</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="12.75" customHeight="1">
       <c r="A357" s="17">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -77631,7 +77687,7 @@
         <v>12.672081132373989</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" ht="12.75" customHeight="1">
       <c r="A358" s="17">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -77647,7 +77703,7 @@
         <v>12.665755061777434</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" ht="12.75" customHeight="1">
       <c r="A359" s="17">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -77663,7 +77719,7 @@
         <v>12.659408408943321</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" ht="12.75" customHeight="1">
       <c r="A360" s="17">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -77679,7 +77735,7 @@
         <v>12.652929614504933</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" ht="12.75" customHeight="1">
       <c r="A361" s="17">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -77695,7 +77751,7 @@
         <v>12.64687688577372</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="12.75" customHeight="1">
       <c r="A362" s="17">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -77711,7 +77767,7 @@
         <v>12.640552227757683</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="12.75" customHeight="1">
       <c r="A363" s="17">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -77727,7 +77783,7 @@
         <v>12.634262609093533</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="12.75" customHeight="1">
       <c r="A364" s="17">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -77743,7 +77799,7 @@
         <v>12.627952492442638</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" ht="12.75" customHeight="1">
       <c r="A365" s="17">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -77759,7 +77815,7 @@
         <v>12.621126175989628</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" ht="12.75" customHeight="1">
       <c r="A366" s="17">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -77775,7 +77831,7 @@
         <v>12.614364839929216</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" ht="12.75" customHeight="1">
       <c r="A367" s="17">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -77791,7 +77847,7 @@
         <v>12.607914525929409</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" ht="12.75" customHeight="1">
       <c r="A368" s="17">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -77807,7 +77863,7 @@
         <v>12.601253557497909</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" ht="12.75" customHeight="1">
       <c r="A369" s="17">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -77823,7 +77879,7 @@
         <v>12.595228344371213</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" ht="12.75" customHeight="1">
       <c r="A370" s="17">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -77839,7 +77895,7 @@
         <v>12.589181527919118</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" ht="12.75" customHeight="1">
       <c r="A371" s="17">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -77855,7 +77911,7 @@
         <v>12.58311328632584</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="12.75" customHeight="1">
       <c r="A372" s="17">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -77871,7 +77927,7 @@
         <v>12.576618386389825</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" ht="12.75" customHeight="1">
       <c r="A373" s="17">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -77887,7 +77943,7 @@
         <v>12.569996773192008</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" ht="12.75" customHeight="1">
       <c r="A374" s="17">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -77903,7 +77959,7 @@
         <v>12.563356997941492</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" ht="12.75" customHeight="1">
       <c r="A375" s="17">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -77919,7 +77975,7 @@
         <v>12.555975344917519</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" ht="12.75" customHeight="1">
       <c r="A376" s="17">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -77935,7 +77991,7 @@
         <v>12.548552950233248</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" ht="12.75" customHeight="1">
       <c r="A377" s="17">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -77951,7 +78007,7 @@
         <v>12.541303475496626</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" ht="12.75" customHeight="1">
       <c r="A378" s="17">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -77967,7 +78023,7 @@
         <v>12.533853199686794</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" ht="12.75" customHeight="1">
       <c r="A379" s="17">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -77983,7 +78039,7 @@
         <v>12.52588541860805</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" ht="12.75" customHeight="1">
       <c r="A380" s="17">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -77999,7 +78055,7 @@
         <v>12.517589426344536</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" ht="12.75" customHeight="1">
       <c r="A381" s="17">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -78015,7 +78071,7 @@
         <v>12.510181538776344</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" ht="12.75" customHeight="1">
       <c r="A382" s="17">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -78031,7 +78087,7 @@
         <v>12.503075798990089</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" ht="12.75" customHeight="1">
       <c r="A383" s="17">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -78047,7 +78103,7 @@
         <v>12.495823630937622</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" ht="12.75" customHeight="1">
       <c r="A384" s="17">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -78063,7 +78119,7 @@
         <v>12.489342418448256</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" ht="12.75" customHeight="1">
       <c r="A385" s="17">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -78079,7 +78135,7 @@
         <v>12.482999488948391</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" ht="12.75" customHeight="1">
       <c r="A386" s="17">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -78095,7 +78151,7 @@
         <v>12.476507302182901</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" ht="12.75" customHeight="1">
       <c r="A387" s="17">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -78111,7 +78167,7 @@
         <v>12.469867023673334</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" ht="12.75" customHeight="1">
       <c r="A388" s="17">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -78127,7 +78183,7 @@
         <v>12.463157523907341</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" ht="12.75" customHeight="1">
       <c r="A389" s="17">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -78143,7 +78199,7 @@
         <v>12.457128693380449</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" ht="12.75" customHeight="1">
       <c r="A390" s="17">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -78159,7 +78215,7 @@
         <v>12.451208258217095</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" ht="12.75" customHeight="1">
       <c r="A391" s="17">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -78175,7 +78231,7 @@
         <v>12.445703867887488</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" ht="12.75" customHeight="1">
       <c r="A392" s="17">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -78191,7 +78247,7 @@
         <v>12.440099499585211</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" ht="12.75" customHeight="1">
       <c r="A393" s="17">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -78207,7 +78263,7 @@
         <v>12.434370344368881</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" ht="12.75" customHeight="1">
       <c r="A394" s="17">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -78223,7 +78279,7 @@
         <v>12.428644908745492</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" ht="12.75" customHeight="1">
       <c r="A395" s="17">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -78239,7 +78295,7 @@
         <v>12.422770493939524</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" ht="12.75" customHeight="1">
       <c r="A396" s="17">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -78255,7 +78311,7 @@
         <v>12.416951279767089</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" ht="12.75" customHeight="1">
       <c r="A397" s="17">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -78271,7 +78327,7 @@
         <v>12.411262795717045</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" ht="12.75" customHeight="1">
       <c r="A398" s="17">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -78287,7 +78343,7 @@
         <v>12.405502031359173</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" ht="12.75" customHeight="1">
       <c r="A399" s="17">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -78303,7 +78359,7 @@
         <v>12.399946610146682</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" ht="12.75" customHeight="1">
       <c r="A400" s="17">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -78319,7 +78375,7 @@
         <v>12.394167850774455</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" ht="12.75" customHeight="1">
       <c r="A401" s="17">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -78335,7 +78391,7 @@
         <v>12.389144874556974</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" ht="12.75" customHeight="1">
       <c r="A402" s="17">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -78351,7 +78407,7 @@
         <v>12.384122012645582</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="17">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -78367,7 +78423,7 @@
         <v>12.379348641716293</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="17">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -78383,7 +78439,7 @@
         <v>12.374474640318988</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="17">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -78399,7 +78455,7 @@
         <v>12.370096290491892</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="17">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -78415,7 +78471,7 @@
         <v>12.365912884599586</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="17">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -78431,7 +78487,7 @@
         <v>12.361676061724031</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="17">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -78447,7 +78503,7 @@
         <v>12.357484741005498</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="17">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -78463,7 +78519,7 @@
         <v>12.353584288226616</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="17">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -78479,7 +78535,7 @@
         <v>12.350070601441747</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="17">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -78495,7 +78551,7 @@
         <v>12.346549646059247</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="17">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -78511,7 +78567,7 @@
         <v>12.343119036142031</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="17">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -78527,7 +78583,7 @@
         <v>12.339632128146549</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="17">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -78543,7 +78599,7 @@
         <v>12.336259234170466</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="17">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -78559,7 +78615,7 @@
         <v>12.332491051351651</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="17">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -78575,7 +78631,7 @@
         <v>12.328306291275922</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="17">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -78591,7 +78647,7 @@
         <v>12.324165793369232</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="17">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -78607,7 +78663,7 @@
         <v>12.320117318721712</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="17">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -78623,7 +78679,7 @@
         <v>12.316064279851874</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="17">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -78639,7 +78695,7 @@
         <v>12.312030633512515</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="17">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -78655,7 +78711,7 @@
         <v>12.308302636773822</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="17">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -78671,7 +78727,7 @@
         <v>12.304568582329123</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="17">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -78687,7 +78743,7 @@
         <v>12.300709750328341</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="17">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -78701,6 +78757,262 @@
       <c r="D424" s="17">
         <f>SUM($C$3:C424)/A424</f>
         <v>12.296987688218559</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="17">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="B425" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C425" s="21">
+        <v>10.77999973</v>
+      </c>
+      <c r="D425" s="17">
+        <f>SUM($C$3:C425)/A425</f>
+        <v>12.293401428270052</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="17">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="B426" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C426" s="21">
+        <v>10.960000040000001</v>
+      </c>
+      <c r="D426" s="17">
+        <f>SUM($C$3:C426)/A426</f>
+        <v>12.290256613675073</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="17">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="B427" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C427" s="21">
+        <v>11</v>
+      </c>
+      <c r="D427" s="17">
+        <f>SUM($C$3:C427)/A427</f>
+        <v>12.287220715760544</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="17">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="B428" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C428" s="21">
+        <v>11.06999969</v>
+      </c>
+      <c r="D428" s="17">
+        <f>SUM($C$3:C428)/A428</f>
+        <v>12.284363389408995</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="17">
+        <f t="shared" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="B429" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C429" s="21">
+        <v>11.079999920000001</v>
+      </c>
+      <c r="D429" s="17">
+        <f>SUM($C$3:C429)/A429</f>
+        <v>12.281542866061432</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="17">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="B430" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C430" s="21">
+        <v>11.079999920000001</v>
+      </c>
+      <c r="D430" s="17">
+        <f>SUM($C$3:C430)/A430</f>
+        <v>12.278735522729512</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="17">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="B431" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C431" s="21">
+        <v>11.079999920000001</v>
+      </c>
+      <c r="D431" s="17">
+        <f>SUM($C$3:C431)/A431</f>
+        <v>12.275941267245294</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="17">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="B432" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C432" s="21">
+        <v>11.25</v>
+      </c>
+      <c r="D432" s="17">
+        <f>SUM($C$3:C432)/A432</f>
+        <v>12.273555357321468</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="17">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C433" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D433" s="17">
+        <f>SUM($C$3:C433)/A433</f>
+        <v>12.271505345680351</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="17">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="B434" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C434" s="21">
+        <v>11.369999890000001</v>
+      </c>
+      <c r="D434" s="17">
+        <f>SUM($C$3:C434)/A434</f>
+        <v>12.269418527495906</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="17">
+        <f t="shared" si="3"/>
+        <v>433</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C435" s="21">
+        <v>11.350000380000001</v>
+      </c>
+      <c r="D435" s="17">
+        <f>SUM($C$3:C435)/A435</f>
+        <v>12.267295159949727</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="17">
+        <f t="shared" si="3"/>
+        <v>434</v>
+      </c>
+      <c r="B436" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C436" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D436" s="17">
+        <f>SUM($C$3:C436)/A436</f>
+        <v>12.265273743313898</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="17">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="B437" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C437" s="21">
+        <v>11.460000040000001</v>
+      </c>
+      <c r="D437" s="17">
+        <f>SUM($C$3:C437)/A437</f>
+        <v>12.263422539398233</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="17">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="B438" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C438" s="21">
+        <v>11.489999770000001</v>
+      </c>
+      <c r="D438" s="17">
+        <f>SUM($C$3:C438)/A438</f>
+        <v>12.261648633963835</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="17">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="B439" s="20">
+        <v>44956</v>
+      </c>
+      <c r="C439" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D439" s="17">
+        <f>SUM($C$3:C439)/A439</f>
+        <v>12.259654015442178</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="17">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="B440" s="20">
+        <v>44957</v>
+      </c>
+      <c r="C440" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D440" s="17">
+        <f>SUM($C$3:C440)/A440</f>
+        <v>12.257668504767654</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -1751,7 +1751,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.2300899999999999</c:v>
                 </c:pt>
@@ -2195,6 +2195,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>2.4624399414062501</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,7 +2207,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2648,6 +2651,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>429691.15630892606</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,7 +2696,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.2300899999999999</c:v>
                 </c:pt>
@@ -3134,6 +3140,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>2.4624399414062501</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,7 +3152,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3587,6 +3596,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>133691.15630892606</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,7 +3641,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.2300899999999999</c:v>
                 </c:pt>
@@ -4073,6 +4085,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>2.4624399414062501</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,7 +4097,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4526,6 +4541,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>10.72999954</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11.39000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,11 +4565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77698560"/>
-        <c:axId val="77700096"/>
+        <c:axId val="336188544"/>
+        <c:axId val="336190080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77698560"/>
+        <c:axId val="336188544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4594,7 +4612,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77700096"/>
+        <c:crossAx val="336190080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4602,7 +4620,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77700096"/>
+        <c:axId val="336190080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4653,7 +4671,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77698560"/>
+        <c:crossAx val="336188544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -64199,6 +64217,326 @@
           </cell>
           <cell r="F2972">
             <v>2.4624399414062501</v>
+          </cell>
+        </row>
+        <row r="2973">
+          <cell r="A2973">
+            <v>44929</v>
+          </cell>
+          <cell r="B2973">
+            <v>2459.115234375</v>
+          </cell>
+          <cell r="C2973">
+            <v>2474.3681640625</v>
+          </cell>
+          <cell r="D2973">
+            <v>2438.51806640625</v>
+          </cell>
+          <cell r="E2973">
+            <v>2469.929931640625</v>
+          </cell>
+          <cell r="F2973">
+            <v>2.4699299316406251</v>
+          </cell>
+        </row>
+        <row r="2974">
+          <cell r="A2974">
+            <v>44930</v>
+          </cell>
+          <cell r="B2974">
+            <v>2469.272705078125</v>
+          </cell>
+          <cell r="C2974">
+            <v>2483.990966796875</v>
+          </cell>
+          <cell r="D2974">
+            <v>2462.18701171875</v>
+          </cell>
+          <cell r="E2974">
+            <v>2474.435546875</v>
+          </cell>
+          <cell r="F2974">
+            <v>2.4744355468750001</v>
+          </cell>
+        </row>
+        <row r="2975">
+          <cell r="A2975">
+            <v>44931</v>
+          </cell>
+          <cell r="B2975">
+            <v>2487.330322265625</v>
+          </cell>
+          <cell r="C2975">
+            <v>2527.453369140625</v>
+          </cell>
+          <cell r="D2975">
+            <v>2486.34033203125</v>
+          </cell>
+          <cell r="E2975">
+            <v>2523.373046875</v>
+          </cell>
+          <cell r="F2975">
+            <v>2.5233730468750002</v>
+          </cell>
+        </row>
+        <row r="2976">
+          <cell r="A2976">
+            <v>44932</v>
+          </cell>
+          <cell r="B2976">
+            <v>2525.789306640625</v>
+          </cell>
+          <cell r="C2976">
+            <v>2545.179931640625</v>
+          </cell>
+          <cell r="D2976">
+            <v>2523.996337890625</v>
+          </cell>
+          <cell r="E2976">
+            <v>2533.093017578125</v>
+          </cell>
+          <cell r="F2976">
+            <v>2.5330930175781252</v>
+          </cell>
+        </row>
+        <row r="2977">
+          <cell r="A2977">
+            <v>44935</v>
+          </cell>
+          <cell r="B2977">
+            <v>2544.51513671875</v>
+          </cell>
+          <cell r="C2977">
+            <v>2558.41650390625</v>
+          </cell>
+          <cell r="D2977">
+            <v>2536.946533203125</v>
+          </cell>
+          <cell r="E2977">
+            <v>2552.970703125</v>
+          </cell>
+          <cell r="F2977">
+            <v>2.5529707031250002</v>
+          </cell>
+        </row>
+        <row r="2978">
+          <cell r="A2978">
+            <v>44936</v>
+          </cell>
+          <cell r="B2978">
+            <v>2554.955078125</v>
+          </cell>
+          <cell r="C2978">
+            <v>2563.7890625</v>
+          </cell>
+          <cell r="D2978">
+            <v>2544.94287109375</v>
+          </cell>
+          <cell r="E2978">
+            <v>2556.47998046875</v>
+          </cell>
+          <cell r="F2978">
+            <v>2.5564799804687501</v>
+          </cell>
+        </row>
+        <row r="2979">
+          <cell r="A2979">
+            <v>44937</v>
+          </cell>
+          <cell r="B2979">
+            <v>2558.75830078125</v>
+          </cell>
+          <cell r="C2979">
+            <v>2575.414306640625</v>
+          </cell>
+          <cell r="D2979">
+            <v>2551.642578125</v>
+          </cell>
+          <cell r="E2979">
+            <v>2555.135498046875</v>
+          </cell>
+          <cell r="F2979">
+            <v>2.5551354980468748</v>
+          </cell>
+        </row>
+        <row r="2980">
+          <cell r="A2980">
+            <v>44938</v>
+          </cell>
+          <cell r="B2980">
+            <v>2561.16845703125</v>
+          </cell>
+          <cell r="C2980">
+            <v>2565.728271484375</v>
+          </cell>
+          <cell r="D2980">
+            <v>2547.947021484375</v>
+          </cell>
+          <cell r="E2980">
+            <v>2555.46826171875</v>
+          </cell>
+          <cell r="F2980">
+            <v>2.5554682617187501</v>
+          </cell>
+        </row>
+        <row r="2981">
+          <cell r="A2981">
+            <v>44939</v>
+          </cell>
+          <cell r="B2981">
+            <v>2565.433349609375</v>
+          </cell>
+          <cell r="C2981">
+            <v>2595.423583984375</v>
+          </cell>
+          <cell r="D2981">
+            <v>2563.05078125</v>
+          </cell>
+          <cell r="E2981">
+            <v>2595.423583984375</v>
+          </cell>
+          <cell r="F2981">
+            <v>2.5954235839843749</v>
+          </cell>
+        </row>
+        <row r="2982">
+          <cell r="A2982">
+            <v>44942</v>
+          </cell>
+          <cell r="B2982">
+            <v>2599.2158203125</v>
+          </cell>
+          <cell r="C2982">
+            <v>2658.344482421875</v>
+          </cell>
+          <cell r="D2982">
+            <v>2599.2158203125</v>
+          </cell>
+          <cell r="E2982">
+            <v>2634.89794921875</v>
+          </cell>
+          <cell r="F2982">
+            <v>2.6348979492187499</v>
+          </cell>
+        </row>
+        <row r="2983">
+          <cell r="A2983">
+            <v>44943</v>
+          </cell>
+          <cell r="B2983">
+            <v>2636.08154296875</v>
+          </cell>
+          <cell r="C2983">
+            <v>2638.69140625</v>
+          </cell>
+          <cell r="D2983">
+            <v>2619.4765625</v>
+          </cell>
+          <cell r="E2983">
+            <v>2630.167236328125</v>
+          </cell>
+          <cell r="F2983">
+            <v>2.6301672363281252</v>
+          </cell>
+        </row>
+        <row r="2984">
+          <cell r="A2984">
+            <v>44944</v>
+          </cell>
+          <cell r="B2984">
+            <v>2634.237060546875</v>
+          </cell>
+          <cell r="C2984">
+            <v>2643.140380859375</v>
+          </cell>
+          <cell r="D2984">
+            <v>2621.730712890625</v>
+          </cell>
+          <cell r="E2984">
+            <v>2624.00390625</v>
+          </cell>
+          <cell r="F2984">
+            <v>2.62400390625</v>
+          </cell>
+        </row>
+        <row r="2985">
+          <cell r="A2985">
+            <v>44945</v>
+          </cell>
+          <cell r="B2985">
+            <v>2621.488525390625</v>
+          </cell>
+          <cell r="C2985">
+            <v>2637.007080078125</v>
+          </cell>
+          <cell r="D2985">
+            <v>2606.54150390625</v>
+          </cell>
+          <cell r="E2985">
+            <v>2637.007080078125</v>
+          </cell>
+          <cell r="F2985">
+            <v>2.6370070800781251</v>
+          </cell>
+        </row>
+        <row r="2986">
+          <cell r="A2986">
+            <v>44946</v>
+          </cell>
+          <cell r="B2986">
+            <v>2645.551513671875</v>
+          </cell>
+          <cell r="C2986">
+            <v>2660.654296875</v>
+          </cell>
+          <cell r="D2986">
+            <v>2644.002197265625</v>
+          </cell>
+          <cell r="E2986">
+            <v>2653.07275390625</v>
+          </cell>
+          <cell r="F2986">
+            <v>2.6530727539062502</v>
+          </cell>
+        </row>
+        <row r="2987">
+          <cell r="A2987">
+            <v>44956</v>
+          </cell>
+          <cell r="B2987">
+            <v>2704.86572265625</v>
+          </cell>
+          <cell r="C2987">
+            <v>2705.36669921875</v>
+          </cell>
+          <cell r="D2987">
+            <v>2660.528076171875</v>
+          </cell>
+          <cell r="E2987">
+            <v>2662.802734375</v>
+          </cell>
+          <cell r="F2987">
+            <v>2.662802734375</v>
+          </cell>
+        </row>
+        <row r="2988">
+          <cell r="A2988">
+            <v>44957</v>
+          </cell>
+          <cell r="B2988">
+            <v>2662.7734375</v>
+          </cell>
+          <cell r="C2988">
+            <v>2673.025390625</v>
+          </cell>
+          <cell r="D2988">
+            <v>2634.824951171875</v>
+          </cell>
+          <cell r="E2988">
+            <v>2637.02490234375</v>
+          </cell>
+          <cell r="F2988">
+            <v>2.6370249023437502</v>
           </cell>
         </row>
       </sheetData>
@@ -64496,10 +64834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -71033,7 +71371,7 @@
         <v>2000</v>
       </c>
       <c r="D128" s="16">
-        <f t="shared" ref="D128:D150" si="45">C128/B128</f>
+        <f t="shared" ref="D128:D151" si="45">C128/B128</f>
         <v>610.15232452781834</v>
       </c>
       <c r="E128" s="16">
@@ -71041,7 +71379,7 @@
         <v>158642.23792691118</v>
       </c>
       <c r="F128" s="16">
-        <f t="shared" ref="F128:F150" si="46">E128*B128</f>
+        <f t="shared" ref="F128:F151" si="46">E128*B128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="G128" s="16">
@@ -71049,11 +71387,11 @@
         <v>252000</v>
       </c>
       <c r="H128" s="16">
-        <f t="shared" ref="H128:H150" si="47">F128</f>
+        <f t="shared" ref="H128:H151" si="47">F128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="I128" s="16">
-        <f t="shared" ref="I128:I150" si="48">H128-G128</f>
+        <f t="shared" ref="I128:I151" si="48">H128-G128</f>
         <v>268008.63243348437</v>
       </c>
       <c r="J128" s="31" t="e">
@@ -71070,7 +71408,7 @@
         <v>3.1244299999999998</v>
       </c>
       <c r="C129" s="15">
-        <f t="shared" ref="C129:C150" si="49">C128</f>
+        <f t="shared" ref="C129:C151" si="49">C128</f>
         <v>2000</v>
       </c>
       <c r="D129" s="16">
@@ -71078,7 +71416,7 @@
         <v>640.11675729653098</v>
       </c>
       <c r="E129" s="16">
-        <f t="shared" ref="E129:E150" si="50">E128+D129</f>
+        <f t="shared" ref="E129:E151" si="50">E128+D129</f>
         <v>159282.3546842077</v>
       </c>
       <c r="F129" s="16">
@@ -71086,7 +71424,7 @@
         <v>497666.56744597905</v>
       </c>
       <c r="G129" s="16">
-        <f t="shared" ref="G129:G150" si="51">G128+C129</f>
+        <f t="shared" ref="G129:G151" si="51">G128+C129</f>
         <v>254000</v>
       </c>
       <c r="H129" s="16">
@@ -71962,6 +72300,47 @@
       <c r="J150" s="31">
         <f>VLOOKUP(A150,myPEPB!B:C,2)</f>
         <v>10.72999954</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="12.75">
+      <c r="A151" s="13">
+        <v>44957</v>
+      </c>
+      <c r="B151" s="14">
+        <f>VLOOKUP(A151,[1]CNI_ESG_300!$A:$F,6)</f>
+        <v>2.6370249023437502</v>
+      </c>
+      <c r="C151" s="15">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="D151" s="16">
+        <f t="shared" si="45"/>
+        <v>758.43045631553514</v>
+      </c>
+      <c r="E151" s="16">
+        <f t="shared" si="50"/>
+        <v>175256.55692170176</v>
+      </c>
+      <c r="F151" s="16">
+        <f t="shared" si="46"/>
+        <v>462155.90490155248</v>
+      </c>
+      <c r="G151" s="16">
+        <f t="shared" si="51"/>
+        <v>298000</v>
+      </c>
+      <c r="H151" s="16">
+        <f t="shared" si="47"/>
+        <v>462155.90490155248</v>
+      </c>
+      <c r="I151" s="16">
+        <f t="shared" si="48"/>
+        <v>164155.90490155248</v>
+      </c>
+      <c r="J151" s="31">
+        <f>VLOOKUP(A151,myPEPB!B:C,2)</f>
+        <v>11.39000034</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1&amp;2" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="302">
   <si>
     <t>PE</t>
   </si>
@@ -1148,6 +1148,78 @@
     <t xml:space="preserve">2023/1/20
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2023/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/24
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1543,7 +1615,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,6 +1689,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1705,6 +1778,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1750,454 +1824,457 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,453 +2284,456 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>112000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>116000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>118000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>122000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>124000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>132000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>134000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>136000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>146000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>148000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>152000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>154000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>158000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>164000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>166000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>168000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>172000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>174000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>178000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>182000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>184000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>186000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>188000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>194000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>196000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>202000</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>204000</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>206000</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>208000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>212000</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>214000</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>222000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>224000</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>226000</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>228000</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>232000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>236000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>238000</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>242000</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>244000</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>246000</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>254000</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>258000</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>262000</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>264000</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>266000</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>268000</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>272000</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>274000</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>276000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>278000</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>286000</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>292000</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>294000</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>296000</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>298000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,454 +2775,457 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3152,453 +3235,456 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>462155.90490155248</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>456260.50288029009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3640,454 +3726,457 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,454 +4185,457 @@
             <c:numRef>
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>#N/A</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>#N/A</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>#N/A</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>#N/A</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>#N/A</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>#N/A</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>#N/A</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>#N/A</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>#N/A</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>#N/A</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>#N/A</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>#N/A</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>#N/A</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>#N/A</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>#N/A</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>#N/A</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>#N/A</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>#N/A</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>#N/A</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>#N/A</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>#N/A</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>#N/A</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>#N/A</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>#N/A</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>#N/A</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>#N/A</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>#N/A</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>#N/A</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>#N/A</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>#N/A</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>#N/A</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>#N/A</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>#N/A</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>#N/A</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>#N/A</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>#N/A</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>#N/A</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>#N/A</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>#N/A</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>#N/A</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>#N/A</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>#N/A</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>#N/A</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>#N/A</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>#N/A</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>#N/A</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>#N/A</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>#N/A</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>#N/A</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>#N/A</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>#N/A</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>#N/A</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>#N/A</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>#N/A</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>#N/A</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>#N/A</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>#N/A</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>#N/A</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>#N/A</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>#N/A</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>#N/A</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>#N/A</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>#N/A</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>#N/A</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>#N/A</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>#N/A</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>#N/A</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>#N/A</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>#N/A</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>#N/A</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>#N/A</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>#N/A</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>#N/A</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>#N/A</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>#N/A</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>#N/A</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>#N/A</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>#N/A</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>#N/A</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16.649999999999999</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>14.94</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>14.7</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>13.310000419616699</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>13.430000305175781</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.899999618530273</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.840000152587891</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.390000343322754</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.949999809265137</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.039999961853027</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>12.239999771118164</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11.460000040000001</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>11.14000034</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.93999958</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>12.100000380000001</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>11.239999770000001</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>11.100000380000001</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>10.3500003814697</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>9.3900003430000005</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>10.380000109999999</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>10.72999954</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>11.39000034</c:v>
+                  <c:v>164155.90490155248</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>156260.50288029009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4565,17 +4657,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="336188544"/>
-        <c:axId val="336190080"/>
+        <c:axId val="87753472"/>
+        <c:axId val="529668352"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="336188544"/>
+      <c:dateAx>
+        <c:axId val="87753472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4612,15 +4704,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336190080"/>
+        <c:crossAx val="529668352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="336190080"/>
+        <c:axId val="529668352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,7 +4762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336188544"/>
+        <c:crossAx val="87753472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4685,6 +4776,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -64537,6 +64629,406 @@
           </cell>
           <cell r="F2988">
             <v>2.6370249023437502</v>
+          </cell>
+        </row>
+        <row r="2989">
+          <cell r="A2989">
+            <v>44958</v>
+          </cell>
+          <cell r="B2989">
+            <v>2646.006591796875</v>
+          </cell>
+          <cell r="C2989">
+            <v>2653.860595703125</v>
+          </cell>
+          <cell r="D2989">
+            <v>2619.8251953125</v>
+          </cell>
+          <cell r="E2989">
+            <v>2653.860595703125</v>
+          </cell>
+          <cell r="F2989">
+            <v>2.6538605957031249</v>
+          </cell>
+        </row>
+        <row r="2990">
+          <cell r="A2990">
+            <v>44959</v>
+          </cell>
+          <cell r="B2990">
+            <v>2659.697265625</v>
+          </cell>
+          <cell r="C2990">
+            <v>2659.8505859375</v>
+          </cell>
+          <cell r="D2990">
+            <v>2637.77490234375</v>
+          </cell>
+          <cell r="E2990">
+            <v>2647.218994140625</v>
+          </cell>
+          <cell r="F2990">
+            <v>2.647218994140625</v>
+          </cell>
+        </row>
+        <row r="2991">
+          <cell r="A2991">
+            <v>44960</v>
+          </cell>
+          <cell r="B2991">
+            <v>2634.9013671875</v>
+          </cell>
+          <cell r="C2991">
+            <v>2634.9013671875</v>
+          </cell>
+          <cell r="D2991">
+            <v>2595.311279296875</v>
+          </cell>
+          <cell r="E2991">
+            <v>2618.47705078125</v>
+          </cell>
+          <cell r="F2991">
+            <v>2.6184770507812498</v>
+          </cell>
+        </row>
+        <row r="2992">
+          <cell r="A2992">
+            <v>44963</v>
+          </cell>
+          <cell r="B2992">
+            <v>2593.054931640625</v>
+          </cell>
+          <cell r="C2992">
+            <v>2593.054931640625</v>
+          </cell>
+          <cell r="D2992">
+            <v>2568.02587890625</v>
+          </cell>
+          <cell r="E2992">
+            <v>2582.945068359375</v>
+          </cell>
+          <cell r="F2992">
+            <v>2.5829450683593751</v>
+          </cell>
+        </row>
+        <row r="2993">
+          <cell r="A2993">
+            <v>44964</v>
+          </cell>
+          <cell r="B2993">
+            <v>2590.38671875</v>
+          </cell>
+          <cell r="C2993">
+            <v>2597.8623046875</v>
+          </cell>
+          <cell r="D2993">
+            <v>2579.603515625</v>
+          </cell>
+          <cell r="E2993">
+            <v>2590.1533203125</v>
+          </cell>
+          <cell r="F2993">
+            <v>2.5901533203125</v>
+          </cell>
+        </row>
+        <row r="2994">
+          <cell r="A2994">
+            <v>44965</v>
+          </cell>
+          <cell r="B2994">
+            <v>2594.219970703125</v>
+          </cell>
+          <cell r="C2994">
+            <v>2601.8232421875</v>
+          </cell>
+          <cell r="D2994">
+            <v>2578.24755859375</v>
+          </cell>
+          <cell r="E2994">
+            <v>2580.371337890625</v>
+          </cell>
+          <cell r="F2994">
+            <v>2.5803713378906248</v>
+          </cell>
+        </row>
+        <row r="2995">
+          <cell r="A2995">
+            <v>44966</v>
+          </cell>
+          <cell r="B2995">
+            <v>2575.99609375</v>
+          </cell>
+          <cell r="C2995">
+            <v>2613.169921875</v>
+          </cell>
+          <cell r="D2995">
+            <v>2573.820068359375</v>
+          </cell>
+          <cell r="E2995">
+            <v>2613.169921875</v>
+          </cell>
+          <cell r="F2995">
+            <v>2.613169921875</v>
+          </cell>
+        </row>
+        <row r="2996">
+          <cell r="A2996">
+            <v>44967</v>
+          </cell>
+          <cell r="B2996">
+            <v>2609.722900390625</v>
+          </cell>
+          <cell r="C2996">
+            <v>2611.10693359375</v>
+          </cell>
+          <cell r="D2996">
+            <v>2592.477783203125</v>
+          </cell>
+          <cell r="E2996">
+            <v>2601.717529296875</v>
+          </cell>
+          <cell r="F2996">
+            <v>2.6017175292968751</v>
+          </cell>
+        </row>
+        <row r="2997">
+          <cell r="A2997">
+            <v>44970</v>
+          </cell>
+          <cell r="B2997">
+            <v>2598.82470703125</v>
+          </cell>
+          <cell r="C2997">
+            <v>2633.1796875</v>
+          </cell>
+          <cell r="D2997">
+            <v>2594.898681640625</v>
+          </cell>
+          <cell r="E2997">
+            <v>2629.82470703125</v>
+          </cell>
+          <cell r="F2997">
+            <v>2.6298247070312502</v>
+          </cell>
+        </row>
+        <row r="2998">
+          <cell r="A2998">
+            <v>44971</v>
+          </cell>
+          <cell r="B2998">
+            <v>2634.565673828125</v>
+          </cell>
+          <cell r="C2998">
+            <v>2634.873779296875</v>
+          </cell>
+          <cell r="D2998">
+            <v>2619.819091796875</v>
+          </cell>
+          <cell r="E2998">
+            <v>2631.7578125</v>
+          </cell>
+          <cell r="F2998">
+            <v>2.6317578125000001</v>
+          </cell>
+        </row>
+        <row r="2999">
+          <cell r="A2999">
+            <v>44972</v>
+          </cell>
+          <cell r="B2999">
+            <v>2632.567138671875</v>
+          </cell>
+          <cell r="C2999">
+            <v>2637.67919921875</v>
+          </cell>
+          <cell r="D2999">
+            <v>2609.06640625</v>
+          </cell>
+          <cell r="E2999">
+            <v>2614.1796875</v>
+          </cell>
+          <cell r="F2999">
+            <v>2.6141796875000001</v>
+          </cell>
+        </row>
+        <row r="3000">
+          <cell r="A3000">
+            <v>44973</v>
+          </cell>
+          <cell r="B3000">
+            <v>2615.989501953125</v>
+          </cell>
+          <cell r="C3000">
+            <v>2642.3544921875</v>
+          </cell>
+          <cell r="D3000">
+            <v>2583.52001953125</v>
+          </cell>
+          <cell r="E3000">
+            <v>2599.529052734375</v>
+          </cell>
+          <cell r="F3000">
+            <v>2.5995290527343751</v>
+          </cell>
+        </row>
+        <row r="3001">
+          <cell r="A3001">
+            <v>44974</v>
+          </cell>
+          <cell r="B3001">
+            <v>2594.72802734375</v>
+          </cell>
+          <cell r="C3001">
+            <v>2609.989013671875</v>
+          </cell>
+          <cell r="D3001">
+            <v>2568.205078125</v>
+          </cell>
+          <cell r="E3001">
+            <v>2569.311279296875</v>
+          </cell>
+          <cell r="F3001">
+            <v>2.5693112792968749</v>
+          </cell>
+        </row>
+        <row r="3002">
+          <cell r="A3002">
+            <v>44977</v>
+          </cell>
+          <cell r="B3002">
+            <v>2571.826171875</v>
+          </cell>
+          <cell r="C3002">
+            <v>2633.009521484375</v>
+          </cell>
+          <cell r="D3002">
+            <v>2570.56201171875</v>
+          </cell>
+          <cell r="E3002">
+            <v>2631.793701171875</v>
+          </cell>
+          <cell r="F3002">
+            <v>2.6317937011718748</v>
+          </cell>
+        </row>
+        <row r="3003">
+          <cell r="A3003">
+            <v>44978</v>
+          </cell>
+          <cell r="B3003">
+            <v>2630.487060546875</v>
+          </cell>
+          <cell r="C3003">
+            <v>2643.4130859375</v>
+          </cell>
+          <cell r="D3003">
+            <v>2621.19970703125</v>
+          </cell>
+          <cell r="E3003">
+            <v>2638.375244140625</v>
+          </cell>
+          <cell r="F3003">
+            <v>2.638375244140625</v>
+          </cell>
+        </row>
+        <row r="3004">
+          <cell r="A3004">
+            <v>44979</v>
+          </cell>
+          <cell r="B3004">
+            <v>2623.17529296875</v>
+          </cell>
+          <cell r="C3004">
+            <v>2634.300048828125</v>
+          </cell>
+          <cell r="D3004">
+            <v>2611.776611328125</v>
+          </cell>
+          <cell r="E3004">
+            <v>2614.864013671875</v>
+          </cell>
+          <cell r="F3004">
+            <v>2.614864013671875</v>
+          </cell>
+        </row>
+        <row r="3005">
+          <cell r="A3005">
+            <v>44980</v>
+          </cell>
+          <cell r="B3005">
+            <v>2615.561767578125</v>
+          </cell>
+          <cell r="C3005">
+            <v>2631.6171875</v>
+          </cell>
+          <cell r="D3005">
+            <v>2603.322021484375</v>
+          </cell>
+          <cell r="E3005">
+            <v>2613.802001953125</v>
+          </cell>
+          <cell r="F3005">
+            <v>2.613802001953125</v>
+          </cell>
+        </row>
+        <row r="3006">
+          <cell r="A3006">
+            <v>44981</v>
+          </cell>
+          <cell r="B3006">
+            <v>2610.889892578125</v>
+          </cell>
+          <cell r="C3006">
+            <v>2611.0029296875</v>
+          </cell>
+          <cell r="D3006">
+            <v>2576.6806640625</v>
+          </cell>
+          <cell r="E3006">
+            <v>2585.172119140625</v>
+          </cell>
+          <cell r="F3006">
+            <v>2.5851721191406249</v>
+          </cell>
+        </row>
+        <row r="3007">
+          <cell r="A3007">
+            <v>44984</v>
+          </cell>
+          <cell r="B3007">
+            <v>2573.404296875</v>
+          </cell>
+          <cell r="C3007">
+            <v>2591.501708984375</v>
+          </cell>
+          <cell r="D3007">
+            <v>2569.701171875</v>
+          </cell>
+          <cell r="E3007">
+            <v>2578.009521484375</v>
+          </cell>
+          <cell r="F3007">
+            <v>2.578009521484375</v>
+          </cell>
+        </row>
+        <row r="3008">
+          <cell r="A3008">
+            <v>44985</v>
+          </cell>
+          <cell r="B3008">
+            <v>2585.32666015625</v>
+          </cell>
+          <cell r="C3008">
+            <v>2594.97021484375</v>
+          </cell>
+          <cell r="D3008">
+            <v>2566.239501953125</v>
+          </cell>
+          <cell r="E3008">
+            <v>2591.974365234375</v>
+          </cell>
+          <cell r="F3008">
+            <v>2.5919743652343752</v>
           </cell>
         </row>
       </sheetData>
@@ -64834,10 +65326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -65054,15 +65546,15 @@
         <v>8000</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N15" si="7">VLOOKUP(L4,A:G,7,)</f>
+        <f t="shared" ref="N4:N16" si="7">VLOOKUP(L4,A:G,7,)</f>
         <v>8000</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" ref="O4:O15" si="8">VLOOKUP(L4,A:H,8,)</f>
+        <f t="shared" ref="O4:O16" si="8">VLOOKUP(L4,A:H,8,)</f>
         <v>7908.6759332370966</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P15" si="9">VLOOKUP(L4,A:I,9,)</f>
+        <f t="shared" ref="P4:P16" si="9">VLOOKUP(L4,A:I,9,)</f>
         <v>-91.324066762903385</v>
       </c>
       <c r="Q4" s="7">
@@ -66107,7 +66599,7 @@
         <v>235834.42040464858</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" ref="Q15" si="20">(O15-N15)/N15</f>
+        <f t="shared" ref="Q15:Q16" si="20">(O15-N15)/N15</f>
         <v>0.86703831031120804</v>
       </c>
       <c r="R15" s="7">
@@ -66177,6 +66669,32 @@
         <f>VLOOKUP(A16,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
+      <c r="L16" s="24">
+        <v>44925</v>
+      </c>
+      <c r="M16" s="8">
+        <f>N16-N15</f>
+        <v>24000</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="7"/>
+        <v>296000</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="8"/>
+        <v>429691.15630892606</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="9"/>
+        <v>133691.15630892606</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="20"/>
+        <v>0.45165931185447994</v>
+      </c>
+      <c r="R16" s="7">
+        <v>5.4587041166743733E-2</v>
+      </c>
       <c r="Y16" s="2">
         <f>IRR(Y9:Y15)</f>
         <v>0.16482525077786381</v>
@@ -67118,6 +67636,16 @@
         <f>-X30</f>
         <v>-8000</v>
       </c>
+      <c r="Z30" s="29">
+        <v>40543</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" ref="AB30:AB42" si="29">-AA30</f>
+        <v>-8000</v>
+      </c>
     </row>
     <row r="31" spans="1:28" ht="14.1" customHeight="1">
       <c r="A31" s="26">
@@ -67168,7 +67696,7 @@
         <v>24000</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V40" si="29">-U31</f>
+        <f t="shared" ref="V31:V40" si="30">-U31</f>
         <v>-24000</v>
       </c>
       <c r="W31" s="29">
@@ -67179,7 +67707,17 @@
         <v>24000</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:Y41" si="30">-X31</f>
+        <f t="shared" ref="Y31:Y41" si="31">-X31</f>
+        <v>-24000</v>
+      </c>
+      <c r="Z31" s="29">
+        <v>40907</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="29"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67231,7 +67769,7 @@
         <v>24000</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W32" s="29">
@@ -67242,11 +67780,21 @@
         <v>24000</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z32" s="29">
+        <v>41274</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" ht="14.1" customHeight="1">
+    <row r="33" spans="1:28" ht="14.1" customHeight="1">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -67294,7 +67842,7 @@
         <v>24000</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W33" s="29">
@@ -67305,11 +67853,21 @@
         <v>24000</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z33" s="29">
+        <v>41639</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB33" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" ht="14.1" customHeight="1">
+    <row r="34" spans="1:28" ht="14.1" customHeight="1">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -67357,7 +67915,7 @@
         <v>24000</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W34" s="29">
@@ -67368,11 +67926,21 @@
         <v>24000</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z34" s="29">
+        <v>42004</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" ht="14.1" customHeight="1">
+    <row r="35" spans="1:28" ht="14.1" customHeight="1">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -67420,7 +67988,7 @@
         <v>24000</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W35" s="29">
@@ -67431,11 +67999,21 @@
         <v>24000</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z35" s="29">
+        <v>42369</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" ht="14.1" customHeight="1">
+    <row r="36" spans="1:28" ht="14.1" customHeight="1">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -67483,7 +68061,7 @@
         <v>24000</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W36" s="29">
@@ -67494,11 +68072,21 @@
         <v>24000</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z36" s="29">
+        <v>42734</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" ht="14.1" customHeight="1">
+    <row r="37" spans="1:28" ht="14.1" customHeight="1">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -67546,7 +68134,7 @@
         <v>24000</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W37" s="29">
@@ -67557,11 +68145,21 @@
         <v>24000</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z37" s="29">
+        <v>43098</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" ht="14.1" customHeight="1">
+    <row r="38" spans="1:28" ht="14.1" customHeight="1">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -67609,7 +68207,7 @@
         <v>24000</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W38" s="29">
@@ -67620,11 +68218,21 @@
         <v>24000</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z38" s="29">
+        <v>43462</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" ht="14.1" customHeight="1">
+    <row r="39" spans="1:28" ht="14.1" customHeight="1">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -67672,7 +68280,7 @@
         <v>24000</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W39" s="30">
@@ -67683,11 +68291,21 @@
         <v>24000</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z39" s="30">
+        <v>43830</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" ht="14.1" customHeight="1">
+    <row r="40" spans="1:28" ht="14.1" customHeight="1">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -67735,7 +68353,7 @@
         <v>24000</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W40" s="24">
@@ -67746,11 +68364,21 @@
         <v>24000</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z40" s="24">
+        <v>44196</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" ht="14.1" customHeight="1">
+    <row r="41" spans="1:28" ht="14.1" customHeight="1">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -67805,11 +68433,21 @@
         <v>24000</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
+      <c r="Z41" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" ht="14.1" customHeight="1">
+    <row r="42" spans="1:28" ht="14.1" customHeight="1">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -67860,8 +68498,18 @@
         <f>VLOOKUP(W42,L:O,4)</f>
         <v>507834.42040464858</v>
       </c>
+      <c r="Z42" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>24000</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="29"/>
+        <v>-24000</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" ht="14.1" customHeight="1">
+    <row r="43" spans="1:28" ht="14.1" customHeight="1">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -67906,8 +68554,14 @@
         <f>IRR(Y30:Y42)</f>
         <v>9.8052898274155309E-2</v>
       </c>
+      <c r="Z43" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>429691.15630892606</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" ht="14.1" customHeight="1">
+    <row r="44" spans="1:28" ht="14.1" customHeight="1">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -67947,8 +68601,12 @@
         <f>VLOOKUP(A44,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
+      <c r="AB44" s="2">
+        <f>IRR(AB30:AB43)</f>
+        <v>5.4587041166743733E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" ht="14.1" customHeight="1">
+    <row r="45" spans="1:28" ht="14.1" customHeight="1">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -67989,7 +68647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14.1" customHeight="1">
+    <row r="46" spans="1:28" ht="14.1" customHeight="1">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -68030,7 +68688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14.1" customHeight="1">
+    <row r="47" spans="1:28" ht="14.1" customHeight="1">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -68071,7 +68729,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14.1" customHeight="1">
+    <row r="48" spans="1:28" ht="14.1" customHeight="1">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -68864,27 +69522,27 @@
         <v>2000</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" ref="D67:D123" si="31">C67/B67</f>
+        <f t="shared" ref="D67:D123" si="32">C67/B67</f>
         <v>1235.2541535420912</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" ref="E67:E123" si="32">E66+D67</f>
+        <f t="shared" ref="E67:E123" si="33">E66+D67</f>
         <v>103655.75536714398</v>
       </c>
       <c r="F67" s="28">
-        <f t="shared" ref="F67:F123" si="33">E67*B67</f>
+        <f t="shared" ref="F67:F123" si="34">E67*B67</f>
         <v>167829.03351494283</v>
       </c>
       <c r="G67" s="28">
-        <f t="shared" ref="G67:G123" si="34">G66+C67</f>
+        <f t="shared" ref="G67:G123" si="35">G66+C67</f>
         <v>130000</v>
       </c>
       <c r="H67" s="28">
-        <f t="shared" ref="H67:H123" si="35">F67</f>
+        <f t="shared" ref="H67:H123" si="36">F67</f>
         <v>167829.03351494283</v>
       </c>
       <c r="I67" s="28">
-        <f t="shared" ref="I67:I123" si="36">H67-G67</f>
+        <f t="shared" ref="I67:I123" si="37">H67-G67</f>
         <v>37829.033514942828</v>
       </c>
       <c r="J67" s="6" t="e">
@@ -68902,31 +69560,31 @@
         <v>1.56416</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ref="C68:C123" si="37">C67</f>
+        <f t="shared" ref="C68:C123" si="38">C67</f>
         <v>2000</v>
       </c>
       <c r="D68" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1278.6415711947627</v>
       </c>
       <c r="E68" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>104934.39693833874</v>
       </c>
       <c r="F68" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>164134.18631507194</v>
       </c>
       <c r="G68" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>132000</v>
       </c>
       <c r="H68" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>164134.18631507194</v>
       </c>
       <c r="I68" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>32134.186315071944</v>
       </c>
       <c r="J68" s="6" t="e">
@@ -68943,31 +69601,31 @@
         <v>1.7538099999999999</v>
       </c>
       <c r="C69" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D69" s="28">
+        <f t="shared" si="32"/>
+        <v>1140.3743849105663</v>
+      </c>
+      <c r="E69" s="28">
+        <f t="shared" si="33"/>
+        <v>106074.77132324931</v>
+      </c>
+      <c r="F69" s="28">
+        <f t="shared" si="34"/>
+        <v>186034.99469442785</v>
+      </c>
+      <c r="G69" s="28">
+        <f t="shared" si="35"/>
+        <v>134000</v>
+      </c>
+      <c r="H69" s="28">
+        <f t="shared" si="36"/>
+        <v>186034.99469442785</v>
+      </c>
+      <c r="I69" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D69" s="28">
-        <f t="shared" si="31"/>
-        <v>1140.3743849105663</v>
-      </c>
-      <c r="E69" s="28">
-        <f t="shared" si="32"/>
-        <v>106074.77132324931</v>
-      </c>
-      <c r="F69" s="28">
-        <f t="shared" si="33"/>
-        <v>186034.99469442785</v>
-      </c>
-      <c r="G69" s="28">
-        <f t="shared" si="34"/>
-        <v>134000</v>
-      </c>
-      <c r="H69" s="28">
-        <f t="shared" si="35"/>
-        <v>186034.99469442785</v>
-      </c>
-      <c r="I69" s="28">
-        <f t="shared" si="36"/>
         <v>52034.994694427849</v>
       </c>
       <c r="J69" s="6" t="e">
@@ -68984,31 +69642,31 @@
         <v>1.73098</v>
       </c>
       <c r="C70" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D70" s="28">
+        <f t="shared" si="32"/>
+        <v>1155.4148517025037</v>
+      </c>
+      <c r="E70" s="28">
+        <f t="shared" si="33"/>
+        <v>107230.18617495181</v>
+      </c>
+      <c r="F70" s="28">
+        <f t="shared" si="34"/>
+        <v>185613.30766511807</v>
+      </c>
+      <c r="G70" s="28">
+        <f t="shared" si="35"/>
+        <v>136000</v>
+      </c>
+      <c r="H70" s="28">
+        <f t="shared" si="36"/>
+        <v>185613.30766511807</v>
+      </c>
+      <c r="I70" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D70" s="28">
-        <f t="shared" si="31"/>
-        <v>1155.4148517025037</v>
-      </c>
-      <c r="E70" s="28">
-        <f t="shared" si="32"/>
-        <v>107230.18617495181</v>
-      </c>
-      <c r="F70" s="28">
-        <f t="shared" si="33"/>
-        <v>185613.30766511807</v>
-      </c>
-      <c r="G70" s="28">
-        <f t="shared" si="34"/>
-        <v>136000</v>
-      </c>
-      <c r="H70" s="28">
-        <f t="shared" si="35"/>
-        <v>185613.30766511807</v>
-      </c>
-      <c r="I70" s="28">
-        <f t="shared" si="36"/>
         <v>49613.307665118075</v>
       </c>
       <c r="J70" s="6" t="e">
@@ -69025,31 +69683,31 @@
         <v>1.7421500000000001</v>
       </c>
       <c r="C71" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D71" s="28">
+        <f t="shared" si="32"/>
+        <v>1148.0067732399621</v>
+      </c>
+      <c r="E71" s="28">
+        <f t="shared" si="33"/>
+        <v>108378.19294819178</v>
+      </c>
+      <c r="F71" s="28">
+        <f t="shared" si="34"/>
+        <v>188811.06884469232</v>
+      </c>
+      <c r="G71" s="28">
+        <f t="shared" si="35"/>
+        <v>138000</v>
+      </c>
+      <c r="H71" s="28">
+        <f t="shared" si="36"/>
+        <v>188811.06884469232</v>
+      </c>
+      <c r="I71" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D71" s="28">
-        <f t="shared" si="31"/>
-        <v>1148.0067732399621</v>
-      </c>
-      <c r="E71" s="28">
-        <f t="shared" si="32"/>
-        <v>108378.19294819178</v>
-      </c>
-      <c r="F71" s="28">
-        <f t="shared" si="33"/>
-        <v>188811.06884469232</v>
-      </c>
-      <c r="G71" s="28">
-        <f t="shared" si="34"/>
-        <v>138000</v>
-      </c>
-      <c r="H71" s="28">
-        <f t="shared" si="35"/>
-        <v>188811.06884469232</v>
-      </c>
-      <c r="I71" s="28">
-        <f t="shared" si="36"/>
         <v>50811.068844692316</v>
       </c>
       <c r="J71" s="6" t="e">
@@ -69066,31 +69724,31 @@
         <v>1.75274</v>
       </c>
       <c r="C72" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D72" s="28">
+        <f t="shared" si="32"/>
+        <v>1141.0705523922545</v>
+      </c>
+      <c r="E72" s="28">
+        <f t="shared" si="33"/>
+        <v>109519.26350058403</v>
+      </c>
+      <c r="F72" s="28">
+        <f t="shared" si="34"/>
+        <v>191958.79390801364</v>
+      </c>
+      <c r="G72" s="28">
+        <f t="shared" si="35"/>
+        <v>140000</v>
+      </c>
+      <c r="H72" s="28">
+        <f t="shared" si="36"/>
+        <v>191958.79390801364</v>
+      </c>
+      <c r="I72" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D72" s="28">
-        <f t="shared" si="31"/>
-        <v>1141.0705523922545</v>
-      </c>
-      <c r="E72" s="28">
-        <f t="shared" si="32"/>
-        <v>109519.26350058403</v>
-      </c>
-      <c r="F72" s="28">
-        <f t="shared" si="33"/>
-        <v>191958.79390801364</v>
-      </c>
-      <c r="G72" s="28">
-        <f t="shared" si="34"/>
-        <v>140000</v>
-      </c>
-      <c r="H72" s="28">
-        <f t="shared" si="35"/>
-        <v>191958.79390801364</v>
-      </c>
-      <c r="I72" s="28">
-        <f t="shared" si="36"/>
         <v>51958.793908013642</v>
       </c>
       <c r="J72" s="6" t="e">
@@ -69107,31 +69765,31 @@
         <v>1.8355599999999999</v>
       </c>
       <c r="C73" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D73" s="28">
+        <f t="shared" si="32"/>
+        <v>1089.5857395018415</v>
+      </c>
+      <c r="E73" s="28">
+        <f t="shared" si="33"/>
+        <v>110608.84924008587</v>
+      </c>
+      <c r="F73" s="28">
+        <f t="shared" si="34"/>
+        <v>203029.179311132</v>
+      </c>
+      <c r="G73" s="28">
+        <f t="shared" si="35"/>
+        <v>142000</v>
+      </c>
+      <c r="H73" s="28">
+        <f t="shared" si="36"/>
+        <v>203029.179311132</v>
+      </c>
+      <c r="I73" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D73" s="28">
-        <f t="shared" si="31"/>
-        <v>1089.5857395018415</v>
-      </c>
-      <c r="E73" s="28">
-        <f t="shared" si="32"/>
-        <v>110608.84924008587</v>
-      </c>
-      <c r="F73" s="28">
-        <f t="shared" si="33"/>
-        <v>203029.179311132</v>
-      </c>
-      <c r="G73" s="28">
-        <f t="shared" si="34"/>
-        <v>142000</v>
-      </c>
-      <c r="H73" s="28">
-        <f t="shared" si="35"/>
-        <v>203029.179311132</v>
-      </c>
-      <c r="I73" s="28">
-        <f t="shared" si="36"/>
         <v>61029.179311132</v>
       </c>
       <c r="J73" s="6" t="e">
@@ -69148,31 +69806,31 @@
         <v>1.9024799999999999</v>
       </c>
       <c r="C74" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D74" s="28">
+        <f t="shared" si="32"/>
+        <v>1051.2594087717084</v>
+      </c>
+      <c r="E74" s="28">
+        <f t="shared" si="33"/>
+        <v>111660.10864885758</v>
+      </c>
+      <c r="F74" s="28">
+        <f t="shared" si="34"/>
+        <v>212431.12350227855</v>
+      </c>
+      <c r="G74" s="28">
+        <f t="shared" si="35"/>
+        <v>144000</v>
+      </c>
+      <c r="H74" s="28">
+        <f t="shared" si="36"/>
+        <v>212431.12350227855</v>
+      </c>
+      <c r="I74" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D74" s="28">
-        <f t="shared" si="31"/>
-        <v>1051.2594087717084</v>
-      </c>
-      <c r="E74" s="28">
-        <f t="shared" si="32"/>
-        <v>111660.10864885758</v>
-      </c>
-      <c r="F74" s="28">
-        <f t="shared" si="33"/>
-        <v>212431.12350227855</v>
-      </c>
-      <c r="G74" s="28">
-        <f t="shared" si="34"/>
-        <v>144000</v>
-      </c>
-      <c r="H74" s="28">
-        <f t="shared" si="35"/>
-        <v>212431.12350227855</v>
-      </c>
-      <c r="I74" s="28">
-        <f t="shared" si="36"/>
         <v>68431.123502278555</v>
       </c>
       <c r="J74" s="6" t="e">
@@ -69189,31 +69847,31 @@
         <v>1.8773900000000001</v>
       </c>
       <c r="C75" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D75" s="28">
+        <f t="shared" si="32"/>
+        <v>1065.3087531093699</v>
+      </c>
+      <c r="E75" s="28">
+        <f t="shared" si="33"/>
+        <v>112725.41740196696</v>
+      </c>
+      <c r="F75" s="28">
+        <f t="shared" si="34"/>
+        <v>211629.57137627876</v>
+      </c>
+      <c r="G75" s="28">
+        <f t="shared" si="35"/>
+        <v>146000</v>
+      </c>
+      <c r="H75" s="28">
+        <f t="shared" si="36"/>
+        <v>211629.57137627876</v>
+      </c>
+      <c r="I75" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D75" s="28">
-        <f t="shared" si="31"/>
-        <v>1065.3087531093699</v>
-      </c>
-      <c r="E75" s="28">
-        <f t="shared" si="32"/>
-        <v>112725.41740196696</v>
-      </c>
-      <c r="F75" s="28">
-        <f t="shared" si="33"/>
-        <v>211629.57137627876</v>
-      </c>
-      <c r="G75" s="28">
-        <f t="shared" si="34"/>
-        <v>146000</v>
-      </c>
-      <c r="H75" s="28">
-        <f t="shared" si="35"/>
-        <v>211629.57137627876</v>
-      </c>
-      <c r="I75" s="28">
-        <f t="shared" si="36"/>
         <v>65629.571376278764</v>
       </c>
       <c r="J75" s="6" t="e">
@@ -69230,31 +69888,31 @@
         <v>1.9152199999999999</v>
       </c>
       <c r="C76" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D76" s="28">
+        <f t="shared" si="32"/>
+        <v>1044.2664550286652</v>
+      </c>
+      <c r="E76" s="28">
+        <f t="shared" si="33"/>
+        <v>113769.68385699563</v>
+      </c>
+      <c r="F76" s="28">
+        <f t="shared" si="34"/>
+        <v>217893.97391659516</v>
+      </c>
+      <c r="G76" s="28">
+        <f t="shared" si="35"/>
+        <v>148000</v>
+      </c>
+      <c r="H76" s="28">
+        <f t="shared" si="36"/>
+        <v>217893.97391659516</v>
+      </c>
+      <c r="I76" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D76" s="28">
-        <f t="shared" si="31"/>
-        <v>1044.2664550286652</v>
-      </c>
-      <c r="E76" s="28">
-        <f t="shared" si="32"/>
-        <v>113769.68385699563</v>
-      </c>
-      <c r="F76" s="28">
-        <f t="shared" si="33"/>
-        <v>217893.97391659516</v>
-      </c>
-      <c r="G76" s="28">
-        <f t="shared" si="34"/>
-        <v>148000</v>
-      </c>
-      <c r="H76" s="28">
-        <f t="shared" si="35"/>
-        <v>217893.97391659516</v>
-      </c>
-      <c r="I76" s="28">
-        <f t="shared" si="36"/>
         <v>69893.973916595161</v>
       </c>
       <c r="J76" s="6" t="e">
@@ -69271,31 +69929,31 @@
         <v>2.0240299999999998</v>
       </c>
       <c r="C77" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D77" s="28">
+        <f t="shared" si="32"/>
+        <v>988.12764632935296</v>
+      </c>
+      <c r="E77" s="28">
+        <f t="shared" si="33"/>
+        <v>114757.81150332498</v>
+      </c>
+      <c r="F77" s="28">
+        <f t="shared" si="34"/>
+        <v>232273.25321707482</v>
+      </c>
+      <c r="G77" s="28">
+        <f t="shared" si="35"/>
+        <v>150000</v>
+      </c>
+      <c r="H77" s="28">
+        <f t="shared" si="36"/>
+        <v>232273.25321707482</v>
+      </c>
+      <c r="I77" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D77" s="28">
-        <f t="shared" si="31"/>
-        <v>988.12764632935296</v>
-      </c>
-      <c r="E77" s="28">
-        <f t="shared" si="32"/>
-        <v>114757.81150332498</v>
-      </c>
-      <c r="F77" s="28">
-        <f t="shared" si="33"/>
-        <v>232273.25321707482</v>
-      </c>
-      <c r="G77" s="28">
-        <f t="shared" si="34"/>
-        <v>150000</v>
-      </c>
-      <c r="H77" s="28">
-        <f t="shared" si="35"/>
-        <v>232273.25321707482</v>
-      </c>
-      <c r="I77" s="28">
-        <f t="shared" si="36"/>
         <v>82273.253217074816</v>
       </c>
       <c r="J77" s="6" t="e">
@@ -69312,31 +69970,31 @@
         <v>1.9521400000000002</v>
       </c>
       <c r="C78" s="4">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D78" s="28">
+        <f t="shared" si="32"/>
+        <v>1024.516684254203</v>
+      </c>
+      <c r="E78" s="28">
+        <f t="shared" si="33"/>
+        <v>115782.32818757919</v>
+      </c>
+      <c r="F78" s="28">
+        <f t="shared" si="34"/>
+        <v>226023.31414810085</v>
+      </c>
+      <c r="G78" s="28">
+        <f t="shared" si="35"/>
+        <v>152000</v>
+      </c>
+      <c r="H78" s="28">
+        <f t="shared" si="36"/>
+        <v>226023.31414810085</v>
+      </c>
+      <c r="I78" s="28">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D78" s="28">
-        <f t="shared" si="31"/>
-        <v>1024.516684254203</v>
-      </c>
-      <c r="E78" s="28">
-        <f t="shared" si="32"/>
-        <v>115782.32818757919</v>
-      </c>
-      <c r="F78" s="28">
-        <f t="shared" si="33"/>
-        <v>226023.31414810085</v>
-      </c>
-      <c r="G78" s="28">
-        <f t="shared" si="34"/>
-        <v>152000</v>
-      </c>
-      <c r="H78" s="28">
-        <f t="shared" si="35"/>
-        <v>226023.31414810085</v>
-      </c>
-      <c r="I78" s="28">
-        <f t="shared" si="36"/>
         <v>74023.31414810085</v>
       </c>
       <c r="J78" s="6" t="e">
@@ -69353,31 +70011,31 @@
         <v>2.0017999999999998</v>
       </c>
       <c r="C79" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D79" s="16">
+        <f t="shared" si="32"/>
+        <v>999.10080927165563</v>
+      </c>
+      <c r="E79" s="16">
+        <f t="shared" si="33"/>
+        <v>116781.42899685084</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="34"/>
+        <v>233773.064565896</v>
+      </c>
+      <c r="G79" s="16">
+        <f t="shared" si="35"/>
+        <v>154000</v>
+      </c>
+      <c r="H79" s="16">
+        <f t="shared" si="36"/>
+        <v>233773.064565896</v>
+      </c>
+      <c r="I79" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D79" s="16">
-        <f t="shared" si="31"/>
-        <v>999.10080927165563</v>
-      </c>
-      <c r="E79" s="16">
-        <f t="shared" si="32"/>
-        <v>116781.42899685084</v>
-      </c>
-      <c r="F79" s="16">
-        <f t="shared" si="33"/>
-        <v>233773.064565896</v>
-      </c>
-      <c r="G79" s="16">
-        <f t="shared" si="34"/>
-        <v>154000</v>
-      </c>
-      <c r="H79" s="16">
-        <f t="shared" si="35"/>
-        <v>233773.064565896</v>
-      </c>
-      <c r="I79" s="16">
-        <f t="shared" si="36"/>
         <v>79773.064565895998</v>
       </c>
       <c r="J79" s="31" t="e">
@@ -69395,31 +70053,31 @@
         <v>2.08507</v>
       </c>
       <c r="C80" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D80" s="16">
+        <f t="shared" si="32"/>
+        <v>959.20041053777572</v>
+      </c>
+      <c r="E80" s="16">
+        <f t="shared" si="33"/>
+        <v>117740.62940738861</v>
+      </c>
+      <c r="F80" s="16">
+        <f t="shared" si="34"/>
+        <v>245497.45415846378</v>
+      </c>
+      <c r="G80" s="16">
+        <f t="shared" si="35"/>
+        <v>156000</v>
+      </c>
+      <c r="H80" s="16">
+        <f t="shared" si="36"/>
+        <v>245497.45415846378</v>
+      </c>
+      <c r="I80" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D80" s="16">
-        <f t="shared" si="31"/>
-        <v>959.20041053777572</v>
-      </c>
-      <c r="E80" s="16">
-        <f t="shared" si="32"/>
-        <v>117740.62940738861</v>
-      </c>
-      <c r="F80" s="16">
-        <f t="shared" si="33"/>
-        <v>245497.45415846378</v>
-      </c>
-      <c r="G80" s="16">
-        <f t="shared" si="34"/>
-        <v>156000</v>
-      </c>
-      <c r="H80" s="16">
-        <f t="shared" si="35"/>
-        <v>245497.45415846378</v>
-      </c>
-      <c r="I80" s="16">
-        <f t="shared" si="36"/>
         <v>89497.454158463777</v>
       </c>
       <c r="J80" s="31" t="e">
@@ -69436,31 +70094,31 @@
         <v>2.1146199999999999</v>
       </c>
       <c r="C81" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D81" s="16">
+        <f t="shared" si="32"/>
+        <v>945.79640786524294</v>
+      </c>
+      <c r="E81" s="16">
+        <f t="shared" si="33"/>
+        <v>118686.42581525385</v>
+      </c>
+      <c r="F81" s="16">
+        <f t="shared" si="34"/>
+        <v>250976.68975745208</v>
+      </c>
+      <c r="G81" s="16">
+        <f t="shared" si="35"/>
+        <v>158000</v>
+      </c>
+      <c r="H81" s="16">
+        <f t="shared" si="36"/>
+        <v>250976.68975745208</v>
+      </c>
+      <c r="I81" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D81" s="16">
-        <f t="shared" si="31"/>
-        <v>945.79640786524294</v>
-      </c>
-      <c r="E81" s="16">
-        <f t="shared" si="32"/>
-        <v>118686.42581525385</v>
-      </c>
-      <c r="F81" s="16">
-        <f t="shared" si="33"/>
-        <v>250976.68975745208</v>
-      </c>
-      <c r="G81" s="16">
-        <f t="shared" si="34"/>
-        <v>158000</v>
-      </c>
-      <c r="H81" s="16">
-        <f t="shared" si="35"/>
-        <v>250976.68975745208</v>
-      </c>
-      <c r="I81" s="16">
-        <f t="shared" si="36"/>
         <v>92976.689757452084</v>
       </c>
       <c r="J81" s="31" t="e">
@@ -69477,31 +70135,31 @@
         <v>2.10263</v>
       </c>
       <c r="C82" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D82" s="16">
+        <f t="shared" si="32"/>
+        <v>951.1897005179228</v>
+      </c>
+      <c r="E82" s="16">
+        <f t="shared" si="33"/>
+        <v>119637.61551577177</v>
+      </c>
+      <c r="F82" s="16">
+        <f t="shared" si="34"/>
+        <v>251553.63951192721</v>
+      </c>
+      <c r="G82" s="16">
+        <f t="shared" si="35"/>
+        <v>160000</v>
+      </c>
+      <c r="H82" s="16">
+        <f t="shared" si="36"/>
+        <v>251553.63951192721</v>
+      </c>
+      <c r="I82" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D82" s="16">
-        <f t="shared" si="31"/>
-        <v>951.1897005179228</v>
-      </c>
-      <c r="E82" s="16">
-        <f t="shared" si="32"/>
-        <v>119637.61551577177</v>
-      </c>
-      <c r="F82" s="16">
-        <f t="shared" si="33"/>
-        <v>251553.63951192721</v>
-      </c>
-      <c r="G82" s="16">
-        <f t="shared" si="34"/>
-        <v>160000</v>
-      </c>
-      <c r="H82" s="16">
-        <f t="shared" si="35"/>
-        <v>251553.63951192721</v>
-      </c>
-      <c r="I82" s="16">
-        <f t="shared" si="36"/>
         <v>91553.639511927206</v>
       </c>
       <c r="J82" s="31" t="e">
@@ -69518,31 +70176,31 @@
         <v>2.0933999999999999</v>
       </c>
       <c r="C83" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D83" s="16">
+        <f t="shared" si="32"/>
+        <v>955.38358650998384</v>
+      </c>
+      <c r="E83" s="16">
+        <f t="shared" si="33"/>
+        <v>120592.99910228176</v>
+      </c>
+      <c r="F83" s="16">
+        <f t="shared" si="34"/>
+        <v>252449.38432071661</v>
+      </c>
+      <c r="G83" s="16">
+        <f t="shared" si="35"/>
+        <v>162000</v>
+      </c>
+      <c r="H83" s="16">
+        <f t="shared" si="36"/>
+        <v>252449.38432071661</v>
+      </c>
+      <c r="I83" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D83" s="16">
-        <f t="shared" si="31"/>
-        <v>955.38358650998384</v>
-      </c>
-      <c r="E83" s="16">
-        <f t="shared" si="32"/>
-        <v>120592.99910228176</v>
-      </c>
-      <c r="F83" s="16">
-        <f t="shared" si="33"/>
-        <v>252449.38432071661</v>
-      </c>
-      <c r="G83" s="16">
-        <f t="shared" si="34"/>
-        <v>162000</v>
-      </c>
-      <c r="H83" s="16">
-        <f t="shared" si="35"/>
-        <v>252449.38432071661</v>
-      </c>
-      <c r="I83" s="16">
-        <f t="shared" si="36"/>
         <v>90449.384320716606</v>
       </c>
       <c r="J83" s="31" t="e">
@@ -69559,31 +70217,31 @@
         <v>2.2407399999999997</v>
       </c>
       <c r="C84" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D84" s="16">
+        <f t="shared" si="32"/>
+        <v>892.56227853298469</v>
+      </c>
+      <c r="E84" s="16">
+        <f t="shared" si="33"/>
+        <v>121485.56138081475</v>
+      </c>
+      <c r="F84" s="16">
+        <f t="shared" si="34"/>
+        <v>272217.55680844683</v>
+      </c>
+      <c r="G84" s="16">
+        <f t="shared" si="35"/>
+        <v>164000</v>
+      </c>
+      <c r="H84" s="16">
+        <f t="shared" si="36"/>
+        <v>272217.55680844683</v>
+      </c>
+      <c r="I84" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D84" s="16">
-        <f t="shared" si="31"/>
-        <v>892.56227853298469</v>
-      </c>
-      <c r="E84" s="16">
-        <f t="shared" si="32"/>
-        <v>121485.56138081475</v>
-      </c>
-      <c r="F84" s="16">
-        <f t="shared" si="33"/>
-        <v>272217.55680844683</v>
-      </c>
-      <c r="G84" s="16">
-        <f t="shared" si="34"/>
-        <v>164000</v>
-      </c>
-      <c r="H84" s="16">
-        <f t="shared" si="35"/>
-        <v>272217.55680844683</v>
-      </c>
-      <c r="I84" s="16">
-        <f t="shared" si="36"/>
         <v>108217.55680844683</v>
       </c>
       <c r="J84" s="31" t="e">
@@ -69600,31 +70258,31 @@
         <v>2.2731599999999998</v>
       </c>
       <c r="C85" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D85" s="16">
+        <f t="shared" si="32"/>
+        <v>879.83247989582787</v>
+      </c>
+      <c r="E85" s="16">
+        <f t="shared" si="33"/>
+        <v>122365.39386071058</v>
+      </c>
+      <c r="F85" s="16">
+        <f t="shared" si="34"/>
+        <v>278156.11870841286</v>
+      </c>
+      <c r="G85" s="16">
+        <f t="shared" si="35"/>
+        <v>166000</v>
+      </c>
+      <c r="H85" s="16">
+        <f t="shared" si="36"/>
+        <v>278156.11870841286</v>
+      </c>
+      <c r="I85" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D85" s="16">
-        <f t="shared" si="31"/>
-        <v>879.83247989582787</v>
-      </c>
-      <c r="E85" s="16">
-        <f t="shared" si="32"/>
-        <v>122365.39386071058</v>
-      </c>
-      <c r="F85" s="16">
-        <f t="shared" si="33"/>
-        <v>278156.11870841286</v>
-      </c>
-      <c r="G85" s="16">
-        <f t="shared" si="34"/>
-        <v>166000</v>
-      </c>
-      <c r="H85" s="16">
-        <f t="shared" si="35"/>
-        <v>278156.11870841286</v>
-      </c>
-      <c r="I85" s="16">
-        <f t="shared" si="36"/>
         <v>112156.11870841286</v>
       </c>
       <c r="J85" s="31" t="e">
@@ -69641,31 +70299,31 @@
         <v>2.3099499999999997</v>
       </c>
       <c r="C86" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D86" s="16">
+        <f t="shared" si="32"/>
+        <v>865.81960648498898</v>
+      </c>
+      <c r="E86" s="16">
+        <f t="shared" si="33"/>
+        <v>123231.21346719557</v>
+      </c>
+      <c r="F86" s="16">
+        <f t="shared" si="34"/>
+        <v>284657.94154854841</v>
+      </c>
+      <c r="G86" s="16">
+        <f t="shared" si="35"/>
+        <v>168000</v>
+      </c>
+      <c r="H86" s="16">
+        <f t="shared" si="36"/>
+        <v>284657.94154854841</v>
+      </c>
+      <c r="I86" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D86" s="16">
-        <f t="shared" si="31"/>
-        <v>865.81960648498898</v>
-      </c>
-      <c r="E86" s="16">
-        <f t="shared" si="32"/>
-        <v>123231.21346719557</v>
-      </c>
-      <c r="F86" s="16">
-        <f t="shared" si="33"/>
-        <v>284657.94154854841</v>
-      </c>
-      <c r="G86" s="16">
-        <f t="shared" si="34"/>
-        <v>168000</v>
-      </c>
-      <c r="H86" s="16">
-        <f t="shared" si="35"/>
-        <v>284657.94154854841</v>
-      </c>
-      <c r="I86" s="16">
-        <f t="shared" si="36"/>
         <v>116657.94154854841</v>
       </c>
       <c r="J86" s="31" t="e">
@@ -69682,31 +70340,31 @@
         <v>2.33961</v>
       </c>
       <c r="C87" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D87" s="16">
+        <f t="shared" si="32"/>
+        <v>854.84332858895289</v>
+      </c>
+      <c r="E87" s="16">
+        <f t="shared" si="33"/>
+        <v>124086.05679578452</v>
+      </c>
+      <c r="F87" s="16">
+        <f t="shared" si="34"/>
+        <v>290312.97933998541</v>
+      </c>
+      <c r="G87" s="16">
+        <f t="shared" si="35"/>
+        <v>170000</v>
+      </c>
+      <c r="H87" s="16">
+        <f t="shared" si="36"/>
+        <v>290312.97933998541</v>
+      </c>
+      <c r="I87" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D87" s="16">
-        <f t="shared" si="31"/>
-        <v>854.84332858895289</v>
-      </c>
-      <c r="E87" s="16">
-        <f t="shared" si="32"/>
-        <v>124086.05679578452</v>
-      </c>
-      <c r="F87" s="16">
-        <f t="shared" si="33"/>
-        <v>290312.97933998541</v>
-      </c>
-      <c r="G87" s="16">
-        <f t="shared" si="34"/>
-        <v>170000</v>
-      </c>
-      <c r="H87" s="16">
-        <f t="shared" si="35"/>
-        <v>290312.97933998541</v>
-      </c>
-      <c r="I87" s="16">
-        <f t="shared" si="36"/>
         <v>120312.97933998541</v>
       </c>
       <c r="J87" s="31" t="e">
@@ -69723,31 +70381,31 @@
         <v>2.4434499999999999</v>
       </c>
       <c r="C88" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D88" s="16">
+        <f t="shared" si="32"/>
+        <v>818.5148048865334</v>
+      </c>
+      <c r="E88" s="16">
+        <f t="shared" si="33"/>
+        <v>124904.57160067106</v>
+      </c>
+      <c r="F88" s="16">
+        <f t="shared" si="34"/>
+        <v>305198.0754776597</v>
+      </c>
+      <c r="G88" s="16">
+        <f t="shared" si="35"/>
+        <v>172000</v>
+      </c>
+      <c r="H88" s="16">
+        <f t="shared" si="36"/>
+        <v>305198.0754776597</v>
+      </c>
+      <c r="I88" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D88" s="16">
-        <f t="shared" si="31"/>
-        <v>818.5148048865334</v>
-      </c>
-      <c r="E88" s="16">
-        <f t="shared" si="32"/>
-        <v>124904.57160067106</v>
-      </c>
-      <c r="F88" s="16">
-        <f t="shared" si="33"/>
-        <v>305198.0754776597</v>
-      </c>
-      <c r="G88" s="16">
-        <f t="shared" si="34"/>
-        <v>172000</v>
-      </c>
-      <c r="H88" s="16">
-        <f t="shared" si="35"/>
-        <v>305198.0754776597</v>
-      </c>
-      <c r="I88" s="16">
-        <f t="shared" si="36"/>
         <v>133198.0754776597</v>
       </c>
       <c r="J88" s="31" t="e">
@@ -69764,31 +70422,31 @@
         <v>2.42692</v>
       </c>
       <c r="C89" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D89" s="16">
+        <f t="shared" si="32"/>
+        <v>824.08979282382609</v>
+      </c>
+      <c r="E89" s="16">
+        <f t="shared" si="33"/>
+        <v>125728.66139349488</v>
+      </c>
+      <c r="F89" s="16">
+        <f t="shared" si="34"/>
+        <v>305133.40290910058</v>
+      </c>
+      <c r="G89" s="16">
+        <f t="shared" si="35"/>
+        <v>174000</v>
+      </c>
+      <c r="H89" s="16">
+        <f t="shared" si="36"/>
+        <v>305133.40290910058</v>
+      </c>
+      <c r="I89" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D89" s="16">
-        <f t="shared" si="31"/>
-        <v>824.08979282382609</v>
-      </c>
-      <c r="E89" s="16">
-        <f t="shared" si="32"/>
-        <v>125728.66139349488</v>
-      </c>
-      <c r="F89" s="16">
-        <f t="shared" si="33"/>
-        <v>305133.40290910058</v>
-      </c>
-      <c r="G89" s="16">
-        <f t="shared" si="34"/>
-        <v>174000</v>
-      </c>
-      <c r="H89" s="16">
-        <f t="shared" si="35"/>
-        <v>305133.40290910058</v>
-      </c>
-      <c r="I89" s="16">
-        <f t="shared" si="36"/>
         <v>131133.40290910058</v>
       </c>
       <c r="J89" s="31" t="e">
@@ -69805,31 +70463,31 @@
         <v>2.4915799999999999</v>
       </c>
       <c r="C90" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D90" s="16">
+        <f t="shared" si="32"/>
+        <v>802.70350540620814</v>
+      </c>
+      <c r="E90" s="16">
+        <f t="shared" si="33"/>
+        <v>126531.3648989011</v>
+      </c>
+      <c r="F90" s="16">
+        <f t="shared" si="34"/>
+        <v>315263.01815480401</v>
+      </c>
+      <c r="G90" s="16">
+        <f t="shared" si="35"/>
+        <v>176000</v>
+      </c>
+      <c r="H90" s="16">
+        <f t="shared" si="36"/>
+        <v>315263.01815480401</v>
+      </c>
+      <c r="I90" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D90" s="16">
-        <f t="shared" si="31"/>
-        <v>802.70350540620814</v>
-      </c>
-      <c r="E90" s="16">
-        <f t="shared" si="32"/>
-        <v>126531.3648989011</v>
-      </c>
-      <c r="F90" s="16">
-        <f t="shared" si="33"/>
-        <v>315263.01815480401</v>
-      </c>
-      <c r="G90" s="16">
-        <f t="shared" si="34"/>
-        <v>176000</v>
-      </c>
-      <c r="H90" s="16">
-        <f t="shared" si="35"/>
-        <v>315263.01815480401</v>
-      </c>
-      <c r="I90" s="16">
-        <f t="shared" si="36"/>
         <v>139263.01815480401</v>
       </c>
       <c r="J90" s="31" t="e">
@@ -69846,31 +70504,31 @@
         <v>2.6026100000000003</v>
       </c>
       <c r="C91" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D91" s="16">
+        <f t="shared" si="32"/>
+        <v>768.4593542636045</v>
+      </c>
+      <c r="E91" s="16">
+        <f t="shared" si="33"/>
+        <v>127299.8242531647</v>
+      </c>
+      <c r="F91" s="16">
+        <f t="shared" si="34"/>
+        <v>331311.795599529</v>
+      </c>
+      <c r="G91" s="16">
+        <f t="shared" si="35"/>
+        <v>178000</v>
+      </c>
+      <c r="H91" s="16">
+        <f t="shared" si="36"/>
+        <v>331311.795599529</v>
+      </c>
+      <c r="I91" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D91" s="16">
-        <f t="shared" si="31"/>
-        <v>768.4593542636045</v>
-      </c>
-      <c r="E91" s="16">
-        <f t="shared" si="32"/>
-        <v>127299.8242531647</v>
-      </c>
-      <c r="F91" s="16">
-        <f t="shared" si="33"/>
-        <v>331311.795599529</v>
-      </c>
-      <c r="G91" s="16">
-        <f t="shared" si="34"/>
-        <v>178000</v>
-      </c>
-      <c r="H91" s="16">
-        <f t="shared" si="35"/>
-        <v>331311.795599529</v>
-      </c>
-      <c r="I91" s="16">
-        <f t="shared" si="36"/>
         <v>153311.795599529</v>
       </c>
       <c r="J91" s="31" t="e">
@@ -69888,31 +70546,31 @@
         <v>2.4634099999999997</v>
       </c>
       <c r="C92" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D92" s="16">
+        <f t="shared" si="32"/>
+        <v>811.88271542293012</v>
+      </c>
+      <c r="E92" s="16">
+        <f t="shared" si="33"/>
+        <v>128111.70696858763</v>
+      </c>
+      <c r="F92" s="16">
+        <f t="shared" si="34"/>
+        <v>315591.66006348841</v>
+      </c>
+      <c r="G92" s="16">
+        <f t="shared" si="35"/>
+        <v>180000</v>
+      </c>
+      <c r="H92" s="16">
+        <f t="shared" si="36"/>
+        <v>315591.66006348841</v>
+      </c>
+      <c r="I92" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D92" s="16">
-        <f t="shared" si="31"/>
-        <v>811.88271542293012</v>
-      </c>
-      <c r="E92" s="16">
-        <f t="shared" si="32"/>
-        <v>128111.70696858763</v>
-      </c>
-      <c r="F92" s="16">
-        <f t="shared" si="33"/>
-        <v>315591.66006348841</v>
-      </c>
-      <c r="G92" s="16">
-        <f t="shared" si="34"/>
-        <v>180000</v>
-      </c>
-      <c r="H92" s="16">
-        <f t="shared" si="35"/>
-        <v>315591.66006348841</v>
-      </c>
-      <c r="I92" s="16">
-        <f t="shared" si="36"/>
         <v>135591.66006348841</v>
       </c>
       <c r="J92" s="31" t="e">
@@ -69929,31 +70587,31 @@
         <v>2.3982399999999999</v>
       </c>
       <c r="C93" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D93" s="16">
+        <f t="shared" si="32"/>
+        <v>833.9448929214758</v>
+      </c>
+      <c r="E93" s="16">
+        <f t="shared" si="33"/>
+        <v>128945.6518615091</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" si="34"/>
+        <v>309242.62012034556</v>
+      </c>
+      <c r="G93" s="16">
+        <f t="shared" si="35"/>
+        <v>182000</v>
+      </c>
+      <c r="H93" s="16">
+        <f t="shared" si="36"/>
+        <v>309242.62012034556</v>
+      </c>
+      <c r="I93" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D93" s="16">
-        <f t="shared" si="31"/>
-        <v>833.9448929214758</v>
-      </c>
-      <c r="E93" s="16">
-        <f t="shared" si="32"/>
-        <v>128945.6518615091</v>
-      </c>
-      <c r="F93" s="16">
-        <f t="shared" si="33"/>
-        <v>309242.62012034556</v>
-      </c>
-      <c r="G93" s="16">
-        <f t="shared" si="34"/>
-        <v>182000</v>
-      </c>
-      <c r="H93" s="16">
-        <f t="shared" si="35"/>
-        <v>309242.62012034556</v>
-      </c>
-      <c r="I93" s="16">
-        <f t="shared" si="36"/>
         <v>127242.62012034556</v>
       </c>
       <c r="J93" s="31" t="e">
@@ -69970,31 +70628,31 @@
         <v>2.3119000000000001</v>
       </c>
       <c r="C94" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D94" s="16">
+        <f t="shared" si="32"/>
+        <v>865.08932047233873</v>
+      </c>
+      <c r="E94" s="16">
+        <f t="shared" si="33"/>
+        <v>129810.74118198144</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="34"/>
+        <v>300109.45253862289</v>
+      </c>
+      <c r="G94" s="16">
+        <f t="shared" si="35"/>
+        <v>184000</v>
+      </c>
+      <c r="H94" s="16">
+        <f t="shared" si="36"/>
+        <v>300109.45253862289</v>
+      </c>
+      <c r="I94" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D94" s="16">
-        <f t="shared" si="31"/>
-        <v>865.08932047233873</v>
-      </c>
-      <c r="E94" s="16">
-        <f t="shared" si="32"/>
-        <v>129810.74118198144</v>
-      </c>
-      <c r="F94" s="16">
-        <f t="shared" si="33"/>
-        <v>300109.45253862289</v>
-      </c>
-      <c r="G94" s="16">
-        <f t="shared" si="34"/>
-        <v>184000</v>
-      </c>
-      <c r="H94" s="16">
-        <f t="shared" si="35"/>
-        <v>300109.45253862289</v>
-      </c>
-      <c r="I94" s="16">
-        <f t="shared" si="36"/>
         <v>116109.45253862289</v>
       </c>
       <c r="J94" s="31" t="e">
@@ -70011,31 +70669,31 @@
         <v>2.3675700000000002</v>
       </c>
       <c r="C95" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D95" s="16">
+        <f t="shared" si="32"/>
+        <v>844.74799055571737</v>
+      </c>
+      <c r="E95" s="16">
+        <f t="shared" si="33"/>
+        <v>130655.48917253716</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="34"/>
+        <v>309336.01650022384</v>
+      </c>
+      <c r="G95" s="16">
+        <f t="shared" si="35"/>
+        <v>186000</v>
+      </c>
+      <c r="H95" s="16">
+        <f t="shared" si="36"/>
+        <v>309336.01650022384</v>
+      </c>
+      <c r="I95" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D95" s="16">
-        <f t="shared" si="31"/>
-        <v>844.74799055571737</v>
-      </c>
-      <c r="E95" s="16">
-        <f t="shared" si="32"/>
-        <v>130655.48917253716</v>
-      </c>
-      <c r="F95" s="16">
-        <f t="shared" si="33"/>
-        <v>309336.01650022384</v>
-      </c>
-      <c r="G95" s="16">
-        <f t="shared" si="34"/>
-        <v>186000</v>
-      </c>
-      <c r="H95" s="16">
-        <f t="shared" si="35"/>
-        <v>309336.01650022384</v>
-      </c>
-      <c r="I95" s="16">
-        <f t="shared" si="36"/>
         <v>123336.01650022384</v>
       </c>
       <c r="J95" s="31" t="e">
@@ -70052,31 +70710,31 @@
         <v>2.1851400000000001</v>
       </c>
       <c r="C96" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D96" s="16">
+        <f t="shared" si="32"/>
+        <v>915.27316327557958</v>
+      </c>
+      <c r="E96" s="16">
+        <f t="shared" si="33"/>
+        <v>131570.76233581273</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="34"/>
+        <v>287500.53561047785</v>
+      </c>
+      <c r="G96" s="16">
+        <f t="shared" si="35"/>
+        <v>188000</v>
+      </c>
+      <c r="H96" s="16">
+        <f t="shared" si="36"/>
+        <v>287500.53561047785</v>
+      </c>
+      <c r="I96" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D96" s="16">
-        <f t="shared" si="31"/>
-        <v>915.27316327557958</v>
-      </c>
-      <c r="E96" s="16">
-        <f t="shared" si="32"/>
-        <v>131570.76233581273</v>
-      </c>
-      <c r="F96" s="16">
-        <f t="shared" si="33"/>
-        <v>287500.53561047785</v>
-      </c>
-      <c r="G96" s="16">
-        <f t="shared" si="34"/>
-        <v>188000</v>
-      </c>
-      <c r="H96" s="16">
-        <f t="shared" si="35"/>
-        <v>287500.53561047785</v>
-      </c>
-      <c r="I96" s="16">
-        <f t="shared" si="36"/>
         <v>99500.535610477848</v>
       </c>
       <c r="J96" s="31" t="e">
@@ -70093,31 +70751,31 @@
         <v>2.1775900000000004</v>
       </c>
       <c r="C97" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D97" s="16">
+        <f t="shared" si="32"/>
+        <v>918.44653952305055</v>
+      </c>
+      <c r="E97" s="16">
+        <f t="shared" si="33"/>
+        <v>132489.20887533578</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="34"/>
+        <v>288507.17635484249</v>
+      </c>
+      <c r="G97" s="16">
+        <f t="shared" si="35"/>
+        <v>190000</v>
+      </c>
+      <c r="H97" s="16">
+        <f t="shared" si="36"/>
+        <v>288507.17635484249</v>
+      </c>
+      <c r="I97" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D97" s="16">
-        <f t="shared" si="31"/>
-        <v>918.44653952305055</v>
-      </c>
-      <c r="E97" s="16">
-        <f t="shared" si="32"/>
-        <v>132489.20887533578</v>
-      </c>
-      <c r="F97" s="16">
-        <f t="shared" si="33"/>
-        <v>288507.17635484249</v>
-      </c>
-      <c r="G97" s="16">
-        <f t="shared" si="34"/>
-        <v>190000</v>
-      </c>
-      <c r="H97" s="16">
-        <f t="shared" si="35"/>
-        <v>288507.17635484249</v>
-      </c>
-      <c r="I97" s="16">
-        <f t="shared" si="36"/>
         <v>98507.176354842493</v>
       </c>
       <c r="J97" s="31" t="e">
@@ -70134,31 +70792,31 @@
         <v>2.04325</v>
       </c>
       <c r="C98" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D98" s="16">
+        <f t="shared" si="32"/>
+        <v>978.83274195521835</v>
+      </c>
+      <c r="E98" s="16">
+        <f t="shared" si="33"/>
+        <v>133468.04161729099</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="34"/>
+        <v>272708.57603452983</v>
+      </c>
+      <c r="G98" s="16">
+        <f t="shared" si="35"/>
+        <v>192000</v>
+      </c>
+      <c r="H98" s="16">
+        <f t="shared" si="36"/>
+        <v>272708.57603452983</v>
+      </c>
+      <c r="I98" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D98" s="16">
-        <f t="shared" si="31"/>
-        <v>978.83274195521835</v>
-      </c>
-      <c r="E98" s="16">
-        <f t="shared" si="32"/>
-        <v>133468.04161729099</v>
-      </c>
-      <c r="F98" s="16">
-        <f t="shared" si="33"/>
-        <v>272708.57603452983</v>
-      </c>
-      <c r="G98" s="16">
-        <f t="shared" si="34"/>
-        <v>192000</v>
-      </c>
-      <c r="H98" s="16">
-        <f t="shared" si="35"/>
-        <v>272708.57603452983</v>
-      </c>
-      <c r="I98" s="16">
-        <f t="shared" si="36"/>
         <v>80708.576034529833</v>
       </c>
       <c r="J98" s="31" t="e">
@@ -70175,31 +70833,31 @@
         <v>2.10771</v>
       </c>
       <c r="C99" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D99" s="16">
+        <f t="shared" si="32"/>
+        <v>948.89714429404421</v>
+      </c>
+      <c r="E99" s="16">
+        <f t="shared" si="33"/>
+        <v>134416.93876158504</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" si="34"/>
+        <v>283311.9259971804</v>
+      </c>
+      <c r="G99" s="16">
+        <f t="shared" si="35"/>
+        <v>194000</v>
+      </c>
+      <c r="H99" s="16">
+        <f t="shared" si="36"/>
+        <v>283311.9259971804</v>
+      </c>
+      <c r="I99" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D99" s="16">
-        <f t="shared" si="31"/>
-        <v>948.89714429404421</v>
-      </c>
-      <c r="E99" s="16">
-        <f t="shared" si="32"/>
-        <v>134416.93876158504</v>
-      </c>
-      <c r="F99" s="16">
-        <f t="shared" si="33"/>
-        <v>283311.9259971804</v>
-      </c>
-      <c r="G99" s="16">
-        <f t="shared" si="34"/>
-        <v>194000</v>
-      </c>
-      <c r="H99" s="16">
-        <f t="shared" si="35"/>
-        <v>283311.9259971804</v>
-      </c>
-      <c r="I99" s="16">
-        <f t="shared" si="36"/>
         <v>89311.925997180399</v>
       </c>
       <c r="J99" s="31" t="e">
@@ -70216,31 +70874,31 @@
         <v>1.88317</v>
       </c>
       <c r="C100" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D100" s="16">
+        <f t="shared" si="32"/>
+        <v>1062.0390086927894</v>
+      </c>
+      <c r="E100" s="16">
+        <f t="shared" si="33"/>
+        <v>135478.97777027782</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="34"/>
+        <v>255129.94656765409</v>
+      </c>
+      <c r="G100" s="16">
+        <f t="shared" si="35"/>
+        <v>196000</v>
+      </c>
+      <c r="H100" s="16">
+        <f t="shared" si="36"/>
+        <v>255129.94656765409</v>
+      </c>
+      <c r="I100" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D100" s="16">
-        <f t="shared" si="31"/>
-        <v>1062.0390086927894</v>
-      </c>
-      <c r="E100" s="16">
-        <f t="shared" si="32"/>
-        <v>135478.97777027782</v>
-      </c>
-      <c r="F100" s="16">
-        <f t="shared" si="33"/>
-        <v>255129.94656765409</v>
-      </c>
-      <c r="G100" s="16">
-        <f t="shared" si="34"/>
-        <v>196000</v>
-      </c>
-      <c r="H100" s="16">
-        <f t="shared" si="35"/>
-        <v>255129.94656765409</v>
-      </c>
-      <c r="I100" s="16">
-        <f t="shared" si="36"/>
         <v>59129.946567654086</v>
       </c>
       <c r="J100" s="31" t="e">
@@ -70257,31 +70915,31 @@
         <v>1.9444000000000001</v>
       </c>
       <c r="C101" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D101" s="16">
+        <f t="shared" si="32"/>
+        <v>1028.5949393128985</v>
+      </c>
+      <c r="E101" s="16">
+        <f t="shared" si="33"/>
+        <v>136507.57270959072</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="34"/>
+        <v>265425.32437652821</v>
+      </c>
+      <c r="G101" s="16">
+        <f t="shared" si="35"/>
+        <v>198000</v>
+      </c>
+      <c r="H101" s="16">
+        <f t="shared" si="36"/>
+        <v>265425.32437652821</v>
+      </c>
+      <c r="I101" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D101" s="16">
-        <f t="shared" si="31"/>
-        <v>1028.5949393128985</v>
-      </c>
-      <c r="E101" s="16">
-        <f t="shared" si="32"/>
-        <v>136507.57270959072</v>
-      </c>
-      <c r="F101" s="16">
-        <f t="shared" si="33"/>
-        <v>265425.32437652821</v>
-      </c>
-      <c r="G101" s="16">
-        <f t="shared" si="34"/>
-        <v>198000</v>
-      </c>
-      <c r="H101" s="16">
-        <f t="shared" si="35"/>
-        <v>265425.32437652821</v>
-      </c>
-      <c r="I101" s="16">
-        <f t="shared" si="36"/>
         <v>67425.32437652821</v>
       </c>
       <c r="J101" s="31" t="e">
@@ -70298,31 +70956,31 @@
         <v>1.8736900000000001</v>
       </c>
       <c r="C102" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D102" s="16">
+        <f t="shared" si="32"/>
+        <v>1067.4124321525971</v>
+      </c>
+      <c r="E102" s="16">
+        <f t="shared" si="33"/>
+        <v>137574.98514174332</v>
+      </c>
+      <c r="F102" s="16">
+        <f t="shared" si="34"/>
+        <v>257772.87391023306</v>
+      </c>
+      <c r="G102" s="16">
+        <f t="shared" si="35"/>
+        <v>200000</v>
+      </c>
+      <c r="H102" s="16">
+        <f t="shared" si="36"/>
+        <v>257772.87391023306</v>
+      </c>
+      <c r="I102" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D102" s="16">
-        <f t="shared" si="31"/>
-        <v>1067.4124321525971</v>
-      </c>
-      <c r="E102" s="16">
-        <f t="shared" si="32"/>
-        <v>137574.98514174332</v>
-      </c>
-      <c r="F102" s="16">
-        <f t="shared" si="33"/>
-        <v>257772.87391023306</v>
-      </c>
-      <c r="G102" s="16">
-        <f t="shared" si="34"/>
-        <v>200000</v>
-      </c>
-      <c r="H102" s="16">
-        <f t="shared" si="35"/>
-        <v>257772.87391023306</v>
-      </c>
-      <c r="I102" s="16">
-        <f t="shared" si="36"/>
         <v>57772.873910233058</v>
       </c>
       <c r="J102" s="31" t="e">
@@ -70339,31 +70997,31 @@
         <v>1.9604600000000001</v>
       </c>
       <c r="C103" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D103" s="16">
+        <f t="shared" si="32"/>
+        <v>1020.1687359089193</v>
+      </c>
+      <c r="E103" s="16">
+        <f t="shared" si="33"/>
+        <v>138595.15387765225</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="34"/>
+        <v>271710.25537098217</v>
+      </c>
+      <c r="G103" s="16">
+        <f t="shared" si="35"/>
+        <v>202000</v>
+      </c>
+      <c r="H103" s="16">
+        <f t="shared" si="36"/>
+        <v>271710.25537098217</v>
+      </c>
+      <c r="I103" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D103" s="16">
-        <f t="shared" si="31"/>
-        <v>1020.1687359089193</v>
-      </c>
-      <c r="E103" s="16">
-        <f t="shared" si="32"/>
-        <v>138595.15387765225</v>
-      </c>
-      <c r="F103" s="16">
-        <f t="shared" si="33"/>
-        <v>271710.25537098217</v>
-      </c>
-      <c r="G103" s="16">
-        <f t="shared" si="34"/>
-        <v>202000</v>
-      </c>
-      <c r="H103" s="16">
-        <f t="shared" si="35"/>
-        <v>271710.25537098217</v>
-      </c>
-      <c r="I103" s="16">
-        <f t="shared" si="36"/>
         <v>69710.255370982166</v>
       </c>
       <c r="J103" s="31" t="e">
@@ -70381,31 +71039,31 @@
         <v>2.2494399999999999</v>
       </c>
       <c r="C104" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D104" s="16">
+        <f t="shared" si="32"/>
+        <v>889.11017853332385</v>
+      </c>
+      <c r="E104" s="16">
+        <f t="shared" si="33"/>
+        <v>139484.26405618558</v>
+      </c>
+      <c r="F104" s="16">
+        <f t="shared" si="34"/>
+        <v>313761.48293854605</v>
+      </c>
+      <c r="G104" s="16">
+        <f t="shared" si="35"/>
+        <v>204000</v>
+      </c>
+      <c r="H104" s="16">
+        <f t="shared" si="36"/>
+        <v>313761.48293854605</v>
+      </c>
+      <c r="I104" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D104" s="16">
-        <f t="shared" si="31"/>
-        <v>889.11017853332385</v>
-      </c>
-      <c r="E104" s="16">
-        <f t="shared" si="32"/>
-        <v>139484.26405618558</v>
-      </c>
-      <c r="F104" s="16">
-        <f t="shared" si="33"/>
-        <v>313761.48293854605</v>
-      </c>
-      <c r="G104" s="16">
-        <f t="shared" si="34"/>
-        <v>204000</v>
-      </c>
-      <c r="H104" s="16">
-        <f t="shared" si="35"/>
-        <v>313761.48293854605</v>
-      </c>
-      <c r="I104" s="16">
-        <f t="shared" si="36"/>
         <v>109761.48293854605</v>
       </c>
       <c r="J104" s="31" t="e">
@@ -70422,31 +71080,31 @@
         <v>2.4353899999999999</v>
       </c>
       <c r="C105" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D105" s="16">
+        <f t="shared" si="32"/>
+        <v>821.22370544348132</v>
+      </c>
+      <c r="E105" s="16">
+        <f t="shared" si="33"/>
+        <v>140305.48776162908</v>
+      </c>
+      <c r="F105" s="16">
+        <f t="shared" si="34"/>
+        <v>341698.58183979383</v>
+      </c>
+      <c r="G105" s="16">
+        <f t="shared" si="35"/>
+        <v>206000</v>
+      </c>
+      <c r="H105" s="16">
+        <f t="shared" si="36"/>
+        <v>341698.58183979383</v>
+      </c>
+      <c r="I105" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D105" s="16">
-        <f t="shared" si="31"/>
-        <v>821.22370544348132</v>
-      </c>
-      <c r="E105" s="16">
-        <f t="shared" si="32"/>
-        <v>140305.48776162908</v>
-      </c>
-      <c r="F105" s="16">
-        <f t="shared" si="33"/>
-        <v>341698.58183979383</v>
-      </c>
-      <c r="G105" s="16">
-        <f t="shared" si="34"/>
-        <v>206000</v>
-      </c>
-      <c r="H105" s="16">
-        <f t="shared" si="35"/>
-        <v>341698.58183979383</v>
-      </c>
-      <c r="I105" s="16">
-        <f t="shared" si="36"/>
         <v>135698.58183979383</v>
       </c>
       <c r="J105" s="31" t="e">
@@ -70463,31 +71121,31 @@
         <v>2.42089</v>
       </c>
       <c r="C106" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D106" s="16">
+        <f t="shared" si="32"/>
+        <v>826.14245174295399</v>
+      </c>
+      <c r="E106" s="16">
+        <f t="shared" si="33"/>
+        <v>141131.63021337203</v>
+      </c>
+      <c r="F106" s="16">
+        <f t="shared" si="34"/>
+        <v>341664.15226725023</v>
+      </c>
+      <c r="G106" s="16">
+        <f t="shared" si="35"/>
+        <v>208000</v>
+      </c>
+      <c r="H106" s="16">
+        <f t="shared" si="36"/>
+        <v>341664.15226725023</v>
+      </c>
+      <c r="I106" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D106" s="16">
-        <f t="shared" si="31"/>
-        <v>826.14245174295399</v>
-      </c>
-      <c r="E106" s="16">
-        <f t="shared" si="32"/>
-        <v>141131.63021337203</v>
-      </c>
-      <c r="F106" s="16">
-        <f t="shared" si="33"/>
-        <v>341664.15226725023</v>
-      </c>
-      <c r="G106" s="16">
-        <f t="shared" si="34"/>
-        <v>208000</v>
-      </c>
-      <c r="H106" s="16">
-        <f t="shared" si="35"/>
-        <v>341664.15226725023</v>
-      </c>
-      <c r="I106" s="16">
-        <f t="shared" si="36"/>
         <v>133664.15226725023</v>
       </c>
       <c r="J106" s="31" t="e">
@@ -70504,31 +71162,31 @@
         <v>2.2623000000000002</v>
       </c>
       <c r="C107" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D107" s="16">
+        <f t="shared" si="32"/>
+        <v>884.05604915351626</v>
+      </c>
+      <c r="E107" s="16">
+        <f t="shared" si="33"/>
+        <v>142015.68626252556</v>
+      </c>
+      <c r="F107" s="16">
+        <f t="shared" si="34"/>
+        <v>321282.08703171159</v>
+      </c>
+      <c r="G107" s="16">
+        <f t="shared" si="35"/>
+        <v>210000</v>
+      </c>
+      <c r="H107" s="16">
+        <f t="shared" si="36"/>
+        <v>321282.08703171159</v>
+      </c>
+      <c r="I107" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D107" s="16">
-        <f t="shared" si="31"/>
-        <v>884.05604915351626</v>
-      </c>
-      <c r="E107" s="16">
-        <f t="shared" si="32"/>
-        <v>142015.68626252556</v>
-      </c>
-      <c r="F107" s="16">
-        <f t="shared" si="33"/>
-        <v>321282.08703171159</v>
-      </c>
-      <c r="G107" s="16">
-        <f t="shared" si="34"/>
-        <v>210000</v>
-      </c>
-      <c r="H107" s="16">
-        <f t="shared" si="35"/>
-        <v>321282.08703171159</v>
-      </c>
-      <c r="I107" s="16">
-        <f t="shared" si="36"/>
         <v>111282.08703171159</v>
       </c>
       <c r="J107" s="31" t="e">
@@ -70545,31 +71203,31 @@
         <v>2.3454800000000002</v>
       </c>
       <c r="C108" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D108" s="16">
+        <f t="shared" si="32"/>
+        <v>852.70392414345883</v>
+      </c>
+      <c r="E108" s="16">
+        <f t="shared" si="33"/>
+        <v>142868.39018666901</v>
+      </c>
+      <c r="F108" s="16">
+        <f t="shared" si="34"/>
+        <v>335094.9518150285</v>
+      </c>
+      <c r="G108" s="16">
+        <f t="shared" si="35"/>
+        <v>212000</v>
+      </c>
+      <c r="H108" s="16">
+        <f t="shared" si="36"/>
+        <v>335094.9518150285</v>
+      </c>
+      <c r="I108" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D108" s="16">
-        <f t="shared" si="31"/>
-        <v>852.70392414345883</v>
-      </c>
-      <c r="E108" s="16">
-        <f t="shared" si="32"/>
-        <v>142868.39018666901</v>
-      </c>
-      <c r="F108" s="16">
-        <f t="shared" si="33"/>
-        <v>335094.9518150285</v>
-      </c>
-      <c r="G108" s="16">
-        <f t="shared" si="34"/>
-        <v>212000</v>
-      </c>
-      <c r="H108" s="16">
-        <f t="shared" si="35"/>
-        <v>335094.9518150285</v>
-      </c>
-      <c r="I108" s="16">
-        <f t="shared" si="36"/>
         <v>123094.9518150285</v>
       </c>
       <c r="J108" s="31" t="e">
@@ -70586,31 +71244,31 @@
         <v>2.3299000000000003</v>
       </c>
       <c r="C109" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D109" s="16">
+        <f t="shared" si="32"/>
+        <v>858.40594016910586</v>
+      </c>
+      <c r="E109" s="16">
+        <f t="shared" si="33"/>
+        <v>143726.79612683813</v>
+      </c>
+      <c r="F109" s="16">
+        <f t="shared" si="34"/>
+        <v>334869.06229592022</v>
+      </c>
+      <c r="G109" s="16">
+        <f t="shared" si="35"/>
+        <v>214000</v>
+      </c>
+      <c r="H109" s="16">
+        <f t="shared" si="36"/>
+        <v>334869.06229592022</v>
+      </c>
+      <c r="I109" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D109" s="16">
-        <f t="shared" si="31"/>
-        <v>858.40594016910586</v>
-      </c>
-      <c r="E109" s="16">
-        <f t="shared" si="32"/>
-        <v>143726.79612683813</v>
-      </c>
-      <c r="F109" s="16">
-        <f t="shared" si="33"/>
-        <v>334869.06229592022</v>
-      </c>
-      <c r="G109" s="16">
-        <f t="shared" si="34"/>
-        <v>214000</v>
-      </c>
-      <c r="H109" s="16">
-        <f t="shared" si="35"/>
-        <v>334869.06229592022</v>
-      </c>
-      <c r="I109" s="16">
-        <f t="shared" si="36"/>
         <v>120869.06229592022</v>
       </c>
       <c r="J109" s="31" t="e">
@@ -70627,31 +71285,31 @@
         <v>2.24383</v>
       </c>
       <c r="C110" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D110" s="16">
+        <f t="shared" si="32"/>
+        <v>891.33312238449435</v>
+      </c>
+      <c r="E110" s="16">
+        <f t="shared" si="33"/>
+        <v>144618.12924922263</v>
+      </c>
+      <c r="F110" s="16">
+        <f t="shared" si="34"/>
+        <v>324498.4969532832</v>
+      </c>
+      <c r="G110" s="16">
+        <f t="shared" si="35"/>
+        <v>216000</v>
+      </c>
+      <c r="H110" s="16">
+        <f t="shared" si="36"/>
+        <v>324498.4969532832</v>
+      </c>
+      <c r="I110" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D110" s="16">
-        <f t="shared" si="31"/>
-        <v>891.33312238449435</v>
-      </c>
-      <c r="E110" s="16">
-        <f t="shared" si="32"/>
-        <v>144618.12924922263</v>
-      </c>
-      <c r="F110" s="16">
-        <f t="shared" si="33"/>
-        <v>324498.4969532832</v>
-      </c>
-      <c r="G110" s="16">
-        <f t="shared" si="34"/>
-        <v>216000</v>
-      </c>
-      <c r="H110" s="16">
-        <f t="shared" si="35"/>
-        <v>324498.4969532832</v>
-      </c>
-      <c r="I110" s="16">
-        <f t="shared" si="36"/>
         <v>108498.4969532832</v>
       </c>
       <c r="J110" s="31" t="e">
@@ -70668,31 +71326,31 @@
         <v>2.2523499999999999</v>
       </c>
       <c r="C111" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D111" s="16">
+        <f t="shared" si="32"/>
+        <v>887.96146247252875</v>
+      </c>
+      <c r="E111" s="16">
+        <f t="shared" si="33"/>
+        <v>145506.09071169517</v>
+      </c>
+      <c r="F111" s="16">
+        <f t="shared" si="34"/>
+        <v>327730.64341448661</v>
+      </c>
+      <c r="G111" s="16">
+        <f t="shared" si="35"/>
+        <v>218000</v>
+      </c>
+      <c r="H111" s="16">
+        <f t="shared" si="36"/>
+        <v>327730.64341448661</v>
+      </c>
+      <c r="I111" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D111" s="16">
-        <f t="shared" si="31"/>
-        <v>887.96146247252875</v>
-      </c>
-      <c r="E111" s="16">
-        <f t="shared" si="32"/>
-        <v>145506.09071169517</v>
-      </c>
-      <c r="F111" s="16">
-        <f t="shared" si="33"/>
-        <v>327730.64341448661</v>
-      </c>
-      <c r="G111" s="16">
-        <f t="shared" si="34"/>
-        <v>218000</v>
-      </c>
-      <c r="H111" s="16">
-        <f t="shared" si="35"/>
-        <v>327730.64341448661</v>
-      </c>
-      <c r="I111" s="16">
-        <f t="shared" si="36"/>
         <v>109730.64341448661</v>
       </c>
       <c r="J111" s="31" t="e">
@@ -70709,31 +71367,31 @@
         <v>2.25983</v>
       </c>
       <c r="C112" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D112" s="16">
+        <f t="shared" si="32"/>
+        <v>885.0223246881402</v>
+      </c>
+      <c r="E112" s="16">
+        <f t="shared" si="33"/>
+        <v>146391.11303638332</v>
+      </c>
+      <c r="F112" s="16">
+        <f t="shared" si="34"/>
+        <v>330819.02897301014</v>
+      </c>
+      <c r="G112" s="16">
+        <f t="shared" si="35"/>
+        <v>220000</v>
+      </c>
+      <c r="H112" s="16">
+        <f t="shared" si="36"/>
+        <v>330819.02897301014</v>
+      </c>
+      <c r="I112" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D112" s="16">
-        <f t="shared" si="31"/>
-        <v>885.0223246881402</v>
-      </c>
-      <c r="E112" s="16">
-        <f t="shared" si="32"/>
-        <v>146391.11303638332</v>
-      </c>
-      <c r="F112" s="16">
-        <f t="shared" si="33"/>
-        <v>330819.02897301014</v>
-      </c>
-      <c r="G112" s="16">
-        <f t="shared" si="34"/>
-        <v>220000</v>
-      </c>
-      <c r="H112" s="16">
-        <f t="shared" si="35"/>
-        <v>330819.02897301014</v>
-      </c>
-      <c r="I112" s="16">
-        <f t="shared" si="36"/>
         <v>110819.02897301014</v>
       </c>
       <c r="J112" s="31" t="e">
@@ -70750,31 +71408,31 @@
         <v>2.2531300000000001</v>
       </c>
       <c r="C113" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D113" s="16">
+        <f t="shared" si="32"/>
+        <v>887.65406345838892</v>
+      </c>
+      <c r="E113" s="16">
+        <f t="shared" si="33"/>
+        <v>147278.7670998417</v>
+      </c>
+      <c r="F113" s="16">
+        <f t="shared" si="34"/>
+        <v>331838.20851566637</v>
+      </c>
+      <c r="G113" s="16">
+        <f t="shared" si="35"/>
+        <v>222000</v>
+      </c>
+      <c r="H113" s="16">
+        <f t="shared" si="36"/>
+        <v>331838.20851566637</v>
+      </c>
+      <c r="I113" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D113" s="16">
-        <f t="shared" si="31"/>
-        <v>887.65406345838892</v>
-      </c>
-      <c r="E113" s="16">
-        <f t="shared" si="32"/>
-        <v>147278.7670998417</v>
-      </c>
-      <c r="F113" s="16">
-        <f t="shared" si="33"/>
-        <v>331838.20851566637</v>
-      </c>
-      <c r="G113" s="16">
-        <f t="shared" si="34"/>
-        <v>222000</v>
-      </c>
-      <c r="H113" s="16">
-        <f t="shared" si="35"/>
-        <v>331838.20851566637</v>
-      </c>
-      <c r="I113" s="16">
-        <f t="shared" si="36"/>
         <v>109838.20851566637</v>
       </c>
       <c r="J113" s="31" t="e">
@@ -70791,31 +71449,31 @@
         <v>2.4450100000000003</v>
       </c>
       <c r="C114" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D114" s="16">
+        <f t="shared" si="32"/>
+        <v>817.99256444758907</v>
+      </c>
+      <c r="E114" s="16">
+        <f t="shared" si="33"/>
+        <v>148096.7596642893</v>
+      </c>
+      <c r="F114" s="16">
+        <f t="shared" si="34"/>
+        <v>362098.05834678403</v>
+      </c>
+      <c r="G114" s="16">
+        <f t="shared" si="35"/>
+        <v>224000</v>
+      </c>
+      <c r="H114" s="16">
+        <f t="shared" si="36"/>
+        <v>362098.05834678403</v>
+      </c>
+      <c r="I114" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D114" s="16">
-        <f t="shared" si="31"/>
-        <v>817.99256444758907</v>
-      </c>
-      <c r="E114" s="16">
-        <f t="shared" si="32"/>
-        <v>148096.7596642893</v>
-      </c>
-      <c r="F114" s="16">
-        <f t="shared" si="33"/>
-        <v>362098.05834678403</v>
-      </c>
-      <c r="G114" s="16">
-        <f t="shared" si="34"/>
-        <v>224000</v>
-      </c>
-      <c r="H114" s="16">
-        <f t="shared" si="35"/>
-        <v>362098.05834678403</v>
-      </c>
-      <c r="I114" s="16">
-        <f t="shared" si="36"/>
         <v>138098.05834678403</v>
       </c>
       <c r="J114" s="31" t="e">
@@ -70832,31 +71490,31 @@
         <v>2.3811999999999998</v>
       </c>
       <c r="C115" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D115" s="16">
+        <f t="shared" si="32"/>
+        <v>839.91264908449534</v>
+      </c>
+      <c r="E115" s="16">
+        <f t="shared" si="33"/>
+        <v>148936.6723133738</v>
+      </c>
+      <c r="F115" s="16">
+        <f t="shared" si="34"/>
+        <v>354648.00411260565</v>
+      </c>
+      <c r="G115" s="16">
+        <f t="shared" si="35"/>
+        <v>226000</v>
+      </c>
+      <c r="H115" s="16">
+        <f t="shared" si="36"/>
+        <v>354648.00411260565</v>
+      </c>
+      <c r="I115" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D115" s="16">
-        <f t="shared" si="31"/>
-        <v>839.91264908449534</v>
-      </c>
-      <c r="E115" s="16">
-        <f t="shared" si="32"/>
-        <v>148936.6723133738</v>
-      </c>
-      <c r="F115" s="16">
-        <f t="shared" si="33"/>
-        <v>354648.00411260565</v>
-      </c>
-      <c r="G115" s="16">
-        <f t="shared" si="34"/>
-        <v>226000</v>
-      </c>
-      <c r="H115" s="16">
-        <f t="shared" si="35"/>
-        <v>354648.00411260565</v>
-      </c>
-      <c r="I115" s="16">
-        <f t="shared" si="36"/>
         <v>128648.00411260565</v>
       </c>
       <c r="J115" s="31" t="e">
@@ -70874,31 +71532,31 @@
         <v>2.3709600000000002</v>
       </c>
       <c r="C116" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D116" s="16">
+        <f t="shared" si="32"/>
+        <v>843.540169382866</v>
+      </c>
+      <c r="E116" s="16">
+        <f t="shared" si="33"/>
+        <v>149780.21248275667</v>
+      </c>
+      <c r="F116" s="16">
+        <f t="shared" si="34"/>
+        <v>355122.89258811681</v>
+      </c>
+      <c r="G116" s="16">
+        <f t="shared" si="35"/>
+        <v>228000</v>
+      </c>
+      <c r="H116" s="16">
+        <f t="shared" si="36"/>
+        <v>355122.89258811681</v>
+      </c>
+      <c r="I116" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D116" s="16">
-        <f t="shared" si="31"/>
-        <v>843.540169382866</v>
-      </c>
-      <c r="E116" s="16">
-        <f t="shared" si="32"/>
-        <v>149780.21248275667</v>
-      </c>
-      <c r="F116" s="16">
-        <f t="shared" si="33"/>
-        <v>355122.89258811681</v>
-      </c>
-      <c r="G116" s="16">
-        <f t="shared" si="34"/>
-        <v>228000</v>
-      </c>
-      <c r="H116" s="16">
-        <f t="shared" si="35"/>
-        <v>355122.89258811681</v>
-      </c>
-      <c r="I116" s="16">
-        <f t="shared" si="36"/>
         <v>127122.89258811681</v>
       </c>
       <c r="J116" s="31" t="e">
@@ -70915,31 +71573,31 @@
         <v>2.1931400000000001</v>
       </c>
       <c r="C117" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D117" s="16">
+        <f t="shared" si="32"/>
+        <v>911.93448662648075</v>
+      </c>
+      <c r="E117" s="16">
+        <f t="shared" si="33"/>
+        <v>150692.14696938315</v>
+      </c>
+      <c r="F117" s="16">
+        <f t="shared" si="34"/>
+        <v>330488.97520443297</v>
+      </c>
+      <c r="G117" s="16">
+        <f t="shared" si="35"/>
+        <v>230000</v>
+      </c>
+      <c r="H117" s="16">
+        <f t="shared" si="36"/>
+        <v>330488.97520443297</v>
+      </c>
+      <c r="I117" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D117" s="16">
-        <f t="shared" si="31"/>
-        <v>911.93448662648075</v>
-      </c>
-      <c r="E117" s="16">
-        <f t="shared" si="32"/>
-        <v>150692.14696938315</v>
-      </c>
-      <c r="F117" s="16">
-        <f t="shared" si="33"/>
-        <v>330488.97520443297</v>
-      </c>
-      <c r="G117" s="16">
-        <f t="shared" si="34"/>
-        <v>230000</v>
-      </c>
-      <c r="H117" s="16">
-        <f t="shared" si="35"/>
-        <v>330488.97520443297</v>
-      </c>
-      <c r="I117" s="16">
-        <f t="shared" si="36"/>
         <v>100488.97520443297</v>
       </c>
       <c r="J117" s="31" t="e">
@@ -70956,31 +71614,31 @@
         <v>2.2996099999999999</v>
       </c>
       <c r="C118" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D118" s="16">
+        <f t="shared" si="32"/>
+        <v>869.71269041272217</v>
+      </c>
+      <c r="E118" s="16">
+        <f t="shared" si="33"/>
+        <v>151561.85965979588</v>
+      </c>
+      <c r="F118" s="16">
+        <f t="shared" si="34"/>
+        <v>348533.16809226322</v>
+      </c>
+      <c r="G118" s="16">
+        <f t="shared" si="35"/>
+        <v>232000</v>
+      </c>
+      <c r="H118" s="16">
+        <f t="shared" si="36"/>
+        <v>348533.16809226322</v>
+      </c>
+      <c r="I118" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D118" s="16">
-        <f t="shared" si="31"/>
-        <v>869.71269041272217</v>
-      </c>
-      <c r="E118" s="16">
-        <f t="shared" si="32"/>
-        <v>151561.85965979588</v>
-      </c>
-      <c r="F118" s="16">
-        <f t="shared" si="33"/>
-        <v>348533.16809226322</v>
-      </c>
-      <c r="G118" s="16">
-        <f t="shared" si="34"/>
-        <v>232000</v>
-      </c>
-      <c r="H118" s="16">
-        <f t="shared" si="35"/>
-        <v>348533.16809226322</v>
-      </c>
-      <c r="I118" s="16">
-        <f t="shared" si="36"/>
         <v>116533.16809226322</v>
       </c>
       <c r="J118" s="31" t="e">
@@ -70997,31 +71655,31 @@
         <v>2.3069999999999999</v>
       </c>
       <c r="C119" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D119" s="16">
+        <f t="shared" si="32"/>
+        <v>866.92674469007375</v>
+      </c>
+      <c r="E119" s="16">
+        <f t="shared" si="33"/>
+        <v>152428.78640448596</v>
+      </c>
+      <c r="F119" s="16">
+        <f t="shared" si="34"/>
+        <v>351653.21023514908</v>
+      </c>
+      <c r="G119" s="16">
+        <f t="shared" si="35"/>
+        <v>234000</v>
+      </c>
+      <c r="H119" s="16">
+        <f t="shared" si="36"/>
+        <v>351653.21023514908</v>
+      </c>
+      <c r="I119" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D119" s="16">
-        <f t="shared" si="31"/>
-        <v>866.92674469007375</v>
-      </c>
-      <c r="E119" s="16">
-        <f t="shared" si="32"/>
-        <v>152428.78640448596</v>
-      </c>
-      <c r="F119" s="16">
-        <f t="shared" si="33"/>
-        <v>351653.21023514908</v>
-      </c>
-      <c r="G119" s="16">
-        <f t="shared" si="34"/>
-        <v>234000</v>
-      </c>
-      <c r="H119" s="16">
-        <f t="shared" si="35"/>
-        <v>351653.21023514908</v>
-      </c>
-      <c r="I119" s="16">
-        <f t="shared" si="36"/>
         <v>117653.21023514908</v>
       </c>
       <c r="J119" s="31" t="e">
@@ -71038,31 +71696,31 @@
         <v>2.4672199999999997</v>
       </c>
       <c r="C120" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D120" s="16">
+        <f t="shared" si="32"/>
+        <v>810.62896701550744</v>
+      </c>
+      <c r="E120" s="16">
+        <f t="shared" si="33"/>
+        <v>153239.41537150147</v>
+      </c>
+      <c r="F120" s="16">
+        <f t="shared" si="34"/>
+        <v>378075.35039287584</v>
+      </c>
+      <c r="G120" s="16">
+        <f t="shared" si="35"/>
+        <v>236000</v>
+      </c>
+      <c r="H120" s="16">
+        <f t="shared" si="36"/>
+        <v>378075.35039287584</v>
+      </c>
+      <c r="I120" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D120" s="16">
-        <f t="shared" si="31"/>
-        <v>810.62896701550744</v>
-      </c>
-      <c r="E120" s="16">
-        <f t="shared" si="32"/>
-        <v>153239.41537150147</v>
-      </c>
-      <c r="F120" s="16">
-        <f t="shared" si="33"/>
-        <v>378075.35039287584</v>
-      </c>
-      <c r="G120" s="16">
-        <f t="shared" si="34"/>
-        <v>236000</v>
-      </c>
-      <c r="H120" s="16">
-        <f t="shared" si="35"/>
-        <v>378075.35039287584</v>
-      </c>
-      <c r="I120" s="16">
-        <f t="shared" si="36"/>
         <v>142075.35039287584</v>
       </c>
       <c r="J120" s="31" t="e">
@@ -71079,31 +71737,31 @@
         <v>2.7463200000000003</v>
       </c>
       <c r="C121" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D121" s="16">
+        <f t="shared" si="32"/>
+        <v>728.24725450785047</v>
+      </c>
+      <c r="E121" s="16">
+        <f t="shared" si="33"/>
+        <v>153967.66262600932</v>
+      </c>
+      <c r="F121" s="16">
+        <f t="shared" si="34"/>
+        <v>422844.47122306196</v>
+      </c>
+      <c r="G121" s="16">
+        <f t="shared" si="35"/>
+        <v>238000</v>
+      </c>
+      <c r="H121" s="16">
+        <f t="shared" si="36"/>
+        <v>422844.47122306196</v>
+      </c>
+      <c r="I121" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D121" s="16">
-        <f t="shared" si="31"/>
-        <v>728.24725450785047</v>
-      </c>
-      <c r="E121" s="16">
-        <f t="shared" si="32"/>
-        <v>153967.66262600932</v>
-      </c>
-      <c r="F121" s="16">
-        <f t="shared" si="33"/>
-        <v>422844.47122306196</v>
-      </c>
-      <c r="G121" s="16">
-        <f t="shared" si="34"/>
-        <v>238000</v>
-      </c>
-      <c r="H121" s="16">
-        <f t="shared" si="35"/>
-        <v>422844.47122306196</v>
-      </c>
-      <c r="I121" s="16">
-        <f t="shared" si="36"/>
         <v>184844.47122306196</v>
       </c>
       <c r="J121" s="31" t="e">
@@ -71120,31 +71778,31 @@
         <v>2.8232600000000003</v>
       </c>
       <c r="C122" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D122" s="16">
+        <f t="shared" si="32"/>
+        <v>708.40092658841195</v>
+      </c>
+      <c r="E122" s="16">
+        <f t="shared" si="33"/>
+        <v>154676.06355259774</v>
+      </c>
+      <c r="F122" s="16">
+        <f t="shared" si="34"/>
+        <v>436690.74318550713</v>
+      </c>
+      <c r="G122" s="16">
+        <f t="shared" si="35"/>
+        <v>240000</v>
+      </c>
+      <c r="H122" s="16">
+        <f t="shared" si="36"/>
+        <v>436690.74318550713</v>
+      </c>
+      <c r="I122" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D122" s="16">
-        <f t="shared" si="31"/>
-        <v>708.40092658841195</v>
-      </c>
-      <c r="E122" s="16">
-        <f t="shared" si="32"/>
-        <v>154676.06355259774</v>
-      </c>
-      <c r="F122" s="16">
-        <f t="shared" si="33"/>
-        <v>436690.74318550713</v>
-      </c>
-      <c r="G122" s="16">
-        <f t="shared" si="34"/>
-        <v>240000</v>
-      </c>
-      <c r="H122" s="16">
-        <f t="shared" si="35"/>
-        <v>436690.74318550713</v>
-      </c>
-      <c r="I122" s="16">
-        <f t="shared" si="36"/>
         <v>196690.74318550713</v>
       </c>
       <c r="J122" s="31" t="e">
@@ -71161,31 +71819,31 @@
         <v>2.7159299999999997</v>
       </c>
       <c r="C123" s="15">
+        <f t="shared" si="38"/>
+        <v>2000</v>
+      </c>
+      <c r="D123" s="16">
+        <f t="shared" si="32"/>
+        <v>736.39600431528061</v>
+      </c>
+      <c r="E123" s="16">
+        <f t="shared" si="33"/>
+        <v>155412.45955691303</v>
+      </c>
+      <c r="F123" s="16">
+        <f t="shared" si="34"/>
+        <v>422089.3612844068</v>
+      </c>
+      <c r="G123" s="16">
+        <f t="shared" si="35"/>
+        <v>242000</v>
+      </c>
+      <c r="H123" s="16">
+        <f t="shared" si="36"/>
+        <v>422089.3612844068</v>
+      </c>
+      <c r="I123" s="16">
         <f t="shared" si="37"/>
-        <v>2000</v>
-      </c>
-      <c r="D123" s="16">
-        <f t="shared" si="31"/>
-        <v>736.39600431528061</v>
-      </c>
-      <c r="E123" s="16">
-        <f t="shared" si="32"/>
-        <v>155412.45955691303</v>
-      </c>
-      <c r="F123" s="16">
-        <f t="shared" si="33"/>
-        <v>422089.3612844068</v>
-      </c>
-      <c r="G123" s="16">
-        <f t="shared" si="34"/>
-        <v>242000</v>
-      </c>
-      <c r="H123" s="16">
-        <f t="shared" si="35"/>
-        <v>422089.3612844068</v>
-      </c>
-      <c r="I123" s="16">
-        <f t="shared" si="36"/>
         <v>180089.3612844068</v>
       </c>
       <c r="J123" s="31" t="e">
@@ -71206,7 +71864,7 @@
         <v>2000</v>
       </c>
       <c r="D124" s="16">
-        <f t="shared" ref="D124:D127" si="38">C124/B124</f>
+        <f t="shared" ref="D124:D127" si="39">C124/B124</f>
         <v>710.07345709913682</v>
       </c>
       <c r="E124" s="16">
@@ -71214,7 +71872,7 @@
         <v>156122.53301401218</v>
       </c>
       <c r="F124" s="16">
-        <f t="shared" ref="F124:F127" si="39">E124*B124</f>
+        <f t="shared" ref="F124:F127" si="40">E124*B124</f>
         <v>439736.28771259688</v>
       </c>
       <c r="G124" s="16">
@@ -71222,11 +71880,11 @@
         <v>244000</v>
       </c>
       <c r="H124" s="16">
-        <f t="shared" ref="H124:H127" si="40">F124</f>
+        <f t="shared" ref="H124:H127" si="41">F124</f>
         <v>439736.28771259688</v>
       </c>
       <c r="I124" s="16">
-        <f t="shared" ref="I124:I127" si="41">H124-G124</f>
+        <f t="shared" ref="I124:I127" si="42">H124-G124</f>
         <v>195736.28771259688</v>
       </c>
       <c r="J124" s="31" t="e">
@@ -71243,31 +71901,31 @@
         <v>2.9742600000000001</v>
       </c>
       <c r="C125" s="15">
-        <f t="shared" ref="C125:C127" si="42">C124</f>
+        <f t="shared" ref="C125:C127" si="43">C124</f>
         <v>2000</v>
       </c>
       <c r="D125" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>672.43616899665801</v>
       </c>
       <c r="E125" s="16">
-        <f t="shared" ref="E125:E127" si="43">E124+D125</f>
+        <f t="shared" ref="E125:E127" si="44">E124+D125</f>
         <v>156794.96918300883</v>
       </c>
       <c r="F125" s="16">
-        <f t="shared" si="39"/>
-        <v>466349.00504225586</v>
-      </c>
-      <c r="G125" s="16">
-        <f t="shared" ref="G125:G127" si="44">G124+C125</f>
-        <v>246000</v>
-      </c>
-      <c r="H125" s="16">
         <f t="shared" si="40"/>
         <v>466349.00504225586</v>
       </c>
+      <c r="G125" s="16">
+        <f t="shared" ref="G125:G127" si="45">G124+C125</f>
+        <v>246000</v>
+      </c>
+      <c r="H125" s="16">
+        <f t="shared" si="41"/>
+        <v>466349.00504225586</v>
+      </c>
       <c r="I125" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>220349.00504225586</v>
       </c>
       <c r="J125" s="31" t="e">
@@ -71284,31 +71942,31 @@
         <v>3.1853200000000004</v>
       </c>
       <c r="C126" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2000</v>
       </c>
       <c r="D126" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>627.88040134115249</v>
       </c>
       <c r="E126" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>157422.84958434998</v>
       </c>
       <c r="F126" s="16">
-        <f t="shared" si="39"/>
-        <v>501442.15123802173</v>
-      </c>
-      <c r="G126" s="16">
-        <f t="shared" si="44"/>
-        <v>248000</v>
-      </c>
-      <c r="H126" s="16">
         <f t="shared" si="40"/>
         <v>501442.15123802173</v>
       </c>
+      <c r="G126" s="16">
+        <f t="shared" si="45"/>
+        <v>248000</v>
+      </c>
+      <c r="H126" s="16">
+        <f t="shared" si="41"/>
+        <v>501442.15123802173</v>
+      </c>
       <c r="I126" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>253442.15123802173</v>
       </c>
       <c r="J126" s="31" t="e">
@@ -71325,31 +71983,31 @@
         <v>3.2828000000000004</v>
       </c>
       <c r="C127" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2000</v>
       </c>
       <c r="D127" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>609.23601803338602</v>
       </c>
       <c r="E127" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>158032.08560238336</v>
       </c>
       <c r="F127" s="16">
-        <f t="shared" si="39"/>
-        <v>518787.73061550414</v>
-      </c>
-      <c r="G127" s="16">
-        <f t="shared" si="44"/>
-        <v>250000</v>
-      </c>
-      <c r="H127" s="16">
         <f t="shared" si="40"/>
         <v>518787.73061550414</v>
       </c>
+      <c r="G127" s="16">
+        <f t="shared" si="45"/>
+        <v>250000</v>
+      </c>
+      <c r="H127" s="16">
+        <f t="shared" si="41"/>
+        <v>518787.73061550414</v>
+      </c>
       <c r="I127" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>268787.73061550414</v>
       </c>
       <c r="J127" s="31" t="e">
@@ -71371,7 +72029,7 @@
         <v>2000</v>
       </c>
       <c r="D128" s="16">
-        <f t="shared" ref="D128:D151" si="45">C128/B128</f>
+        <f t="shared" ref="D128:D152" si="46">C128/B128</f>
         <v>610.15232452781834</v>
       </c>
       <c r="E128" s="16">
@@ -71379,7 +72037,7 @@
         <v>158642.23792691118</v>
       </c>
       <c r="F128" s="16">
-        <f t="shared" ref="F128:F151" si="46">E128*B128</f>
+        <f t="shared" ref="F128:F152" si="47">E128*B128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="G128" s="16">
@@ -71387,11 +72045,11 @@
         <v>252000</v>
       </c>
       <c r="H128" s="16">
-        <f t="shared" ref="H128:H151" si="47">F128</f>
+        <f t="shared" ref="H128:H152" si="48">F128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="I128" s="16">
-        <f t="shared" ref="I128:I151" si="48">H128-G128</f>
+        <f t="shared" ref="I128:I152" si="49">H128-G128</f>
         <v>268008.63243348437</v>
       </c>
       <c r="J128" s="31" t="e">
@@ -71408,31 +72066,31 @@
         <v>3.1244299999999998</v>
       </c>
       <c r="C129" s="15">
-        <f t="shared" ref="C129:C151" si="49">C128</f>
+        <f t="shared" ref="C129:C152" si="50">C128</f>
         <v>2000</v>
       </c>
       <c r="D129" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>640.11675729653098</v>
       </c>
       <c r="E129" s="16">
-        <f t="shared" ref="E129:E151" si="50">E128+D129</f>
+        <f t="shared" ref="E129:E152" si="51">E128+D129</f>
         <v>159282.3546842077</v>
       </c>
       <c r="F129" s="16">
-        <f t="shared" si="46"/>
-        <v>497666.56744597905</v>
-      </c>
-      <c r="G129" s="16">
-        <f t="shared" ref="G129:G151" si="51">G128+C129</f>
-        <v>254000</v>
-      </c>
-      <c r="H129" s="16">
         <f t="shared" si="47"/>
         <v>497666.56744597905</v>
       </c>
+      <c r="G129" s="16">
+        <f t="shared" ref="G129:G152" si="52">G128+C129</f>
+        <v>254000</v>
+      </c>
+      <c r="H129" s="16">
+        <f t="shared" si="48"/>
+        <v>497666.56744597905</v>
+      </c>
       <c r="I129" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>243666.56744597905</v>
       </c>
       <c r="J129" s="31" t="e">
@@ -71449,31 +72107,31 @@
         <v>3.1956700000000002</v>
       </c>
       <c r="C130" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D130" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>625.84684901757691</v>
       </c>
       <c r="E130" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>159908.20153322528</v>
       </c>
       <c r="F130" s="16">
-        <f t="shared" si="46"/>
-        <v>511013.84239368205</v>
-      </c>
-      <c r="G130" s="16">
-        <f t="shared" si="51"/>
-        <v>256000</v>
-      </c>
-      <c r="H130" s="16">
         <f t="shared" si="47"/>
         <v>511013.84239368205</v>
       </c>
+      <c r="G130" s="16">
+        <f t="shared" si="52"/>
+        <v>256000</v>
+      </c>
+      <c r="H130" s="16">
+        <f t="shared" si="48"/>
+        <v>511013.84239368205</v>
+      </c>
       <c r="I130" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>255013.84239368205</v>
       </c>
       <c r="J130" s="31">
@@ -71490,31 +72148,31 @@
         <v>3.3188599999999999</v>
       </c>
       <c r="C131" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D131" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>602.61656110833235</v>
       </c>
       <c r="E131" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>160510.8180943336</v>
       </c>
       <c r="F131" s="16">
-        <f t="shared" si="46"/>
-        <v>532712.93374055997</v>
-      </c>
-      <c r="G131" s="16">
-        <f t="shared" si="51"/>
-        <v>258000</v>
-      </c>
-      <c r="H131" s="16">
         <f t="shared" si="47"/>
         <v>532712.93374055997</v>
       </c>
+      <c r="G131" s="16">
+        <f t="shared" si="52"/>
+        <v>258000</v>
+      </c>
+      <c r="H131" s="16">
+        <f t="shared" si="48"/>
+        <v>532712.93374055997</v>
+      </c>
       <c r="I131" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>274712.93374055997</v>
       </c>
       <c r="J131" s="31">
@@ -71531,31 +72189,31 @@
         <v>3.2336</v>
       </c>
       <c r="C132" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D132" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>618.50569025235029</v>
       </c>
       <c r="E132" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>161129.32378458595</v>
       </c>
       <c r="F132" s="16">
-        <f t="shared" si="46"/>
-        <v>521027.78138983715</v>
-      </c>
-      <c r="G132" s="16">
-        <f t="shared" si="51"/>
-        <v>260000</v>
-      </c>
-      <c r="H132" s="16">
         <f t="shared" si="47"/>
         <v>521027.78138983715</v>
       </c>
+      <c r="G132" s="16">
+        <f t="shared" si="52"/>
+        <v>260000</v>
+      </c>
+      <c r="H132" s="16">
+        <f t="shared" si="48"/>
+        <v>521027.78138983715</v>
+      </c>
       <c r="I132" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>261027.78138983715</v>
       </c>
       <c r="J132" s="31">
@@ -71572,31 +72230,31 @@
         <v>2.9186799999999997</v>
       </c>
       <c r="C133" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D133" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>685.24127345238264</v>
       </c>
       <c r="E133" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>161814.56505803834</v>
       </c>
       <c r="F133" s="16">
-        <f t="shared" si="46"/>
-        <v>472284.93474359531</v>
-      </c>
-      <c r="G133" s="16">
-        <f t="shared" si="51"/>
-        <v>262000</v>
-      </c>
-      <c r="H133" s="16">
         <f t="shared" si="47"/>
         <v>472284.93474359531</v>
       </c>
+      <c r="G133" s="16">
+        <f t="shared" si="52"/>
+        <v>262000</v>
+      </c>
+      <c r="H133" s="16">
+        <f t="shared" si="48"/>
+        <v>472284.93474359531</v>
+      </c>
       <c r="I133" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>210284.93474359531</v>
       </c>
       <c r="J133" s="31">
@@ -71613,31 +72271,31 @@
         <v>2.91865</v>
       </c>
       <c r="C134" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D134" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>685.24831685882168</v>
       </c>
       <c r="E134" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>162499.81337489714</v>
       </c>
       <c r="F134" s="16">
-        <f t="shared" si="46"/>
-        <v>474280.08030664356</v>
-      </c>
-      <c r="G134" s="16">
-        <f t="shared" si="51"/>
-        <v>264000</v>
-      </c>
-      <c r="H134" s="16">
         <f t="shared" si="47"/>
         <v>474280.08030664356</v>
       </c>
+      <c r="G134" s="16">
+        <f t="shared" si="52"/>
+        <v>264000</v>
+      </c>
+      <c r="H134" s="16">
+        <f t="shared" si="48"/>
+        <v>474280.08030664356</v>
+      </c>
       <c r="I134" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>210280.08030664356</v>
       </c>
       <c r="J134" s="31">
@@ -71654,31 +72312,31 @@
         <v>2.9991300000000001</v>
       </c>
       <c r="C135" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D135" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>666.86005608293067</v>
       </c>
       <c r="E135" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>163166.67343098007</v>
       </c>
       <c r="F135" s="16">
-        <f t="shared" si="46"/>
-        <v>489358.06528705527</v>
-      </c>
-      <c r="G135" s="16">
-        <f t="shared" si="51"/>
-        <v>266000</v>
-      </c>
-      <c r="H135" s="16">
         <f t="shared" si="47"/>
         <v>489358.06528705527</v>
       </c>
+      <c r="G135" s="16">
+        <f t="shared" si="52"/>
+        <v>266000</v>
+      </c>
+      <c r="H135" s="16">
+        <f t="shared" si="48"/>
+        <v>489358.06528705527</v>
+      </c>
       <c r="I135" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>223358.06528705527</v>
       </c>
       <c r="J135" s="31">
@@ -71695,31 +72353,31 @@
         <v>3.0190700000000001</v>
       </c>
       <c r="C136" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D136" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>662.45565687446799</v>
       </c>
       <c r="E136" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>163829.12908785453</v>
       </c>
       <c r="F136" s="16">
-        <f t="shared" si="46"/>
-        <v>494611.60875526897</v>
-      </c>
-      <c r="G136" s="16">
-        <f t="shared" si="51"/>
-        <v>268000</v>
-      </c>
-      <c r="H136" s="16">
         <f t="shared" si="47"/>
         <v>494611.60875526897</v>
       </c>
+      <c r="G136" s="16">
+        <f t="shared" si="52"/>
+        <v>268000</v>
+      </c>
+      <c r="H136" s="16">
+        <f t="shared" si="48"/>
+        <v>494611.60875526897</v>
+      </c>
       <c r="I136" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>226611.60875526897</v>
       </c>
       <c r="J136" s="31">
@@ -71736,31 +72394,31 @@
         <v>2.96435</v>
       </c>
       <c r="C137" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D137" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>674.68416347597281</v>
       </c>
       <c r="E137" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>164503.81325133049</v>
       </c>
       <c r="F137" s="16">
-        <f t="shared" si="46"/>
-        <v>487646.87881158153</v>
-      </c>
-      <c r="G137" s="16">
-        <f t="shared" si="51"/>
-        <v>270000</v>
-      </c>
-      <c r="H137" s="16">
         <f t="shared" si="47"/>
         <v>487646.87881158153</v>
       </c>
+      <c r="G137" s="16">
+        <f t="shared" si="52"/>
+        <v>270000</v>
+      </c>
+      <c r="H137" s="16">
+        <f t="shared" si="48"/>
+        <v>487646.87881158153</v>
+      </c>
       <c r="I137" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>217646.87881158153</v>
       </c>
       <c r="J137" s="31">
@@ -71777,31 +72435,31 @@
         <v>3.07491</v>
       </c>
       <c r="C138" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D138" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>650.4255409101404</v>
       </c>
       <c r="E138" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>165154.23879224062</v>
       </c>
       <c r="F138" s="16">
-        <f t="shared" si="46"/>
-        <v>507834.42040464858</v>
-      </c>
-      <c r="G138" s="16">
-        <f t="shared" si="51"/>
-        <v>272000</v>
-      </c>
-      <c r="H138" s="16">
         <f t="shared" si="47"/>
         <v>507834.42040464858</v>
       </c>
+      <c r="G138" s="16">
+        <f t="shared" si="52"/>
+        <v>272000</v>
+      </c>
+      <c r="H138" s="16">
+        <f t="shared" si="48"/>
+        <v>507834.42040464858</v>
+      </c>
       <c r="I138" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>235834.42040464858</v>
       </c>
       <c r="J138" s="31">
@@ -71818,31 +72476,31 @@
         <v>2.8309000000000002</v>
       </c>
       <c r="C139" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D139" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>706.4891024055953</v>
       </c>
       <c r="E139" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>165860.7278946462</v>
       </c>
       <c r="F139" s="16">
-        <f t="shared" si="46"/>
-        <v>469535.13459695398</v>
-      </c>
-      <c r="G139" s="16">
-        <f t="shared" si="51"/>
-        <v>274000</v>
-      </c>
-      <c r="H139" s="16">
         <f t="shared" si="47"/>
         <v>469535.13459695398</v>
       </c>
+      <c r="G139" s="16">
+        <f t="shared" si="52"/>
+        <v>274000</v>
+      </c>
+      <c r="H139" s="16">
+        <f t="shared" si="48"/>
+        <v>469535.13459695398</v>
+      </c>
       <c r="I139" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>195535.13459695398</v>
       </c>
       <c r="J139" s="31">
@@ -71860,31 +72518,31 @@
         <v>2.8623000000000003</v>
       </c>
       <c r="C140" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D140" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>698.73877650840222</v>
       </c>
       <c r="E140" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>166559.4666711546</v>
       </c>
       <c r="F140" s="16">
-        <f t="shared" si="46"/>
-        <v>476743.16145284584</v>
-      </c>
-      <c r="G140" s="16">
-        <f t="shared" si="51"/>
-        <v>276000</v>
-      </c>
-      <c r="H140" s="16">
         <f t="shared" si="47"/>
         <v>476743.16145284584</v>
       </c>
+      <c r="G140" s="16">
+        <f t="shared" si="52"/>
+        <v>276000</v>
+      </c>
+      <c r="H140" s="16">
+        <f t="shared" si="48"/>
+        <v>476743.16145284584</v>
+      </c>
       <c r="I140" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>200743.16145284584</v>
       </c>
       <c r="J140" s="31">
@@ -71901,31 +72559,31 @@
         <v>2.6462500000000002</v>
       </c>
       <c r="C141" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D141" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>755.78649031648558</v>
       </c>
       <c r="E141" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>167315.25316147108</v>
       </c>
       <c r="F141" s="16">
-        <f t="shared" si="46"/>
-        <v>442757.9886785429</v>
-      </c>
-      <c r="G141" s="16">
-        <f t="shared" si="51"/>
-        <v>278000</v>
-      </c>
-      <c r="H141" s="16">
         <f t="shared" si="47"/>
         <v>442757.9886785429</v>
       </c>
+      <c r="G141" s="16">
+        <f t="shared" si="52"/>
+        <v>278000</v>
+      </c>
+      <c r="H141" s="16">
+        <f t="shared" si="48"/>
+        <v>442757.9886785429</v>
+      </c>
       <c r="I141" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>164757.9886785429</v>
       </c>
       <c r="J141" s="31">
@@ -71942,31 +72600,31 @@
         <v>2.5422700195312502</v>
       </c>
       <c r="C142" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D142" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>786.69849568881148</v>
       </c>
       <c r="E142" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>168101.95165715989</v>
       </c>
       <c r="F142" s="16">
-        <f t="shared" si="46"/>
-        <v>427360.55192268913</v>
-      </c>
-      <c r="G142" s="16">
-        <f t="shared" si="51"/>
-        <v>280000</v>
-      </c>
-      <c r="H142" s="16">
         <f t="shared" si="47"/>
         <v>427360.55192268913</v>
       </c>
+      <c r="G142" s="16">
+        <f t="shared" si="52"/>
+        <v>280000</v>
+      </c>
+      <c r="H142" s="16">
+        <f t="shared" si="48"/>
+        <v>427360.55192268913</v>
+      </c>
       <c r="I142" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>147360.55192268913</v>
       </c>
       <c r="J142" s="31">
@@ -71983,31 +72641,31 @@
         <v>2.5905100097656248</v>
       </c>
       <c r="C143" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D143" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>772.04874424744992</v>
       </c>
       <c r="E143" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>168874.00040140733</v>
       </c>
       <c r="F143" s="16">
-        <f t="shared" si="46"/>
-        <v>437469.78842900984</v>
-      </c>
-      <c r="G143" s="16">
-        <f t="shared" si="51"/>
-        <v>282000</v>
-      </c>
-      <c r="H143" s="16">
         <f t="shared" si="47"/>
         <v>437469.78842900984</v>
       </c>
+      <c r="G143" s="16">
+        <f t="shared" si="52"/>
+        <v>282000</v>
+      </c>
+      <c r="H143" s="16">
+        <f t="shared" si="48"/>
+        <v>437469.78842900984</v>
+      </c>
       <c r="I143" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>155469.78842900984</v>
       </c>
       <c r="J143" s="31">
@@ -72024,31 +72682,31 @@
         <v>2.8271101074218752</v>
       </c>
       <c r="C144" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D144" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>707.43618890169751</v>
       </c>
       <c r="E144" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>169581.43659030902</v>
       </c>
       <c r="F144" s="16">
-        <f t="shared" si="46"/>
-        <v>479425.39341558446</v>
-      </c>
-      <c r="G144" s="16">
-        <f t="shared" si="51"/>
-        <v>284000</v>
-      </c>
-      <c r="H144" s="16">
         <f t="shared" si="47"/>
         <v>479425.39341558446</v>
       </c>
+      <c r="G144" s="16">
+        <f t="shared" si="52"/>
+        <v>284000</v>
+      </c>
+      <c r="H144" s="16">
+        <f t="shared" si="48"/>
+        <v>479425.39341558446</v>
+      </c>
       <c r="I144" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>195425.39341558446</v>
       </c>
       <c r="J144" s="31">
@@ -72065,31 +72723,31 @@
         <v>2.6160200195312502</v>
       </c>
       <c r="C145" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D145" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>764.5201432206045</v>
       </c>
       <c r="E145" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>170345.95673352963</v>
       </c>
       <c r="F145" s="16">
-        <f t="shared" si="46"/>
-        <v>445628.43306111766</v>
-      </c>
-      <c r="G145" s="16">
-        <f t="shared" si="51"/>
-        <v>286000</v>
-      </c>
-      <c r="H145" s="16">
         <f t="shared" si="47"/>
         <v>445628.43306111766</v>
       </c>
+      <c r="G145" s="16">
+        <f t="shared" si="52"/>
+        <v>286000</v>
+      </c>
+      <c r="H145" s="16">
+        <f t="shared" si="48"/>
+        <v>445628.43306111766</v>
+      </c>
       <c r="I145" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>159628.43306111766</v>
       </c>
       <c r="J145" s="31">
@@ -72106,31 +72764,31 @@
         <v>2.5657299804687499</v>
       </c>
       <c r="C146" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D146" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>779.50525395295381</v>
       </c>
       <c r="E146" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>171125.46198748259</v>
       </c>
       <c r="F146" s="16">
-        <f t="shared" si="46"/>
-        <v>439061.72824284952</v>
-      </c>
-      <c r="G146" s="16">
-        <f t="shared" si="51"/>
-        <v>288000</v>
-      </c>
-      <c r="H146" s="16">
         <f t="shared" si="47"/>
         <v>439061.72824284952</v>
       </c>
+      <c r="G146" s="16">
+        <f t="shared" si="52"/>
+        <v>288000</v>
+      </c>
+      <c r="H146" s="16">
+        <f t="shared" si="48"/>
+        <v>439061.72824284952</v>
+      </c>
       <c r="I146" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>151061.72824284952</v>
       </c>
       <c r="J146" s="31">
@@ -72147,31 +72805,31 @@
         <v>2.4191298828124999</v>
       </c>
       <c r="C147" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D147" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>826.74353874492419</v>
       </c>
       <c r="E147" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>171952.20552622751</v>
       </c>
       <c r="F147" s="16">
-        <f t="shared" si="46"/>
-        <v>415974.71880401362</v>
-      </c>
-      <c r="G147" s="16">
-        <f t="shared" si="51"/>
-        <v>290000</v>
-      </c>
-      <c r="H147" s="16">
         <f t="shared" si="47"/>
         <v>415974.71880401362</v>
       </c>
+      <c r="G147" s="16">
+        <f t="shared" si="52"/>
+        <v>290000</v>
+      </c>
+      <c r="H147" s="16">
+        <f t="shared" si="48"/>
+        <v>415974.71880401362</v>
+      </c>
       <c r="I147" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>125974.71880401362</v>
       </c>
       <c r="J147" s="31">
@@ -72188,31 +72846,31 @@
         <v>2.1911298828125001</v>
       </c>
       <c r="C148" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D148" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>912.77108476692911</v>
       </c>
       <c r="E148" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>172864.97661099443</v>
       </c>
       <c r="F148" s="16">
-        <f t="shared" si="46"/>
-        <v>378769.61594403378</v>
-      </c>
-      <c r="G148" s="16">
-        <f t="shared" si="51"/>
-        <v>292000</v>
-      </c>
-      <c r="H148" s="16">
         <f t="shared" si="47"/>
         <v>378769.61594403378</v>
       </c>
+      <c r="G148" s="16">
+        <f t="shared" si="52"/>
+        <v>292000</v>
+      </c>
+      <c r="H148" s="16">
+        <f t="shared" si="48"/>
+        <v>378769.61594403378</v>
+      </c>
       <c r="I148" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>86769.61594403378</v>
       </c>
       <c r="J148" s="31">
@@ -72229,31 +72887,31 @@
         <v>2.4362099609375001</v>
       </c>
       <c r="C149" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D149" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>820.94730424234933</v>
       </c>
       <c r="E149" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>173685.92391523678</v>
       </c>
       <c r="F149" s="16">
-        <f t="shared" si="46"/>
-        <v>423135.37791693263</v>
-      </c>
-      <c r="G149" s="16">
-        <f t="shared" si="51"/>
-        <v>294000</v>
-      </c>
-      <c r="H149" s="16">
         <f t="shared" si="47"/>
         <v>423135.37791693263</v>
       </c>
+      <c r="G149" s="16">
+        <f t="shared" si="52"/>
+        <v>294000</v>
+      </c>
+      <c r="H149" s="16">
+        <f t="shared" si="48"/>
+        <v>423135.37791693263</v>
+      </c>
       <c r="I149" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>129135.37791693263</v>
       </c>
       <c r="J149" s="31">
@@ -72270,31 +72928,31 @@
         <v>2.4624399414062501</v>
       </c>
       <c r="C150" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D150" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>812.20255014944246</v>
       </c>
       <c r="E150" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>174498.12646538622</v>
       </c>
       <c r="F150" s="16">
-        <f t="shared" si="46"/>
-        <v>429691.15630892606</v>
-      </c>
-      <c r="G150" s="16">
-        <f t="shared" si="51"/>
-        <v>296000</v>
-      </c>
-      <c r="H150" s="16">
         <f t="shared" si="47"/>
         <v>429691.15630892606</v>
       </c>
+      <c r="G150" s="16">
+        <f t="shared" si="52"/>
+        <v>296000</v>
+      </c>
+      <c r="H150" s="16">
+        <f t="shared" si="48"/>
+        <v>429691.15630892606</v>
+      </c>
       <c r="I150" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>133691.15630892606</v>
       </c>
       <c r="J150" s="31">
@@ -72311,37 +72969,81 @@
         <v>2.6370249023437502</v>
       </c>
       <c r="C151" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="D151" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>758.43045631553514</v>
       </c>
       <c r="E151" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>175256.55692170176</v>
       </c>
       <c r="F151" s="16">
-        <f t="shared" si="46"/>
-        <v>462155.90490155248</v>
-      </c>
-      <c r="G151" s="16">
-        <f t="shared" si="51"/>
-        <v>298000</v>
-      </c>
-      <c r="H151" s="16">
         <f t="shared" si="47"/>
         <v>462155.90490155248</v>
       </c>
+      <c r="G151" s="16">
+        <f t="shared" si="52"/>
+        <v>298000</v>
+      </c>
+      <c r="H151" s="16">
+        <f t="shared" si="48"/>
+        <v>462155.90490155248</v>
+      </c>
       <c r="I151" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>164155.90490155248</v>
       </c>
       <c r="J151" s="31">
         <f>VLOOKUP(A151,myPEPB!B:C,2)</f>
         <v>11.39000034</v>
       </c>
+    </row>
+    <row r="152" spans="1:10" ht="12.75">
+      <c r="A152" s="13">
+        <v>44985</v>
+      </c>
+      <c r="B152" s="14">
+        <f>VLOOKUP(A152,[1]CNI_ESG_300!$A:$F,6)</f>
+        <v>2.5919743652343752</v>
+      </c>
+      <c r="C152" s="15">
+        <f t="shared" si="50"/>
+        <v>2000</v>
+      </c>
+      <c r="D152" s="16">
+        <f t="shared" si="46"/>
+        <v>771.61256948586879</v>
+      </c>
+      <c r="E152" s="16">
+        <f t="shared" si="51"/>
+        <v>176028.16949118764</v>
+      </c>
+      <c r="F152" s="16">
+        <f t="shared" si="47"/>
+        <v>456260.50288029009</v>
+      </c>
+      <c r="G152" s="16">
+        <f t="shared" si="52"/>
+        <v>300000</v>
+      </c>
+      <c r="H152" s="16">
+        <f t="shared" si="48"/>
+        <v>456260.50288029009</v>
+      </c>
+      <c r="I152" s="16">
+        <f t="shared" si="49"/>
+        <v>156260.50288029009</v>
+      </c>
+      <c r="J152" s="31">
+        <f>VLOOKUP(A152,myPEPB!B:C,2)</f>
+        <v>11.27000046</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -72356,9 +73058,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D440"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -72371,7 +73073,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="23">
@@ -72379,7 +73081,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
@@ -75492,7 +76194,7 @@
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="17">
-        <f t="shared" ref="A197:A440" si="3">A196+1</f>
+        <f t="shared" ref="A197:A451" si="3">A196+1</f>
         <v>195</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -79392,6 +80094,326 @@
       <c r="D440" s="17">
         <f>SUM($C$3:C440)/A440</f>
         <v>12.257668504767654</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="17">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="B441" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C441" s="21">
+        <v>11.44999981</v>
+      </c>
+      <c r="D441" s="17">
+        <f>SUM($C$3:C441)/A441</f>
+        <v>12.255828712752239</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="17">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="B442" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C442" s="21">
+        <v>11.43000031</v>
+      </c>
+      <c r="D442" s="17">
+        <f>SUM($C$3:C442)/A442</f>
+        <v>12.25395183001871</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="17">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="B443" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C443" s="21">
+        <v>11.31999969</v>
+      </c>
+      <c r="D443" s="17">
+        <f>SUM($C$3:C443)/A443</f>
+        <v>12.251834024712545</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="17">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="B444" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C444" s="21">
+        <v>11.18999958</v>
+      </c>
+      <c r="D444" s="17">
+        <f>SUM($C$3:C444)/A444</f>
+        <v>12.249431684339894</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="17">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="B445" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C445" s="21">
+        <v>11.210000040000001</v>
+      </c>
+      <c r="D445" s="17">
+        <f>SUM($C$3:C445)/A445</f>
+        <v>12.24708533751294</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="17">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="B446" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C446" s="21">
+        <v>11.170000079999999</v>
+      </c>
+      <c r="D446" s="17">
+        <f>SUM($C$3:C446)/A446</f>
+        <v>12.24465946981584</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="17">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="B447" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C447" s="21">
+        <v>11.31000042</v>
+      </c>
+      <c r="D447" s="17">
+        <f>SUM($C$3:C447)/A447</f>
+        <v>12.242559112400523</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="17">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B448" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C448" s="21">
+        <v>11.27000046</v>
+      </c>
+      <c r="D448" s="17">
+        <f>SUM($C$3:C448)/A448</f>
+        <v>12.240378487619356</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="17">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="B449" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C449" s="21">
+        <v>11.369999890000001</v>
+      </c>
+      <c r="D449" s="17">
+        <f>SUM($C$3:C449)/A449</f>
+        <v>12.238431331919983</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="17">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="B450" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C450" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D450" s="17">
+        <f>SUM($C$3:C450)/A450</f>
+        <v>12.236537512741592</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="17">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C451" s="21">
+        <v>11.31999969</v>
+      </c>
+      <c r="D451" s="17">
+        <f>SUM($C$3:C451)/A451</f>
+        <v>12.234496225831254</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="17">
+        <f t="shared" ref="A452:A460" si="4">A451+1</f>
+        <v>450</v>
+      </c>
+      <c r="B452" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C452" s="21">
+        <v>11.260000229999999</v>
+      </c>
+      <c r="D452" s="17">
+        <f>SUM($C$3:C452)/A452</f>
+        <v>12.232330679173851</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="17">
+        <f t="shared" si="4"/>
+        <v>451</v>
+      </c>
+      <c r="B453" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C453" s="21">
+        <v>11.15999985</v>
+      </c>
+      <c r="D453" s="17">
+        <f>SUM($C$3:C453)/A453</f>
+        <v>12.229953005494972</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="17">
+        <f t="shared" si="4"/>
+        <v>452</v>
+      </c>
+      <c r="B454" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C454" s="21">
+        <v>11.40999985</v>
+      </c>
+      <c r="D454" s="17">
+        <f>SUM($C$3:C454)/A454</f>
+        <v>12.228138949841222</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="17">
+        <f t="shared" si="4"/>
+        <v>453</v>
+      </c>
+      <c r="B455" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C455" s="21">
+        <v>11.43999958</v>
+      </c>
+      <c r="D455" s="17">
+        <f>SUM($C$3:C455)/A455</f>
+        <v>12.226399127832742</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="17">
+        <f t="shared" si="4"/>
+        <v>454</v>
+      </c>
+      <c r="B456" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C456" s="21">
+        <v>11.350000380000001</v>
+      </c>
+      <c r="D456" s="17">
+        <f>SUM($C$3:C456)/A456</f>
+        <v>12.22446873411505</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="17">
+        <f t="shared" si="4"/>
+        <v>455</v>
+      </c>
+      <c r="B457" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C457" s="21">
+        <v>11.350000380000001</v>
+      </c>
+      <c r="D457" s="17">
+        <f>SUM($C$3:C457)/A457</f>
+        <v>12.222546825644468</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="17">
+        <f t="shared" si="4"/>
+        <v>456</v>
+      </c>
+      <c r="B458" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C458" s="21">
+        <v>11.22999954</v>
+      </c>
+      <c r="D458" s="17">
+        <f>SUM($C$3:C458)/A458</f>
+        <v>12.220370186860158</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="17">
+        <f t="shared" si="4"/>
+        <v>457</v>
+      </c>
+      <c r="B459" s="20">
+        <v>44984</v>
+      </c>
+      <c r="C459" s="21">
+        <v>11.210000040000001</v>
+      </c>
+      <c r="D459" s="17">
+        <f>SUM($C$3:C459)/A459</f>
+        <v>12.218159311265278</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="17">
+        <f t="shared" si="4"/>
+        <v>458</v>
+      </c>
+      <c r="B460" s="20">
+        <v>44985</v>
+      </c>
+      <c r="C460" s="21">
+        <v>11.27000046</v>
+      </c>
+      <c r="D460" s="17">
+        <f>SUM($C$3:C460)/A460</f>
+        <v>12.216089095432821</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -1825,7 +1825,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -2272,9 +2272,6 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>44957</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,7 +2281,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2731,9 +2728,6 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>298000</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2776,7 +2770,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3223,9 +3217,6 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>44957</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,7 +3226,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3682,9 +3673,6 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>462155.90490155248</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>456260.50288029009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,7 +3715,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4174,9 +4162,6 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>44957</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4186,7 +4171,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4633,9 +4618,6 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>164155.90490155248</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>156260.50288029009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,11 +4639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87753472"/>
-        <c:axId val="529668352"/>
+        <c:axId val="50120960"/>
+        <c:axId val="76939648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87753472"/>
+        <c:axId val="50120960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4704,14 +4686,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529668352"/>
+        <c:crossAx val="76939648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529668352"/>
+        <c:axId val="76939648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,7 +4744,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87753472"/>
+        <c:crossAx val="50120960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -65326,10 +65308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -65546,19 +65528,19 @@
         <v>8000</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N16" si="7">VLOOKUP(L4,A:G,7,)</f>
+        <f>VLOOKUP(L4,A:G,7,)</f>
         <v>8000</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" ref="O4:O16" si="8">VLOOKUP(L4,A:H,8,)</f>
+        <f>VLOOKUP(L4,A:H,8,)</f>
         <v>7908.6759332370966</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P16" si="9">VLOOKUP(L4,A:I,9,)</f>
+        <f>VLOOKUP(L4,A:I,9,)</f>
         <v>-91.324066762903385</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" ref="Q4:Q13" si="10">(O4-N4)/N4</f>
+        <f t="shared" ref="Q4:Q13" si="7">(O4-N4)/N4</f>
         <v>-1.1415508345362924E-2</v>
       </c>
       <c r="R4" s="7">
@@ -65584,7 +65566,7 @@
         <v>24000</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y5" si="11">-X4</f>
+        <f t="shared" ref="Y4:Y5" si="8">-X4</f>
         <v>-24000</v>
       </c>
       <c r="Z4" s="29">
@@ -65595,7 +65577,7 @@
         <v>24000</v>
       </c>
       <c r="AB4" s="1">
-        <f t="shared" ref="AB4:AB6" si="12">-AA4</f>
+        <f t="shared" ref="AB4:AB6" si="9">-AA4</f>
         <v>-24000</v>
       </c>
     </row>
@@ -65643,23 +65625,23 @@
         <v>40907</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M13" si="13">N5-N4</f>
+        <f t="shared" ref="M5:M13" si="10">N5-N4</f>
         <v>24000</v>
       </c>
       <c r="N5" s="4">
+        <f>VLOOKUP(L5,A:G,7,)</f>
+        <v>32000</v>
+      </c>
+      <c r="O5" s="4">
+        <f>VLOOKUP(L5,A:H,8,)</f>
+        <v>25685.572979740344</v>
+      </c>
+      <c r="P5" s="4">
+        <f>VLOOKUP(L5,A:I,9,)</f>
+        <v>-6314.4270202596563</v>
+      </c>
+      <c r="Q5" s="7">
         <f t="shared" si="7"/>
-        <v>32000</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="8"/>
-        <v>25685.572979740344</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="9"/>
-        <v>-6314.4270202596563</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="10"/>
         <v>-0.19732584438311426</v>
       </c>
       <c r="R5" s="7">
@@ -65681,7 +65663,7 @@
         <v>24000</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
       <c r="Z5" s="29">
@@ -65692,7 +65674,7 @@
         <v>24000</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
     </row>
@@ -65740,23 +65722,23 @@
         <v>41274</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N6" s="4">
+        <f>VLOOKUP(L6,A:G,7,)</f>
+        <v>56000</v>
+      </c>
+      <c r="O6" s="4">
+        <f>VLOOKUP(L6,A:H,8,)</f>
+        <v>52348.707732068309</v>
+      </c>
+      <c r="P6" s="4">
+        <f>VLOOKUP(L6,A:I,9,)</f>
+        <v>-3651.2922679316907</v>
+      </c>
+      <c r="Q6" s="7">
         <f t="shared" si="7"/>
-        <v>56000</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="8"/>
-        <v>52348.707732068309</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="9"/>
-        <v>-3651.2922679316907</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="10"/>
         <v>-6.5201647641637328E-2</v>
       </c>
       <c r="R6" s="7">
@@ -65782,7 +65764,7 @@
         <v>24000</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
     </row>
@@ -65830,23 +65812,23 @@
         <v>41639</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N7" s="4">
+        <f>VLOOKUP(L7,A:G,7,)</f>
+        <v>80000</v>
+      </c>
+      <c r="O7" s="4">
+        <f>VLOOKUP(L7,A:H,8,)</f>
+        <v>82813.626416639017</v>
+      </c>
+      <c r="P7" s="4">
+        <f>VLOOKUP(L7,A:I,9,)</f>
+        <v>2813.6264166390174</v>
+      </c>
+      <c r="Q7" s="7">
         <f t="shared" si="7"/>
-        <v>80000</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="8"/>
-        <v>82813.626416639017</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="9"/>
-        <v>2813.6264166390174</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="10"/>
         <v>3.5170330207987717E-2</v>
       </c>
       <c r="R7" s="7">
@@ -65909,23 +65891,23 @@
         <v>42004</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N8" s="4">
+        <f>VLOOKUP(L8,A:G,7,)</f>
+        <v>104000</v>
+      </c>
+      <c r="O8" s="4">
+        <f>VLOOKUP(L8,A:H,8,)</f>
+        <v>153292.71467382699</v>
+      </c>
+      <c r="P8" s="4">
+        <f>VLOOKUP(L8,A:I,9,)</f>
+        <v>49292.714673826995</v>
+      </c>
+      <c r="Q8" s="7">
         <f t="shared" si="7"/>
-        <v>104000</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="8"/>
-        <v>153292.71467382699</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="9"/>
-        <v>49292.714673826995</v>
-      </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="10"/>
         <v>0.47396841032525955</v>
       </c>
       <c r="R8" s="7">
@@ -65981,23 +65963,23 @@
         <v>42369</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N9" s="4">
+        <f>VLOOKUP(L9,A:G,7,)</f>
+        <v>128000</v>
+      </c>
+      <c r="O9" s="4">
+        <f>VLOOKUP(L9,A:H,8,)</f>
+        <v>214081.38004669495</v>
+      </c>
+      <c r="P9" s="4">
+        <f>VLOOKUP(L9,A:I,9,)</f>
+        <v>86081.380046694947</v>
+      </c>
+      <c r="Q9" s="7">
         <f t="shared" si="7"/>
-        <v>128000</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="8"/>
-        <v>214081.38004669495</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="9"/>
-        <v>86081.380046694947</v>
-      </c>
-      <c r="Q9" s="7">
-        <f t="shared" si="10"/>
         <v>0.67251078161480426</v>
       </c>
       <c r="R9" s="7">
@@ -66019,7 +66001,7 @@
         <v>40543</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" ref="X9:X14" si="14">VLOOKUP(W9,L:M,2)</f>
+        <f t="shared" ref="X9:X14" si="11">VLOOKUP(W9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y9" s="1">
@@ -66030,7 +66012,7 @@
         <v>40543</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" ref="AA9:AA15" si="15">VLOOKUP(Z9,L:M,2)</f>
+        <f t="shared" ref="AA9:AA15" si="12">VLOOKUP(Z9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB9" s="1">
@@ -66082,23 +66064,23 @@
         <v>42734</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N10" s="4">
+        <f>VLOOKUP(L10,A:G,7,)</f>
+        <v>152000</v>
+      </c>
+      <c r="O10" s="4">
+        <f>VLOOKUP(L10,A:H,8,)</f>
+        <v>226023.31414810085</v>
+      </c>
+      <c r="P10" s="4">
+        <f>VLOOKUP(L10,A:I,9,)</f>
+        <v>74023.31414810085</v>
+      </c>
+      <c r="Q10" s="7">
         <f t="shared" si="7"/>
-        <v>152000</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="8"/>
-        <v>226023.31414810085</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="9"/>
-        <v>74023.31414810085</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="10"/>
         <v>0.48699548781645297</v>
       </c>
       <c r="R10" s="7">
@@ -66113,29 +66095,29 @@
         <v>24000</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10:V13" si="16">-U10</f>
+        <f t="shared" ref="V10:V13" si="13">-U10</f>
         <v>-24000</v>
       </c>
       <c r="W10" s="29">
         <v>40907</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ref="Y10:Y14" si="17">-X10</f>
+        <f t="shared" ref="Y10:Y14" si="14">-X10</f>
         <v>-24000</v>
       </c>
       <c r="Z10" s="29">
         <v>40907</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>24000</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" ref="AB10:AB15" si="18">-AA10</f>
+        <f t="shared" ref="AB10:AB15" si="15">-AA10</f>
         <v>-24000</v>
       </c>
     </row>
@@ -66183,23 +66165,23 @@
         <v>43098</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N11" s="4">
+        <f>VLOOKUP(L11,A:G,7,)</f>
+        <v>176000</v>
+      </c>
+      <c r="O11" s="4">
+        <f>VLOOKUP(L11,A:H,8,)</f>
+        <v>315263.01815480401</v>
+      </c>
+      <c r="P11" s="4">
+        <f>VLOOKUP(L11,A:I,9,)</f>
+        <v>139263.01815480401</v>
+      </c>
+      <c r="Q11" s="7">
         <f t="shared" si="7"/>
-        <v>176000</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="8"/>
-        <v>315263.01815480401</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="9"/>
-        <v>139263.01815480401</v>
-      </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="10"/>
         <v>0.791267148606841</v>
       </c>
       <c r="R11" s="7">
@@ -66214,29 +66196,29 @@
         <v>24000</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-24000</v>
       </c>
       <c r="W11" s="29">
         <v>41274</v>
       </c>
       <c r="X11" s="1">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="Y11" s="1">
         <f t="shared" si="14"/>
-        <v>24000</v>
-      </c>
-      <c r="Y11" s="1">
-        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z11" s="29">
         <v>41274</v>
       </c>
       <c r="AA11" s="1">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AB11" s="1">
         <f t="shared" si="15"/>
-        <v>24000</v>
-      </c>
-      <c r="AB11" s="1">
-        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66284,23 +66266,23 @@
         <v>43462</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N12" s="4">
+        <f>VLOOKUP(L12,A:G,7,)</f>
+        <v>200000</v>
+      </c>
+      <c r="O12" s="4">
+        <f>VLOOKUP(L12,A:H,8,)</f>
+        <v>257772.87391023306</v>
+      </c>
+      <c r="P12" s="4">
+        <f>VLOOKUP(L12,A:I,9,)</f>
+        <v>57772.873910233058</v>
+      </c>
+      <c r="Q12" s="7">
         <f t="shared" si="7"/>
-        <v>200000</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="8"/>
-        <v>257772.87391023306</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="9"/>
-        <v>57772.873910233058</v>
-      </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="10"/>
         <v>0.28886436955116529</v>
       </c>
       <c r="R12" s="7">
@@ -66315,29 +66297,29 @@
         <v>24000</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-24000</v>
       </c>
       <c r="W12" s="29">
         <v>41639</v>
       </c>
       <c r="X12" s="1">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="Y12" s="1">
         <f t="shared" si="14"/>
-        <v>24000</v>
-      </c>
-      <c r="Y12" s="1">
-        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z12" s="29">
         <v>41639</v>
       </c>
       <c r="AA12" s="1">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AB12" s="1">
         <f t="shared" si="15"/>
-        <v>24000</v>
-      </c>
-      <c r="AB12" s="1">
-        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66385,23 +66367,23 @@
         <v>43830</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="N13" s="4">
+        <f>VLOOKUP(L13,A:G,7,)</f>
+        <v>224000</v>
+      </c>
+      <c r="O13" s="4">
+        <f>VLOOKUP(L13,A:H,8,)</f>
+        <v>362098.05834678403</v>
+      </c>
+      <c r="P13" s="4">
+        <f>VLOOKUP(L13,A:I,9,)</f>
+        <v>138098.05834678403</v>
+      </c>
+      <c r="Q13" s="7">
         <f t="shared" si="7"/>
-        <v>224000</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="8"/>
-        <v>362098.05834678403</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="9"/>
-        <v>138098.05834678403</v>
-      </c>
-      <c r="Q13" s="7">
-        <f t="shared" si="10"/>
         <v>0.616509189048143</v>
       </c>
       <c r="R13" s="7">
@@ -66416,29 +66398,29 @@
         <v>24000</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-24000</v>
       </c>
       <c r="W13" s="29">
         <v>42004</v>
       </c>
       <c r="X13" s="1">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="Y13" s="1">
         <f t="shared" si="14"/>
-        <v>24000</v>
-      </c>
-      <c r="Y13" s="1">
-        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z13" s="29">
         <v>42004</v>
       </c>
       <c r="AA13" s="1">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AB13" s="1">
         <f t="shared" si="15"/>
-        <v>24000</v>
-      </c>
-      <c r="AB13" s="1">
-        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66490,19 +66472,19 @@
         <v>24000</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(L14,A:G,7,)</f>
         <v>248000</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(L14,A:H,8,)</f>
         <v>501442.15123802173</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(L14,A:I,9,)</f>
         <v>253442.15123802173</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" ref="Q14" si="19">(O14-N14)/N14</f>
+        <f t="shared" ref="Q14" si="16">(O14-N14)/N14</f>
         <v>1.0219441582178295</v>
       </c>
       <c r="R14" s="7">
@@ -66520,22 +66502,22 @@
         <v>42369</v>
       </c>
       <c r="X14" s="1">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="Y14" s="1">
         <f t="shared" si="14"/>
-        <v>24000</v>
-      </c>
-      <c r="Y14" s="1">
-        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z14" s="29">
         <v>42369</v>
       </c>
       <c r="AA14" s="1">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AB14" s="1">
         <f t="shared" si="15"/>
-        <v>24000</v>
-      </c>
-      <c r="AB14" s="1">
-        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66587,19 +66569,19 @@
         <v>24000</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(L15,A:G,7,)</f>
         <v>272000</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(L15,A:H,8,)</f>
         <v>507834.42040464858</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(L15,A:I,9,)</f>
         <v>235834.42040464858</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" ref="Q15:Q16" si="20">(O15-N15)/N15</f>
+        <f t="shared" ref="Q15:Q16" si="17">(O15-N15)/N15</f>
         <v>0.86703831031120804</v>
       </c>
       <c r="R15" s="7">
@@ -66621,11 +66603,11 @@
         <v>42734</v>
       </c>
       <c r="AA15" s="1">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AB15" s="1">
         <f t="shared" si="15"/>
-        <v>24000</v>
-      </c>
-      <c r="AB15" s="1">
-        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66677,19 +66659,19 @@
         <v>24000</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(L16,A:G,7,)</f>
         <v>296000</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(L16,A:H,8,)</f>
         <v>429691.15630892606</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(L16,A:I,9,)</f>
         <v>133691.15630892606</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.45165931185447994</v>
       </c>
       <c r="R16" s="7">
@@ -66796,7 +66778,7 @@
         <v>40543</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ref="U18:U25" si="21">VLOOKUP(T18,L:M,2)</f>
+        <f t="shared" ref="U18:U25" si="18">VLOOKUP(T18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V18" s="1">
@@ -66807,7 +66789,7 @@
         <v>40543</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" ref="X18:X26" si="22">VLOOKUP(W18,L:M,2)</f>
+        <f t="shared" ref="X18:X26" si="19">VLOOKUP(W18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y18" s="1">
@@ -66818,7 +66800,7 @@
         <v>40543</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" ref="AA18:AA27" si="23">VLOOKUP(Z18,L:M,2)</f>
+        <f t="shared" ref="AA18:AA27" si="20">VLOOKUP(Z18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB18" s="1">
@@ -66870,33 +66852,33 @@
         <v>40907</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>24000</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:V25" si="24">-U19</f>
+        <f t="shared" ref="V19:V25" si="21">-U19</f>
         <v>-24000</v>
       </c>
       <c r="W19" s="29">
         <v>40907</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>24000</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:Y26" si="25">-X19</f>
+        <f t="shared" ref="Y19:Y26" si="22">-X19</f>
         <v>-24000</v>
       </c>
       <c r="Z19" s="29">
         <v>40907</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>24000</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19:AB27" si="26">-AA19</f>
+        <f t="shared" ref="AB19:AB27" si="23">-AA19</f>
         <v>-24000</v>
       </c>
     </row>
@@ -66944,33 +66926,33 @@
         <v>41274</v>
       </c>
       <c r="U20" s="1">
+        <f t="shared" si="18"/>
+        <v>24000</v>
+      </c>
+      <c r="V20" s="1">
         <f t="shared" si="21"/>
-        <v>24000</v>
-      </c>
-      <c r="V20" s="1">
-        <f t="shared" si="24"/>
         <v>-24000</v>
       </c>
       <c r="W20" s="29">
         <v>41274</v>
       </c>
       <c r="X20" s="1">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="Y20" s="1">
         <f t="shared" si="22"/>
-        <v>24000</v>
-      </c>
-      <c r="Y20" s="1">
-        <f t="shared" si="25"/>
         <v>-24000</v>
       </c>
       <c r="Z20" s="29">
         <v>41274</v>
       </c>
       <c r="AA20" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB20" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB20" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67018,33 +67000,33 @@
         <v>41639</v>
       </c>
       <c r="U21" s="1">
+        <f t="shared" si="18"/>
+        <v>24000</v>
+      </c>
+      <c r="V21" s="1">
         <f t="shared" si="21"/>
-        <v>24000</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="24"/>
         <v>-24000</v>
       </c>
       <c r="W21" s="29">
         <v>41639</v>
       </c>
       <c r="X21" s="1">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="Y21" s="1">
         <f t="shared" si="22"/>
-        <v>24000</v>
-      </c>
-      <c r="Y21" s="1">
-        <f t="shared" si="25"/>
         <v>-24000</v>
       </c>
       <c r="Z21" s="29">
         <v>41639</v>
       </c>
       <c r="AA21" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB21" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67092,33 +67074,33 @@
         <v>42004</v>
       </c>
       <c r="U22" s="1">
+        <f t="shared" si="18"/>
+        <v>24000</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" si="21"/>
-        <v>24000</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="24"/>
         <v>-24000</v>
       </c>
       <c r="W22" s="29">
         <v>42004</v>
       </c>
       <c r="X22" s="1">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="Y22" s="1">
         <f t="shared" si="22"/>
-        <v>24000</v>
-      </c>
-      <c r="Y22" s="1">
-        <f t="shared" si="25"/>
         <v>-24000</v>
       </c>
       <c r="Z22" s="29">
         <v>42004</v>
       </c>
       <c r="AA22" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB22" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB22" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67166,33 +67148,33 @@
         <v>42369</v>
       </c>
       <c r="U23" s="1">
+        <f t="shared" si="18"/>
+        <v>24000</v>
+      </c>
+      <c r="V23" s="1">
         <f t="shared" si="21"/>
-        <v>24000</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" si="24"/>
         <v>-24000</v>
       </c>
       <c r="W23" s="29">
         <v>42369</v>
       </c>
       <c r="X23" s="1">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="Y23" s="1">
         <f t="shared" si="22"/>
-        <v>24000</v>
-      </c>
-      <c r="Y23" s="1">
-        <f t="shared" si="25"/>
         <v>-24000</v>
       </c>
       <c r="Z23" s="29">
         <v>42369</v>
       </c>
       <c r="AA23" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB23" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB23" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67240,33 +67222,33 @@
         <v>42734</v>
       </c>
       <c r="U24" s="1">
+        <f t="shared" si="18"/>
+        <v>24000</v>
+      </c>
+      <c r="V24" s="1">
         <f t="shared" si="21"/>
-        <v>24000</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" si="24"/>
         <v>-24000</v>
       </c>
       <c r="W24" s="29">
         <v>42734</v>
       </c>
       <c r="X24" s="1">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="Y24" s="1">
         <f t="shared" si="22"/>
-        <v>24000</v>
-      </c>
-      <c r="Y24" s="1">
-        <f t="shared" si="25"/>
         <v>-24000</v>
       </c>
       <c r="Z24" s="29">
         <v>42734</v>
       </c>
       <c r="AA24" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB24" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB24" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67314,33 +67296,33 @@
         <v>43098</v>
       </c>
       <c r="U25" s="1">
+        <f t="shared" si="18"/>
+        <v>24000</v>
+      </c>
+      <c r="V25" s="1">
         <f t="shared" si="21"/>
-        <v>24000</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" si="24"/>
         <v>-24000</v>
       </c>
       <c r="W25" s="29">
         <v>43098</v>
       </c>
       <c r="X25" s="1">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="Y25" s="1">
         <f t="shared" si="22"/>
-        <v>24000</v>
-      </c>
-      <c r="Y25" s="1">
-        <f t="shared" si="25"/>
         <v>-24000</v>
       </c>
       <c r="Z25" s="29">
         <v>43098</v>
       </c>
       <c r="AA25" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB25" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB25" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67395,22 +67377,22 @@
         <v>43462</v>
       </c>
       <c r="X26" s="1">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="Y26" s="1">
         <f t="shared" si="22"/>
-        <v>24000</v>
-      </c>
-      <c r="Y26" s="1">
-        <f t="shared" si="25"/>
         <v>-24000</v>
       </c>
       <c r="Z26" s="29">
         <v>43462</v>
       </c>
       <c r="AA26" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB26" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67469,11 +67451,11 @@
         <v>43830</v>
       </c>
       <c r="AA27" s="1">
+        <f t="shared" si="20"/>
+        <v>24000</v>
+      </c>
+      <c r="AB27" s="1">
         <f t="shared" si="23"/>
-        <v>24000</v>
-      </c>
-      <c r="AB27" s="1">
-        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67618,7 +67600,7 @@
         <v>40543</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ref="U30:U40" si="27">VLOOKUP(T30,L:M,2)</f>
+        <f t="shared" ref="U30:U40" si="24">VLOOKUP(T30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V30" s="1">
@@ -67629,7 +67611,7 @@
         <v>40543</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" ref="X30:X41" si="28">VLOOKUP(W30,L:M,2)</f>
+        <f t="shared" ref="X30:X41" si="25">VLOOKUP(W30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y30" s="1">
@@ -67643,7 +67625,7 @@
         <v>8000</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" ref="AB30:AB42" si="29">-AA30</f>
+        <f t="shared" ref="AB30:AB42" si="26">-AA30</f>
         <v>-8000</v>
       </c>
     </row>
@@ -67692,22 +67674,22 @@
         <v>40907</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>24000</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V40" si="30">-U31</f>
+        <f t="shared" ref="V31:V40" si="27">-U31</f>
         <v>-24000</v>
       </c>
       <c r="W31" s="29">
         <v>40907</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:Y41" si="31">-X31</f>
+        <f t="shared" ref="Y31:Y41" si="28">-X31</f>
         <v>-24000</v>
       </c>
       <c r="Z31" s="29">
@@ -67717,7 +67699,7 @@
         <v>24000</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67765,22 +67747,22 @@
         <v>41274</v>
       </c>
       <c r="U32" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V32" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V32" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W32" s="29">
         <v>41274</v>
       </c>
       <c r="X32" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y32" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y32" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z32" s="29">
@@ -67790,7 +67772,7 @@
         <v>24000</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67838,22 +67820,22 @@
         <v>41639</v>
       </c>
       <c r="U33" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V33" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V33" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W33" s="29">
         <v>41639</v>
       </c>
       <c r="X33" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y33" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y33" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z33" s="29">
@@ -67863,7 +67845,7 @@
         <v>24000</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67911,22 +67893,22 @@
         <v>42004</v>
       </c>
       <c r="U34" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V34" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V34" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W34" s="29">
         <v>42004</v>
       </c>
       <c r="X34" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y34" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y34" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z34" s="29">
@@ -67936,7 +67918,7 @@
         <v>24000</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -67984,22 +67966,22 @@
         <v>42369</v>
       </c>
       <c r="U35" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V35" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V35" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W35" s="29">
         <v>42369</v>
       </c>
       <c r="X35" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y35" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y35" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z35" s="29">
@@ -68009,7 +67991,7 @@
         <v>24000</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -68057,22 +68039,22 @@
         <v>42734</v>
       </c>
       <c r="U36" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V36" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V36" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W36" s="29">
         <v>42734</v>
       </c>
       <c r="X36" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y36" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y36" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z36" s="29">
@@ -68082,7 +68064,7 @@
         <v>24000</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -68130,22 +68112,22 @@
         <v>43098</v>
       </c>
       <c r="U37" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V37" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V37" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W37" s="29">
         <v>43098</v>
       </c>
       <c r="X37" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y37" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y37" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z37" s="29">
@@ -68155,7 +68137,7 @@
         <v>24000</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -68203,22 +68185,22 @@
         <v>43462</v>
       </c>
       <c r="U38" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V38" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V38" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W38" s="29">
         <v>43462</v>
       </c>
       <c r="X38" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y38" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y38" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z38" s="29">
@@ -68228,7 +68210,7 @@
         <v>24000</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -68276,22 +68258,22 @@
         <v>43830</v>
       </c>
       <c r="U39" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V39" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V39" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W39" s="30">
         <v>43830</v>
       </c>
       <c r="X39" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y39" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y39" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z39" s="30">
@@ -68301,7 +68283,7 @@
         <v>24000</v>
       </c>
       <c r="AB39" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -68349,22 +68331,22 @@
         <v>44196</v>
       </c>
       <c r="U40" s="1">
+        <f t="shared" si="24"/>
+        <v>24000</v>
+      </c>
+      <c r="V40" s="1">
         <f t="shared" si="27"/>
-        <v>24000</v>
-      </c>
-      <c r="V40" s="1">
-        <f t="shared" si="30"/>
         <v>-24000</v>
       </c>
       <c r="W40" s="24">
         <v>44196</v>
       </c>
       <c r="X40" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y40" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y40" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z40" s="24">
@@ -68374,7 +68356,7 @@
         <v>24000</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -68429,11 +68411,11 @@
         <v>44561</v>
       </c>
       <c r="X41" s="1">
+        <f t="shared" si="25"/>
+        <v>24000</v>
+      </c>
+      <c r="Y41" s="1">
         <f t="shared" si="28"/>
-        <v>24000</v>
-      </c>
-      <c r="Y41" s="1">
-        <f t="shared" si="31"/>
         <v>-24000</v>
       </c>
       <c r="Z41" s="24">
@@ -68443,7 +68425,7 @@
         <v>24000</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -68505,7 +68487,7 @@
         <v>24000</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-24000</v>
       </c>
     </row>
@@ -69522,27 +69504,27 @@
         <v>2000</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" ref="D67:D123" si="32">C67/B67</f>
+        <f t="shared" ref="D67:D123" si="29">C67/B67</f>
         <v>1235.2541535420912</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" ref="E67:E123" si="33">E66+D67</f>
+        <f t="shared" ref="E67:E123" si="30">E66+D67</f>
         <v>103655.75536714398</v>
       </c>
       <c r="F67" s="28">
-        <f t="shared" ref="F67:F123" si="34">E67*B67</f>
+        <f t="shared" ref="F67:F123" si="31">E67*B67</f>
         <v>167829.03351494283</v>
       </c>
       <c r="G67" s="28">
-        <f t="shared" ref="G67:G123" si="35">G66+C67</f>
+        <f t="shared" ref="G67:G123" si="32">G66+C67</f>
         <v>130000</v>
       </c>
       <c r="H67" s="28">
-        <f t="shared" ref="H67:H123" si="36">F67</f>
+        <f t="shared" ref="H67:H123" si="33">F67</f>
         <v>167829.03351494283</v>
       </c>
       <c r="I67" s="28">
-        <f t="shared" ref="I67:I123" si="37">H67-G67</f>
+        <f t="shared" ref="I67:I123" si="34">H67-G67</f>
         <v>37829.033514942828</v>
       </c>
       <c r="J67" s="6" t="e">
@@ -69560,31 +69542,31 @@
         <v>1.56416</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ref="C68:C123" si="38">C67</f>
+        <f t="shared" ref="C68:C123" si="35">C67</f>
         <v>2000</v>
       </c>
       <c r="D68" s="28">
+        <f t="shared" si="29"/>
+        <v>1278.6415711947627</v>
+      </c>
+      <c r="E68" s="28">
+        <f t="shared" si="30"/>
+        <v>104934.39693833874</v>
+      </c>
+      <c r="F68" s="28">
+        <f t="shared" si="31"/>
+        <v>164134.18631507194</v>
+      </c>
+      <c r="G68" s="28">
         <f t="shared" si="32"/>
-        <v>1278.6415711947627</v>
-      </c>
-      <c r="E68" s="28">
+        <v>132000</v>
+      </c>
+      <c r="H68" s="28">
         <f t="shared" si="33"/>
-        <v>104934.39693833874</v>
-      </c>
-      <c r="F68" s="28">
+        <v>164134.18631507194</v>
+      </c>
+      <c r="I68" s="28">
         <f t="shared" si="34"/>
-        <v>164134.18631507194</v>
-      </c>
-      <c r="G68" s="28">
-        <f t="shared" si="35"/>
-        <v>132000</v>
-      </c>
-      <c r="H68" s="28">
-        <f t="shared" si="36"/>
-        <v>164134.18631507194</v>
-      </c>
-      <c r="I68" s="28">
-        <f t="shared" si="37"/>
         <v>32134.186315071944</v>
       </c>
       <c r="J68" s="6" t="e">
@@ -69601,31 +69583,31 @@
         <v>1.7538099999999999</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D69" s="28">
+        <f t="shared" si="29"/>
+        <v>1140.3743849105663</v>
+      </c>
+      <c r="E69" s="28">
+        <f t="shared" si="30"/>
+        <v>106074.77132324931</v>
+      </c>
+      <c r="F69" s="28">
+        <f t="shared" si="31"/>
+        <v>186034.99469442785</v>
+      </c>
+      <c r="G69" s="28">
         <f t="shared" si="32"/>
-        <v>1140.3743849105663</v>
-      </c>
-      <c r="E69" s="28">
+        <v>134000</v>
+      </c>
+      <c r="H69" s="28">
         <f t="shared" si="33"/>
-        <v>106074.77132324931</v>
-      </c>
-      <c r="F69" s="28">
+        <v>186034.99469442785</v>
+      </c>
+      <c r="I69" s="28">
         <f t="shared" si="34"/>
-        <v>186034.99469442785</v>
-      </c>
-      <c r="G69" s="28">
-        <f t="shared" si="35"/>
-        <v>134000</v>
-      </c>
-      <c r="H69" s="28">
-        <f t="shared" si="36"/>
-        <v>186034.99469442785</v>
-      </c>
-      <c r="I69" s="28">
-        <f t="shared" si="37"/>
         <v>52034.994694427849</v>
       </c>
       <c r="J69" s="6" t="e">
@@ -69642,31 +69624,31 @@
         <v>1.73098</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D70" s="28">
+        <f t="shared" si="29"/>
+        <v>1155.4148517025037</v>
+      </c>
+      <c r="E70" s="28">
+        <f t="shared" si="30"/>
+        <v>107230.18617495181</v>
+      </c>
+      <c r="F70" s="28">
+        <f t="shared" si="31"/>
+        <v>185613.30766511807</v>
+      </c>
+      <c r="G70" s="28">
         <f t="shared" si="32"/>
-        <v>1155.4148517025037</v>
-      </c>
-      <c r="E70" s="28">
+        <v>136000</v>
+      </c>
+      <c r="H70" s="28">
         <f t="shared" si="33"/>
-        <v>107230.18617495181</v>
-      </c>
-      <c r="F70" s="28">
+        <v>185613.30766511807</v>
+      </c>
+      <c r="I70" s="28">
         <f t="shared" si="34"/>
-        <v>185613.30766511807</v>
-      </c>
-      <c r="G70" s="28">
-        <f t="shared" si="35"/>
-        <v>136000</v>
-      </c>
-      <c r="H70" s="28">
-        <f t="shared" si="36"/>
-        <v>185613.30766511807</v>
-      </c>
-      <c r="I70" s="28">
-        <f t="shared" si="37"/>
         <v>49613.307665118075</v>
       </c>
       <c r="J70" s="6" t="e">
@@ -69683,31 +69665,31 @@
         <v>1.7421500000000001</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D71" s="28">
+        <f t="shared" si="29"/>
+        <v>1148.0067732399621</v>
+      </c>
+      <c r="E71" s="28">
+        <f t="shared" si="30"/>
+        <v>108378.19294819178</v>
+      </c>
+      <c r="F71" s="28">
+        <f t="shared" si="31"/>
+        <v>188811.06884469232</v>
+      </c>
+      <c r="G71" s="28">
         <f t="shared" si="32"/>
-        <v>1148.0067732399621</v>
-      </c>
-      <c r="E71" s="28">
+        <v>138000</v>
+      </c>
+      <c r="H71" s="28">
         <f t="shared" si="33"/>
-        <v>108378.19294819178</v>
-      </c>
-      <c r="F71" s="28">
+        <v>188811.06884469232</v>
+      </c>
+      <c r="I71" s="28">
         <f t="shared" si="34"/>
-        <v>188811.06884469232</v>
-      </c>
-      <c r="G71" s="28">
-        <f t="shared" si="35"/>
-        <v>138000</v>
-      </c>
-      <c r="H71" s="28">
-        <f t="shared" si="36"/>
-        <v>188811.06884469232</v>
-      </c>
-      <c r="I71" s="28">
-        <f t="shared" si="37"/>
         <v>50811.068844692316</v>
       </c>
       <c r="J71" s="6" t="e">
@@ -69724,31 +69706,31 @@
         <v>1.75274</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D72" s="28">
+        <f t="shared" si="29"/>
+        <v>1141.0705523922545</v>
+      </c>
+      <c r="E72" s="28">
+        <f t="shared" si="30"/>
+        <v>109519.26350058403</v>
+      </c>
+      <c r="F72" s="28">
+        <f t="shared" si="31"/>
+        <v>191958.79390801364</v>
+      </c>
+      <c r="G72" s="28">
         <f t="shared" si="32"/>
-        <v>1141.0705523922545</v>
-      </c>
-      <c r="E72" s="28">
+        <v>140000</v>
+      </c>
+      <c r="H72" s="28">
         <f t="shared" si="33"/>
-        <v>109519.26350058403</v>
-      </c>
-      <c r="F72" s="28">
+        <v>191958.79390801364</v>
+      </c>
+      <c r="I72" s="28">
         <f t="shared" si="34"/>
-        <v>191958.79390801364</v>
-      </c>
-      <c r="G72" s="28">
-        <f t="shared" si="35"/>
-        <v>140000</v>
-      </c>
-      <c r="H72" s="28">
-        <f t="shared" si="36"/>
-        <v>191958.79390801364</v>
-      </c>
-      <c r="I72" s="28">
-        <f t="shared" si="37"/>
         <v>51958.793908013642</v>
       </c>
       <c r="J72" s="6" t="e">
@@ -69765,31 +69747,31 @@
         <v>1.8355599999999999</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D73" s="28">
+        <f t="shared" si="29"/>
+        <v>1089.5857395018415</v>
+      </c>
+      <c r="E73" s="28">
+        <f t="shared" si="30"/>
+        <v>110608.84924008587</v>
+      </c>
+      <c r="F73" s="28">
+        <f t="shared" si="31"/>
+        <v>203029.179311132</v>
+      </c>
+      <c r="G73" s="28">
         <f t="shared" si="32"/>
-        <v>1089.5857395018415</v>
-      </c>
-      <c r="E73" s="28">
+        <v>142000</v>
+      </c>
+      <c r="H73" s="28">
         <f t="shared" si="33"/>
-        <v>110608.84924008587</v>
-      </c>
-      <c r="F73" s="28">
+        <v>203029.179311132</v>
+      </c>
+      <c r="I73" s="28">
         <f t="shared" si="34"/>
-        <v>203029.179311132</v>
-      </c>
-      <c r="G73" s="28">
-        <f t="shared" si="35"/>
-        <v>142000</v>
-      </c>
-      <c r="H73" s="28">
-        <f t="shared" si="36"/>
-        <v>203029.179311132</v>
-      </c>
-      <c r="I73" s="28">
-        <f t="shared" si="37"/>
         <v>61029.179311132</v>
       </c>
       <c r="J73" s="6" t="e">
@@ -69806,31 +69788,31 @@
         <v>1.9024799999999999</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D74" s="28">
+        <f t="shared" si="29"/>
+        <v>1051.2594087717084</v>
+      </c>
+      <c r="E74" s="28">
+        <f t="shared" si="30"/>
+        <v>111660.10864885758</v>
+      </c>
+      <c r="F74" s="28">
+        <f t="shared" si="31"/>
+        <v>212431.12350227855</v>
+      </c>
+      <c r="G74" s="28">
         <f t="shared" si="32"/>
-        <v>1051.2594087717084</v>
-      </c>
-      <c r="E74" s="28">
+        <v>144000</v>
+      </c>
+      <c r="H74" s="28">
         <f t="shared" si="33"/>
-        <v>111660.10864885758</v>
-      </c>
-      <c r="F74" s="28">
+        <v>212431.12350227855</v>
+      </c>
+      <c r="I74" s="28">
         <f t="shared" si="34"/>
-        <v>212431.12350227855</v>
-      </c>
-      <c r="G74" s="28">
-        <f t="shared" si="35"/>
-        <v>144000</v>
-      </c>
-      <c r="H74" s="28">
-        <f t="shared" si="36"/>
-        <v>212431.12350227855</v>
-      </c>
-      <c r="I74" s="28">
-        <f t="shared" si="37"/>
         <v>68431.123502278555</v>
       </c>
       <c r="J74" s="6" t="e">
@@ -69847,31 +69829,31 @@
         <v>1.8773900000000001</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D75" s="28">
+        <f t="shared" si="29"/>
+        <v>1065.3087531093699</v>
+      </c>
+      <c r="E75" s="28">
+        <f t="shared" si="30"/>
+        <v>112725.41740196696</v>
+      </c>
+      <c r="F75" s="28">
+        <f t="shared" si="31"/>
+        <v>211629.57137627876</v>
+      </c>
+      <c r="G75" s="28">
         <f t="shared" si="32"/>
-        <v>1065.3087531093699</v>
-      </c>
-      <c r="E75" s="28">
+        <v>146000</v>
+      </c>
+      <c r="H75" s="28">
         <f t="shared" si="33"/>
-        <v>112725.41740196696</v>
-      </c>
-      <c r="F75" s="28">
+        <v>211629.57137627876</v>
+      </c>
+      <c r="I75" s="28">
         <f t="shared" si="34"/>
-        <v>211629.57137627876</v>
-      </c>
-      <c r="G75" s="28">
-        <f t="shared" si="35"/>
-        <v>146000</v>
-      </c>
-      <c r="H75" s="28">
-        <f t="shared" si="36"/>
-        <v>211629.57137627876</v>
-      </c>
-      <c r="I75" s="28">
-        <f t="shared" si="37"/>
         <v>65629.571376278764</v>
       </c>
       <c r="J75" s="6" t="e">
@@ -69888,31 +69870,31 @@
         <v>1.9152199999999999</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D76" s="28">
+        <f t="shared" si="29"/>
+        <v>1044.2664550286652</v>
+      </c>
+      <c r="E76" s="28">
+        <f t="shared" si="30"/>
+        <v>113769.68385699563</v>
+      </c>
+      <c r="F76" s="28">
+        <f t="shared" si="31"/>
+        <v>217893.97391659516</v>
+      </c>
+      <c r="G76" s="28">
         <f t="shared" si="32"/>
-        <v>1044.2664550286652</v>
-      </c>
-      <c r="E76" s="28">
+        <v>148000</v>
+      </c>
+      <c r="H76" s="28">
         <f t="shared" si="33"/>
-        <v>113769.68385699563</v>
-      </c>
-      <c r="F76" s="28">
+        <v>217893.97391659516</v>
+      </c>
+      <c r="I76" s="28">
         <f t="shared" si="34"/>
-        <v>217893.97391659516</v>
-      </c>
-      <c r="G76" s="28">
-        <f t="shared" si="35"/>
-        <v>148000</v>
-      </c>
-      <c r="H76" s="28">
-        <f t="shared" si="36"/>
-        <v>217893.97391659516</v>
-      </c>
-      <c r="I76" s="28">
-        <f t="shared" si="37"/>
         <v>69893.973916595161</v>
       </c>
       <c r="J76" s="6" t="e">
@@ -69929,31 +69911,31 @@
         <v>2.0240299999999998</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D77" s="28">
+        <f t="shared" si="29"/>
+        <v>988.12764632935296</v>
+      </c>
+      <c r="E77" s="28">
+        <f t="shared" si="30"/>
+        <v>114757.81150332498</v>
+      </c>
+      <c r="F77" s="28">
+        <f t="shared" si="31"/>
+        <v>232273.25321707482</v>
+      </c>
+      <c r="G77" s="28">
         <f t="shared" si="32"/>
-        <v>988.12764632935296</v>
-      </c>
-      <c r="E77" s="28">
+        <v>150000</v>
+      </c>
+      <c r="H77" s="28">
         <f t="shared" si="33"/>
-        <v>114757.81150332498</v>
-      </c>
-      <c r="F77" s="28">
+        <v>232273.25321707482</v>
+      </c>
+      <c r="I77" s="28">
         <f t="shared" si="34"/>
-        <v>232273.25321707482</v>
-      </c>
-      <c r="G77" s="28">
-        <f t="shared" si="35"/>
-        <v>150000</v>
-      </c>
-      <c r="H77" s="28">
-        <f t="shared" si="36"/>
-        <v>232273.25321707482</v>
-      </c>
-      <c r="I77" s="28">
-        <f t="shared" si="37"/>
         <v>82273.253217074816</v>
       </c>
       <c r="J77" s="6" t="e">
@@ -69970,31 +69952,31 @@
         <v>1.9521400000000002</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D78" s="28">
+        <f t="shared" si="29"/>
+        <v>1024.516684254203</v>
+      </c>
+      <c r="E78" s="28">
+        <f t="shared" si="30"/>
+        <v>115782.32818757919</v>
+      </c>
+      <c r="F78" s="28">
+        <f t="shared" si="31"/>
+        <v>226023.31414810085</v>
+      </c>
+      <c r="G78" s="28">
         <f t="shared" si="32"/>
-        <v>1024.516684254203</v>
-      </c>
-      <c r="E78" s="28">
+        <v>152000</v>
+      </c>
+      <c r="H78" s="28">
         <f t="shared" si="33"/>
-        <v>115782.32818757919</v>
-      </c>
-      <c r="F78" s="28">
+        <v>226023.31414810085</v>
+      </c>
+      <c r="I78" s="28">
         <f t="shared" si="34"/>
-        <v>226023.31414810085</v>
-      </c>
-      <c r="G78" s="28">
-        <f t="shared" si="35"/>
-        <v>152000</v>
-      </c>
-      <c r="H78" s="28">
-        <f t="shared" si="36"/>
-        <v>226023.31414810085</v>
-      </c>
-      <c r="I78" s="28">
-        <f t="shared" si="37"/>
         <v>74023.31414810085</v>
       </c>
       <c r="J78" s="6" t="e">
@@ -70011,31 +69993,31 @@
         <v>2.0017999999999998</v>
       </c>
       <c r="C79" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D79" s="16">
+        <f t="shared" si="29"/>
+        <v>999.10080927165563</v>
+      </c>
+      <c r="E79" s="16">
+        <f t="shared" si="30"/>
+        <v>116781.42899685084</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="31"/>
+        <v>233773.064565896</v>
+      </c>
+      <c r="G79" s="16">
         <f t="shared" si="32"/>
-        <v>999.10080927165563</v>
-      </c>
-      <c r="E79" s="16">
+        <v>154000</v>
+      </c>
+      <c r="H79" s="16">
         <f t="shared" si="33"/>
-        <v>116781.42899685084</v>
-      </c>
-      <c r="F79" s="16">
+        <v>233773.064565896</v>
+      </c>
+      <c r="I79" s="16">
         <f t="shared" si="34"/>
-        <v>233773.064565896</v>
-      </c>
-      <c r="G79" s="16">
-        <f t="shared" si="35"/>
-        <v>154000</v>
-      </c>
-      <c r="H79" s="16">
-        <f t="shared" si="36"/>
-        <v>233773.064565896</v>
-      </c>
-      <c r="I79" s="16">
-        <f t="shared" si="37"/>
         <v>79773.064565895998</v>
       </c>
       <c r="J79" s="31" t="e">
@@ -70053,31 +70035,31 @@
         <v>2.08507</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D80" s="16">
+        <f t="shared" si="29"/>
+        <v>959.20041053777572</v>
+      </c>
+      <c r="E80" s="16">
+        <f t="shared" si="30"/>
+        <v>117740.62940738861</v>
+      </c>
+      <c r="F80" s="16">
+        <f t="shared" si="31"/>
+        <v>245497.45415846378</v>
+      </c>
+      <c r="G80" s="16">
         <f t="shared" si="32"/>
-        <v>959.20041053777572</v>
-      </c>
-      <c r="E80" s="16">
+        <v>156000</v>
+      </c>
+      <c r="H80" s="16">
         <f t="shared" si="33"/>
-        <v>117740.62940738861</v>
-      </c>
-      <c r="F80" s="16">
+        <v>245497.45415846378</v>
+      </c>
+      <c r="I80" s="16">
         <f t="shared" si="34"/>
-        <v>245497.45415846378</v>
-      </c>
-      <c r="G80" s="16">
-        <f t="shared" si="35"/>
-        <v>156000</v>
-      </c>
-      <c r="H80" s="16">
-        <f t="shared" si="36"/>
-        <v>245497.45415846378</v>
-      </c>
-      <c r="I80" s="16">
-        <f t="shared" si="37"/>
         <v>89497.454158463777</v>
       </c>
       <c r="J80" s="31" t="e">
@@ -70094,31 +70076,31 @@
         <v>2.1146199999999999</v>
       </c>
       <c r="C81" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D81" s="16">
+        <f t="shared" si="29"/>
+        <v>945.79640786524294</v>
+      </c>
+      <c r="E81" s="16">
+        <f t="shared" si="30"/>
+        <v>118686.42581525385</v>
+      </c>
+      <c r="F81" s="16">
+        <f t="shared" si="31"/>
+        <v>250976.68975745208</v>
+      </c>
+      <c r="G81" s="16">
         <f t="shared" si="32"/>
-        <v>945.79640786524294</v>
-      </c>
-      <c r="E81" s="16">
+        <v>158000</v>
+      </c>
+      <c r="H81" s="16">
         <f t="shared" si="33"/>
-        <v>118686.42581525385</v>
-      </c>
-      <c r="F81" s="16">
+        <v>250976.68975745208</v>
+      </c>
+      <c r="I81" s="16">
         <f t="shared" si="34"/>
-        <v>250976.68975745208</v>
-      </c>
-      <c r="G81" s="16">
-        <f t="shared" si="35"/>
-        <v>158000</v>
-      </c>
-      <c r="H81" s="16">
-        <f t="shared" si="36"/>
-        <v>250976.68975745208</v>
-      </c>
-      <c r="I81" s="16">
-        <f t="shared" si="37"/>
         <v>92976.689757452084</v>
       </c>
       <c r="J81" s="31" t="e">
@@ -70135,31 +70117,31 @@
         <v>2.10263</v>
       </c>
       <c r="C82" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D82" s="16">
+        <f t="shared" si="29"/>
+        <v>951.1897005179228</v>
+      </c>
+      <c r="E82" s="16">
+        <f t="shared" si="30"/>
+        <v>119637.61551577177</v>
+      </c>
+      <c r="F82" s="16">
+        <f t="shared" si="31"/>
+        <v>251553.63951192721</v>
+      </c>
+      <c r="G82" s="16">
         <f t="shared" si="32"/>
-        <v>951.1897005179228</v>
-      </c>
-      <c r="E82" s="16">
+        <v>160000</v>
+      </c>
+      <c r="H82" s="16">
         <f t="shared" si="33"/>
-        <v>119637.61551577177</v>
-      </c>
-      <c r="F82" s="16">
+        <v>251553.63951192721</v>
+      </c>
+      <c r="I82" s="16">
         <f t="shared" si="34"/>
-        <v>251553.63951192721</v>
-      </c>
-      <c r="G82" s="16">
-        <f t="shared" si="35"/>
-        <v>160000</v>
-      </c>
-      <c r="H82" s="16">
-        <f t="shared" si="36"/>
-        <v>251553.63951192721</v>
-      </c>
-      <c r="I82" s="16">
-        <f t="shared" si="37"/>
         <v>91553.639511927206</v>
       </c>
       <c r="J82" s="31" t="e">
@@ -70176,31 +70158,31 @@
         <v>2.0933999999999999</v>
       </c>
       <c r="C83" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D83" s="16">
+        <f t="shared" si="29"/>
+        <v>955.38358650998384</v>
+      </c>
+      <c r="E83" s="16">
+        <f t="shared" si="30"/>
+        <v>120592.99910228176</v>
+      </c>
+      <c r="F83" s="16">
+        <f t="shared" si="31"/>
+        <v>252449.38432071661</v>
+      </c>
+      <c r="G83" s="16">
         <f t="shared" si="32"/>
-        <v>955.38358650998384</v>
-      </c>
-      <c r="E83" s="16">
+        <v>162000</v>
+      </c>
+      <c r="H83" s="16">
         <f t="shared" si="33"/>
-        <v>120592.99910228176</v>
-      </c>
-      <c r="F83" s="16">
+        <v>252449.38432071661</v>
+      </c>
+      <c r="I83" s="16">
         <f t="shared" si="34"/>
-        <v>252449.38432071661</v>
-      </c>
-      <c r="G83" s="16">
-        <f t="shared" si="35"/>
-        <v>162000</v>
-      </c>
-      <c r="H83" s="16">
-        <f t="shared" si="36"/>
-        <v>252449.38432071661</v>
-      </c>
-      <c r="I83" s="16">
-        <f t="shared" si="37"/>
         <v>90449.384320716606</v>
       </c>
       <c r="J83" s="31" t="e">
@@ -70217,31 +70199,31 @@
         <v>2.2407399999999997</v>
       </c>
       <c r="C84" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D84" s="16">
+        <f t="shared" si="29"/>
+        <v>892.56227853298469</v>
+      </c>
+      <c r="E84" s="16">
+        <f t="shared" si="30"/>
+        <v>121485.56138081475</v>
+      </c>
+      <c r="F84" s="16">
+        <f t="shared" si="31"/>
+        <v>272217.55680844683</v>
+      </c>
+      <c r="G84" s="16">
         <f t="shared" si="32"/>
-        <v>892.56227853298469</v>
-      </c>
-      <c r="E84" s="16">
+        <v>164000</v>
+      </c>
+      <c r="H84" s="16">
         <f t="shared" si="33"/>
-        <v>121485.56138081475</v>
-      </c>
-      <c r="F84" s="16">
+        <v>272217.55680844683</v>
+      </c>
+      <c r="I84" s="16">
         <f t="shared" si="34"/>
-        <v>272217.55680844683</v>
-      </c>
-      <c r="G84" s="16">
-        <f t="shared" si="35"/>
-        <v>164000</v>
-      </c>
-      <c r="H84" s="16">
-        <f t="shared" si="36"/>
-        <v>272217.55680844683</v>
-      </c>
-      <c r="I84" s="16">
-        <f t="shared" si="37"/>
         <v>108217.55680844683</v>
       </c>
       <c r="J84" s="31" t="e">
@@ -70258,31 +70240,31 @@
         <v>2.2731599999999998</v>
       </c>
       <c r="C85" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D85" s="16">
+        <f t="shared" si="29"/>
+        <v>879.83247989582787</v>
+      </c>
+      <c r="E85" s="16">
+        <f t="shared" si="30"/>
+        <v>122365.39386071058</v>
+      </c>
+      <c r="F85" s="16">
+        <f t="shared" si="31"/>
+        <v>278156.11870841286</v>
+      </c>
+      <c r="G85" s="16">
         <f t="shared" si="32"/>
-        <v>879.83247989582787</v>
-      </c>
-      <c r="E85" s="16">
+        <v>166000</v>
+      </c>
+      <c r="H85" s="16">
         <f t="shared" si="33"/>
-        <v>122365.39386071058</v>
-      </c>
-      <c r="F85" s="16">
+        <v>278156.11870841286</v>
+      </c>
+      <c r="I85" s="16">
         <f t="shared" si="34"/>
-        <v>278156.11870841286</v>
-      </c>
-      <c r="G85" s="16">
-        <f t="shared" si="35"/>
-        <v>166000</v>
-      </c>
-      <c r="H85" s="16">
-        <f t="shared" si="36"/>
-        <v>278156.11870841286</v>
-      </c>
-      <c r="I85" s="16">
-        <f t="shared" si="37"/>
         <v>112156.11870841286</v>
       </c>
       <c r="J85" s="31" t="e">
@@ -70299,31 +70281,31 @@
         <v>2.3099499999999997</v>
       </c>
       <c r="C86" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D86" s="16">
+        <f t="shared" si="29"/>
+        <v>865.81960648498898</v>
+      </c>
+      <c r="E86" s="16">
+        <f t="shared" si="30"/>
+        <v>123231.21346719557</v>
+      </c>
+      <c r="F86" s="16">
+        <f t="shared" si="31"/>
+        <v>284657.94154854841</v>
+      </c>
+      <c r="G86" s="16">
         <f t="shared" si="32"/>
-        <v>865.81960648498898</v>
-      </c>
-      <c r="E86" s="16">
+        <v>168000</v>
+      </c>
+      <c r="H86" s="16">
         <f t="shared" si="33"/>
-        <v>123231.21346719557</v>
-      </c>
-      <c r="F86" s="16">
+        <v>284657.94154854841</v>
+      </c>
+      <c r="I86" s="16">
         <f t="shared" si="34"/>
-        <v>284657.94154854841</v>
-      </c>
-      <c r="G86" s="16">
-        <f t="shared" si="35"/>
-        <v>168000</v>
-      </c>
-      <c r="H86" s="16">
-        <f t="shared" si="36"/>
-        <v>284657.94154854841</v>
-      </c>
-      <c r="I86" s="16">
-        <f t="shared" si="37"/>
         <v>116657.94154854841</v>
       </c>
       <c r="J86" s="31" t="e">
@@ -70340,31 +70322,31 @@
         <v>2.33961</v>
       </c>
       <c r="C87" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D87" s="16">
+        <f t="shared" si="29"/>
+        <v>854.84332858895289</v>
+      </c>
+      <c r="E87" s="16">
+        <f t="shared" si="30"/>
+        <v>124086.05679578452</v>
+      </c>
+      <c r="F87" s="16">
+        <f t="shared" si="31"/>
+        <v>290312.97933998541</v>
+      </c>
+      <c r="G87" s="16">
         <f t="shared" si="32"/>
-        <v>854.84332858895289</v>
-      </c>
-      <c r="E87" s="16">
+        <v>170000</v>
+      </c>
+      <c r="H87" s="16">
         <f t="shared" si="33"/>
-        <v>124086.05679578452</v>
-      </c>
-      <c r="F87" s="16">
+        <v>290312.97933998541</v>
+      </c>
+      <c r="I87" s="16">
         <f t="shared" si="34"/>
-        <v>290312.97933998541</v>
-      </c>
-      <c r="G87" s="16">
-        <f t="shared" si="35"/>
-        <v>170000</v>
-      </c>
-      <c r="H87" s="16">
-        <f t="shared" si="36"/>
-        <v>290312.97933998541</v>
-      </c>
-      <c r="I87" s="16">
-        <f t="shared" si="37"/>
         <v>120312.97933998541</v>
       </c>
       <c r="J87" s="31" t="e">
@@ -70381,31 +70363,31 @@
         <v>2.4434499999999999</v>
       </c>
       <c r="C88" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D88" s="16">
+        <f t="shared" si="29"/>
+        <v>818.5148048865334</v>
+      </c>
+      <c r="E88" s="16">
+        <f t="shared" si="30"/>
+        <v>124904.57160067106</v>
+      </c>
+      <c r="F88" s="16">
+        <f t="shared" si="31"/>
+        <v>305198.0754776597</v>
+      </c>
+      <c r="G88" s="16">
         <f t="shared" si="32"/>
-        <v>818.5148048865334</v>
-      </c>
-      <c r="E88" s="16">
+        <v>172000</v>
+      </c>
+      <c r="H88" s="16">
         <f t="shared" si="33"/>
-        <v>124904.57160067106</v>
-      </c>
-      <c r="F88" s="16">
+        <v>305198.0754776597</v>
+      </c>
+      <c r="I88" s="16">
         <f t="shared" si="34"/>
-        <v>305198.0754776597</v>
-      </c>
-      <c r="G88" s="16">
-        <f t="shared" si="35"/>
-        <v>172000</v>
-      </c>
-      <c r="H88" s="16">
-        <f t="shared" si="36"/>
-        <v>305198.0754776597</v>
-      </c>
-      <c r="I88" s="16">
-        <f t="shared" si="37"/>
         <v>133198.0754776597</v>
       </c>
       <c r="J88" s="31" t="e">
@@ -70422,31 +70404,31 @@
         <v>2.42692</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D89" s="16">
+        <f t="shared" si="29"/>
+        <v>824.08979282382609</v>
+      </c>
+      <c r="E89" s="16">
+        <f t="shared" si="30"/>
+        <v>125728.66139349488</v>
+      </c>
+      <c r="F89" s="16">
+        <f t="shared" si="31"/>
+        <v>305133.40290910058</v>
+      </c>
+      <c r="G89" s="16">
         <f t="shared" si="32"/>
-        <v>824.08979282382609</v>
-      </c>
-      <c r="E89" s="16">
+        <v>174000</v>
+      </c>
+      <c r="H89" s="16">
         <f t="shared" si="33"/>
-        <v>125728.66139349488</v>
-      </c>
-      <c r="F89" s="16">
+        <v>305133.40290910058</v>
+      </c>
+      <c r="I89" s="16">
         <f t="shared" si="34"/>
-        <v>305133.40290910058</v>
-      </c>
-      <c r="G89" s="16">
-        <f t="shared" si="35"/>
-        <v>174000</v>
-      </c>
-      <c r="H89" s="16">
-        <f t="shared" si="36"/>
-        <v>305133.40290910058</v>
-      </c>
-      <c r="I89" s="16">
-        <f t="shared" si="37"/>
         <v>131133.40290910058</v>
       </c>
       <c r="J89" s="31" t="e">
@@ -70463,31 +70445,31 @@
         <v>2.4915799999999999</v>
       </c>
       <c r="C90" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D90" s="16">
+        <f t="shared" si="29"/>
+        <v>802.70350540620814</v>
+      </c>
+      <c r="E90" s="16">
+        <f t="shared" si="30"/>
+        <v>126531.3648989011</v>
+      </c>
+      <c r="F90" s="16">
+        <f t="shared" si="31"/>
+        <v>315263.01815480401</v>
+      </c>
+      <c r="G90" s="16">
         <f t="shared" si="32"/>
-        <v>802.70350540620814</v>
-      </c>
-      <c r="E90" s="16">
+        <v>176000</v>
+      </c>
+      <c r="H90" s="16">
         <f t="shared" si="33"/>
-        <v>126531.3648989011</v>
-      </c>
-      <c r="F90" s="16">
+        <v>315263.01815480401</v>
+      </c>
+      <c r="I90" s="16">
         <f t="shared" si="34"/>
-        <v>315263.01815480401</v>
-      </c>
-      <c r="G90" s="16">
-        <f t="shared" si="35"/>
-        <v>176000</v>
-      </c>
-      <c r="H90" s="16">
-        <f t="shared" si="36"/>
-        <v>315263.01815480401</v>
-      </c>
-      <c r="I90" s="16">
-        <f t="shared" si="37"/>
         <v>139263.01815480401</v>
       </c>
       <c r="J90" s="31" t="e">
@@ -70504,31 +70486,31 @@
         <v>2.6026100000000003</v>
       </c>
       <c r="C91" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D91" s="16">
+        <f t="shared" si="29"/>
+        <v>768.4593542636045</v>
+      </c>
+      <c r="E91" s="16">
+        <f t="shared" si="30"/>
+        <v>127299.8242531647</v>
+      </c>
+      <c r="F91" s="16">
+        <f t="shared" si="31"/>
+        <v>331311.795599529</v>
+      </c>
+      <c r="G91" s="16">
         <f t="shared" si="32"/>
-        <v>768.4593542636045</v>
-      </c>
-      <c r="E91" s="16">
+        <v>178000</v>
+      </c>
+      <c r="H91" s="16">
         <f t="shared" si="33"/>
-        <v>127299.8242531647</v>
-      </c>
-      <c r="F91" s="16">
+        <v>331311.795599529</v>
+      </c>
+      <c r="I91" s="16">
         <f t="shared" si="34"/>
-        <v>331311.795599529</v>
-      </c>
-      <c r="G91" s="16">
-        <f t="shared" si="35"/>
-        <v>178000</v>
-      </c>
-      <c r="H91" s="16">
-        <f t="shared" si="36"/>
-        <v>331311.795599529</v>
-      </c>
-      <c r="I91" s="16">
-        <f t="shared" si="37"/>
         <v>153311.795599529</v>
       </c>
       <c r="J91" s="31" t="e">
@@ -70546,31 +70528,31 @@
         <v>2.4634099999999997</v>
       </c>
       <c r="C92" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D92" s="16">
+        <f t="shared" si="29"/>
+        <v>811.88271542293012</v>
+      </c>
+      <c r="E92" s="16">
+        <f t="shared" si="30"/>
+        <v>128111.70696858763</v>
+      </c>
+      <c r="F92" s="16">
+        <f t="shared" si="31"/>
+        <v>315591.66006348841</v>
+      </c>
+      <c r="G92" s="16">
         <f t="shared" si="32"/>
-        <v>811.88271542293012</v>
-      </c>
-      <c r="E92" s="16">
+        <v>180000</v>
+      </c>
+      <c r="H92" s="16">
         <f t="shared" si="33"/>
-        <v>128111.70696858763</v>
-      </c>
-      <c r="F92" s="16">
+        <v>315591.66006348841</v>
+      </c>
+      <c r="I92" s="16">
         <f t="shared" si="34"/>
-        <v>315591.66006348841</v>
-      </c>
-      <c r="G92" s="16">
-        <f t="shared" si="35"/>
-        <v>180000</v>
-      </c>
-      <c r="H92" s="16">
-        <f t="shared" si="36"/>
-        <v>315591.66006348841</v>
-      </c>
-      <c r="I92" s="16">
-        <f t="shared" si="37"/>
         <v>135591.66006348841</v>
       </c>
       <c r="J92" s="31" t="e">
@@ -70587,31 +70569,31 @@
         <v>2.3982399999999999</v>
       </c>
       <c r="C93" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D93" s="16">
+        <f t="shared" si="29"/>
+        <v>833.9448929214758</v>
+      </c>
+      <c r="E93" s="16">
+        <f t="shared" si="30"/>
+        <v>128945.6518615091</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" si="31"/>
+        <v>309242.62012034556</v>
+      </c>
+      <c r="G93" s="16">
         <f t="shared" si="32"/>
-        <v>833.9448929214758</v>
-      </c>
-      <c r="E93" s="16">
+        <v>182000</v>
+      </c>
+      <c r="H93" s="16">
         <f t="shared" si="33"/>
-        <v>128945.6518615091</v>
-      </c>
-      <c r="F93" s="16">
+        <v>309242.62012034556</v>
+      </c>
+      <c r="I93" s="16">
         <f t="shared" si="34"/>
-        <v>309242.62012034556</v>
-      </c>
-      <c r="G93" s="16">
-        <f t="shared" si="35"/>
-        <v>182000</v>
-      </c>
-      <c r="H93" s="16">
-        <f t="shared" si="36"/>
-        <v>309242.62012034556</v>
-      </c>
-      <c r="I93" s="16">
-        <f t="shared" si="37"/>
         <v>127242.62012034556</v>
       </c>
       <c r="J93" s="31" t="e">
@@ -70628,31 +70610,31 @@
         <v>2.3119000000000001</v>
       </c>
       <c r="C94" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D94" s="16">
+        <f t="shared" si="29"/>
+        <v>865.08932047233873</v>
+      </c>
+      <c r="E94" s="16">
+        <f t="shared" si="30"/>
+        <v>129810.74118198144</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="31"/>
+        <v>300109.45253862289</v>
+      </c>
+      <c r="G94" s="16">
         <f t="shared" si="32"/>
-        <v>865.08932047233873</v>
-      </c>
-      <c r="E94" s="16">
+        <v>184000</v>
+      </c>
+      <c r="H94" s="16">
         <f t="shared" si="33"/>
-        <v>129810.74118198144</v>
-      </c>
-      <c r="F94" s="16">
+        <v>300109.45253862289</v>
+      </c>
+      <c r="I94" s="16">
         <f t="shared" si="34"/>
-        <v>300109.45253862289</v>
-      </c>
-      <c r="G94" s="16">
-        <f t="shared" si="35"/>
-        <v>184000</v>
-      </c>
-      <c r="H94" s="16">
-        <f t="shared" si="36"/>
-        <v>300109.45253862289</v>
-      </c>
-      <c r="I94" s="16">
-        <f t="shared" si="37"/>
         <v>116109.45253862289</v>
       </c>
       <c r="J94" s="31" t="e">
@@ -70669,31 +70651,31 @@
         <v>2.3675700000000002</v>
       </c>
       <c r="C95" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D95" s="16">
+        <f t="shared" si="29"/>
+        <v>844.74799055571737</v>
+      </c>
+      <c r="E95" s="16">
+        <f t="shared" si="30"/>
+        <v>130655.48917253716</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="31"/>
+        <v>309336.01650022384</v>
+      </c>
+      <c r="G95" s="16">
         <f t="shared" si="32"/>
-        <v>844.74799055571737</v>
-      </c>
-      <c r="E95" s="16">
+        <v>186000</v>
+      </c>
+      <c r="H95" s="16">
         <f t="shared" si="33"/>
-        <v>130655.48917253716</v>
-      </c>
-      <c r="F95" s="16">
+        <v>309336.01650022384</v>
+      </c>
+      <c r="I95" s="16">
         <f t="shared" si="34"/>
-        <v>309336.01650022384</v>
-      </c>
-      <c r="G95" s="16">
-        <f t="shared" si="35"/>
-        <v>186000</v>
-      </c>
-      <c r="H95" s="16">
-        <f t="shared" si="36"/>
-        <v>309336.01650022384</v>
-      </c>
-      <c r="I95" s="16">
-        <f t="shared" si="37"/>
         <v>123336.01650022384</v>
       </c>
       <c r="J95" s="31" t="e">
@@ -70710,31 +70692,31 @@
         <v>2.1851400000000001</v>
       </c>
       <c r="C96" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D96" s="16">
+        <f t="shared" si="29"/>
+        <v>915.27316327557958</v>
+      </c>
+      <c r="E96" s="16">
+        <f t="shared" si="30"/>
+        <v>131570.76233581273</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="31"/>
+        <v>287500.53561047785</v>
+      </c>
+      <c r="G96" s="16">
         <f t="shared" si="32"/>
-        <v>915.27316327557958</v>
-      </c>
-      <c r="E96" s="16">
+        <v>188000</v>
+      </c>
+      <c r="H96" s="16">
         <f t="shared" si="33"/>
-        <v>131570.76233581273</v>
-      </c>
-      <c r="F96" s="16">
+        <v>287500.53561047785</v>
+      </c>
+      <c r="I96" s="16">
         <f t="shared" si="34"/>
-        <v>287500.53561047785</v>
-      </c>
-      <c r="G96" s="16">
-        <f t="shared" si="35"/>
-        <v>188000</v>
-      </c>
-      <c r="H96" s="16">
-        <f t="shared" si="36"/>
-        <v>287500.53561047785</v>
-      </c>
-      <c r="I96" s="16">
-        <f t="shared" si="37"/>
         <v>99500.535610477848</v>
       </c>
       <c r="J96" s="31" t="e">
@@ -70751,31 +70733,31 @@
         <v>2.1775900000000004</v>
       </c>
       <c r="C97" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D97" s="16">
+        <f t="shared" si="29"/>
+        <v>918.44653952305055</v>
+      </c>
+      <c r="E97" s="16">
+        <f t="shared" si="30"/>
+        <v>132489.20887533578</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="31"/>
+        <v>288507.17635484249</v>
+      </c>
+      <c r="G97" s="16">
         <f t="shared" si="32"/>
-        <v>918.44653952305055</v>
-      </c>
-      <c r="E97" s="16">
+        <v>190000</v>
+      </c>
+      <c r="H97" s="16">
         <f t="shared" si="33"/>
-        <v>132489.20887533578</v>
-      </c>
-      <c r="F97" s="16">
+        <v>288507.17635484249</v>
+      </c>
+      <c r="I97" s="16">
         <f t="shared" si="34"/>
-        <v>288507.17635484249</v>
-      </c>
-      <c r="G97" s="16">
-        <f t="shared" si="35"/>
-        <v>190000</v>
-      </c>
-      <c r="H97" s="16">
-        <f t="shared" si="36"/>
-        <v>288507.17635484249</v>
-      </c>
-      <c r="I97" s="16">
-        <f t="shared" si="37"/>
         <v>98507.176354842493</v>
       </c>
       <c r="J97" s="31" t="e">
@@ -70792,31 +70774,31 @@
         <v>2.04325</v>
       </c>
       <c r="C98" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D98" s="16">
+        <f t="shared" si="29"/>
+        <v>978.83274195521835</v>
+      </c>
+      <c r="E98" s="16">
+        <f t="shared" si="30"/>
+        <v>133468.04161729099</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="31"/>
+        <v>272708.57603452983</v>
+      </c>
+      <c r="G98" s="16">
         <f t="shared" si="32"/>
-        <v>978.83274195521835</v>
-      </c>
-      <c r="E98" s="16">
+        <v>192000</v>
+      </c>
+      <c r="H98" s="16">
         <f t="shared" si="33"/>
-        <v>133468.04161729099</v>
-      </c>
-      <c r="F98" s="16">
+        <v>272708.57603452983</v>
+      </c>
+      <c r="I98" s="16">
         <f t="shared" si="34"/>
-        <v>272708.57603452983</v>
-      </c>
-      <c r="G98" s="16">
-        <f t="shared" si="35"/>
-        <v>192000</v>
-      </c>
-      <c r="H98" s="16">
-        <f t="shared" si="36"/>
-        <v>272708.57603452983</v>
-      </c>
-      <c r="I98" s="16">
-        <f t="shared" si="37"/>
         <v>80708.576034529833</v>
       </c>
       <c r="J98" s="31" t="e">
@@ -70833,31 +70815,31 @@
         <v>2.10771</v>
       </c>
       <c r="C99" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D99" s="16">
+        <f t="shared" si="29"/>
+        <v>948.89714429404421</v>
+      </c>
+      <c r="E99" s="16">
+        <f t="shared" si="30"/>
+        <v>134416.93876158504</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" si="31"/>
+        <v>283311.9259971804</v>
+      </c>
+      <c r="G99" s="16">
         <f t="shared" si="32"/>
-        <v>948.89714429404421</v>
-      </c>
-      <c r="E99" s="16">
+        <v>194000</v>
+      </c>
+      <c r="H99" s="16">
         <f t="shared" si="33"/>
-        <v>134416.93876158504</v>
-      </c>
-      <c r="F99" s="16">
+        <v>283311.9259971804</v>
+      </c>
+      <c r="I99" s="16">
         <f t="shared" si="34"/>
-        <v>283311.9259971804</v>
-      </c>
-      <c r="G99" s="16">
-        <f t="shared" si="35"/>
-        <v>194000</v>
-      </c>
-      <c r="H99" s="16">
-        <f t="shared" si="36"/>
-        <v>283311.9259971804</v>
-      </c>
-      <c r="I99" s="16">
-        <f t="shared" si="37"/>
         <v>89311.925997180399</v>
       </c>
       <c r="J99" s="31" t="e">
@@ -70874,31 +70856,31 @@
         <v>1.88317</v>
       </c>
       <c r="C100" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D100" s="16">
+        <f t="shared" si="29"/>
+        <v>1062.0390086927894</v>
+      </c>
+      <c r="E100" s="16">
+        <f t="shared" si="30"/>
+        <v>135478.97777027782</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="31"/>
+        <v>255129.94656765409</v>
+      </c>
+      <c r="G100" s="16">
         <f t="shared" si="32"/>
-        <v>1062.0390086927894</v>
-      </c>
-      <c r="E100" s="16">
+        <v>196000</v>
+      </c>
+      <c r="H100" s="16">
         <f t="shared" si="33"/>
-        <v>135478.97777027782</v>
-      </c>
-      <c r="F100" s="16">
+        <v>255129.94656765409</v>
+      </c>
+      <c r="I100" s="16">
         <f t="shared" si="34"/>
-        <v>255129.94656765409</v>
-      </c>
-      <c r="G100" s="16">
-        <f t="shared" si="35"/>
-        <v>196000</v>
-      </c>
-      <c r="H100" s="16">
-        <f t="shared" si="36"/>
-        <v>255129.94656765409</v>
-      </c>
-      <c r="I100" s="16">
-        <f t="shared" si="37"/>
         <v>59129.946567654086</v>
       </c>
       <c r="J100" s="31" t="e">
@@ -70915,31 +70897,31 @@
         <v>1.9444000000000001</v>
       </c>
       <c r="C101" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D101" s="16">
+        <f t="shared" si="29"/>
+        <v>1028.5949393128985</v>
+      </c>
+      <c r="E101" s="16">
+        <f t="shared" si="30"/>
+        <v>136507.57270959072</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="31"/>
+        <v>265425.32437652821</v>
+      </c>
+      <c r="G101" s="16">
         <f t="shared" si="32"/>
-        <v>1028.5949393128985</v>
-      </c>
-      <c r="E101" s="16">
+        <v>198000</v>
+      </c>
+      <c r="H101" s="16">
         <f t="shared" si="33"/>
-        <v>136507.57270959072</v>
-      </c>
-      <c r="F101" s="16">
+        <v>265425.32437652821</v>
+      </c>
+      <c r="I101" s="16">
         <f t="shared" si="34"/>
-        <v>265425.32437652821</v>
-      </c>
-      <c r="G101" s="16">
-        <f t="shared" si="35"/>
-        <v>198000</v>
-      </c>
-      <c r="H101" s="16">
-        <f t="shared" si="36"/>
-        <v>265425.32437652821</v>
-      </c>
-      <c r="I101" s="16">
-        <f t="shared" si="37"/>
         <v>67425.32437652821</v>
       </c>
       <c r="J101" s="31" t="e">
@@ -70956,31 +70938,31 @@
         <v>1.8736900000000001</v>
       </c>
       <c r="C102" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D102" s="16">
+        <f t="shared" si="29"/>
+        <v>1067.4124321525971</v>
+      </c>
+      <c r="E102" s="16">
+        <f t="shared" si="30"/>
+        <v>137574.98514174332</v>
+      </c>
+      <c r="F102" s="16">
+        <f t="shared" si="31"/>
+        <v>257772.87391023306</v>
+      </c>
+      <c r="G102" s="16">
         <f t="shared" si="32"/>
-        <v>1067.4124321525971</v>
-      </c>
-      <c r="E102" s="16">
+        <v>200000</v>
+      </c>
+      <c r="H102" s="16">
         <f t="shared" si="33"/>
-        <v>137574.98514174332</v>
-      </c>
-      <c r="F102" s="16">
+        <v>257772.87391023306</v>
+      </c>
+      <c r="I102" s="16">
         <f t="shared" si="34"/>
-        <v>257772.87391023306</v>
-      </c>
-      <c r="G102" s="16">
-        <f t="shared" si="35"/>
-        <v>200000</v>
-      </c>
-      <c r="H102" s="16">
-        <f t="shared" si="36"/>
-        <v>257772.87391023306</v>
-      </c>
-      <c r="I102" s="16">
-        <f t="shared" si="37"/>
         <v>57772.873910233058</v>
       </c>
       <c r="J102" s="31" t="e">
@@ -70997,31 +70979,31 @@
         <v>1.9604600000000001</v>
       </c>
       <c r="C103" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D103" s="16">
+        <f t="shared" si="29"/>
+        <v>1020.1687359089193</v>
+      </c>
+      <c r="E103" s="16">
+        <f t="shared" si="30"/>
+        <v>138595.15387765225</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="31"/>
+        <v>271710.25537098217</v>
+      </c>
+      <c r="G103" s="16">
         <f t="shared" si="32"/>
-        <v>1020.1687359089193</v>
-      </c>
-      <c r="E103" s="16">
+        <v>202000</v>
+      </c>
+      <c r="H103" s="16">
         <f t="shared" si="33"/>
-        <v>138595.15387765225</v>
-      </c>
-      <c r="F103" s="16">
+        <v>271710.25537098217</v>
+      </c>
+      <c r="I103" s="16">
         <f t="shared" si="34"/>
-        <v>271710.25537098217</v>
-      </c>
-      <c r="G103" s="16">
-        <f t="shared" si="35"/>
-        <v>202000</v>
-      </c>
-      <c r="H103" s="16">
-        <f t="shared" si="36"/>
-        <v>271710.25537098217</v>
-      </c>
-      <c r="I103" s="16">
-        <f t="shared" si="37"/>
         <v>69710.255370982166</v>
       </c>
       <c r="J103" s="31" t="e">
@@ -71039,31 +71021,31 @@
         <v>2.2494399999999999</v>
       </c>
       <c r="C104" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D104" s="16">
+        <f t="shared" si="29"/>
+        <v>889.11017853332385</v>
+      </c>
+      <c r="E104" s="16">
+        <f t="shared" si="30"/>
+        <v>139484.26405618558</v>
+      </c>
+      <c r="F104" s="16">
+        <f t="shared" si="31"/>
+        <v>313761.48293854605</v>
+      </c>
+      <c r="G104" s="16">
         <f t="shared" si="32"/>
-        <v>889.11017853332385</v>
-      </c>
-      <c r="E104" s="16">
+        <v>204000</v>
+      </c>
+      <c r="H104" s="16">
         <f t="shared" si="33"/>
-        <v>139484.26405618558</v>
-      </c>
-      <c r="F104" s="16">
+        <v>313761.48293854605</v>
+      </c>
+      <c r="I104" s="16">
         <f t="shared" si="34"/>
-        <v>313761.48293854605</v>
-      </c>
-      <c r="G104" s="16">
-        <f t="shared" si="35"/>
-        <v>204000</v>
-      </c>
-      <c r="H104" s="16">
-        <f t="shared" si="36"/>
-        <v>313761.48293854605</v>
-      </c>
-      <c r="I104" s="16">
-        <f t="shared" si="37"/>
         <v>109761.48293854605</v>
       </c>
       <c r="J104" s="31" t="e">
@@ -71080,31 +71062,31 @@
         <v>2.4353899999999999</v>
       </c>
       <c r="C105" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D105" s="16">
+        <f t="shared" si="29"/>
+        <v>821.22370544348132</v>
+      </c>
+      <c r="E105" s="16">
+        <f t="shared" si="30"/>
+        <v>140305.48776162908</v>
+      </c>
+      <c r="F105" s="16">
+        <f t="shared" si="31"/>
+        <v>341698.58183979383</v>
+      </c>
+      <c r="G105" s="16">
         <f t="shared" si="32"/>
-        <v>821.22370544348132</v>
-      </c>
-      <c r="E105" s="16">
+        <v>206000</v>
+      </c>
+      <c r="H105" s="16">
         <f t="shared" si="33"/>
-        <v>140305.48776162908</v>
-      </c>
-      <c r="F105" s="16">
+        <v>341698.58183979383</v>
+      </c>
+      <c r="I105" s="16">
         <f t="shared" si="34"/>
-        <v>341698.58183979383</v>
-      </c>
-      <c r="G105" s="16">
-        <f t="shared" si="35"/>
-        <v>206000</v>
-      </c>
-      <c r="H105" s="16">
-        <f t="shared" si="36"/>
-        <v>341698.58183979383</v>
-      </c>
-      <c r="I105" s="16">
-        <f t="shared" si="37"/>
         <v>135698.58183979383</v>
       </c>
       <c r="J105" s="31" t="e">
@@ -71121,31 +71103,31 @@
         <v>2.42089</v>
       </c>
       <c r="C106" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D106" s="16">
+        <f t="shared" si="29"/>
+        <v>826.14245174295399</v>
+      </c>
+      <c r="E106" s="16">
+        <f t="shared" si="30"/>
+        <v>141131.63021337203</v>
+      </c>
+      <c r="F106" s="16">
+        <f t="shared" si="31"/>
+        <v>341664.15226725023</v>
+      </c>
+      <c r="G106" s="16">
         <f t="shared" si="32"/>
-        <v>826.14245174295399</v>
-      </c>
-      <c r="E106" s="16">
+        <v>208000</v>
+      </c>
+      <c r="H106" s="16">
         <f t="shared" si="33"/>
-        <v>141131.63021337203</v>
-      </c>
-      <c r="F106" s="16">
+        <v>341664.15226725023</v>
+      </c>
+      <c r="I106" s="16">
         <f t="shared" si="34"/>
-        <v>341664.15226725023</v>
-      </c>
-      <c r="G106" s="16">
-        <f t="shared" si="35"/>
-        <v>208000</v>
-      </c>
-      <c r="H106" s="16">
-        <f t="shared" si="36"/>
-        <v>341664.15226725023</v>
-      </c>
-      <c r="I106" s="16">
-        <f t="shared" si="37"/>
         <v>133664.15226725023</v>
       </c>
       <c r="J106" s="31" t="e">
@@ -71162,31 +71144,31 @@
         <v>2.2623000000000002</v>
       </c>
       <c r="C107" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D107" s="16">
+        <f t="shared" si="29"/>
+        <v>884.05604915351626</v>
+      </c>
+      <c r="E107" s="16">
+        <f t="shared" si="30"/>
+        <v>142015.68626252556</v>
+      </c>
+      <c r="F107" s="16">
+        <f t="shared" si="31"/>
+        <v>321282.08703171159</v>
+      </c>
+      <c r="G107" s="16">
         <f t="shared" si="32"/>
-        <v>884.05604915351626</v>
-      </c>
-      <c r="E107" s="16">
+        <v>210000</v>
+      </c>
+      <c r="H107" s="16">
         <f t="shared" si="33"/>
-        <v>142015.68626252556</v>
-      </c>
-      <c r="F107" s="16">
+        <v>321282.08703171159</v>
+      </c>
+      <c r="I107" s="16">
         <f t="shared" si="34"/>
-        <v>321282.08703171159</v>
-      </c>
-      <c r="G107" s="16">
-        <f t="shared" si="35"/>
-        <v>210000</v>
-      </c>
-      <c r="H107" s="16">
-        <f t="shared" si="36"/>
-        <v>321282.08703171159</v>
-      </c>
-      <c r="I107" s="16">
-        <f t="shared" si="37"/>
         <v>111282.08703171159</v>
       </c>
       <c r="J107" s="31" t="e">
@@ -71203,31 +71185,31 @@
         <v>2.3454800000000002</v>
       </c>
       <c r="C108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D108" s="16">
+        <f t="shared" si="29"/>
+        <v>852.70392414345883</v>
+      </c>
+      <c r="E108" s="16">
+        <f t="shared" si="30"/>
+        <v>142868.39018666901</v>
+      </c>
+      <c r="F108" s="16">
+        <f t="shared" si="31"/>
+        <v>335094.9518150285</v>
+      </c>
+      <c r="G108" s="16">
         <f t="shared" si="32"/>
-        <v>852.70392414345883</v>
-      </c>
-      <c r="E108" s="16">
+        <v>212000</v>
+      </c>
+      <c r="H108" s="16">
         <f t="shared" si="33"/>
-        <v>142868.39018666901</v>
-      </c>
-      <c r="F108" s="16">
+        <v>335094.9518150285</v>
+      </c>
+      <c r="I108" s="16">
         <f t="shared" si="34"/>
-        <v>335094.9518150285</v>
-      </c>
-      <c r="G108" s="16">
-        <f t="shared" si="35"/>
-        <v>212000</v>
-      </c>
-      <c r="H108" s="16">
-        <f t="shared" si="36"/>
-        <v>335094.9518150285</v>
-      </c>
-      <c r="I108" s="16">
-        <f t="shared" si="37"/>
         <v>123094.9518150285</v>
       </c>
       <c r="J108" s="31" t="e">
@@ -71244,31 +71226,31 @@
         <v>2.3299000000000003</v>
       </c>
       <c r="C109" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D109" s="16">
+        <f t="shared" si="29"/>
+        <v>858.40594016910586</v>
+      </c>
+      <c r="E109" s="16">
+        <f t="shared" si="30"/>
+        <v>143726.79612683813</v>
+      </c>
+      <c r="F109" s="16">
+        <f t="shared" si="31"/>
+        <v>334869.06229592022</v>
+      </c>
+      <c r="G109" s="16">
         <f t="shared" si="32"/>
-        <v>858.40594016910586</v>
-      </c>
-      <c r="E109" s="16">
+        <v>214000</v>
+      </c>
+      <c r="H109" s="16">
         <f t="shared" si="33"/>
-        <v>143726.79612683813</v>
-      </c>
-      <c r="F109" s="16">
+        <v>334869.06229592022</v>
+      </c>
+      <c r="I109" s="16">
         <f t="shared" si="34"/>
-        <v>334869.06229592022</v>
-      </c>
-      <c r="G109" s="16">
-        <f t="shared" si="35"/>
-        <v>214000</v>
-      </c>
-      <c r="H109" s="16">
-        <f t="shared" si="36"/>
-        <v>334869.06229592022</v>
-      </c>
-      <c r="I109" s="16">
-        <f t="shared" si="37"/>
         <v>120869.06229592022</v>
       </c>
       <c r="J109" s="31" t="e">
@@ -71285,31 +71267,31 @@
         <v>2.24383</v>
       </c>
       <c r="C110" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D110" s="16">
+        <f t="shared" si="29"/>
+        <v>891.33312238449435</v>
+      </c>
+      <c r="E110" s="16">
+        <f t="shared" si="30"/>
+        <v>144618.12924922263</v>
+      </c>
+      <c r="F110" s="16">
+        <f t="shared" si="31"/>
+        <v>324498.4969532832</v>
+      </c>
+      <c r="G110" s="16">
         <f t="shared" si="32"/>
-        <v>891.33312238449435</v>
-      </c>
-      <c r="E110" s="16">
+        <v>216000</v>
+      </c>
+      <c r="H110" s="16">
         <f t="shared" si="33"/>
-        <v>144618.12924922263</v>
-      </c>
-      <c r="F110" s="16">
+        <v>324498.4969532832</v>
+      </c>
+      <c r="I110" s="16">
         <f t="shared" si="34"/>
-        <v>324498.4969532832</v>
-      </c>
-      <c r="G110" s="16">
-        <f t="shared" si="35"/>
-        <v>216000</v>
-      </c>
-      <c r="H110" s="16">
-        <f t="shared" si="36"/>
-        <v>324498.4969532832</v>
-      </c>
-      <c r="I110" s="16">
-        <f t="shared" si="37"/>
         <v>108498.4969532832</v>
       </c>
       <c r="J110" s="31" t="e">
@@ -71326,31 +71308,31 @@
         <v>2.2523499999999999</v>
       </c>
       <c r="C111" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D111" s="16">
+        <f t="shared" si="29"/>
+        <v>887.96146247252875</v>
+      </c>
+      <c r="E111" s="16">
+        <f t="shared" si="30"/>
+        <v>145506.09071169517</v>
+      </c>
+      <c r="F111" s="16">
+        <f t="shared" si="31"/>
+        <v>327730.64341448661</v>
+      </c>
+      <c r="G111" s="16">
         <f t="shared" si="32"/>
-        <v>887.96146247252875</v>
-      </c>
-      <c r="E111" s="16">
+        <v>218000</v>
+      </c>
+      <c r="H111" s="16">
         <f t="shared" si="33"/>
-        <v>145506.09071169517</v>
-      </c>
-      <c r="F111" s="16">
+        <v>327730.64341448661</v>
+      </c>
+      <c r="I111" s="16">
         <f t="shared" si="34"/>
-        <v>327730.64341448661</v>
-      </c>
-      <c r="G111" s="16">
-        <f t="shared" si="35"/>
-        <v>218000</v>
-      </c>
-      <c r="H111" s="16">
-        <f t="shared" si="36"/>
-        <v>327730.64341448661</v>
-      </c>
-      <c r="I111" s="16">
-        <f t="shared" si="37"/>
         <v>109730.64341448661</v>
       </c>
       <c r="J111" s="31" t="e">
@@ -71367,31 +71349,31 @@
         <v>2.25983</v>
       </c>
       <c r="C112" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D112" s="16">
+        <f t="shared" si="29"/>
+        <v>885.0223246881402</v>
+      </c>
+      <c r="E112" s="16">
+        <f t="shared" si="30"/>
+        <v>146391.11303638332</v>
+      </c>
+      <c r="F112" s="16">
+        <f t="shared" si="31"/>
+        <v>330819.02897301014</v>
+      </c>
+      <c r="G112" s="16">
         <f t="shared" si="32"/>
-        <v>885.0223246881402</v>
-      </c>
-      <c r="E112" s="16">
+        <v>220000</v>
+      </c>
+      <c r="H112" s="16">
         <f t="shared" si="33"/>
-        <v>146391.11303638332</v>
-      </c>
-      <c r="F112" s="16">
+        <v>330819.02897301014</v>
+      </c>
+      <c r="I112" s="16">
         <f t="shared" si="34"/>
-        <v>330819.02897301014</v>
-      </c>
-      <c r="G112" s="16">
-        <f t="shared" si="35"/>
-        <v>220000</v>
-      </c>
-      <c r="H112" s="16">
-        <f t="shared" si="36"/>
-        <v>330819.02897301014</v>
-      </c>
-      <c r="I112" s="16">
-        <f t="shared" si="37"/>
         <v>110819.02897301014</v>
       </c>
       <c r="J112" s="31" t="e">
@@ -71408,31 +71390,31 @@
         <v>2.2531300000000001</v>
       </c>
       <c r="C113" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D113" s="16">
+        <f t="shared" si="29"/>
+        <v>887.65406345838892</v>
+      </c>
+      <c r="E113" s="16">
+        <f t="shared" si="30"/>
+        <v>147278.7670998417</v>
+      </c>
+      <c r="F113" s="16">
+        <f t="shared" si="31"/>
+        <v>331838.20851566637</v>
+      </c>
+      <c r="G113" s="16">
         <f t="shared" si="32"/>
-        <v>887.65406345838892</v>
-      </c>
-      <c r="E113" s="16">
+        <v>222000</v>
+      </c>
+      <c r="H113" s="16">
         <f t="shared" si="33"/>
-        <v>147278.7670998417</v>
-      </c>
-      <c r="F113" s="16">
+        <v>331838.20851566637</v>
+      </c>
+      <c r="I113" s="16">
         <f t="shared" si="34"/>
-        <v>331838.20851566637</v>
-      </c>
-      <c r="G113" s="16">
-        <f t="shared" si="35"/>
-        <v>222000</v>
-      </c>
-      <c r="H113" s="16">
-        <f t="shared" si="36"/>
-        <v>331838.20851566637</v>
-      </c>
-      <c r="I113" s="16">
-        <f t="shared" si="37"/>
         <v>109838.20851566637</v>
       </c>
       <c r="J113" s="31" t="e">
@@ -71449,31 +71431,31 @@
         <v>2.4450100000000003</v>
       </c>
       <c r="C114" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D114" s="16">
+        <f t="shared" si="29"/>
+        <v>817.99256444758907</v>
+      </c>
+      <c r="E114" s="16">
+        <f t="shared" si="30"/>
+        <v>148096.7596642893</v>
+      </c>
+      <c r="F114" s="16">
+        <f t="shared" si="31"/>
+        <v>362098.05834678403</v>
+      </c>
+      <c r="G114" s="16">
         <f t="shared" si="32"/>
-        <v>817.99256444758907</v>
-      </c>
-      <c r="E114" s="16">
+        <v>224000</v>
+      </c>
+      <c r="H114" s="16">
         <f t="shared" si="33"/>
-        <v>148096.7596642893</v>
-      </c>
-      <c r="F114" s="16">
+        <v>362098.05834678403</v>
+      </c>
+      <c r="I114" s="16">
         <f t="shared" si="34"/>
-        <v>362098.05834678403</v>
-      </c>
-      <c r="G114" s="16">
-        <f t="shared" si="35"/>
-        <v>224000</v>
-      </c>
-      <c r="H114" s="16">
-        <f t="shared" si="36"/>
-        <v>362098.05834678403</v>
-      </c>
-      <c r="I114" s="16">
-        <f t="shared" si="37"/>
         <v>138098.05834678403</v>
       </c>
       <c r="J114" s="31" t="e">
@@ -71490,31 +71472,31 @@
         <v>2.3811999999999998</v>
       </c>
       <c r="C115" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D115" s="16">
+        <f t="shared" si="29"/>
+        <v>839.91264908449534</v>
+      </c>
+      <c r="E115" s="16">
+        <f t="shared" si="30"/>
+        <v>148936.6723133738</v>
+      </c>
+      <c r="F115" s="16">
+        <f t="shared" si="31"/>
+        <v>354648.00411260565</v>
+      </c>
+      <c r="G115" s="16">
         <f t="shared" si="32"/>
-        <v>839.91264908449534</v>
-      </c>
-      <c r="E115" s="16">
+        <v>226000</v>
+      </c>
+      <c r="H115" s="16">
         <f t="shared" si="33"/>
-        <v>148936.6723133738</v>
-      </c>
-      <c r="F115" s="16">
+        <v>354648.00411260565</v>
+      </c>
+      <c r="I115" s="16">
         <f t="shared" si="34"/>
-        <v>354648.00411260565</v>
-      </c>
-      <c r="G115" s="16">
-        <f t="shared" si="35"/>
-        <v>226000</v>
-      </c>
-      <c r="H115" s="16">
-        <f t="shared" si="36"/>
-        <v>354648.00411260565</v>
-      </c>
-      <c r="I115" s="16">
-        <f t="shared" si="37"/>
         <v>128648.00411260565</v>
       </c>
       <c r="J115" s="31" t="e">
@@ -71532,31 +71514,31 @@
         <v>2.3709600000000002</v>
       </c>
       <c r="C116" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D116" s="16">
+        <f t="shared" si="29"/>
+        <v>843.540169382866</v>
+      </c>
+      <c r="E116" s="16">
+        <f t="shared" si="30"/>
+        <v>149780.21248275667</v>
+      </c>
+      <c r="F116" s="16">
+        <f t="shared" si="31"/>
+        <v>355122.89258811681</v>
+      </c>
+      <c r="G116" s="16">
         <f t="shared" si="32"/>
-        <v>843.540169382866</v>
-      </c>
-      <c r="E116" s="16">
+        <v>228000</v>
+      </c>
+      <c r="H116" s="16">
         <f t="shared" si="33"/>
-        <v>149780.21248275667</v>
-      </c>
-      <c r="F116" s="16">
+        <v>355122.89258811681</v>
+      </c>
+      <c r="I116" s="16">
         <f t="shared" si="34"/>
-        <v>355122.89258811681</v>
-      </c>
-      <c r="G116" s="16">
-        <f t="shared" si="35"/>
-        <v>228000</v>
-      </c>
-      <c r="H116" s="16">
-        <f t="shared" si="36"/>
-        <v>355122.89258811681</v>
-      </c>
-      <c r="I116" s="16">
-        <f t="shared" si="37"/>
         <v>127122.89258811681</v>
       </c>
       <c r="J116" s="31" t="e">
@@ -71573,31 +71555,31 @@
         <v>2.1931400000000001</v>
       </c>
       <c r="C117" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D117" s="16">
+        <f t="shared" si="29"/>
+        <v>911.93448662648075</v>
+      </c>
+      <c r="E117" s="16">
+        <f t="shared" si="30"/>
+        <v>150692.14696938315</v>
+      </c>
+      <c r="F117" s="16">
+        <f t="shared" si="31"/>
+        <v>330488.97520443297</v>
+      </c>
+      <c r="G117" s="16">
         <f t="shared" si="32"/>
-        <v>911.93448662648075</v>
-      </c>
-      <c r="E117" s="16">
+        <v>230000</v>
+      </c>
+      <c r="H117" s="16">
         <f t="shared" si="33"/>
-        <v>150692.14696938315</v>
-      </c>
-      <c r="F117" s="16">
+        <v>330488.97520443297</v>
+      </c>
+      <c r="I117" s="16">
         <f t="shared" si="34"/>
-        <v>330488.97520443297</v>
-      </c>
-      <c r="G117" s="16">
-        <f t="shared" si="35"/>
-        <v>230000</v>
-      </c>
-      <c r="H117" s="16">
-        <f t="shared" si="36"/>
-        <v>330488.97520443297</v>
-      </c>
-      <c r="I117" s="16">
-        <f t="shared" si="37"/>
         <v>100488.97520443297</v>
       </c>
       <c r="J117" s="31" t="e">
@@ -71614,31 +71596,31 @@
         <v>2.2996099999999999</v>
       </c>
       <c r="C118" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D118" s="16">
+        <f t="shared" si="29"/>
+        <v>869.71269041272217</v>
+      </c>
+      <c r="E118" s="16">
+        <f t="shared" si="30"/>
+        <v>151561.85965979588</v>
+      </c>
+      <c r="F118" s="16">
+        <f t="shared" si="31"/>
+        <v>348533.16809226322</v>
+      </c>
+      <c r="G118" s="16">
         <f t="shared" si="32"/>
-        <v>869.71269041272217</v>
-      </c>
-      <c r="E118" s="16">
+        <v>232000</v>
+      </c>
+      <c r="H118" s="16">
         <f t="shared" si="33"/>
-        <v>151561.85965979588</v>
-      </c>
-      <c r="F118" s="16">
+        <v>348533.16809226322</v>
+      </c>
+      <c r="I118" s="16">
         <f t="shared" si="34"/>
-        <v>348533.16809226322</v>
-      </c>
-      <c r="G118" s="16">
-        <f t="shared" si="35"/>
-        <v>232000</v>
-      </c>
-      <c r="H118" s="16">
-        <f t="shared" si="36"/>
-        <v>348533.16809226322</v>
-      </c>
-      <c r="I118" s="16">
-        <f t="shared" si="37"/>
         <v>116533.16809226322</v>
       </c>
       <c r="J118" s="31" t="e">
@@ -71655,31 +71637,31 @@
         <v>2.3069999999999999</v>
       </c>
       <c r="C119" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D119" s="16">
+        <f t="shared" si="29"/>
+        <v>866.92674469007375</v>
+      </c>
+      <c r="E119" s="16">
+        <f t="shared" si="30"/>
+        <v>152428.78640448596</v>
+      </c>
+      <c r="F119" s="16">
+        <f t="shared" si="31"/>
+        <v>351653.21023514908</v>
+      </c>
+      <c r="G119" s="16">
         <f t="shared" si="32"/>
-        <v>866.92674469007375</v>
-      </c>
-      <c r="E119" s="16">
+        <v>234000</v>
+      </c>
+      <c r="H119" s="16">
         <f t="shared" si="33"/>
-        <v>152428.78640448596</v>
-      </c>
-      <c r="F119" s="16">
+        <v>351653.21023514908</v>
+      </c>
+      <c r="I119" s="16">
         <f t="shared" si="34"/>
-        <v>351653.21023514908</v>
-      </c>
-      <c r="G119" s="16">
-        <f t="shared" si="35"/>
-        <v>234000</v>
-      </c>
-      <c r="H119" s="16">
-        <f t="shared" si="36"/>
-        <v>351653.21023514908</v>
-      </c>
-      <c r="I119" s="16">
-        <f t="shared" si="37"/>
         <v>117653.21023514908</v>
       </c>
       <c r="J119" s="31" t="e">
@@ -71696,31 +71678,31 @@
         <v>2.4672199999999997</v>
       </c>
       <c r="C120" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D120" s="16">
+        <f t="shared" si="29"/>
+        <v>810.62896701550744</v>
+      </c>
+      <c r="E120" s="16">
+        <f t="shared" si="30"/>
+        <v>153239.41537150147</v>
+      </c>
+      <c r="F120" s="16">
+        <f t="shared" si="31"/>
+        <v>378075.35039287584</v>
+      </c>
+      <c r="G120" s="16">
         <f t="shared" si="32"/>
-        <v>810.62896701550744</v>
-      </c>
-      <c r="E120" s="16">
+        <v>236000</v>
+      </c>
+      <c r="H120" s="16">
         <f t="shared" si="33"/>
-        <v>153239.41537150147</v>
-      </c>
-      <c r="F120" s="16">
+        <v>378075.35039287584</v>
+      </c>
+      <c r="I120" s="16">
         <f t="shared" si="34"/>
-        <v>378075.35039287584</v>
-      </c>
-      <c r="G120" s="16">
-        <f t="shared" si="35"/>
-        <v>236000</v>
-      </c>
-      <c r="H120" s="16">
-        <f t="shared" si="36"/>
-        <v>378075.35039287584</v>
-      </c>
-      <c r="I120" s="16">
-        <f t="shared" si="37"/>
         <v>142075.35039287584</v>
       </c>
       <c r="J120" s="31" t="e">
@@ -71737,31 +71719,31 @@
         <v>2.7463200000000003</v>
       </c>
       <c r="C121" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D121" s="16">
+        <f t="shared" si="29"/>
+        <v>728.24725450785047</v>
+      </c>
+      <c r="E121" s="16">
+        <f t="shared" si="30"/>
+        <v>153967.66262600932</v>
+      </c>
+      <c r="F121" s="16">
+        <f t="shared" si="31"/>
+        <v>422844.47122306196</v>
+      </c>
+      <c r="G121" s="16">
         <f t="shared" si="32"/>
-        <v>728.24725450785047</v>
-      </c>
-      <c r="E121" s="16">
+        <v>238000</v>
+      </c>
+      <c r="H121" s="16">
         <f t="shared" si="33"/>
-        <v>153967.66262600932</v>
-      </c>
-      <c r="F121" s="16">
+        <v>422844.47122306196</v>
+      </c>
+      <c r="I121" s="16">
         <f t="shared" si="34"/>
-        <v>422844.47122306196</v>
-      </c>
-      <c r="G121" s="16">
-        <f t="shared" si="35"/>
-        <v>238000</v>
-      </c>
-      <c r="H121" s="16">
-        <f t="shared" si="36"/>
-        <v>422844.47122306196</v>
-      </c>
-      <c r="I121" s="16">
-        <f t="shared" si="37"/>
         <v>184844.47122306196</v>
       </c>
       <c r="J121" s="31" t="e">
@@ -71778,31 +71760,31 @@
         <v>2.8232600000000003</v>
       </c>
       <c r="C122" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D122" s="16">
+        <f t="shared" si="29"/>
+        <v>708.40092658841195</v>
+      </c>
+      <c r="E122" s="16">
+        <f t="shared" si="30"/>
+        <v>154676.06355259774</v>
+      </c>
+      <c r="F122" s="16">
+        <f t="shared" si="31"/>
+        <v>436690.74318550713</v>
+      </c>
+      <c r="G122" s="16">
         <f t="shared" si="32"/>
-        <v>708.40092658841195</v>
-      </c>
-      <c r="E122" s="16">
+        <v>240000</v>
+      </c>
+      <c r="H122" s="16">
         <f t="shared" si="33"/>
-        <v>154676.06355259774</v>
-      </c>
-      <c r="F122" s="16">
+        <v>436690.74318550713</v>
+      </c>
+      <c r="I122" s="16">
         <f t="shared" si="34"/>
-        <v>436690.74318550713</v>
-      </c>
-      <c r="G122" s="16">
-        <f t="shared" si="35"/>
-        <v>240000</v>
-      </c>
-      <c r="H122" s="16">
-        <f t="shared" si="36"/>
-        <v>436690.74318550713</v>
-      </c>
-      <c r="I122" s="16">
-        <f t="shared" si="37"/>
         <v>196690.74318550713</v>
       </c>
       <c r="J122" s="31" t="e">
@@ -71819,31 +71801,31 @@
         <v>2.7159299999999997</v>
       </c>
       <c r="C123" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="D123" s="16">
+        <f t="shared" si="29"/>
+        <v>736.39600431528061</v>
+      </c>
+      <c r="E123" s="16">
+        <f t="shared" si="30"/>
+        <v>155412.45955691303</v>
+      </c>
+      <c r="F123" s="16">
+        <f t="shared" si="31"/>
+        <v>422089.3612844068</v>
+      </c>
+      <c r="G123" s="16">
         <f t="shared" si="32"/>
-        <v>736.39600431528061</v>
-      </c>
-      <c r="E123" s="16">
+        <v>242000</v>
+      </c>
+      <c r="H123" s="16">
         <f t="shared" si="33"/>
-        <v>155412.45955691303</v>
-      </c>
-      <c r="F123" s="16">
+        <v>422089.3612844068</v>
+      </c>
+      <c r="I123" s="16">
         <f t="shared" si="34"/>
-        <v>422089.3612844068</v>
-      </c>
-      <c r="G123" s="16">
-        <f t="shared" si="35"/>
-        <v>242000</v>
-      </c>
-      <c r="H123" s="16">
-        <f t="shared" si="36"/>
-        <v>422089.3612844068</v>
-      </c>
-      <c r="I123" s="16">
-        <f t="shared" si="37"/>
         <v>180089.3612844068</v>
       </c>
       <c r="J123" s="31" t="e">
@@ -71864,7 +71846,7 @@
         <v>2000</v>
       </c>
       <c r="D124" s="16">
-        <f t="shared" ref="D124:D127" si="39">C124/B124</f>
+        <f t="shared" ref="D124:D127" si="36">C124/B124</f>
         <v>710.07345709913682</v>
       </c>
       <c r="E124" s="16">
@@ -71872,7 +71854,7 @@
         <v>156122.53301401218</v>
       </c>
       <c r="F124" s="16">
-        <f t="shared" ref="F124:F127" si="40">E124*B124</f>
+        <f t="shared" ref="F124:F127" si="37">E124*B124</f>
         <v>439736.28771259688</v>
       </c>
       <c r="G124" s="16">
@@ -71880,11 +71862,11 @@
         <v>244000</v>
       </c>
       <c r="H124" s="16">
-        <f t="shared" ref="H124:H127" si="41">F124</f>
+        <f t="shared" ref="H124:H127" si="38">F124</f>
         <v>439736.28771259688</v>
       </c>
       <c r="I124" s="16">
-        <f t="shared" ref="I124:I127" si="42">H124-G124</f>
+        <f t="shared" ref="I124:I127" si="39">H124-G124</f>
         <v>195736.28771259688</v>
       </c>
       <c r="J124" s="31" t="e">
@@ -71901,31 +71883,31 @@
         <v>2.9742600000000001</v>
       </c>
       <c r="C125" s="15">
-        <f t="shared" ref="C125:C127" si="43">C124</f>
+        <f t="shared" ref="C125:C127" si="40">C124</f>
         <v>2000</v>
       </c>
       <c r="D125" s="16">
+        <f t="shared" si="36"/>
+        <v>672.43616899665801</v>
+      </c>
+      <c r="E125" s="16">
+        <f t="shared" ref="E125:E127" si="41">E124+D125</f>
+        <v>156794.96918300883</v>
+      </c>
+      <c r="F125" s="16">
+        <f t="shared" si="37"/>
+        <v>466349.00504225586</v>
+      </c>
+      <c r="G125" s="16">
+        <f t="shared" ref="G125:G127" si="42">G124+C125</f>
+        <v>246000</v>
+      </c>
+      <c r="H125" s="16">
+        <f t="shared" si="38"/>
+        <v>466349.00504225586</v>
+      </c>
+      <c r="I125" s="16">
         <f t="shared" si="39"/>
-        <v>672.43616899665801</v>
-      </c>
-      <c r="E125" s="16">
-        <f t="shared" ref="E125:E127" si="44">E124+D125</f>
-        <v>156794.96918300883</v>
-      </c>
-      <c r="F125" s="16">
-        <f t="shared" si="40"/>
-        <v>466349.00504225586</v>
-      </c>
-      <c r="G125" s="16">
-        <f t="shared" ref="G125:G127" si="45">G124+C125</f>
-        <v>246000</v>
-      </c>
-      <c r="H125" s="16">
-        <f t="shared" si="41"/>
-        <v>466349.00504225586</v>
-      </c>
-      <c r="I125" s="16">
-        <f t="shared" si="42"/>
         <v>220349.00504225586</v>
       </c>
       <c r="J125" s="31" t="e">
@@ -71942,31 +71924,31 @@
         <v>3.1853200000000004</v>
       </c>
       <c r="C126" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>2000</v>
       </c>
       <c r="D126" s="16">
+        <f t="shared" si="36"/>
+        <v>627.88040134115249</v>
+      </c>
+      <c r="E126" s="16">
+        <f t="shared" si="41"/>
+        <v>157422.84958434998</v>
+      </c>
+      <c r="F126" s="16">
+        <f t="shared" si="37"/>
+        <v>501442.15123802173</v>
+      </c>
+      <c r="G126" s="16">
+        <f t="shared" si="42"/>
+        <v>248000</v>
+      </c>
+      <c r="H126" s="16">
+        <f t="shared" si="38"/>
+        <v>501442.15123802173</v>
+      </c>
+      <c r="I126" s="16">
         <f t="shared" si="39"/>
-        <v>627.88040134115249</v>
-      </c>
-      <c r="E126" s="16">
-        <f t="shared" si="44"/>
-        <v>157422.84958434998</v>
-      </c>
-      <c r="F126" s="16">
-        <f t="shared" si="40"/>
-        <v>501442.15123802173</v>
-      </c>
-      <c r="G126" s="16">
-        <f t="shared" si="45"/>
-        <v>248000</v>
-      </c>
-      <c r="H126" s="16">
-        <f t="shared" si="41"/>
-        <v>501442.15123802173</v>
-      </c>
-      <c r="I126" s="16">
-        <f t="shared" si="42"/>
         <v>253442.15123802173</v>
       </c>
       <c r="J126" s="31" t="e">
@@ -71983,31 +71965,31 @@
         <v>3.2828000000000004</v>
       </c>
       <c r="C127" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>2000</v>
       </c>
       <c r="D127" s="16">
+        <f t="shared" si="36"/>
+        <v>609.23601803338602</v>
+      </c>
+      <c r="E127" s="16">
+        <f t="shared" si="41"/>
+        <v>158032.08560238336</v>
+      </c>
+      <c r="F127" s="16">
+        <f t="shared" si="37"/>
+        <v>518787.73061550414</v>
+      </c>
+      <c r="G127" s="16">
+        <f t="shared" si="42"/>
+        <v>250000</v>
+      </c>
+      <c r="H127" s="16">
+        <f t="shared" si="38"/>
+        <v>518787.73061550414</v>
+      </c>
+      <c r="I127" s="16">
         <f t="shared" si="39"/>
-        <v>609.23601803338602</v>
-      </c>
-      <c r="E127" s="16">
-        <f t="shared" si="44"/>
-        <v>158032.08560238336</v>
-      </c>
-      <c r="F127" s="16">
-        <f t="shared" si="40"/>
-        <v>518787.73061550414</v>
-      </c>
-      <c r="G127" s="16">
-        <f t="shared" si="45"/>
-        <v>250000</v>
-      </c>
-      <c r="H127" s="16">
-        <f t="shared" si="41"/>
-        <v>518787.73061550414</v>
-      </c>
-      <c r="I127" s="16">
-        <f t="shared" si="42"/>
         <v>268787.73061550414</v>
       </c>
       <c r="J127" s="31" t="e">
@@ -72029,7 +72011,7 @@
         <v>2000</v>
       </c>
       <c r="D128" s="16">
-        <f t="shared" ref="D128:D152" si="46">C128/B128</f>
+        <f t="shared" ref="D128:D151" si="43">C128/B128</f>
         <v>610.15232452781834</v>
       </c>
       <c r="E128" s="16">
@@ -72037,7 +72019,7 @@
         <v>158642.23792691118</v>
       </c>
       <c r="F128" s="16">
-        <f t="shared" ref="F128:F152" si="47">E128*B128</f>
+        <f t="shared" ref="F128:F151" si="44">E128*B128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="G128" s="16">
@@ -72045,11 +72027,11 @@
         <v>252000</v>
       </c>
       <c r="H128" s="16">
-        <f t="shared" ref="H128:H152" si="48">F128</f>
+        <f t="shared" ref="H128:H151" si="45">F128</f>
         <v>520008.63243348437</v>
       </c>
       <c r="I128" s="16">
-        <f t="shared" ref="I128:I152" si="49">H128-G128</f>
+        <f t="shared" ref="I128:I151" si="46">H128-G128</f>
         <v>268008.63243348437</v>
       </c>
       <c r="J128" s="31" t="e">
@@ -72066,31 +72048,31 @@
         <v>3.1244299999999998</v>
       </c>
       <c r="C129" s="15">
-        <f t="shared" ref="C129:C152" si="50">C128</f>
+        <f t="shared" ref="C129:C151" si="47">C128</f>
         <v>2000</v>
       </c>
       <c r="D129" s="16">
+        <f t="shared" si="43"/>
+        <v>640.11675729653098</v>
+      </c>
+      <c r="E129" s="16">
+        <f t="shared" ref="E129:E151" si="48">E128+D129</f>
+        <v>159282.3546842077</v>
+      </c>
+      <c r="F129" s="16">
+        <f t="shared" si="44"/>
+        <v>497666.56744597905</v>
+      </c>
+      <c r="G129" s="16">
+        <f t="shared" ref="G129:G151" si="49">G128+C129</f>
+        <v>254000</v>
+      </c>
+      <c r="H129" s="16">
+        <f t="shared" si="45"/>
+        <v>497666.56744597905</v>
+      </c>
+      <c r="I129" s="16">
         <f t="shared" si="46"/>
-        <v>640.11675729653098</v>
-      </c>
-      <c r="E129" s="16">
-        <f t="shared" ref="E129:E152" si="51">E128+D129</f>
-        <v>159282.3546842077</v>
-      </c>
-      <c r="F129" s="16">
-        <f t="shared" si="47"/>
-        <v>497666.56744597905</v>
-      </c>
-      <c r="G129" s="16">
-        <f t="shared" ref="G129:G152" si="52">G128+C129</f>
-        <v>254000</v>
-      </c>
-      <c r="H129" s="16">
-        <f t="shared" si="48"/>
-        <v>497666.56744597905</v>
-      </c>
-      <c r="I129" s="16">
-        <f t="shared" si="49"/>
         <v>243666.56744597905</v>
       </c>
       <c r="J129" s="31" t="e">
@@ -72107,31 +72089,31 @@
         <v>3.1956700000000002</v>
       </c>
       <c r="C130" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D130" s="16">
+        <f t="shared" si="43"/>
+        <v>625.84684901757691</v>
+      </c>
+      <c r="E130" s="16">
+        <f t="shared" si="48"/>
+        <v>159908.20153322528</v>
+      </c>
+      <c r="F130" s="16">
+        <f t="shared" si="44"/>
+        <v>511013.84239368205</v>
+      </c>
+      <c r="G130" s="16">
+        <f t="shared" si="49"/>
+        <v>256000</v>
+      </c>
+      <c r="H130" s="16">
+        <f t="shared" si="45"/>
+        <v>511013.84239368205</v>
+      </c>
+      <c r="I130" s="16">
         <f t="shared" si="46"/>
-        <v>625.84684901757691</v>
-      </c>
-      <c r="E130" s="16">
-        <f t="shared" si="51"/>
-        <v>159908.20153322528</v>
-      </c>
-      <c r="F130" s="16">
-        <f t="shared" si="47"/>
-        <v>511013.84239368205</v>
-      </c>
-      <c r="G130" s="16">
-        <f t="shared" si="52"/>
-        <v>256000</v>
-      </c>
-      <c r="H130" s="16">
-        <f t="shared" si="48"/>
-        <v>511013.84239368205</v>
-      </c>
-      <c r="I130" s="16">
-        <f t="shared" si="49"/>
         <v>255013.84239368205</v>
       </c>
       <c r="J130" s="31">
@@ -72148,31 +72130,31 @@
         <v>3.3188599999999999</v>
       </c>
       <c r="C131" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D131" s="16">
+        <f t="shared" si="43"/>
+        <v>602.61656110833235</v>
+      </c>
+      <c r="E131" s="16">
+        <f t="shared" si="48"/>
+        <v>160510.8180943336</v>
+      </c>
+      <c r="F131" s="16">
+        <f t="shared" si="44"/>
+        <v>532712.93374055997</v>
+      </c>
+      <c r="G131" s="16">
+        <f t="shared" si="49"/>
+        <v>258000</v>
+      </c>
+      <c r="H131" s="16">
+        <f t="shared" si="45"/>
+        <v>532712.93374055997</v>
+      </c>
+      <c r="I131" s="16">
         <f t="shared" si="46"/>
-        <v>602.61656110833235</v>
-      </c>
-      <c r="E131" s="16">
-        <f t="shared" si="51"/>
-        <v>160510.8180943336</v>
-      </c>
-      <c r="F131" s="16">
-        <f t="shared" si="47"/>
-        <v>532712.93374055997</v>
-      </c>
-      <c r="G131" s="16">
-        <f t="shared" si="52"/>
-        <v>258000</v>
-      </c>
-      <c r="H131" s="16">
-        <f t="shared" si="48"/>
-        <v>532712.93374055997</v>
-      </c>
-      <c r="I131" s="16">
-        <f t="shared" si="49"/>
         <v>274712.93374055997</v>
       </c>
       <c r="J131" s="31">
@@ -72189,31 +72171,31 @@
         <v>3.2336</v>
       </c>
       <c r="C132" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D132" s="16">
+        <f t="shared" si="43"/>
+        <v>618.50569025235029</v>
+      </c>
+      <c r="E132" s="16">
+        <f t="shared" si="48"/>
+        <v>161129.32378458595</v>
+      </c>
+      <c r="F132" s="16">
+        <f t="shared" si="44"/>
+        <v>521027.78138983715</v>
+      </c>
+      <c r="G132" s="16">
+        <f t="shared" si="49"/>
+        <v>260000</v>
+      </c>
+      <c r="H132" s="16">
+        <f t="shared" si="45"/>
+        <v>521027.78138983715</v>
+      </c>
+      <c r="I132" s="16">
         <f t="shared" si="46"/>
-        <v>618.50569025235029</v>
-      </c>
-      <c r="E132" s="16">
-        <f t="shared" si="51"/>
-        <v>161129.32378458595</v>
-      </c>
-      <c r="F132" s="16">
-        <f t="shared" si="47"/>
-        <v>521027.78138983715</v>
-      </c>
-      <c r="G132" s="16">
-        <f t="shared" si="52"/>
-        <v>260000</v>
-      </c>
-      <c r="H132" s="16">
-        <f t="shared" si="48"/>
-        <v>521027.78138983715</v>
-      </c>
-      <c r="I132" s="16">
-        <f t="shared" si="49"/>
         <v>261027.78138983715</v>
       </c>
       <c r="J132" s="31">
@@ -72230,31 +72212,31 @@
         <v>2.9186799999999997</v>
       </c>
       <c r="C133" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D133" s="16">
+        <f t="shared" si="43"/>
+        <v>685.24127345238264</v>
+      </c>
+      <c r="E133" s="16">
+        <f t="shared" si="48"/>
+        <v>161814.56505803834</v>
+      </c>
+      <c r="F133" s="16">
+        <f t="shared" si="44"/>
+        <v>472284.93474359531</v>
+      </c>
+      <c r="G133" s="16">
+        <f t="shared" si="49"/>
+        <v>262000</v>
+      </c>
+      <c r="H133" s="16">
+        <f t="shared" si="45"/>
+        <v>472284.93474359531</v>
+      </c>
+      <c r="I133" s="16">
         <f t="shared" si="46"/>
-        <v>685.24127345238264</v>
-      </c>
-      <c r="E133" s="16">
-        <f t="shared" si="51"/>
-        <v>161814.56505803834</v>
-      </c>
-      <c r="F133" s="16">
-        <f t="shared" si="47"/>
-        <v>472284.93474359531</v>
-      </c>
-      <c r="G133" s="16">
-        <f t="shared" si="52"/>
-        <v>262000</v>
-      </c>
-      <c r="H133" s="16">
-        <f t="shared" si="48"/>
-        <v>472284.93474359531</v>
-      </c>
-      <c r="I133" s="16">
-        <f t="shared" si="49"/>
         <v>210284.93474359531</v>
       </c>
       <c r="J133" s="31">
@@ -72271,31 +72253,31 @@
         <v>2.91865</v>
       </c>
       <c r="C134" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D134" s="16">
+        <f t="shared" si="43"/>
+        <v>685.24831685882168</v>
+      </c>
+      <c r="E134" s="16">
+        <f t="shared" si="48"/>
+        <v>162499.81337489714</v>
+      </c>
+      <c r="F134" s="16">
+        <f t="shared" si="44"/>
+        <v>474280.08030664356</v>
+      </c>
+      <c r="G134" s="16">
+        <f t="shared" si="49"/>
+        <v>264000</v>
+      </c>
+      <c r="H134" s="16">
+        <f t="shared" si="45"/>
+        <v>474280.08030664356</v>
+      </c>
+      <c r="I134" s="16">
         <f t="shared" si="46"/>
-        <v>685.24831685882168</v>
-      </c>
-      <c r="E134" s="16">
-        <f t="shared" si="51"/>
-        <v>162499.81337489714</v>
-      </c>
-      <c r="F134" s="16">
-        <f t="shared" si="47"/>
-        <v>474280.08030664356</v>
-      </c>
-      <c r="G134" s="16">
-        <f t="shared" si="52"/>
-        <v>264000</v>
-      </c>
-      <c r="H134" s="16">
-        <f t="shared" si="48"/>
-        <v>474280.08030664356</v>
-      </c>
-      <c r="I134" s="16">
-        <f t="shared" si="49"/>
         <v>210280.08030664356</v>
       </c>
       <c r="J134" s="31">
@@ -72312,31 +72294,31 @@
         <v>2.9991300000000001</v>
       </c>
       <c r="C135" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D135" s="16">
+        <f t="shared" si="43"/>
+        <v>666.86005608293067</v>
+      </c>
+      <c r="E135" s="16">
+        <f t="shared" si="48"/>
+        <v>163166.67343098007</v>
+      </c>
+      <c r="F135" s="16">
+        <f t="shared" si="44"/>
+        <v>489358.06528705527</v>
+      </c>
+      <c r="G135" s="16">
+        <f t="shared" si="49"/>
+        <v>266000</v>
+      </c>
+      <c r="H135" s="16">
+        <f t="shared" si="45"/>
+        <v>489358.06528705527</v>
+      </c>
+      <c r="I135" s="16">
         <f t="shared" si="46"/>
-        <v>666.86005608293067</v>
-      </c>
-      <c r="E135" s="16">
-        <f t="shared" si="51"/>
-        <v>163166.67343098007</v>
-      </c>
-      <c r="F135" s="16">
-        <f t="shared" si="47"/>
-        <v>489358.06528705527</v>
-      </c>
-      <c r="G135" s="16">
-        <f t="shared" si="52"/>
-        <v>266000</v>
-      </c>
-      <c r="H135" s="16">
-        <f t="shared" si="48"/>
-        <v>489358.06528705527</v>
-      </c>
-      <c r="I135" s="16">
-        <f t="shared" si="49"/>
         <v>223358.06528705527</v>
       </c>
       <c r="J135" s="31">
@@ -72353,31 +72335,31 @@
         <v>3.0190700000000001</v>
       </c>
       <c r="C136" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D136" s="16">
+        <f t="shared" si="43"/>
+        <v>662.45565687446799</v>
+      </c>
+      <c r="E136" s="16">
+        <f t="shared" si="48"/>
+        <v>163829.12908785453</v>
+      </c>
+      <c r="F136" s="16">
+        <f t="shared" si="44"/>
+        <v>494611.60875526897</v>
+      </c>
+      <c r="G136" s="16">
+        <f t="shared" si="49"/>
+        <v>268000</v>
+      </c>
+      <c r="H136" s="16">
+        <f t="shared" si="45"/>
+        <v>494611.60875526897</v>
+      </c>
+      <c r="I136" s="16">
         <f t="shared" si="46"/>
-        <v>662.45565687446799</v>
-      </c>
-      <c r="E136" s="16">
-        <f t="shared" si="51"/>
-        <v>163829.12908785453</v>
-      </c>
-      <c r="F136" s="16">
-        <f t="shared" si="47"/>
-        <v>494611.60875526897</v>
-      </c>
-      <c r="G136" s="16">
-        <f t="shared" si="52"/>
-        <v>268000</v>
-      </c>
-      <c r="H136" s="16">
-        <f t="shared" si="48"/>
-        <v>494611.60875526897</v>
-      </c>
-      <c r="I136" s="16">
-        <f t="shared" si="49"/>
         <v>226611.60875526897</v>
       </c>
       <c r="J136" s="31">
@@ -72394,31 +72376,31 @@
         <v>2.96435</v>
       </c>
       <c r="C137" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D137" s="16">
+        <f t="shared" si="43"/>
+        <v>674.68416347597281</v>
+      </c>
+      <c r="E137" s="16">
+        <f t="shared" si="48"/>
+        <v>164503.81325133049</v>
+      </c>
+      <c r="F137" s="16">
+        <f t="shared" si="44"/>
+        <v>487646.87881158153</v>
+      </c>
+      <c r="G137" s="16">
+        <f t="shared" si="49"/>
+        <v>270000</v>
+      </c>
+      <c r="H137" s="16">
+        <f t="shared" si="45"/>
+        <v>487646.87881158153</v>
+      </c>
+      <c r="I137" s="16">
         <f t="shared" si="46"/>
-        <v>674.68416347597281</v>
-      </c>
-      <c r="E137" s="16">
-        <f t="shared" si="51"/>
-        <v>164503.81325133049</v>
-      </c>
-      <c r="F137" s="16">
-        <f t="shared" si="47"/>
-        <v>487646.87881158153</v>
-      </c>
-      <c r="G137" s="16">
-        <f t="shared" si="52"/>
-        <v>270000</v>
-      </c>
-      <c r="H137" s="16">
-        <f t="shared" si="48"/>
-        <v>487646.87881158153</v>
-      </c>
-      <c r="I137" s="16">
-        <f t="shared" si="49"/>
         <v>217646.87881158153</v>
       </c>
       <c r="J137" s="31">
@@ -72435,31 +72417,31 @@
         <v>3.07491</v>
       </c>
       <c r="C138" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D138" s="16">
+        <f t="shared" si="43"/>
+        <v>650.4255409101404</v>
+      </c>
+      <c r="E138" s="16">
+        <f t="shared" si="48"/>
+        <v>165154.23879224062</v>
+      </c>
+      <c r="F138" s="16">
+        <f t="shared" si="44"/>
+        <v>507834.42040464858</v>
+      </c>
+      <c r="G138" s="16">
+        <f t="shared" si="49"/>
+        <v>272000</v>
+      </c>
+      <c r="H138" s="16">
+        <f t="shared" si="45"/>
+        <v>507834.42040464858</v>
+      </c>
+      <c r="I138" s="16">
         <f t="shared" si="46"/>
-        <v>650.4255409101404</v>
-      </c>
-      <c r="E138" s="16">
-        <f t="shared" si="51"/>
-        <v>165154.23879224062</v>
-      </c>
-      <c r="F138" s="16">
-        <f t="shared" si="47"/>
-        <v>507834.42040464858</v>
-      </c>
-      <c r="G138" s="16">
-        <f t="shared" si="52"/>
-        <v>272000</v>
-      </c>
-      <c r="H138" s="16">
-        <f t="shared" si="48"/>
-        <v>507834.42040464858</v>
-      </c>
-      <c r="I138" s="16">
-        <f t="shared" si="49"/>
         <v>235834.42040464858</v>
       </c>
       <c r="J138" s="31">
@@ -72476,31 +72458,31 @@
         <v>2.8309000000000002</v>
       </c>
       <c r="C139" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D139" s="16">
+        <f t="shared" si="43"/>
+        <v>706.4891024055953</v>
+      </c>
+      <c r="E139" s="16">
+        <f t="shared" si="48"/>
+        <v>165860.7278946462</v>
+      </c>
+      <c r="F139" s="16">
+        <f t="shared" si="44"/>
+        <v>469535.13459695398</v>
+      </c>
+      <c r="G139" s="16">
+        <f t="shared" si="49"/>
+        <v>274000</v>
+      </c>
+      <c r="H139" s="16">
+        <f t="shared" si="45"/>
+        <v>469535.13459695398</v>
+      </c>
+      <c r="I139" s="16">
         <f t="shared" si="46"/>
-        <v>706.4891024055953</v>
-      </c>
-      <c r="E139" s="16">
-        <f t="shared" si="51"/>
-        <v>165860.7278946462</v>
-      </c>
-      <c r="F139" s="16">
-        <f t="shared" si="47"/>
-        <v>469535.13459695398</v>
-      </c>
-      <c r="G139" s="16">
-        <f t="shared" si="52"/>
-        <v>274000</v>
-      </c>
-      <c r="H139" s="16">
-        <f t="shared" si="48"/>
-        <v>469535.13459695398</v>
-      </c>
-      <c r="I139" s="16">
-        <f t="shared" si="49"/>
         <v>195535.13459695398</v>
       </c>
       <c r="J139" s="31">
@@ -72518,31 +72500,31 @@
         <v>2.8623000000000003</v>
       </c>
       <c r="C140" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D140" s="16">
+        <f t="shared" si="43"/>
+        <v>698.73877650840222</v>
+      </c>
+      <c r="E140" s="16">
+        <f t="shared" si="48"/>
+        <v>166559.4666711546</v>
+      </c>
+      <c r="F140" s="16">
+        <f t="shared" si="44"/>
+        <v>476743.16145284584</v>
+      </c>
+      <c r="G140" s="16">
+        <f t="shared" si="49"/>
+        <v>276000</v>
+      </c>
+      <c r="H140" s="16">
+        <f t="shared" si="45"/>
+        <v>476743.16145284584</v>
+      </c>
+      <c r="I140" s="16">
         <f t="shared" si="46"/>
-        <v>698.73877650840222</v>
-      </c>
-      <c r="E140" s="16">
-        <f t="shared" si="51"/>
-        <v>166559.4666711546</v>
-      </c>
-      <c r="F140" s="16">
-        <f t="shared" si="47"/>
-        <v>476743.16145284584</v>
-      </c>
-      <c r="G140" s="16">
-        <f t="shared" si="52"/>
-        <v>276000</v>
-      </c>
-      <c r="H140" s="16">
-        <f t="shared" si="48"/>
-        <v>476743.16145284584</v>
-      </c>
-      <c r="I140" s="16">
-        <f t="shared" si="49"/>
         <v>200743.16145284584</v>
       </c>
       <c r="J140" s="31">
@@ -72559,31 +72541,31 @@
         <v>2.6462500000000002</v>
       </c>
       <c r="C141" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D141" s="16">
+        <f t="shared" si="43"/>
+        <v>755.78649031648558</v>
+      </c>
+      <c r="E141" s="16">
+        <f t="shared" si="48"/>
+        <v>167315.25316147108</v>
+      </c>
+      <c r="F141" s="16">
+        <f t="shared" si="44"/>
+        <v>442757.9886785429</v>
+      </c>
+      <c r="G141" s="16">
+        <f t="shared" si="49"/>
+        <v>278000</v>
+      </c>
+      <c r="H141" s="16">
+        <f t="shared" si="45"/>
+        <v>442757.9886785429</v>
+      </c>
+      <c r="I141" s="16">
         <f t="shared" si="46"/>
-        <v>755.78649031648558</v>
-      </c>
-      <c r="E141" s="16">
-        <f t="shared" si="51"/>
-        <v>167315.25316147108</v>
-      </c>
-      <c r="F141" s="16">
-        <f t="shared" si="47"/>
-        <v>442757.9886785429</v>
-      </c>
-      <c r="G141" s="16">
-        <f t="shared" si="52"/>
-        <v>278000</v>
-      </c>
-      <c r="H141" s="16">
-        <f t="shared" si="48"/>
-        <v>442757.9886785429</v>
-      </c>
-      <c r="I141" s="16">
-        <f t="shared" si="49"/>
         <v>164757.9886785429</v>
       </c>
       <c r="J141" s="31">
@@ -72600,31 +72582,31 @@
         <v>2.5422700195312502</v>
       </c>
       <c r="C142" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D142" s="16">
+        <f t="shared" si="43"/>
+        <v>786.69849568881148</v>
+      </c>
+      <c r="E142" s="16">
+        <f t="shared" si="48"/>
+        <v>168101.95165715989</v>
+      </c>
+      <c r="F142" s="16">
+        <f t="shared" si="44"/>
+        <v>427360.55192268913</v>
+      </c>
+      <c r="G142" s="16">
+        <f t="shared" si="49"/>
+        <v>280000</v>
+      </c>
+      <c r="H142" s="16">
+        <f t="shared" si="45"/>
+        <v>427360.55192268913</v>
+      </c>
+      <c r="I142" s="16">
         <f t="shared" si="46"/>
-        <v>786.69849568881148</v>
-      </c>
-      <c r="E142" s="16">
-        <f t="shared" si="51"/>
-        <v>168101.95165715989</v>
-      </c>
-      <c r="F142" s="16">
-        <f t="shared" si="47"/>
-        <v>427360.55192268913</v>
-      </c>
-      <c r="G142" s="16">
-        <f t="shared" si="52"/>
-        <v>280000</v>
-      </c>
-      <c r="H142" s="16">
-        <f t="shared" si="48"/>
-        <v>427360.55192268913</v>
-      </c>
-      <c r="I142" s="16">
-        <f t="shared" si="49"/>
         <v>147360.55192268913</v>
       </c>
       <c r="J142" s="31">
@@ -72641,31 +72623,31 @@
         <v>2.5905100097656248</v>
       </c>
       <c r="C143" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D143" s="16">
+        <f t="shared" si="43"/>
+        <v>772.04874424744992</v>
+      </c>
+      <c r="E143" s="16">
+        <f t="shared" si="48"/>
+        <v>168874.00040140733</v>
+      </c>
+      <c r="F143" s="16">
+        <f t="shared" si="44"/>
+        <v>437469.78842900984</v>
+      </c>
+      <c r="G143" s="16">
+        <f t="shared" si="49"/>
+        <v>282000</v>
+      </c>
+      <c r="H143" s="16">
+        <f t="shared" si="45"/>
+        <v>437469.78842900984</v>
+      </c>
+      <c r="I143" s="16">
         <f t="shared" si="46"/>
-        <v>772.04874424744992</v>
-      </c>
-      <c r="E143" s="16">
-        <f t="shared" si="51"/>
-        <v>168874.00040140733</v>
-      </c>
-      <c r="F143" s="16">
-        <f t="shared" si="47"/>
-        <v>437469.78842900984</v>
-      </c>
-      <c r="G143" s="16">
-        <f t="shared" si="52"/>
-        <v>282000</v>
-      </c>
-      <c r="H143" s="16">
-        <f t="shared" si="48"/>
-        <v>437469.78842900984</v>
-      </c>
-      <c r="I143" s="16">
-        <f t="shared" si="49"/>
         <v>155469.78842900984</v>
       </c>
       <c r="J143" s="31">
@@ -72682,31 +72664,31 @@
         <v>2.8271101074218752</v>
       </c>
       <c r="C144" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D144" s="16">
+        <f t="shared" si="43"/>
+        <v>707.43618890169751</v>
+      </c>
+      <c r="E144" s="16">
+        <f t="shared" si="48"/>
+        <v>169581.43659030902</v>
+      </c>
+      <c r="F144" s="16">
+        <f t="shared" si="44"/>
+        <v>479425.39341558446</v>
+      </c>
+      <c r="G144" s="16">
+        <f t="shared" si="49"/>
+        <v>284000</v>
+      </c>
+      <c r="H144" s="16">
+        <f t="shared" si="45"/>
+        <v>479425.39341558446</v>
+      </c>
+      <c r="I144" s="16">
         <f t="shared" si="46"/>
-        <v>707.43618890169751</v>
-      </c>
-      <c r="E144" s="16">
-        <f t="shared" si="51"/>
-        <v>169581.43659030902</v>
-      </c>
-      <c r="F144" s="16">
-        <f t="shared" si="47"/>
-        <v>479425.39341558446</v>
-      </c>
-      <c r="G144" s="16">
-        <f t="shared" si="52"/>
-        <v>284000</v>
-      </c>
-      <c r="H144" s="16">
-        <f t="shared" si="48"/>
-        <v>479425.39341558446</v>
-      </c>
-      <c r="I144" s="16">
-        <f t="shared" si="49"/>
         <v>195425.39341558446</v>
       </c>
       <c r="J144" s="31">
@@ -72723,31 +72705,31 @@
         <v>2.6160200195312502</v>
       </c>
       <c r="C145" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D145" s="16">
+        <f t="shared" si="43"/>
+        <v>764.5201432206045</v>
+      </c>
+      <c r="E145" s="16">
+        <f t="shared" si="48"/>
+        <v>170345.95673352963</v>
+      </c>
+      <c r="F145" s="16">
+        <f t="shared" si="44"/>
+        <v>445628.43306111766</v>
+      </c>
+      <c r="G145" s="16">
+        <f t="shared" si="49"/>
+        <v>286000</v>
+      </c>
+      <c r="H145" s="16">
+        <f t="shared" si="45"/>
+        <v>445628.43306111766</v>
+      </c>
+      <c r="I145" s="16">
         <f t="shared" si="46"/>
-        <v>764.5201432206045</v>
-      </c>
-      <c r="E145" s="16">
-        <f t="shared" si="51"/>
-        <v>170345.95673352963</v>
-      </c>
-      <c r="F145" s="16">
-        <f t="shared" si="47"/>
-        <v>445628.43306111766</v>
-      </c>
-      <c r="G145" s="16">
-        <f t="shared" si="52"/>
-        <v>286000</v>
-      </c>
-      <c r="H145" s="16">
-        <f t="shared" si="48"/>
-        <v>445628.43306111766</v>
-      </c>
-      <c r="I145" s="16">
-        <f t="shared" si="49"/>
         <v>159628.43306111766</v>
       </c>
       <c r="J145" s="31">
@@ -72764,31 +72746,31 @@
         <v>2.5657299804687499</v>
       </c>
       <c r="C146" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D146" s="16">
+        <f t="shared" si="43"/>
+        <v>779.50525395295381</v>
+      </c>
+      <c r="E146" s="16">
+        <f t="shared" si="48"/>
+        <v>171125.46198748259</v>
+      </c>
+      <c r="F146" s="16">
+        <f t="shared" si="44"/>
+        <v>439061.72824284952</v>
+      </c>
+      <c r="G146" s="16">
+        <f t="shared" si="49"/>
+        <v>288000</v>
+      </c>
+      <c r="H146" s="16">
+        <f t="shared" si="45"/>
+        <v>439061.72824284952</v>
+      </c>
+      <c r="I146" s="16">
         <f t="shared" si="46"/>
-        <v>779.50525395295381</v>
-      </c>
-      <c r="E146" s="16">
-        <f t="shared" si="51"/>
-        <v>171125.46198748259</v>
-      </c>
-      <c r="F146" s="16">
-        <f t="shared" si="47"/>
-        <v>439061.72824284952</v>
-      </c>
-      <c r="G146" s="16">
-        <f t="shared" si="52"/>
-        <v>288000</v>
-      </c>
-      <c r="H146" s="16">
-        <f t="shared" si="48"/>
-        <v>439061.72824284952</v>
-      </c>
-      <c r="I146" s="16">
-        <f t="shared" si="49"/>
         <v>151061.72824284952</v>
       </c>
       <c r="J146" s="31">
@@ -72805,31 +72787,31 @@
         <v>2.4191298828124999</v>
       </c>
       <c r="C147" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D147" s="16">
+        <f t="shared" si="43"/>
+        <v>826.74353874492419</v>
+      </c>
+      <c r="E147" s="16">
+        <f t="shared" si="48"/>
+        <v>171952.20552622751</v>
+      </c>
+      <c r="F147" s="16">
+        <f t="shared" si="44"/>
+        <v>415974.71880401362</v>
+      </c>
+      <c r="G147" s="16">
+        <f t="shared" si="49"/>
+        <v>290000</v>
+      </c>
+      <c r="H147" s="16">
+        <f t="shared" si="45"/>
+        <v>415974.71880401362</v>
+      </c>
+      <c r="I147" s="16">
         <f t="shared" si="46"/>
-        <v>826.74353874492419</v>
-      </c>
-      <c r="E147" s="16">
-        <f t="shared" si="51"/>
-        <v>171952.20552622751</v>
-      </c>
-      <c r="F147" s="16">
-        <f t="shared" si="47"/>
-        <v>415974.71880401362</v>
-      </c>
-      <c r="G147" s="16">
-        <f t="shared" si="52"/>
-        <v>290000</v>
-      </c>
-      <c r="H147" s="16">
-        <f t="shared" si="48"/>
-        <v>415974.71880401362</v>
-      </c>
-      <c r="I147" s="16">
-        <f t="shared" si="49"/>
         <v>125974.71880401362</v>
       </c>
       <c r="J147" s="31">
@@ -72846,31 +72828,31 @@
         <v>2.1911298828125001</v>
       </c>
       <c r="C148" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D148" s="16">
+        <f t="shared" si="43"/>
+        <v>912.77108476692911</v>
+      </c>
+      <c r="E148" s="16">
+        <f t="shared" si="48"/>
+        <v>172864.97661099443</v>
+      </c>
+      <c r="F148" s="16">
+        <f t="shared" si="44"/>
+        <v>378769.61594403378</v>
+      </c>
+      <c r="G148" s="16">
+        <f t="shared" si="49"/>
+        <v>292000</v>
+      </c>
+      <c r="H148" s="16">
+        <f t="shared" si="45"/>
+        <v>378769.61594403378</v>
+      </c>
+      <c r="I148" s="16">
         <f t="shared" si="46"/>
-        <v>912.77108476692911</v>
-      </c>
-      <c r="E148" s="16">
-        <f t="shared" si="51"/>
-        <v>172864.97661099443</v>
-      </c>
-      <c r="F148" s="16">
-        <f t="shared" si="47"/>
-        <v>378769.61594403378</v>
-      </c>
-      <c r="G148" s="16">
-        <f t="shared" si="52"/>
-        <v>292000</v>
-      </c>
-      <c r="H148" s="16">
-        <f t="shared" si="48"/>
-        <v>378769.61594403378</v>
-      </c>
-      <c r="I148" s="16">
-        <f t="shared" si="49"/>
         <v>86769.61594403378</v>
       </c>
       <c r="J148" s="31">
@@ -72887,31 +72869,31 @@
         <v>2.4362099609375001</v>
       </c>
       <c r="C149" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D149" s="16">
+        <f t="shared" si="43"/>
+        <v>820.94730424234933</v>
+      </c>
+      <c r="E149" s="16">
+        <f t="shared" si="48"/>
+        <v>173685.92391523678</v>
+      </c>
+      <c r="F149" s="16">
+        <f t="shared" si="44"/>
+        <v>423135.37791693263</v>
+      </c>
+      <c r="G149" s="16">
+        <f t="shared" si="49"/>
+        <v>294000</v>
+      </c>
+      <c r="H149" s="16">
+        <f t="shared" si="45"/>
+        <v>423135.37791693263</v>
+      </c>
+      <c r="I149" s="16">
         <f t="shared" si="46"/>
-        <v>820.94730424234933</v>
-      </c>
-      <c r="E149" s="16">
-        <f t="shared" si="51"/>
-        <v>173685.92391523678</v>
-      </c>
-      <c r="F149" s="16">
-        <f t="shared" si="47"/>
-        <v>423135.37791693263</v>
-      </c>
-      <c r="G149" s="16">
-        <f t="shared" si="52"/>
-        <v>294000</v>
-      </c>
-      <c r="H149" s="16">
-        <f t="shared" si="48"/>
-        <v>423135.37791693263</v>
-      </c>
-      <c r="I149" s="16">
-        <f t="shared" si="49"/>
         <v>129135.37791693263</v>
       </c>
       <c r="J149" s="31">
@@ -72928,31 +72910,31 @@
         <v>2.4624399414062501</v>
       </c>
       <c r="C150" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D150" s="16">
+        <f t="shared" si="43"/>
+        <v>812.20255014944246</v>
+      </c>
+      <c r="E150" s="16">
+        <f t="shared" si="48"/>
+        <v>174498.12646538622</v>
+      </c>
+      <c r="F150" s="16">
+        <f t="shared" si="44"/>
+        <v>429691.15630892606</v>
+      </c>
+      <c r="G150" s="16">
+        <f t="shared" si="49"/>
+        <v>296000</v>
+      </c>
+      <c r="H150" s="16">
+        <f t="shared" si="45"/>
+        <v>429691.15630892606</v>
+      </c>
+      <c r="I150" s="16">
         <f t="shared" si="46"/>
-        <v>812.20255014944246</v>
-      </c>
-      <c r="E150" s="16">
-        <f t="shared" si="51"/>
-        <v>174498.12646538622</v>
-      </c>
-      <c r="F150" s="16">
-        <f t="shared" si="47"/>
-        <v>429691.15630892606</v>
-      </c>
-      <c r="G150" s="16">
-        <f t="shared" si="52"/>
-        <v>296000</v>
-      </c>
-      <c r="H150" s="16">
-        <f t="shared" si="48"/>
-        <v>429691.15630892606</v>
-      </c>
-      <c r="I150" s="16">
-        <f t="shared" si="49"/>
         <v>133691.15630892606</v>
       </c>
       <c r="J150" s="31">
@@ -72969,31 +72951,31 @@
         <v>2.6370249023437502</v>
       </c>
       <c r="C151" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>2000</v>
       </c>
       <c r="D151" s="16">
+        <f t="shared" si="43"/>
+        <v>758.43045631553514</v>
+      </c>
+      <c r="E151" s="16">
+        <f t="shared" si="48"/>
+        <v>175256.55692170176</v>
+      </c>
+      <c r="F151" s="16">
+        <f t="shared" si="44"/>
+        <v>462155.90490155248</v>
+      </c>
+      <c r="G151" s="16">
+        <f t="shared" si="49"/>
+        <v>298000</v>
+      </c>
+      <c r="H151" s="16">
+        <f t="shared" si="45"/>
+        <v>462155.90490155248</v>
+      </c>
+      <c r="I151" s="16">
         <f t="shared" si="46"/>
-        <v>758.43045631553514</v>
-      </c>
-      <c r="E151" s="16">
-        <f t="shared" si="51"/>
-        <v>175256.55692170176</v>
-      </c>
-      <c r="F151" s="16">
-        <f t="shared" si="47"/>
-        <v>462155.90490155248</v>
-      </c>
-      <c r="G151" s="16">
-        <f t="shared" si="52"/>
-        <v>298000</v>
-      </c>
-      <c r="H151" s="16">
-        <f t="shared" si="48"/>
-        <v>462155.90490155248</v>
-      </c>
-      <c r="I151" s="16">
-        <f t="shared" si="49"/>
         <v>164155.90490155248</v>
       </c>
       <c r="J151" s="31">
@@ -73001,49 +72983,8 @@
         <v>11.39000034</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="12.75">
-      <c r="A152" s="13">
-        <v>44985</v>
-      </c>
-      <c r="B152" s="14">
-        <f>VLOOKUP(A152,[1]CNI_ESG_300!$A:$F,6)</f>
-        <v>2.5919743652343752</v>
-      </c>
-      <c r="C152" s="15">
-        <f t="shared" si="50"/>
-        <v>2000</v>
-      </c>
-      <c r="D152" s="16">
-        <f t="shared" si="46"/>
-        <v>771.61256948586879</v>
-      </c>
-      <c r="E152" s="16">
-        <f t="shared" si="51"/>
-        <v>176028.16949118764</v>
-      </c>
-      <c r="F152" s="16">
-        <f t="shared" si="47"/>
-        <v>456260.50288029009</v>
-      </c>
-      <c r="G152" s="16">
-        <f t="shared" si="52"/>
-        <v>300000</v>
-      </c>
-      <c r="H152" s="16">
-        <f t="shared" si="48"/>
-        <v>456260.50288029009</v>
-      </c>
-      <c r="I152" s="16">
-        <f t="shared" si="49"/>
-        <v>156260.50288029009</v>
-      </c>
-      <c r="J152" s="31">
-        <f>VLOOKUP(A152,myPEPB!B:C,2)</f>
-        <v>11.27000046</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="37"/>
+    <row r="152" spans="1:10">
+      <c r="A152" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -1232,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,7 +1615,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,7 +1689,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4639,11 +4638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50120960"/>
-        <c:axId val="76939648"/>
+        <c:axId val="34945664"/>
+        <c:axId val="34999296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50120960"/>
+        <c:axId val="34945664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,14 +4685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76939648"/>
+        <c:crossAx val="34999296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76939648"/>
+        <c:axId val="34999296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4744,7 +4743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50120960"/>
+        <c:crossAx val="34945664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -65308,14 +65307,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -65336,7 +65335,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -65369,7 +65368,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1">
+    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -65385,7 +65384,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>40451</v>
       </c>
@@ -65480,7 +65479,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>40480</v>
       </c>
@@ -65581,7 +65580,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>40512</v>
       </c>
@@ -65678,7 +65677,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1">
+    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>40543</v>
       </c>
@@ -65768,7 +65767,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>40574</v>
       </c>
@@ -65847,7 +65846,7 @@
         <v>82813.626416639017</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>40602</v>
       </c>
@@ -65919,7 +65918,7 @@
         <v>1.5781487745665235E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1">
+    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>40633</v>
       </c>
@@ -66020,7 +66019,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>40662</v>
       </c>
@@ -66121,7 +66120,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1">
+    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>40694</v>
       </c>
@@ -66222,7 +66221,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1">
+    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>40724</v>
       </c>
@@ -66323,7 +66322,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1">
+    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>40753</v>
       </c>
@@ -66424,7 +66423,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1">
+    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>40786</v>
       </c>
@@ -66521,7 +66520,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1">
+    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>40816</v>
       </c>
@@ -66611,7 +66610,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1">
+    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>40847</v>
       </c>
@@ -66689,7 +66688,7 @@
         <v>226023.31414810085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1">
+    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>40877</v>
       </c>
@@ -66734,7 +66733,7 @@
         <v>0.10832060454600145</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1">
+    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>40907</v>
       </c>
@@ -66808,7 +66807,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>40939</v>
       </c>
@@ -66882,7 +66881,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1">
+    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>40968</v>
       </c>
@@ -66956,7 +66955,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1">
+    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>40998</v>
       </c>
@@ -67030,7 +67029,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <v>41026</v>
       </c>
@@ -67104,7 +67103,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <v>41060</v>
       </c>
@@ -67178,7 +67177,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <v>41089</v>
       </c>
@@ -67252,7 +67251,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>41121</v>
       </c>
@@ -67326,7 +67325,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <v>41152</v>
       </c>
@@ -67396,7 +67395,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <v>41180</v>
       </c>
@@ -67459,7 +67458,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
         <v>41213</v>
       </c>
@@ -67511,7 +67510,7 @@
         <v>362098.05834678403</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
         <v>41243</v>
       </c>
@@ -67556,7 +67555,7 @@
         <v>9.1316415296595288E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <v>41274</v>
       </c>
@@ -67629,7 +67628,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>41305</v>
       </c>
@@ -67703,7 +67702,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
         <v>41333</v>
       </c>
@@ -67776,7 +67775,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14.1" customHeight="1">
+    <row r="33" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -67849,7 +67848,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14.1" customHeight="1">
+    <row r="34" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -67922,7 +67921,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.1" customHeight="1">
+    <row r="35" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -67995,7 +67994,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14.1" customHeight="1">
+    <row r="36" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -68068,7 +68067,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.1" customHeight="1">
+    <row r="37" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -68141,7 +68140,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.1" customHeight="1">
+    <row r="38" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -68214,7 +68213,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.1" customHeight="1">
+    <row r="39" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -68287,7 +68286,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14.1" customHeight="1">
+    <row r="40" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -68360,7 +68359,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14.1" customHeight="1">
+    <row r="41" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -68429,7 +68428,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.1" customHeight="1">
+    <row r="42" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -68491,7 +68490,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.1" customHeight="1">
+    <row r="43" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -68543,7 +68542,7 @@
         <v>429691.15630892606</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.1" customHeight="1">
+    <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -68588,7 +68587,7 @@
         <v>5.4587041166743733E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.1" customHeight="1">
+    <row r="45" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -68629,7 +68628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.1" customHeight="1">
+    <row r="46" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -68670,7 +68669,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.1" customHeight="1">
+    <row r="47" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -68711,7 +68710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.1" customHeight="1">
+    <row r="48" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -68752,7 +68751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -68793,7 +68792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -68834,7 +68833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -68875,7 +68874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -68916,7 +68915,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -68957,7 +68956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -68998,7 +68997,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -69040,7 +69039,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -69081,7 +69080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -69122,7 +69121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -69163,7 +69162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -69204,7 +69203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -69245,7 +69244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -69286,7 +69285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -69327,7 +69326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -69368,7 +69367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -69409,7 +69408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26">
         <v>42338</v>
       </c>
@@ -69450,7 +69449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26">
         <v>42369</v>
       </c>
@@ -69491,7 +69490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26">
         <v>42398</v>
       </c>
@@ -69533,7 +69532,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26">
         <v>42429</v>
       </c>
@@ -69574,7 +69573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26">
         <v>42460</v>
       </c>
@@ -69615,7 +69614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26">
         <v>42489</v>
       </c>
@@ -69656,7 +69655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26">
         <v>42521</v>
       </c>
@@ -69697,7 +69696,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26">
         <v>42551</v>
       </c>
@@ -69738,7 +69737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26">
         <v>42580</v>
       </c>
@@ -69779,7 +69778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26">
         <v>42613</v>
       </c>
@@ -69820,7 +69819,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26">
         <v>42643</v>
       </c>
@@ -69861,7 +69860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26">
         <v>42674</v>
       </c>
@@ -69902,7 +69901,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="26">
         <v>42704</v>
       </c>
@@ -69943,7 +69942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>42734</v>
       </c>
@@ -69984,7 +69983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>42761</v>
       </c>
@@ -70026,7 +70025,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>42794</v>
       </c>
@@ -70067,7 +70066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>42825</v>
       </c>
@@ -70108,7 +70107,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>42853</v>
       </c>
@@ -70149,7 +70148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>42886</v>
       </c>
@@ -70190,7 +70189,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>42916</v>
       </c>
@@ -70231,7 +70230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>42947</v>
       </c>
@@ -70272,7 +70271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>42978</v>
       </c>
@@ -70313,7 +70312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>43007</v>
       </c>
@@ -70354,7 +70353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>43039</v>
       </c>
@@ -70395,7 +70394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>43069</v>
       </c>
@@ -70436,7 +70435,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>43098</v>
       </c>
@@ -70477,7 +70476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>43131</v>
       </c>
@@ -70519,7 +70518,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>43159</v>
       </c>
@@ -70560,7 +70559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <v>43189</v>
       </c>
@@ -70601,7 +70600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>43217</v>
       </c>
@@ -70642,7 +70641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <v>43251</v>
       </c>
@@ -70683,7 +70682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>43280</v>
       </c>
@@ -70724,7 +70723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>43312</v>
       </c>
@@ -70765,7 +70764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>43343</v>
       </c>
@@ -70806,7 +70805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>43371</v>
       </c>
@@ -70847,7 +70846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <v>43404</v>
       </c>
@@ -70888,7 +70887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <v>43434</v>
       </c>
@@ -70929,7 +70928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>43462</v>
       </c>
@@ -70970,7 +70969,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
         <v>43496</v>
       </c>
@@ -71012,7 +71011,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <v>43524</v>
       </c>
@@ -71053,7 +71052,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <v>43553</v>
       </c>
@@ -71094,7 +71093,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <v>43585</v>
       </c>
@@ -71135,7 +71134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <v>43616</v>
       </c>
@@ -71176,7 +71175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <v>43644</v>
       </c>
@@ -71217,7 +71216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <v>43677</v>
       </c>
@@ -71258,7 +71257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
         <v>43707</v>
       </c>
@@ -71299,7 +71298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <v>43738</v>
       </c>
@@ -71340,7 +71339,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
         <v>43769</v>
       </c>
@@ -71381,7 +71380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
         <v>43798</v>
       </c>
@@ -71422,7 +71421,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
         <v>43830</v>
       </c>
@@ -71463,7 +71462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <v>43853</v>
       </c>
@@ -71505,7 +71504,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
         <v>43889</v>
       </c>
@@ -71546,7 +71545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <v>43921</v>
       </c>
@@ -71587,7 +71586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
         <v>43951</v>
       </c>
@@ -71628,7 +71627,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
         <v>43980</v>
       </c>
@@ -71669,7 +71668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
         <v>44012</v>
       </c>
@@ -71710,7 +71709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>44043</v>
       </c>
@@ -71751,7 +71750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
         <v>44074</v>
       </c>
@@ -71792,7 +71791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>44104</v>
       </c>
@@ -71833,7 +71832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>44134</v>
       </c>
@@ -71874,7 +71873,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>44165</v>
       </c>
@@ -71915,7 +71914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
         <v>44196</v>
       </c>
@@ -71956,7 +71955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
         <v>44225</v>
       </c>
@@ -71998,7 +71997,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
         <v>44253</v>
       </c>
@@ -72039,7 +72038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
         <v>44286</v>
       </c>
@@ -72080,7 +72079,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
         <v>44316</v>
       </c>
@@ -72121,7 +72120,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
         <v>44347</v>
       </c>
@@ -72162,7 +72161,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
         <v>44377</v>
       </c>
@@ -72203,7 +72202,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
         <v>44407</v>
       </c>
@@ -72244,7 +72243,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13">
         <v>44439</v>
       </c>
@@ -72285,7 +72284,7 @@
         <v>13.430000305175781</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13">
         <v>44469</v>
       </c>
@@ -72326,7 +72325,7 @@
         <v>12.899999618530273</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
         <v>44498</v>
       </c>
@@ -72367,7 +72366,7 @@
         <v>12.840000152587891</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
         <v>44530</v>
       </c>
@@ -72408,7 +72407,7 @@
         <v>12.390000343322754</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
         <v>44561</v>
       </c>
@@ -72449,7 +72448,7 @@
         <v>12.949999809265137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
         <v>44589</v>
       </c>
@@ -72491,7 +72490,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
         <v>44620</v>
       </c>
@@ -72532,7 +72531,7 @@
         <v>12.239999771118164</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
         <v>44651</v>
       </c>
@@ -72573,7 +72572,7 @@
         <v>11.460000040000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
         <v>44680</v>
       </c>
@@ -72614,7 +72613,7 @@
         <v>11.14000034</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
         <v>44712</v>
       </c>
@@ -72655,7 +72654,7 @@
         <v>10.93999958</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>44742</v>
       </c>
@@ -72696,7 +72695,7 @@
         <v>12.100000380000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1">
+    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
         <v>44771</v>
       </c>
@@ -72737,7 +72736,7 @@
         <v>11.239999770000001</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1">
+    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>44804</v>
       </c>
@@ -72778,7 +72777,7 @@
         <v>11.100000380000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75">
+    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
         <v>44834</v>
       </c>
@@ -72819,7 +72818,7 @@
         <v>10.3500003814697</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75">
+    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
         <v>44865</v>
       </c>
@@ -72860,7 +72859,7 @@
         <v>9.3900003430000005</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75">
+    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
         <v>44895</v>
       </c>
@@ -72901,7 +72900,7 @@
         <v>10.380000109999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="12.75">
+    <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="13">
         <v>44925</v>
       </c>
@@ -72942,7 +72941,7 @@
         <v>10.72999954</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="12.75">
+    <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="13">
         <v>44957</v>
       </c>
@@ -72982,9 +72981,6 @@
         <f>VLOOKUP(A151,myPEPB!B:C,2)</f>
         <v>11.39000034</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -73005,7 +73001,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
@@ -73013,16 +73009,16 @@
     <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="23">
         <v>399378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="38"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
@@ -73030,7 +73026,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -73045,7 +73041,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>2</v>
@@ -73061,7 +73057,7 @@
         <v>16.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -73077,7 +73073,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -73093,7 +73089,7 @@
         <v>16.142499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -73109,7 +73105,7 @@
         <v>16.127999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -73125,7 +73121,7 @@
         <v>16.133333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -73141,7 +73137,7 @@
         <v>16.185714285714283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -73157,7 +73153,7 @@
         <v>16.223749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -73173,7 +73169,7 @@
         <v>16.258888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -73189,7 +73185,7 @@
         <v>16.283999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -73205,7 +73201,7 @@
         <v>16.318181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -73221,7 +73217,7 @@
         <v>16.330833333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -73237,7 +73233,7 @@
         <v>16.346923076923073</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -73253,7 +73249,7 @@
         <v>16.36785714285714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -73269,7 +73265,7 @@
         <v>16.393333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -73285,7 +73281,7 @@
         <v>16.409374999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -73301,7 +73297,7 @@
         <v>16.282941176470587</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -73317,7 +73313,7 @@
         <v>16.162777777777777</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -73333,7 +73329,7 @@
         <v>16.055263157894736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -73349,7 +73345,7 @@
         <v>15.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -73365,7 +73361,7 @@
         <v>15.879523809523809</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -73381,7 +73377,7 @@
         <v>15.798636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -73397,7 +73393,7 @@
         <v>15.735217391304346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -73413,7 +73409,7 @@
         <v>15.687083333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -73429,7 +73425,7 @@
         <v>15.643199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -73445,7 +73441,7 @@
         <v>15.600384615384611</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -73461,7 +73457,7 @@
         <v>15.561111111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -73477,7 +73473,7 @@
         <v>15.520714285714282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -73493,7 +73489,7 @@
         <v>15.485172413793101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -73509,7 +73505,7 @@
         <v>15.465666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -73525,7 +73521,7 @@
         <v>15.447419354838706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -73541,7 +73537,7 @@
         <v>15.431562499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -73557,7 +73553,7 @@
         <v>15.416060606060602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -73573,7 +73569,7 @@
         <v>15.40205882352941</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -73589,7 +73585,7 @@
         <v>15.389999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -73605,7 +73601,7 @@
         <v>15.375555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -73621,7 +73617,7 @@
         <v>15.359459459459458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -73637,7 +73633,7 @@
         <v>15.346052631578948</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -73653,7 +73649,7 @@
         <v>15.332564102564103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -73669,7 +73665,7 @@
         <v>15.31625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -73685,7 +73681,7 @@
         <v>15.301707317073172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -73701,7 +73697,7 @@
         <v>15.290714285714287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -73717,7 +73713,7 @@
         <v>15.278372093023256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -73733,7 +73729,7 @@
         <v>15.264772727272726</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -73749,7 +73745,7 @@
         <v>15.24688888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -73765,7 +73761,7 @@
         <v>15.229565217391306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -73781,7 +73777,7 @@
         <v>15.211702127659576</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -73797,7 +73793,7 @@
         <v>15.193333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -73813,7 +73809,7 @@
         <v>15.178571428571431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -73829,7 +73825,7 @@
         <v>15.164600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -73845,7 +73841,7 @@
         <v>15.152352941176472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -73861,7 +73857,7 @@
         <v>15.144423076923079</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -73877,7 +73873,7 @@
         <v>15.136981132075473</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -73893,7 +73889,7 @@
         <v>15.127407407407409</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -73909,7 +73905,7 @@
         <v>15.119636363636367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -73925,7 +73921,7 @@
         <v>15.113214285714289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -73941,7 +73937,7 @@
         <v>15.100175438596494</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -73957,7 +73953,7 @@
         <v>15.087413793103451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -73973,7 +73969,7 @@
         <v>15.074576271186444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -73989,7 +73985,7 @@
         <v>15.064500000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -74005,7 +74001,7 @@
         <v>15.051967213114757</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -74021,7 +74017,7 @@
         <v>15.038709677419359</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -74037,7 +74033,7 @@
         <v>15.027777777777782</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -74053,7 +74049,7 @@
         <v>15.018125000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -74069,7 +74065,7 @@
         <v>15.00692307692308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -74085,7 +74081,7 @@
         <v>14.998484848484852</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -74101,7 +74097,7 @@
         <v>14.98761194029851</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -74117,7 +74113,7 @@
         <v>14.978235294117651</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -74133,7 +74129,7 @@
         <v>14.968405797101452</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -74149,7 +74145,7 @@
         <v>14.959428571428573</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -74165,7 +74161,7 @@
         <v>14.950985915492957</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -74181,7 +74177,7 @@
         <v>14.940000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -74197,7 +74193,7 @@
         <v>14.922876706580594</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -74213,7 +74209,7 @@
         <v>14.900270264599776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -74229,7 +74225,7 @@
         <v>14.879199990336101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -74245,7 +74241,7 @@
         <v>14.860526306754664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -74261,7 +74257,7 @@
         <v>14.840389606921704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -74277,7 +74273,7 @@
         <v>14.824743584852953</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -74293,7 +74289,7 @@
         <v>14.809999993239778</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -74309,7 +74305,7 @@
         <v>15.001624985694885</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -74325,7 +74321,7 @@
         <v>14.984814804924859</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -74341,7 +74337,7 @@
         <v>14.967804870140263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -74357,7 +74353,7 @@
         <v>14.953373491677894</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -74373,7 +74369,7 @@
         <v>14.941547617231098</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -74389,7 +74385,7 @@
         <v>14.929529410867131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -74405,7 +74401,7 @@
         <v>14.916395350167919</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -74421,7 +74417,7 @@
         <v>14.903218397381663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -74437,7 +74433,7 @@
         <v>14.89056818788702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -74453,7 +74449,7 @@
         <v>14.874831464103099</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -74469,7 +74465,7 @@
         <v>14.860666674296063</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -74485,7 +74481,7 @@
         <v>14.845494508009692</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -74501,7 +74497,7 @@
         <v>14.827717394206836</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -74517,7 +74513,7 @@
         <v>14.81225807107905</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -74533,7 +74529,7 @@
         <v>14.798510649660802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -74549,7 +74545,7 @@
         <v>14.786105273196572</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -74565,7 +74561,7 @@
         <v>14.771666672627132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -74581,7 +74577,7 @@
         <v>14.758144336189192</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -74597,7 +74593,7 @@
         <v>14.744693879497294</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -74613,7 +74609,7 @@
         <v>14.73141414642334</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -74629,7 +74625,7 @@
         <v>14.710400006103516</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -74645,7 +74641,7 @@
         <v>14.690099014433304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -74661,7 +74657,7 @@
         <v>14.670000007853789</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -74677,7 +74673,7 @@
         <v>14.652135929366917</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -74693,7 +74689,7 @@
         <v>14.636153850922218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -74709,7 +74705,7 @@
         <v>14.619809529259092</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -74725,7 +74721,7 @@
         <v>14.60415094915426</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -74741,7 +74737,7 @@
         <v>14.589626175711089</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -74757,7 +74753,7 @@
         <v>14.57564815485919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -74773,7 +74769,7 @@
         <v>14.560550468164847</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -74789,7 +74785,7 @@
         <v>14.544818190487948</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -74805,7 +74801,7 @@
         <v>14.528288297223616</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -74821,7 +74817,7 @@
         <v>14.512946441173554</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -74837,7 +74833,7 @@
         <v>14.497876122398715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -74853,7 +74849,7 @@
         <v>14.483157908121745</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -74869,7 +74865,7 @@
         <v>14.468521754057512</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -74885,7 +74881,7 @@
         <v>14.455172429249204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -74901,7 +74897,7 @@
         <v>14.442564113975591</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -74917,7 +74913,7 @@
         <v>14.428813568050579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -74933,7 +74929,7 @@
         <v>14.41596639200419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -74949,7 +74945,7 @@
         <v>14.404416669845581</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -74965,7 +74961,7 @@
         <v>14.393140498705147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -74981,7 +74977,7 @@
         <v>14.381147546299168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -74997,7 +74993,7 @@
         <v>14.370162604727396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -75013,7 +75009,7 @@
         <v>14.358870972971763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -75029,7 +75025,7 @@
         <v>14.348080007019043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -75045,7 +75041,7 @@
         <v>14.336269845508394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="17">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -75061,7 +75057,7 @@
         <v>14.325590551781843</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -75077,7 +75073,7 @@
         <v>14.314687502980233</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="17">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -75093,7 +75089,7 @@
         <v>14.304418605834016</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -75109,7 +75105,7 @@
         <v>14.294615383735071</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
@@ -75125,7 +75121,7 @@
         <v>14.285267172369339</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -75141,7 +75137,7 @@
         <v>14.275681818470812</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="17">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -75157,7 +75153,7 @@
         <v>14.26511278138125</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -75173,7 +75169,7 @@
         <v>14.254029848184159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -75189,7 +75185,7 @@
         <v>14.243555554142706</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -75205,7 +75201,7 @@
         <v>14.231397058543038</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="17">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -75221,7 +75217,7 @@
         <v>14.218175182760197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -75237,7 +75233,7 @@
         <v>14.204855073569478</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="17">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -75253,7 +75249,7 @@
         <v>14.192589929155309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -75269,7 +75265,7 @@
         <v>14.180000003269742</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="17">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -75285,7 +75281,7 @@
         <v>14.167517734284097</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="17">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -75301,7 +75297,7 @@
         <v>14.155000006178735</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -75317,7 +75313,7 @@
         <v>14.142167836169262</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="17">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -75333,7 +75329,7 @@
         <v>14.130694446828631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -75349,7 +75345,7 @@
         <v>14.119103449328193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="17">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -75365,7 +75361,7 @@
         <v>14.107602737897064</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -75381,7 +75377,7 @@
         <v>14.096462585034015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="17">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -75397,7 +75393,7 @@
         <v>14.085608106561612</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -75413,7 +75409,7 @@
         <v>14.074161073057445</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -75429,7 +75425,7 @@
         <v>14.06380000228882</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -75445,7 +75441,7 @@
         <v>14.053774837973894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -75461,7 +75457,7 @@
         <v>14.043881583715741</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -75477,7 +75473,7 @@
         <v>14.034444451674918</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -75493,7 +75489,7 @@
         <v>14.024870139778436</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -75509,7 +75505,7 @@
         <v>14.014774203638879</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -75525,7 +75521,7 @@
         <v>14.004743598546739</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -75541,7 +75537,7 @@
         <v>13.994458609659961</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -75557,7 +75553,7 @@
         <v>13.984620261373401</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -75573,7 +75569,7 @@
         <v>13.975094349459285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -75589,7 +75585,7 @@
         <v>13.966375009298327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="17">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -75605,7 +75601,7 @@
         <v>13.957826097144846</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -75621,7 +75617,7 @@
         <v>13.949876553806259</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -75637,7 +75633,7 @@
         <v>13.943067496130073</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -75653,7 +75649,7 @@
         <v>13.937378061573682</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -75669,7 +75665,7 @@
         <v>13.931575767517092</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -75685,7 +75681,7 @@
         <v>13.926987962148278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -75701,7 +75697,7 @@
         <v>13.922035940707088</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="17">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -75717,7 +75713,7 @@
         <v>13.916488106364298</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="17">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -75733,7 +75729,7 @@
         <v>13.911597645099349</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="17">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -75749,7 +75745,7 @@
         <v>13.90564706847247</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="17">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -75765,7 +75761,7 @@
         <v>13.899122816386978</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="17">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -75781,7 +75777,7 @@
         <v>13.893197684398919</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="17">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -75797,7 +75793,7 @@
         <v>13.88734105104656</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="17">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -75813,7 +75809,7 @@
         <v>13.882183917253869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -75829,7 +75825,7 @@
         <v>13.877028577968055</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -75845,7 +75841,7 @@
         <v>13.871875008019536</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -75861,7 +75857,7 @@
         <v>13.867175149001646</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="17">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -75877,7 +75873,7 @@
         <v>13.861348321893244</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="17">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -75893,7 +75889,7 @@
         <v>13.855921796873297</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="17">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -75909,7 +75905,7 @@
         <v>13.85088889694214</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -75925,7 +75921,7 @@
         <v>13.845745864783863</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -75941,7 +75937,7 @@
         <v>13.840219789442127</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -75957,7 +75953,7 @@
         <v>13.834207658194455</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -75973,7 +75969,7 @@
         <v>13.828423923409504</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -75989,7 +75985,7 @@
         <v>13.822972981633368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -76005,7 +76001,7 @@
         <v>13.8169354924848</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -76021,7 +76017,7 @@
         <v>13.811336909411425</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -76037,7 +76033,7 @@
         <v>13.804734053510302</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -76053,7 +76049,7 @@
         <v>13.797566147456095</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -76069,7 +76065,7 @@
         <v>13.790736851943167</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="17">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -76085,7 +76081,7 @@
         <v>13.784816762914209</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -76101,7 +76097,7 @@
         <v>13.778750008344652</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="17">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -76117,7 +76113,7 @@
         <v>13.773316068105748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="17">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -76133,7 +76129,7 @@
         <v>13.767319591758179</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="17">
         <f t="shared" ref="A197:A451" si="3">A196+1</f>
         <v>195</v>
@@ -76149,7 +76145,7 @@
         <v>13.761333339397725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="17">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -76165,7 +76161,7 @@
         <v>13.754030617889095</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -76181,7 +76177,7 @@
         <v>13.747208126668399</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -76197,7 +76193,7 @@
         <v>13.739494955660119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="17">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -76213,7 +76209,7 @@
         <v>13.730954779811841</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -76229,7 +76225,7 @@
         <v>13.723600007057192</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="17">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -76245,7 +76241,7 @@
         <v>13.71641791614134</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="17">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -76261,7 +76257,7 @@
         <v>13.709851492513526</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="17">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -76277,7 +76273,7 @@
         <v>13.703448282439135</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="17">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -76293,7 +76289,7 @@
         <v>13.696911770689722</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="17">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -76309,7 +76305,7 @@
         <v>13.689853664491237</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="17">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -76325,7 +76321,7 @@
         <v>13.683203887939454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -76341,7 +76337,7 @@
         <v>13.676811596967173</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="17">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -76357,7 +76353,7 @@
         <v>13.670528848354634</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="17">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -76373,7 +76369,7 @@
         <v>13.664688996492963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="17">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -76389,7 +76385,7 @@
         <v>13.658809526534309</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="17">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -76405,7 +76401,7 @@
         <v>13.652274882962919</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -76421,7 +76417,7 @@
         <v>13.646132078710593</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="17">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -76437,7 +76433,7 @@
         <v>13.639014088268013</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="17">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -76453,7 +76449,7 @@
         <v>13.632336452519784</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -76469,7 +76465,7 @@
         <v>13.625860467955125</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -76485,7 +76481,7 @@
         <v>13.619953708288666</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="17">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -76501,7 +76497,7 @@
         <v>13.613824889172127</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="17">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -76517,7 +76513,7 @@
         <v>13.607568811698862</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="17">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -76533,7 +76529,7 @@
         <v>13.600821922650008</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -76549,7 +76545,7 @@
         <v>13.59268182491069</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="17">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -76565,7 +76561,7 @@
         <v>13.583574666969916</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="17">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -76581,7 +76577,7 @@
         <v>13.57405406157816</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="17">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -76597,7 +76593,7 @@
         <v>13.565336330853594</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="17">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -76613,7 +76609,7 @@
         <v>13.556875008305141</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="17">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -76629,7 +76625,7 @@
         <v>13.547066676623785</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="17">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -76645,7 +76641,7 @@
         <v>13.534867266373237</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="17">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -76661,7 +76657,7 @@
         <v>13.524317191807716</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="17">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -76677,7 +76673,7 @@
         <v>13.514824571054174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="17">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -76693,7 +76689,7 @@
         <v>13.505851538167475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -76709,7 +76705,7 @@
         <v>13.496782618784138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="17">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -76725,7 +76721,7 @@
         <v>13.48792208714438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="17">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -76741,7 +76737,7 @@
         <v>13.479353457458412</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="17">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -76757,7 +76753,7 @@
         <v>13.470600865709663</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="17">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -76773,7 +76769,7 @@
         <v>13.461153854445948</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -76789,7 +76785,7 @@
         <v>13.451787243278092</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -76805,7 +76801,7 @@
         <v>13.44245763631505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="17">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -76821,7 +76817,7 @@
         <v>13.434261612533129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="17">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -76837,7 +76833,7 @@
         <v>13.425966395841815</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="17">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -76853,7 +76849,7 @@
         <v>13.418326370677079</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="17">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -76869,7 +76865,7 @@
         <v>13.410666677148033</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="17">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -76885,7 +76881,7 @@
         <v>13.402614119429694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="17">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -76901,7 +76897,7 @@
         <v>13.394876043452594</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="17">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -76917,7 +76913,7 @@
         <v>13.386090546273291</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="17">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -76933,7 +76929,7 @@
         <v>13.378114763626201</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -76949,7 +76945,7 @@
         <v>13.369918376368783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -76965,7 +76961,7 @@
         <v>13.36247968362685</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -76981,7 +76977,7 @@
         <v>13.35497976680602</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -76997,7 +76993,7 @@
         <v>13.347137105840721</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -77013,7 +77009,7 @@
         <v>13.339236957280884</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -77029,7 +77025,7 @@
         <v>13.330800007620704</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="17">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -77045,7 +77041,7 @@
         <v>13.321633472661942</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="17">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -77061,7 +77057,7 @@
         <v>13.312817468331813</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="17">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -77077,7 +77073,7 @@
         <v>13.30209487115054</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="17">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -77093,7 +77089,7 @@
         <v>13.291377961908633</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -77109,7 +77105,7 @@
         <v>13.28168628242987</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="17">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -77125,7 +77121,7 @@
         <v>13.272617195538141</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="17">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -77141,7 +77137,7 @@
         <v>13.264319075477681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="17">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -77157,7 +77153,7 @@
         <v>13.254728691309163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="17">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -77173,7 +77169,7 @@
         <v>13.244247113196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="17">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -77189,7 +77185,7 @@
         <v>13.233576933029861</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="17">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -77205,7 +77201,7 @@
         <v>13.223256714742391</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="17">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -77221,7 +77217,7 @@
         <v>13.213282451174672</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="17">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -77237,7 +77233,7 @@
         <v>13.203193926341308</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="17">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -77253,7 +77249,7 @@
         <v>13.193560615446076</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="17">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -77269,7 +77265,7 @@
         <v>13.183735858972694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="17">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -77285,7 +77281,7 @@
         <v>13.174323319314903</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="17">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -77301,7 +77297,7 @@
         <v>13.164756564897994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="17">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -77317,7 +77313,7 @@
         <v>13.155298518424493</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="17">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -77333,7 +77329,7 @@
         <v>13.146654286013993</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="17">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -77349,7 +77345,7 @@
         <v>13.137814826547274</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="17">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -77365,7 +77361,7 @@
         <v>13.128339493940089</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="17">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -77381,7 +77377,7 @@
         <v>13.119154422675603</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="17">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -77397,7 +77393,7 @@
         <v>13.110183161347122</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="17">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -77413,7 +77409,7 @@
         <v>13.101459866123227</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="17">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -77429,7 +77425,7 @@
         <v>13.09301819290096</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="17">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -77445,7 +77441,7 @@
         <v>13.085217400825231</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="17">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -77461,7 +77457,7 @@
         <v>13.077328527970266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="17">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -77477,7 +77473,7 @@
         <v>13.069424468912819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="17">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -77493,7 +77489,7 @@
         <v>13.062007176909548</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="17">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -77509,7 +77505,7 @@
         <v>13.054857152777728</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="17">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -77525,7 +77521,7 @@
         <v>13.048113888355031</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="17">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -77541,7 +77537,7 @@
         <v>13.041170222616184</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="17">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -77557,7 +77553,7 @@
         <v>13.03473499310164</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="17">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -77573,7 +77569,7 @@
         <v>12.999788742756211</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="17">
         <f t="shared" si="3"/>
         <v>285</v>
@@ -77589,7 +77585,7 @@
         <v>12.994526326114961</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="17">
         <f t="shared" si="3"/>
         <v>286</v>
@@ -77605,7 +77601,7 @@
         <v>12.989720289625049</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="17">
         <f t="shared" si="3"/>
         <v>287</v>
@@ -77621,7 +77617,7 @@
         <v>12.984634155270955</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="17">
         <f t="shared" si="3"/>
         <v>288</v>
@@ -77637,7 +77633,7 @@
         <v>12.980173619349875</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="17">
         <f t="shared" si="3"/>
         <v>289</v>
@@ -77653,7 +77649,7 @@
         <v>12.975813157933439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="17">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -77669,7 +77665,7 @@
         <v>12.971413801561255</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="17">
         <f t="shared" si="3"/>
         <v>291</v>
@@ -77685,7 +77681,7 @@
         <v>12.966529218703656</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="17">
         <f t="shared" si="3"/>
         <v>292</v>
@@ -77701,7 +77697,7 @@
         <v>12.962260283947822</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="17">
         <f t="shared" si="3"/>
         <v>293</v>
@@ -77717,7 +77713,7 @@
         <v>12.958464175060628</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="17">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -77733,7 +77729,7 @@
         <v>12.955068038546816</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="17">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -77749,7 +77745,7 @@
         <v>12.952000011941573</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="17">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -77765,7 +77761,7 @@
         <v>12.948513525685014</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="17">
         <f t="shared" si="3"/>
         <v>297</v>
@@ -77781,7 +77777,7 @@
         <v>12.945656579066547</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="17">
         <f t="shared" si="3"/>
         <v>298</v>
@@ -77797,7 +77793,7 @@
         <v>12.942651020713974</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="17">
         <f t="shared" si="3"/>
         <v>299</v>
@@ -77813,7 +77809,7 @@
         <v>12.94000001268483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -77829,7 +77825,7 @@
         <v>12.937333347109215</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
@@ -77845,7 +77841,7 @@
         <v>12.93398672572347</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="17">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -77861,7 +77857,7 @@
         <v>12.930728490903194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="17">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -77877,7 +77873,7 @@
         <v>12.927425757632886</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="17">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -77893,7 +77889,7 @@
         <v>12.923552646588041</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="17">
         <f t="shared" si="3"/>
         <v>305</v>
@@ -77909,7 +77905,7 @@
         <v>12.919377062894311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="17">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -77925,7 +77921,7 @@
         <v>12.915261451087467</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="17">
         <f t="shared" si="3"/>
         <v>307</v>
@@ -77941,7 +77937,7 @@
         <v>12.911042358054608</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="17">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -77957,7 +77953,7 @@
         <v>12.906168843418069</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="17">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -77973,7 +77969,7 @@
         <v>12.901779948099563</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="17">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -77989,7 +77985,7 @@
         <v>12.897290336105694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="17">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -78005,7 +78001,7 @@
         <v>12.899292619462267</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="17">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -78021,7 +78017,7 @@
         <v>12.89448719318194</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="17">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -78037,7 +78033,7 @@
         <v>12.889712472500847</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="17">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -78053,7 +78049,7 @@
         <v>12.884872623511992</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -78069,7 +78065,7 @@
         <v>12.880317471723064</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="17">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -78085,7 +78081,7 @@
         <v>12.875601278268244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="17">
         <f t="shared" si="3"/>
         <v>317</v>
@@ -78101,7 +78097,7 @@
         <v>12.870914839977177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="17">
         <f t="shared" si="3"/>
         <v>318</v>
@@ -78117,7 +78113,7 @@
         <v>12.86578617623511</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="17">
         <f t="shared" si="3"/>
         <v>319</v>
@@ -78133,7 +78129,7 @@
         <v>12.860815058848795</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="17">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -78149,7 +78145,7 @@
         <v>12.855187511789893</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="17">
         <f t="shared" si="3"/>
         <v>321</v>
@@ -78165,7 +78161,7 @@
         <v>12.849252348201762</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="17">
         <f t="shared" si="3"/>
         <v>322</v>
@@ -78181,7 +78177,7 @@
         <v>12.843633552089335</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="17">
         <f t="shared" si="3"/>
         <v>323</v>
@@ -78197,7 +78193,7 @@
         <v>12.838390103383174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="17">
         <f t="shared" si="3"/>
         <v>324</v>
@@ -78213,7 +78209,7 @@
         <v>12.833148159669031</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="17">
         <f t="shared" si="3"/>
         <v>325</v>
@@ -78229,7 +78225,7 @@
         <v>12.828061550900818</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="17">
         <f t="shared" si="3"/>
         <v>326</v>
@@ -78245,7 +78241,7 @@
         <v>12.82273007421094</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="17">
         <f t="shared" si="3"/>
         <v>327</v>
@@ -78261,7 +78257,7 @@
         <v>12.818012245237815</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="17">
         <f t="shared" si="3"/>
         <v>328</v>
@@ -78277,7 +78273,7 @@
         <v>12.813353671197458</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="17">
         <f t="shared" si="3"/>
         <v>329</v>
@@ -78293,7 +78289,7 @@
         <v>12.808693020920261</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="17">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -78309,7 +78305,7 @@
         <v>12.804000012462927</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="17">
         <f t="shared" si="3"/>
         <v>331</v>
@@ -78325,7 +78321,7 @@
         <v>12.799546839978143</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="17">
         <f t="shared" si="3"/>
         <v>332</v>
@@ -78341,7 +78337,7 @@
         <v>12.794849409044476</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="17">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -78357,7 +78353,7 @@
         <v>12.790090101629927</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="17">
         <f t="shared" si="3"/>
         <v>334</v>
@@ -78373,7 +78369,7 @@
         <v>12.785568872972352</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="17">
         <f t="shared" si="3"/>
         <v>335</v>
@@ -78389,7 +78385,7 @@
         <v>12.780955233859002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="17">
         <f t="shared" si="3"/>
         <v>336</v>
@@ -78405,7 +78401,7 @@
         <v>12.775863104264184</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="17">
         <f t="shared" si="3"/>
         <v>337</v>
@@ -78421,7 +78417,7 @@
         <v>12.77115727778269</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="17">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -78437,7 +78433,7 @@
         <v>12.766360953351381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="17">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -78453,7 +78449,7 @@
         <v>12.76150443104061</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -78469,7 +78465,7 @@
         <v>12.756558829537548</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="17">
         <f t="shared" si="3"/>
         <v>341</v>
@@ -78485,7 +78481,7 @@
         <v>12.751700886870283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="17">
         <f t="shared" si="3"/>
         <v>342</v>
@@ -78501,7 +78497,7 @@
         <v>12.745935678809259</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="17">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -78517,7 +78513,7 @@
         <v>12.74003236779232</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="17">
         <f t="shared" si="3"/>
         <v>344</v>
@@ -78533,7 +78529,7 @@
         <v>12.734189249106878</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="12.75" customHeight="1">
+    <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="17">
         <f t="shared" si="3"/>
         <v>345</v>
@@ -78549,7 +78545,7 @@
         <v>12.728640873573235</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="12.75" customHeight="1">
+    <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="17">
         <f t="shared" si="3"/>
         <v>346</v>
@@ -78565,7 +78561,7 @@
         <v>12.723066767551348</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="12.75" customHeight="1">
+    <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="17">
         <f t="shared" si="3"/>
         <v>347</v>
@@ -78581,7 +78577,7 @@
         <v>12.717409515281746</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="12.75" customHeight="1">
+    <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="17">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -78597,7 +78593,7 @@
         <v>12.712237936214844</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="12.75" customHeight="1">
+    <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="17">
         <f t="shared" si="3"/>
         <v>349</v>
@@ -78613,7 +78609,7 @@
         <v>12.707217197142596</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="12.75" customHeight="1">
+    <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="17">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -78629,7 +78625,7 @@
         <v>12.701910862293618</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="12.75" customHeight="1">
+    <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="17">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -78645,7 +78641,7 @@
         <v>12.696435332771413</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="12.75" customHeight="1">
+    <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="17">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -78661,7 +78657,7 @@
         <v>12.690337505121494</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="12.75" customHeight="1">
+    <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="17">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -78677,7 +78673,7 @@
         <v>12.684274226608403</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="12.75" customHeight="1">
+    <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="17">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -78693,7 +78689,7 @@
         <v>12.678245203369396</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="12.75" customHeight="1">
+    <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="17">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -78709,7 +78705,7 @@
         <v>12.672081132373989</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="12.75" customHeight="1">
+    <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="17">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -78725,7 +78721,7 @@
         <v>12.665755061777434</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="12.75" customHeight="1">
+    <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="17">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -78741,7 +78737,7 @@
         <v>12.659408408943321</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="12.75" customHeight="1">
+    <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="17">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -78757,7 +78753,7 @@
         <v>12.652929614504933</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="12.75" customHeight="1">
+    <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="17">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -78773,7 +78769,7 @@
         <v>12.64687688577372</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="12.75" customHeight="1">
+    <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="17">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -78789,7 +78785,7 @@
         <v>12.640552227757683</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="12.75" customHeight="1">
+    <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="17">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -78805,7 +78801,7 @@
         <v>12.634262609093533</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="12.75" customHeight="1">
+    <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="17">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -78821,7 +78817,7 @@
         <v>12.627952492442638</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="12.75" customHeight="1">
+    <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="17">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -78837,7 +78833,7 @@
         <v>12.621126175989628</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="12.75" customHeight="1">
+    <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="17">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -78853,7 +78849,7 @@
         <v>12.614364839929216</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="12.75" customHeight="1">
+    <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="17">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -78869,7 +78865,7 @@
         <v>12.607914525929409</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="12.75" customHeight="1">
+    <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="17">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -78885,7 +78881,7 @@
         <v>12.601253557497909</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="12.75" customHeight="1">
+    <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="17">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -78901,7 +78897,7 @@
         <v>12.595228344371213</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="12.75" customHeight="1">
+    <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="17">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -78917,7 +78913,7 @@
         <v>12.589181527919118</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="12.75" customHeight="1">
+    <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="17">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -78933,7 +78929,7 @@
         <v>12.58311328632584</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="12.75" customHeight="1">
+    <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="17">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -78949,7 +78945,7 @@
         <v>12.576618386389825</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="12.75" customHeight="1">
+    <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="17">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -78965,7 +78961,7 @@
         <v>12.569996773192008</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75" customHeight="1">
+    <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="17">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -78981,7 +78977,7 @@
         <v>12.563356997941492</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75" customHeight="1">
+    <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -78997,7 +78993,7 @@
         <v>12.555975344917519</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75" customHeight="1">
+    <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="17">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -79013,7 +79009,7 @@
         <v>12.548552950233248</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75" customHeight="1">
+    <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -79029,7 +79025,7 @@
         <v>12.541303475496626</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75" customHeight="1">
+    <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="17">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -79045,7 +79041,7 @@
         <v>12.533853199686794</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75" customHeight="1">
+    <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="17">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -79061,7 +79057,7 @@
         <v>12.52588541860805</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75" customHeight="1">
+    <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="17">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -79077,7 +79073,7 @@
         <v>12.517589426344536</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="12.75" customHeight="1">
+    <row r="381" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="17">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -79093,7 +79089,7 @@
         <v>12.510181538776344</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="12.75" customHeight="1">
+    <row r="382" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="17">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -79109,7 +79105,7 @@
         <v>12.503075798990089</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="12.75" customHeight="1">
+    <row r="383" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="17">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -79125,7 +79121,7 @@
         <v>12.495823630937622</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="12.75" customHeight="1">
+    <row r="384" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="17">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -79141,7 +79137,7 @@
         <v>12.489342418448256</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="12.75" customHeight="1">
+    <row r="385" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="17">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -79157,7 +79153,7 @@
         <v>12.482999488948391</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="12.75" customHeight="1">
+    <row r="386" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="17">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -79173,7 +79169,7 @@
         <v>12.476507302182901</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="12.75" customHeight="1">
+    <row r="387" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="17">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -79189,7 +79185,7 @@
         <v>12.469867023673334</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="12.75" customHeight="1">
+    <row r="388" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="17">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -79205,7 +79201,7 @@
         <v>12.463157523907341</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="12.75" customHeight="1">
+    <row r="389" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="17">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -79221,7 +79217,7 @@
         <v>12.457128693380449</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="12.75" customHeight="1">
+    <row r="390" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="17">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -79237,7 +79233,7 @@
         <v>12.451208258217095</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="12.75" customHeight="1">
+    <row r="391" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="17">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -79253,7 +79249,7 @@
         <v>12.445703867887488</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="12.75" customHeight="1">
+    <row r="392" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="17">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -79269,7 +79265,7 @@
         <v>12.440099499585211</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="12.75" customHeight="1">
+    <row r="393" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="17">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -79285,7 +79281,7 @@
         <v>12.434370344368881</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="12.75" customHeight="1">
+    <row r="394" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="17">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -79301,7 +79297,7 @@
         <v>12.428644908745492</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="12.75" customHeight="1">
+    <row r="395" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="17">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -79317,7 +79313,7 @@
         <v>12.422770493939524</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="12.75" customHeight="1">
+    <row r="396" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="17">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -79333,7 +79329,7 @@
         <v>12.416951279767089</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="12.75" customHeight="1">
+    <row r="397" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="17">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -79349,7 +79345,7 @@
         <v>12.411262795717045</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="12.75" customHeight="1">
+    <row r="398" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="17">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -79365,7 +79361,7 @@
         <v>12.405502031359173</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="12.75" customHeight="1">
+    <row r="399" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="17">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -79381,7 +79377,7 @@
         <v>12.399946610146682</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="12.75" customHeight="1">
+    <row r="400" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="17">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -79397,7 +79393,7 @@
         <v>12.394167850774455</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="12.75" customHeight="1">
+    <row r="401" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="17">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -79413,7 +79409,7 @@
         <v>12.389144874556974</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="12.75" customHeight="1">
+    <row r="402" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="17">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -79429,7 +79425,7 @@
         <v>12.384122012645582</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="17">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -79445,7 +79441,7 @@
         <v>12.379348641716293</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="17">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -79461,7 +79457,7 @@
         <v>12.374474640318988</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="17">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -79477,7 +79473,7 @@
         <v>12.370096290491892</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="17">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -79493,7 +79489,7 @@
         <v>12.365912884599586</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="17">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -79509,7 +79505,7 @@
         <v>12.361676061724031</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="17">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -79525,7 +79521,7 @@
         <v>12.357484741005498</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="17">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -79541,7 +79537,7 @@
         <v>12.353584288226616</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="17">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -79557,7 +79553,7 @@
         <v>12.350070601441747</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="17">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -79573,7 +79569,7 @@
         <v>12.346549646059247</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="17">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -79589,7 +79585,7 @@
         <v>12.343119036142031</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="17">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -79605,7 +79601,7 @@
         <v>12.339632128146549</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="17">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -79621,7 +79617,7 @@
         <v>12.336259234170466</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="17">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -79637,7 +79633,7 @@
         <v>12.332491051351651</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="17">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -79653,7 +79649,7 @@
         <v>12.328306291275922</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="17">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -79669,7 +79665,7 @@
         <v>12.324165793369232</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="17">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -79685,7 +79681,7 @@
         <v>12.320117318721712</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="17">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -79701,7 +79697,7 @@
         <v>12.316064279851874</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="17">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -79717,7 +79713,7 @@
         <v>12.312030633512515</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="17">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -79733,7 +79729,7 @@
         <v>12.308302636773822</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="17">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -79749,7 +79745,7 @@
         <v>12.304568582329123</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="17">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -79765,7 +79761,7 @@
         <v>12.300709750328341</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="17">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -79781,7 +79777,7 @@
         <v>12.296987688218559</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="17">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -79797,7 +79793,7 @@
         <v>12.293401428270052</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="17">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -79813,7 +79809,7 @@
         <v>12.290256613675073</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="17">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -79829,7 +79825,7 @@
         <v>12.287220715760544</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="17">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -79845,7 +79841,7 @@
         <v>12.284363389408995</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="17">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -79861,7 +79857,7 @@
         <v>12.281542866061432</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="17">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -79877,7 +79873,7 @@
         <v>12.278735522729512</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="17">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -79893,7 +79889,7 @@
         <v>12.275941267245294</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="17">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -79909,7 +79905,7 @@
         <v>12.273555357321468</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="17">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -79925,7 +79921,7 @@
         <v>12.271505345680351</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="17">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -79941,7 +79937,7 @@
         <v>12.269418527495906</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="17">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -79957,7 +79953,7 @@
         <v>12.267295159949727</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="17">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -79973,7 +79969,7 @@
         <v>12.265273743313898</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="17">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -79989,7 +79985,7 @@
         <v>12.263422539398233</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="17">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -80005,7 +80001,7 @@
         <v>12.261648633963835</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="17">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -80021,7 +80017,7 @@
         <v>12.259654015442178</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="17">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -80037,7 +80033,7 @@
         <v>12.257668504767654</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="17">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -80053,7 +80049,7 @@
         <v>12.255828712752239</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="17">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -80069,7 +80065,7 @@
         <v>12.25395183001871</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="17">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -80085,7 +80081,7 @@
         <v>12.251834024712545</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="17">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -80101,7 +80097,7 @@
         <v>12.249431684339894</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="17">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -80117,7 +80113,7 @@
         <v>12.24708533751294</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="17">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -80133,7 +80129,7 @@
         <v>12.24465946981584</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="17">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -80149,7 +80145,7 @@
         <v>12.242559112400523</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="17">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -80165,7 +80161,7 @@
         <v>12.240378487619356</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="17">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -80181,7 +80177,7 @@
         <v>12.238431331919983</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="17">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -80197,7 +80193,7 @@
         <v>12.236537512741592</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="17">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -80213,7 +80209,7 @@
         <v>12.234496225831254</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="17">
         <f t="shared" ref="A452:A460" si="4">A451+1</f>
         <v>450</v>
@@ -80229,7 +80225,7 @@
         <v>12.232330679173851</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="17">
         <f t="shared" si="4"/>
         <v>451</v>
@@ -80245,7 +80241,7 @@
         <v>12.229953005494972</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="17">
         <f t="shared" si="4"/>
         <v>452</v>
@@ -80261,7 +80257,7 @@
         <v>12.228138949841222</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="17">
         <f t="shared" si="4"/>
         <v>453</v>
@@ -80277,7 +80273,7 @@
         <v>12.226399127832742</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="17">
         <f t="shared" si="4"/>
         <v>454</v>
@@ -80293,7 +80289,7 @@
         <v>12.22446873411505</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="17">
         <f t="shared" si="4"/>
         <v>455</v>
@@ -80309,7 +80305,7 @@
         <v>12.222546825644468</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="17">
         <f t="shared" si="4"/>
         <v>456</v>
@@ -80325,7 +80321,7 @@
         <v>12.220370186860158</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="17">
         <f t="shared" si="4"/>
         <v>457</v>
@@ -80341,7 +80337,7 @@
         <v>12.218159311265278</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="17">
         <f t="shared" si="4"/>
         <v>458</v>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1&amp;2" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1148,78 +1148,6 @@
     <t xml:space="preserve">2023/1/20
 </t>
   </si>
-  <si>
-    <t xml:space="preserve">2023/2/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/24
-</t>
-  </si>
 </sst>
 </file>
 
@@ -1823,454 +1751,454 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,448 +2213,448 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88000</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90000</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92000</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94000</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96000</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98000</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100000</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102000</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104000</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106000</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108000</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110000</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112000</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114000</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116000</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118000</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>120000</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122000</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124000</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>126000</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128000</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>130000</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132000</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>134000</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136000</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>138000</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>140000</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142000</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>144000</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>146000</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148000</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>150000</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>152000</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>154000</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>156000</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>158000</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>160000</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>162000</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>164000</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>166000</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>168000</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>170000</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172000</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174000</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176000</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>178000</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>180000</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>182000</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>184000</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>186000</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188000</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190000</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>192000</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194000</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196000</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198000</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>200000</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>202000</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>204000</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>206000</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>208000</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>210000</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>212000</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>214000</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>216000</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>218000</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>220000</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>222000</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>224000</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>226000</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>228000</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>230000</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>232000</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>234000</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>236000</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>238000</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>240000</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>242000</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>244000</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>246000</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>248000</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>250000</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>252000</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>254000</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>256000</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>258000</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>260000</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>262000</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>264000</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>266000</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>268000</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>270000</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>272000</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>274000</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>276000</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>278000</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>280000</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>282000</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>284000</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>286000</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>288000</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>290000</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>292000</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>294000</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>296000</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>298000</c:v>
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,454 +2696,454 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,451 +3155,451 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,454 +3641,454 @@
             <c:numRef>
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,454 +4097,454 @@
             <c:numRef>
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>16.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>14.94</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>13.310000419616699</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>13.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>12.899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>12.840000152587891</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>12.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>12.949999809265137</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>12.039999961853027</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>12.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>11.460000040000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>11.14000034</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>10.93999958</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>12.100000380000001</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>11.239999770000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>11.100000380000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>10.3500003814697</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>9.3900003430000005</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>10.380000109999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>10.72999954</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>11.39000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,17 +4566,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34945664"/>
-        <c:axId val="34999296"/>
+        <c:axId val="224825728"/>
+        <c:axId val="224827264"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="34945664"/>
+      <c:catAx>
+        <c:axId val="224825728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4685,14 +4613,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34999296"/>
+        <c:crossAx val="224827264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="34999296"/>
+        <c:axId val="224827264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4672,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34945664"/>
+        <c:crossAx val="224825728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -65309,7 +65238,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -65527,19 +65456,19 @@
         <v>8000</v>
       </c>
       <c r="N4" s="4">
-        <f>VLOOKUP(L4,A:G,7,)</f>
+        <f t="shared" ref="N4:N16" si="7">VLOOKUP(L4,A:G,7,)</f>
         <v>8000</v>
       </c>
       <c r="O4" s="4">
-        <f>VLOOKUP(L4,A:H,8,)</f>
+        <f t="shared" ref="O4:O16" si="8">VLOOKUP(L4,A:H,8,)</f>
         <v>7908.6759332370966</v>
       </c>
       <c r="P4" s="4">
-        <f>VLOOKUP(L4,A:I,9,)</f>
+        <f t="shared" ref="P4:P16" si="9">VLOOKUP(L4,A:I,9,)</f>
         <v>-91.324066762903385</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" ref="Q4:Q13" si="7">(O4-N4)/N4</f>
+        <f t="shared" ref="Q4:Q13" si="10">(O4-N4)/N4</f>
         <v>-1.1415508345362924E-2</v>
       </c>
       <c r="R4" s="7">
@@ -65565,7 +65494,7 @@
         <v>24000</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y5" si="8">-X4</f>
+        <f t="shared" ref="Y4:Y5" si="11">-X4</f>
         <v>-24000</v>
       </c>
       <c r="Z4" s="29">
@@ -65576,7 +65505,7 @@
         <v>24000</v>
       </c>
       <c r="AB4" s="1">
-        <f t="shared" ref="AB4:AB6" si="9">-AA4</f>
+        <f t="shared" ref="AB4:AB6" si="12">-AA4</f>
         <v>-24000</v>
       </c>
     </row>
@@ -65624,23 +65553,23 @@
         <v>40907</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M13" si="10">N5-N4</f>
+        <f t="shared" ref="M5:M13" si="13">N5-N4</f>
         <v>24000</v>
       </c>
       <c r="N5" s="4">
-        <f>VLOOKUP(L5,A:G,7,)</f>
+        <f t="shared" si="7"/>
         <v>32000</v>
       </c>
       <c r="O5" s="4">
-        <f>VLOOKUP(L5,A:H,8,)</f>
+        <f t="shared" si="8"/>
         <v>25685.572979740344</v>
       </c>
       <c r="P5" s="4">
-        <f>VLOOKUP(L5,A:I,9,)</f>
+        <f t="shared" si="9"/>
         <v>-6314.4270202596563</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-0.19732584438311426</v>
       </c>
       <c r="R5" s="7">
@@ -65662,7 +65591,7 @@
         <v>24000</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z5" s="29">
@@ -65673,7 +65602,7 @@
         <v>24000</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -65721,23 +65650,23 @@
         <v>41274</v>
       </c>
       <c r="M6" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="7"/>
+        <v>56000</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="8"/>
+        <v>52348.707732068309</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="9"/>
+        <v>-3651.2922679316907</v>
+      </c>
+      <c r="Q6" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N6" s="4">
-        <f>VLOOKUP(L6,A:G,7,)</f>
-        <v>56000</v>
-      </c>
-      <c r="O6" s="4">
-        <f>VLOOKUP(L6,A:H,8,)</f>
-        <v>52348.707732068309</v>
-      </c>
-      <c r="P6" s="4">
-        <f>VLOOKUP(L6,A:I,9,)</f>
-        <v>-3651.2922679316907</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="7"/>
         <v>-6.5201647641637328E-2</v>
       </c>
       <c r="R6" s="7">
@@ -65763,7 +65692,7 @@
         <v>24000</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -65811,23 +65740,23 @@
         <v>41639</v>
       </c>
       <c r="M7" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="7"/>
+        <v>80000</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="8"/>
+        <v>82813.626416639017</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="9"/>
+        <v>2813.6264166390174</v>
+      </c>
+      <c r="Q7" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N7" s="4">
-        <f>VLOOKUP(L7,A:G,7,)</f>
-        <v>80000</v>
-      </c>
-      <c r="O7" s="4">
-        <f>VLOOKUP(L7,A:H,8,)</f>
-        <v>82813.626416639017</v>
-      </c>
-      <c r="P7" s="4">
-        <f>VLOOKUP(L7,A:I,9,)</f>
-        <v>2813.6264166390174</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="7"/>
         <v>3.5170330207987717E-2</v>
       </c>
       <c r="R7" s="7">
@@ -65890,23 +65819,23 @@
         <v>42004</v>
       </c>
       <c r="M8" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="7"/>
+        <v>104000</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="8"/>
+        <v>153292.71467382699</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="9"/>
+        <v>49292.714673826995</v>
+      </c>
+      <c r="Q8" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N8" s="4">
-        <f>VLOOKUP(L8,A:G,7,)</f>
-        <v>104000</v>
-      </c>
-      <c r="O8" s="4">
-        <f>VLOOKUP(L8,A:H,8,)</f>
-        <v>153292.71467382699</v>
-      </c>
-      <c r="P8" s="4">
-        <f>VLOOKUP(L8,A:I,9,)</f>
-        <v>49292.714673826995</v>
-      </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="7"/>
         <v>0.47396841032525955</v>
       </c>
       <c r="R8" s="7">
@@ -65962,23 +65891,23 @@
         <v>42369</v>
       </c>
       <c r="M9" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="7"/>
+        <v>128000</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="8"/>
+        <v>214081.38004669495</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="9"/>
+        <v>86081.380046694947</v>
+      </c>
+      <c r="Q9" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N9" s="4">
-        <f>VLOOKUP(L9,A:G,7,)</f>
-        <v>128000</v>
-      </c>
-      <c r="O9" s="4">
-        <f>VLOOKUP(L9,A:H,8,)</f>
-        <v>214081.38004669495</v>
-      </c>
-      <c r="P9" s="4">
-        <f>VLOOKUP(L9,A:I,9,)</f>
-        <v>86081.380046694947</v>
-      </c>
-      <c r="Q9" s="7">
-        <f t="shared" si="7"/>
         <v>0.67251078161480426</v>
       </c>
       <c r="R9" s="7">
@@ -66000,7 +65929,7 @@
         <v>40543</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" ref="X9:X14" si="11">VLOOKUP(W9,L:M,2)</f>
+        <f t="shared" ref="X9:X14" si="14">VLOOKUP(W9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y9" s="1">
@@ -66011,7 +65940,7 @@
         <v>40543</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" ref="AA9:AA15" si="12">VLOOKUP(Z9,L:M,2)</f>
+        <f t="shared" ref="AA9:AA15" si="15">VLOOKUP(Z9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB9" s="1">
@@ -66063,23 +65992,23 @@
         <v>42734</v>
       </c>
       <c r="M10" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="7"/>
+        <v>152000</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="8"/>
+        <v>226023.31414810085</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="9"/>
+        <v>74023.31414810085</v>
+      </c>
+      <c r="Q10" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N10" s="4">
-        <f>VLOOKUP(L10,A:G,7,)</f>
-        <v>152000</v>
-      </c>
-      <c r="O10" s="4">
-        <f>VLOOKUP(L10,A:H,8,)</f>
-        <v>226023.31414810085</v>
-      </c>
-      <c r="P10" s="4">
-        <f>VLOOKUP(L10,A:I,9,)</f>
-        <v>74023.31414810085</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="7"/>
         <v>0.48699548781645297</v>
       </c>
       <c r="R10" s="7">
@@ -66094,29 +66023,29 @@
         <v>24000</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10:V13" si="13">-U10</f>
+        <f t="shared" ref="V10:V13" si="16">-U10</f>
         <v>-24000</v>
       </c>
       <c r="W10" s="29">
         <v>40907</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ref="Y10:Y14" si="14">-X10</f>
+        <f t="shared" ref="Y10:Y14" si="17">-X10</f>
         <v>-24000</v>
       </c>
       <c r="Z10" s="29">
         <v>40907</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" ref="AB10:AB15" si="15">-AA10</f>
+        <f t="shared" ref="AB10:AB15" si="18">-AA10</f>
         <v>-24000</v>
       </c>
     </row>
@@ -66164,23 +66093,23 @@
         <v>43098</v>
       </c>
       <c r="M11" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="7"/>
+        <v>176000</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="8"/>
+        <v>315263.01815480401</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="9"/>
+        <v>139263.01815480401</v>
+      </c>
+      <c r="Q11" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N11" s="4">
-        <f>VLOOKUP(L11,A:G,7,)</f>
-        <v>176000</v>
-      </c>
-      <c r="O11" s="4">
-        <f>VLOOKUP(L11,A:H,8,)</f>
-        <v>315263.01815480401</v>
-      </c>
-      <c r="P11" s="4">
-        <f>VLOOKUP(L11,A:I,9,)</f>
-        <v>139263.01815480401</v>
-      </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="7"/>
         <v>0.791267148606841</v>
       </c>
       <c r="R11" s="7">
@@ -66195,29 +66124,29 @@
         <v>24000</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W11" s="29">
         <v>41274</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z11" s="29">
         <v>41274</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66265,23 +66194,23 @@
         <v>43462</v>
       </c>
       <c r="M12" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="7"/>
+        <v>200000</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="8"/>
+        <v>257772.87391023306</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="9"/>
+        <v>57772.873910233058</v>
+      </c>
+      <c r="Q12" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N12" s="4">
-        <f>VLOOKUP(L12,A:G,7,)</f>
-        <v>200000</v>
-      </c>
-      <c r="O12" s="4">
-        <f>VLOOKUP(L12,A:H,8,)</f>
-        <v>257772.87391023306</v>
-      </c>
-      <c r="P12" s="4">
-        <f>VLOOKUP(L12,A:I,9,)</f>
-        <v>57772.873910233058</v>
-      </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="7"/>
         <v>0.28886436955116529</v>
       </c>
       <c r="R12" s="7">
@@ -66296,29 +66225,29 @@
         <v>24000</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W12" s="29">
         <v>41639</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z12" s="29">
         <v>41639</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66366,23 +66295,23 @@
         <v>43830</v>
       </c>
       <c r="M13" s="8">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="7"/>
+        <v>224000</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="8"/>
+        <v>362098.05834678403</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="9"/>
+        <v>138098.05834678403</v>
+      </c>
+      <c r="Q13" s="7">
         <f t="shared" si="10"/>
-        <v>24000</v>
-      </c>
-      <c r="N13" s="4">
-        <f>VLOOKUP(L13,A:G,7,)</f>
-        <v>224000</v>
-      </c>
-      <c r="O13" s="4">
-        <f>VLOOKUP(L13,A:H,8,)</f>
-        <v>362098.05834678403</v>
-      </c>
-      <c r="P13" s="4">
-        <f>VLOOKUP(L13,A:I,9,)</f>
-        <v>138098.05834678403</v>
-      </c>
-      <c r="Q13" s="7">
-        <f t="shared" si="7"/>
         <v>0.616509189048143</v>
       </c>
       <c r="R13" s="7">
@@ -66397,29 +66326,29 @@
         <v>24000</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W13" s="29">
         <v>42004</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z13" s="29">
         <v>42004</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66471,19 +66400,19 @@
         <v>24000</v>
       </c>
       <c r="N14" s="4">
-        <f>VLOOKUP(L14,A:G,7,)</f>
+        <f t="shared" si="7"/>
         <v>248000</v>
       </c>
       <c r="O14" s="4">
-        <f>VLOOKUP(L14,A:H,8,)</f>
+        <f t="shared" si="8"/>
         <v>501442.15123802173</v>
       </c>
       <c r="P14" s="4">
-        <f>VLOOKUP(L14,A:I,9,)</f>
+        <f t="shared" si="9"/>
         <v>253442.15123802173</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" ref="Q14" si="16">(O14-N14)/N14</f>
+        <f t="shared" ref="Q14" si="19">(O14-N14)/N14</f>
         <v>1.0219441582178295</v>
       </c>
       <c r="R14" s="7">
@@ -66501,22 +66430,22 @@
         <v>42369</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z14" s="29">
         <v>42369</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66568,19 +66497,19 @@
         <v>24000</v>
       </c>
       <c r="N15" s="4">
-        <f>VLOOKUP(L15,A:G,7,)</f>
+        <f t="shared" si="7"/>
         <v>272000</v>
       </c>
       <c r="O15" s="4">
-        <f>VLOOKUP(L15,A:H,8,)</f>
+        <f t="shared" si="8"/>
         <v>507834.42040464858</v>
       </c>
       <c r="P15" s="4">
-        <f>VLOOKUP(L15,A:I,9,)</f>
+        <f t="shared" si="9"/>
         <v>235834.42040464858</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" ref="Q15:Q16" si="17">(O15-N15)/N15</f>
+        <f t="shared" ref="Q15:Q16" si="20">(O15-N15)/N15</f>
         <v>0.86703831031120804</v>
       </c>
       <c r="R15" s="7">
@@ -66602,11 +66531,11 @@
         <v>42734</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
     </row>
@@ -66658,19 +66587,19 @@
         <v>24000</v>
       </c>
       <c r="N16" s="4">
-        <f>VLOOKUP(L16,A:G,7,)</f>
+        <f t="shared" si="7"/>
         <v>296000</v>
       </c>
       <c r="O16" s="4">
-        <f>VLOOKUP(L16,A:H,8,)</f>
+        <f t="shared" si="8"/>
         <v>429691.15630892606</v>
       </c>
       <c r="P16" s="4">
-        <f>VLOOKUP(L16,A:I,9,)</f>
+        <f t="shared" si="9"/>
         <v>133691.15630892606</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.45165931185447994</v>
       </c>
       <c r="R16" s="7">
@@ -66777,7 +66706,7 @@
         <v>40543</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ref="U18:U25" si="18">VLOOKUP(T18,L:M,2)</f>
+        <f t="shared" ref="U18:U25" si="21">VLOOKUP(T18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V18" s="1">
@@ -66788,7 +66717,7 @@
         <v>40543</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" ref="X18:X26" si="19">VLOOKUP(W18,L:M,2)</f>
+        <f t="shared" ref="X18:X26" si="22">VLOOKUP(W18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y18" s="1">
@@ -66799,7 +66728,7 @@
         <v>40543</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" ref="AA18:AA27" si="20">VLOOKUP(Z18,L:M,2)</f>
+        <f t="shared" ref="AA18:AA27" si="23">VLOOKUP(Z18,L: